--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\SC-K16_成形実績参照画面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9067A34-9FBE-4023-9F35-0F6B02D9AD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A5E9B-DC4F-433C-B6FB-6D5CB292CF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,9 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'１．機能概要'!$A$1:$BG$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'１．機能概要'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'２．レイアウト'!$1:$3</definedName>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="378">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1007,44 +1007,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>HEAD-004</t>
-  </si>
-  <si>
-    <t>検索時間</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="32"/>
-  </si>
-  <si>
-    <t>Search time</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>YYYY/MM/DD HH:MM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索日時を表示する</t>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>HEAD-002</t>
   </si>
   <si>
@@ -1300,9 +1262,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>BETWEEN</t>
-  </si>
-  <si>
     <t>画面．実績日(始点)</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1352,18 +1311,6 @@
   </si>
   <si>
     <t>・作業計画データ.金型番号</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・SUM(作業計画データ.作業指示数量) </t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・SUM(実績数量.完成数) </t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・SUM(実績数量.不良数) </t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -1595,11 +1542,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「範囲検索」(Range search)
-「過去検索」(Past search)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>範囲検索</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1638,22 +1580,6 @@
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>作業実績明細画面を開く。</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1967,55 +1893,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>品種が空欄の場合、品名が非活性である。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンシュ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カッセイ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>範囲検索の場合のみ表示</t>
-    <rPh sb="0" eb="2">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>範囲検索の場合のみ表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>過去検索の場合のみ表示</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>実績管理データの作業年月日の年月</t>
     <rPh sb="14" eb="16">
       <t>ネンゲツ</t>
@@ -2082,14 +1959,6 @@
   </si>
   <si>
     <t>Failure rate</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Actual data(From)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Actual data(To)</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2168,32 +2037,7 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t xml:space="preserve">・SUM(実績数量.着手数) </t>
-    <rPh sb="10" eb="12">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・SUM(実績数量.調整数) </t>
-    <rPh sb="10" eb="12">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>・その他払出.その他払出数</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・ISNULL(ROUND((SUM(実績数量.完成数) /NULLIF(SUM(実績数量.着手数),0))*100,2),0)</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・ISNULL(ROUND(((SUM(実績数量.不良数) + SUM(実績数量.調整数)) /NULLIF(SUM(実績数量.着手数),0))*100,2),0)</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -2201,46 +2045,12 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>ON 実績管理データ.事業所コード=作業計画データ.事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.品名コード=作業計画データ.品名コード</t>
-  </si>
-  <si>
     <t>・LEFT JOIN 実績数量</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>ON 実績管理データ.事業所コード=実績数量.事業所コード</t>
-  </si>
-  <si>
     <t>・LEFT JOIN 生産品名マスタ</t>
     <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.作番=実績数量.作番</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ON 実績管理データ.品名事業所コード=生産品名マスタ.品名事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.パック品名略称=生産品名マスタ.パック品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.納入先コード=生産品名マスタ.納入先コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.納入区分=生産品名マスタ.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.製品半製品区分=生産品名マスタ.製品半製品区分</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・LEFT JOIN 設備マスタ</t>
@@ -2250,24 +2060,8 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>ON 実績管理データ.事業所コード=設備マスタ.事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.設備NO=設備マスタ.設備NO</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・LEFT JOIN コードマスタ</t>
     <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ON 作業計画データ.金型番号=コードマスタ.コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND コードマスタ.コード区分='MOLD'</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・LEFT JOIN その他払出(※1)</t>
@@ -2278,9 +2072,6 @@
       <t>ハライダシ</t>
     </rPh>
     <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ON　実績管理データ.品名コード=その他払出.品名コード</t>
   </si>
   <si>
     <t>・実績管理データ.事業所コード</t>
@@ -2317,104 +2108,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>'20'</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>合計行の場合、検索条件部の金型番号、設備コード、実績日(From)、実績日(To)又は実績月を進捗明細画面に渡す。</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ジッセキゲツ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>明細行の場合、選択行の品名コード、品名略称、金型番号、設備コード、検索条件部の実績日(From)、実績日(To)又は実績月を進捗明細画面に渡す。</t>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>リャクショウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 実績管理データ.作番=作業計画データ.作番</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コードマスタ（コード区分="MOLD"）のコード名称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>大工程コード='20'</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・生産品名マスタ.大工程コード='20'
-・変更すると、品名再作成</t>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2579,10 +2273,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>'20'</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>・受払年月日</t>
     <rPh sb="1" eb="3">
       <t>ウケハライ</t>
@@ -2594,10 +2284,6 @@
   </si>
   <si>
     <t>・受払区分</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>'8'</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -2633,6 +2319,391 @@
     <t>受払データ</t>
     <phoneticPr fontId="22"/>
   </si>
+  <si>
+    <t>Actual date(From)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Actual date(To)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大工程コード='20'(成形仕上)</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・生産品名マスタ.大工程コード='20'(成形仕上)
+・変更すると、品名再作成</t>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・SUM(作業計画データ.作業指示数量) AS 指示数</t>
+    <rPh sb="24" eb="26">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・SUM(実績数量.着手数) AS ショット数</t>
+    <rPh sb="10" eb="12">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・SUM(実績数量.完成数) AS 合格数</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・SUM(実績数量.不良数) AS 不良数</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・ISNULL(ROUND((SUM(実績数量.完成数) /NULLIF(SUM(実績数量.着手数),0))*100,2),0) AS 合格率</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・ISNULL(ROUND(((SUM(実績数量.不良数) + SUM(実績数量.調整数)) /NULLIF(SUM(実績数量.着手数),0))*100,2),0) AS 不良率</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>作業計画データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 実績管理データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.作番</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作業計画データ.作番</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.品名コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作業計画データ.品名コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績数量.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績数量.作番</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 実績管理データ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備マスタ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 実績管理データ.設備NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備マスタ.設備NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 作業計画データ.金型番号</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コードマスタ.コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND コードマスタ.コード区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON　実績管理データ.品名コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他払出.品名コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BETWEEN</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パラメータを渡して、作業実績明細画面を開く。</t>
+    <rPh sb="10" eb="12">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>明細行の場合、選択行の品名コード、品名略称、金型番号、設備コード、検索条件部の実績日(From)、実績日(To)又は実績月</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計行の場合、検索条件部の金型番号、設備コード、実績日(From)、実績日(To)又は実績月</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ジッセキゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>①品種が空欄の場合、品名が非活性である。品種が空欄以外の場合、品名が活性である。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>「Range search(範囲検索)」
+「Past search(過去検索)」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②範囲検索の場合、実績日(From)、実績日(To)が活性で、実績月が非活性である。</t>
+    <rPh sb="1" eb="3">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   過去検索の場合、実績日(From)、実績日(To)が非活性で、実績月が活性である。</t>
+    <rPh sb="3" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・SUM(実績数量.調整数) AS 調整数</t>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・期間は最大1ヶ月まで
+・前々月以前の日付を選択不可</t>
+    <rPh sb="24" eb="26">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・期間は最大2ヶ月まで
+・前々月以前の日付を選択不可</t>
+    <rPh sb="24" eb="26">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産製品マスタ.品種コード=画面.品種コード</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒンシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'20'：成形仕上</t>
+  </si>
+  <si>
+    <t>'20'：成形仕上</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'MOLD'：金型番号</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'8'：その他払出</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
@@ -2643,7 +2714,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2862,12 +2933,6 @@
       <name val="Microsoft YaHei"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3119,7 +3184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -3477,6 +3542,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4743,15 +4811,15 @@
     <xdr:to>
       <xdr:col>91</xdr:col>
       <xdr:colOff>103400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>189726</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986AC6EC-71AE-42EC-9C55-C8769629C7E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186A2651-E62B-4339-BE93-7CFF93A0479A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4768,7 +4836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="11000000" cy="6190476"/>
+          <a:ext cx="11000000" cy="6209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5466,108 +5534,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="126"/>
-      <c r="AF32" s="126"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="126"/>
-      <c r="AJ32" s="126"/>
-      <c r="AK32" s="126"/>
-      <c r="AL32" s="126"/>
-      <c r="AM32" s="126"/>
-      <c r="AN32" s="126"/>
-      <c r="AO32" s="126"/>
-      <c r="AP32" s="126"/>
-      <c r="AQ32" s="126"/>
-      <c r="AR32" s="126"/>
-      <c r="AS32" s="126"/>
-      <c r="AT32" s="126"/>
-      <c r="AU32" s="126"/>
-      <c r="AV32" s="126"/>
-      <c r="AW32" s="126"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="127"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="127"/>
+      <c r="AP32" s="127"/>
+      <c r="AQ32" s="127"/>
+      <c r="AR32" s="127"/>
+      <c r="AS32" s="127"/>
+      <c r="AT32" s="127"/>
+      <c r="AU32" s="127"/>
+      <c r="AV32" s="127"/>
+      <c r="AW32" s="127"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="127"/>
-      <c r="AJ33" s="127"/>
-      <c r="AK33" s="127"/>
-      <c r="AL33" s="127"/>
-      <c r="AM33" s="127"/>
-      <c r="AN33" s="127"/>
-      <c r="AO33" s="127"/>
-      <c r="AP33" s="127"/>
-      <c r="AQ33" s="127"/>
-      <c r="AR33" s="127"/>
-      <c r="AS33" s="127"/>
-      <c r="AT33" s="127"/>
-      <c r="AU33" s="127"/>
-      <c r="AV33" s="127"/>
-      <c r="AW33" s="127"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="128"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="128"/>
+      <c r="AO33" s="128"/>
+      <c r="AP33" s="128"/>
+      <c r="AQ33" s="128"/>
+      <c r="AR33" s="128"/>
+      <c r="AS33" s="128"/>
+      <c r="AT33" s="128"/>
+      <c r="AU33" s="128"/>
+      <c r="AV33" s="128"/>
+      <c r="AW33" s="128"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5605,55 +5673,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="128"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="128"/>
-      <c r="AD35" s="128"/>
-      <c r="AE35" s="128"/>
-      <c r="AF35" s="128"/>
-      <c r="AG35" s="128"/>
-      <c r="AH35" s="128"/>
-      <c r="AI35" s="128"/>
-      <c r="AJ35" s="128"/>
-      <c r="AK35" s="128"/>
-      <c r="AL35" s="128"/>
-      <c r="AM35" s="128"/>
-      <c r="AN35" s="128"/>
-      <c r="AO35" s="128"/>
-      <c r="AP35" s="128"/>
-      <c r="AQ35" s="128"/>
-      <c r="AR35" s="128"/>
-      <c r="AS35" s="128"/>
-      <c r="AT35" s="128"/>
-      <c r="AU35" s="128"/>
-      <c r="AV35" s="128"/>
-      <c r="AW35" s="128"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="129"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="129"/>
+      <c r="AE35" s="129"/>
+      <c r="AF35" s="129"/>
+      <c r="AG35" s="129"/>
+      <c r="AH35" s="129"/>
+      <c r="AI35" s="129"/>
+      <c r="AJ35" s="129"/>
+      <c r="AK35" s="129"/>
+      <c r="AL35" s="129"/>
+      <c r="AM35" s="129"/>
+      <c r="AN35" s="129"/>
+      <c r="AO35" s="129"/>
+      <c r="AP35" s="129"/>
+      <c r="AQ35" s="129"/>
+      <c r="AR35" s="129"/>
+      <c r="AS35" s="129"/>
+      <c r="AT35" s="129"/>
+      <c r="AU35" s="129"/>
+      <c r="AV35" s="129"/>
+      <c r="AW35" s="129"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5688,1767 +5756,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="160"/>
-      <c r="AO1" s="160"/>
-      <c r="AP1" s="160"/>
-      <c r="AQ1" s="160"/>
-      <c r="AR1" s="160"/>
-      <c r="AS1" s="160"/>
-      <c r="AT1" s="160"/>
-      <c r="AU1" s="160"/>
-      <c r="AV1" s="160"/>
-      <c r="AW1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="161"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="161"/>
-      <c r="AD2" s="161"/>
-      <c r="AE2" s="161"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="161"/>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="161"/>
-      <c r="AJ2" s="161"/>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
-      <c r="AT2" s="161"/>
-      <c r="AU2" s="161"/>
-      <c r="AV2" s="161"/>
-      <c r="AW2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="163" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="162" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162" t="s">
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="162"/>
-      <c r="AN3" s="162" t="s">
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="162"/>
-      <c r="AP3" s="162"/>
-      <c r="AQ3" s="162"/>
-      <c r="AR3" s="162"/>
-      <c r="AS3" s="162" t="s">
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="162"/>
-      <c r="AU3" s="162"/>
-      <c r="AV3" s="162"/>
-      <c r="AW3" s="162"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="162"/>
-      <c r="AU4" s="162"/>
-      <c r="AV4" s="162"/>
-      <c r="AW4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="154">
+      <c r="B5" s="155">
         <v>1</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="135">
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="136">
         <v>43734</v>
       </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="136" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="142" t="s">
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="153" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="153"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="153"/>
-      <c r="AK5" s="153"/>
-      <c r="AL5" s="153"/>
-      <c r="AM5" s="153"/>
-      <c r="AN5" s="142" t="s">
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="154"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="154"/>
+      <c r="AB5" s="154"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="154"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="142"/>
-      <c r="AQ5" s="142"/>
-      <c r="AR5" s="142"/>
-      <c r="AS5" s="142"/>
-      <c r="AT5" s="142"/>
-      <c r="AU5" s="142"/>
-      <c r="AV5" s="142"/>
-      <c r="AW5" s="142"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="153"/>
-      <c r="AI6" s="153"/>
-      <c r="AJ6" s="153"/>
-      <c r="AK6" s="153"/>
-      <c r="AL6" s="153"/>
-      <c r="AM6" s="153"/>
-      <c r="AN6" s="142"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="142"/>
-      <c r="AU6" s="142"/>
-      <c r="AV6" s="142"/>
-      <c r="AW6" s="142"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
+      <c r="AE6" s="154"/>
+      <c r="AF6" s="154"/>
+      <c r="AG6" s="154"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="154"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="154"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="153"/>
-      <c r="AI7" s="153"/>
-      <c r="AJ7" s="153"/>
-      <c r="AK7" s="153"/>
-      <c r="AL7" s="153"/>
-      <c r="AM7" s="153"/>
-      <c r="AN7" s="142"/>
-      <c r="AO7" s="142"/>
-      <c r="AP7" s="142"/>
-      <c r="AQ7" s="142"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="142"/>
-      <c r="AT7" s="142"/>
-      <c r="AU7" s="142"/>
-      <c r="AV7" s="142"/>
-      <c r="AW7" s="142"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="154"/>
+      <c r="AD7" s="154"/>
+      <c r="AE7" s="154"/>
+      <c r="AF7" s="154"/>
+      <c r="AG7" s="154"/>
+      <c r="AH7" s="154"/>
+      <c r="AI7" s="154"/>
+      <c r="AJ7" s="154"/>
+      <c r="AK7" s="154"/>
+      <c r="AL7" s="154"/>
+      <c r="AM7" s="154"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="153"/>
-      <c r="AG8" s="153"/>
-      <c r="AH8" s="153"/>
-      <c r="AI8" s="153"/>
-      <c r="AJ8" s="153"/>
-      <c r="AK8" s="153"/>
-      <c r="AL8" s="153"/>
-      <c r="AM8" s="153"/>
-      <c r="AN8" s="142"/>
-      <c r="AO8" s="142"/>
-      <c r="AP8" s="142"/>
-      <c r="AQ8" s="142"/>
-      <c r="AR8" s="142"/>
-      <c r="AS8" s="142"/>
-      <c r="AT8" s="142"/>
-      <c r="AU8" s="142"/>
-      <c r="AV8" s="142"/>
-      <c r="AW8" s="142"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="154"/>
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="154"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="153"/>
-      <c r="AK9" s="153"/>
-      <c r="AL9" s="153"/>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="142"/>
-      <c r="AO9" s="142"/>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="142"/>
-      <c r="AS9" s="142"/>
-      <c r="AT9" s="142"/>
-      <c r="AU9" s="142"/>
-      <c r="AV9" s="142"/>
-      <c r="AW9" s="142"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="154"/>
+      <c r="AK9" s="154"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="154"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="153"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="153"/>
-      <c r="AM10" s="153"/>
-      <c r="AN10" s="142"/>
-      <c r="AO10" s="142"/>
-      <c r="AP10" s="142"/>
-      <c r="AQ10" s="142"/>
-      <c r="AR10" s="142"/>
-      <c r="AS10" s="142"/>
-      <c r="AT10" s="142"/>
-      <c r="AU10" s="142"/>
-      <c r="AV10" s="142"/>
-      <c r="AW10" s="142"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="154"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="154"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="155"/>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="155"/>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="142"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="142"/>
-      <c r="AQ11" s="142"/>
-      <c r="AR11" s="142"/>
-      <c r="AS11" s="142"/>
-      <c r="AT11" s="142"/>
-      <c r="AU11" s="142"/>
-      <c r="AV11" s="142"/>
-      <c r="AW11" s="142"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="144"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="144"/>
-      <c r="AH12" s="144"/>
-      <c r="AI12" s="144"/>
-      <c r="AJ12" s="144"/>
-      <c r="AK12" s="144"/>
-      <c r="AL12" s="144"/>
-      <c r="AM12" s="145"/>
-      <c r="AN12" s="129"/>
-      <c r="AO12" s="130"/>
-      <c r="AP12" s="130"/>
-      <c r="AQ12" s="130"/>
-      <c r="AR12" s="131"/>
-      <c r="AS12" s="129"/>
-      <c r="AT12" s="130"/>
-      <c r="AU12" s="130"/>
-      <c r="AV12" s="130"/>
-      <c r="AW12" s="131"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
+      <c r="AK12" s="145"/>
+      <c r="AL12" s="145"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="132"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="131"/>
+      <c r="AU12" s="131"/>
+      <c r="AV12" s="131"/>
+      <c r="AW12" s="132"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="143"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="144"/>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="144"/>
-      <c r="AL13" s="144"/>
-      <c r="AM13" s="145"/>
-      <c r="AN13" s="129"/>
-      <c r="AO13" s="130"/>
-      <c r="AP13" s="130"/>
-      <c r="AQ13" s="130"/>
-      <c r="AR13" s="131"/>
-      <c r="AS13" s="129"/>
-      <c r="AT13" s="130"/>
-      <c r="AU13" s="130"/>
-      <c r="AV13" s="130"/>
-      <c r="AW13" s="131"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="145"/>
+      <c r="AM13" s="146"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="131"/>
+      <c r="AP13" s="131"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="132"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="131"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="131"/>
+      <c r="AW13" s="132"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="153"/>
-      <c r="AJ14" s="153"/>
-      <c r="AK14" s="153"/>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="142"/>
-      <c r="AO14" s="142"/>
-      <c r="AP14" s="142"/>
-      <c r="AQ14" s="142"/>
-      <c r="AR14" s="142"/>
-      <c r="AS14" s="129"/>
-      <c r="AT14" s="130"/>
-      <c r="AU14" s="130"/>
-      <c r="AV14" s="130"/>
-      <c r="AW14" s="131"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="154"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="154"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="131"/>
+      <c r="AU14" s="131"/>
+      <c r="AV14" s="131"/>
+      <c r="AW14" s="132"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="144"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="144"/>
-      <c r="AJ15" s="144"/>
-      <c r="AK15" s="144"/>
-      <c r="AL15" s="144"/>
-      <c r="AM15" s="145"/>
-      <c r="AN15" s="129"/>
-      <c r="AO15" s="130"/>
-      <c r="AP15" s="130"/>
-      <c r="AQ15" s="130"/>
-      <c r="AR15" s="131"/>
-      <c r="AS15" s="129"/>
-      <c r="AT15" s="130"/>
-      <c r="AU15" s="130"/>
-      <c r="AV15" s="130"/>
-      <c r="AW15" s="131"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="146"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="131"/>
+      <c r="AP15" s="131"/>
+      <c r="AQ15" s="131"/>
+      <c r="AR15" s="132"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="131"/>
+      <c r="AU15" s="131"/>
+      <c r="AV15" s="131"/>
+      <c r="AW15" s="132"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
-      <c r="Z16" s="144"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="144"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="144"/>
-      <c r="AJ16" s="144"/>
-      <c r="AK16" s="144"/>
-      <c r="AL16" s="144"/>
-      <c r="AM16" s="145"/>
-      <c r="AN16" s="129"/>
-      <c r="AO16" s="130"/>
-      <c r="AP16" s="130"/>
-      <c r="AQ16" s="130"/>
-      <c r="AR16" s="131"/>
-      <c r="AS16" s="129"/>
-      <c r="AT16" s="130"/>
-      <c r="AU16" s="130"/>
-      <c r="AV16" s="130"/>
-      <c r="AW16" s="131"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
+      <c r="AL16" s="145"/>
+      <c r="AM16" s="146"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="131"/>
+      <c r="AP16" s="131"/>
+      <c r="AQ16" s="131"/>
+      <c r="AR16" s="132"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="131"/>
+      <c r="AU16" s="131"/>
+      <c r="AV16" s="131"/>
+      <c r="AW16" s="132"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="144"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="144"/>
-      <c r="AJ17" s="144"/>
-      <c r="AK17" s="144"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="145"/>
-      <c r="AN17" s="129"/>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="130"/>
-      <c r="AQ17" s="130"/>
-      <c r="AR17" s="131"/>
-      <c r="AS17" s="129"/>
-      <c r="AT17" s="130"/>
-      <c r="AU17" s="130"/>
-      <c r="AV17" s="130"/>
-      <c r="AW17" s="131"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="146"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="131"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="131"/>
+      <c r="AR17" s="132"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="131"/>
+      <c r="AU17" s="131"/>
+      <c r="AV17" s="131"/>
+      <c r="AW17" s="132"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="144"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="144"/>
-      <c r="AJ18" s="144"/>
-      <c r="AK18" s="144"/>
-      <c r="AL18" s="144"/>
-      <c r="AM18" s="145"/>
-      <c r="AN18" s="129"/>
-      <c r="AO18" s="130"/>
-      <c r="AP18" s="130"/>
-      <c r="AQ18" s="130"/>
-      <c r="AR18" s="131"/>
-      <c r="AS18" s="129"/>
-      <c r="AT18" s="130"/>
-      <c r="AU18" s="130"/>
-      <c r="AV18" s="130"/>
-      <c r="AW18" s="131"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="130"/>
+      <c r="AO18" s="131"/>
+      <c r="AP18" s="131"/>
+      <c r="AQ18" s="131"/>
+      <c r="AR18" s="132"/>
+      <c r="AS18" s="130"/>
+      <c r="AT18" s="131"/>
+      <c r="AU18" s="131"/>
+      <c r="AV18" s="131"/>
+      <c r="AW18" s="132"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="143"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="144"/>
-      <c r="AJ19" s="144"/>
-      <c r="AK19" s="144"/>
-      <c r="AL19" s="144"/>
-      <c r="AM19" s="145"/>
-      <c r="AN19" s="142"/>
-      <c r="AO19" s="142"/>
-      <c r="AP19" s="142"/>
-      <c r="AQ19" s="142"/>
-      <c r="AR19" s="142"/>
-      <c r="AS19" s="129"/>
-      <c r="AT19" s="130"/>
-      <c r="AU19" s="130"/>
-      <c r="AV19" s="130"/>
-      <c r="AW19" s="131"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="145"/>
+      <c r="AL19" s="145"/>
+      <c r="AM19" s="146"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="130"/>
+      <c r="AT19" s="131"/>
+      <c r="AU19" s="131"/>
+      <c r="AV19" s="131"/>
+      <c r="AW19" s="132"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="144"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="144"/>
-      <c r="AJ20" s="144"/>
-      <c r="AK20" s="144"/>
-      <c r="AL20" s="144"/>
-      <c r="AM20" s="145"/>
-      <c r="AN20" s="129"/>
-      <c r="AO20" s="130"/>
-      <c r="AP20" s="130"/>
-      <c r="AQ20" s="130"/>
-      <c r="AR20" s="131"/>
-      <c r="AS20" s="129"/>
-      <c r="AT20" s="130"/>
-      <c r="AU20" s="130"/>
-      <c r="AV20" s="130"/>
-      <c r="AW20" s="131"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
+      <c r="AK20" s="145"/>
+      <c r="AL20" s="145"/>
+      <c r="AM20" s="146"/>
+      <c r="AN20" s="130"/>
+      <c r="AO20" s="131"/>
+      <c r="AP20" s="131"/>
+      <c r="AQ20" s="131"/>
+      <c r="AR20" s="132"/>
+      <c r="AS20" s="130"/>
+      <c r="AT20" s="131"/>
+      <c r="AU20" s="131"/>
+      <c r="AV20" s="131"/>
+      <c r="AW20" s="132"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="144"/>
-      <c r="AK21" s="144"/>
-      <c r="AL21" s="144"/>
-      <c r="AM21" s="145"/>
-      <c r="AN21" s="129"/>
-      <c r="AO21" s="130"/>
-      <c r="AP21" s="130"/>
-      <c r="AQ21" s="130"/>
-      <c r="AR21" s="131"/>
-      <c r="AS21" s="129"/>
-      <c r="AT21" s="130"/>
-      <c r="AU21" s="130"/>
-      <c r="AV21" s="130"/>
-      <c r="AW21" s="131"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="145"/>
+      <c r="AL21" s="145"/>
+      <c r="AM21" s="146"/>
+      <c r="AN21" s="130"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="131"/>
+      <c r="AR21" s="132"/>
+      <c r="AS21" s="130"/>
+      <c r="AT21" s="131"/>
+      <c r="AU21" s="131"/>
+      <c r="AV21" s="131"/>
+      <c r="AW21" s="132"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="143"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="144"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="144"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="144"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="144"/>
-      <c r="AJ22" s="144"/>
-      <c r="AK22" s="144"/>
-      <c r="AL22" s="144"/>
-      <c r="AM22" s="145"/>
-      <c r="AN22" s="129"/>
-      <c r="AO22" s="130"/>
-      <c r="AP22" s="130"/>
-      <c r="AQ22" s="130"/>
-      <c r="AR22" s="131"/>
-      <c r="AS22" s="129"/>
-      <c r="AT22" s="130"/>
-      <c r="AU22" s="130"/>
-      <c r="AV22" s="130"/>
-      <c r="AW22" s="131"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="145"/>
+      <c r="AL22" s="145"/>
+      <c r="AM22" s="146"/>
+      <c r="AN22" s="130"/>
+      <c r="AO22" s="131"/>
+      <c r="AP22" s="131"/>
+      <c r="AQ22" s="131"/>
+      <c r="AR22" s="132"/>
+      <c r="AS22" s="130"/>
+      <c r="AT22" s="131"/>
+      <c r="AU22" s="131"/>
+      <c r="AV22" s="131"/>
+      <c r="AW22" s="132"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="144"/>
-      <c r="AJ23" s="144"/>
-      <c r="AK23" s="144"/>
-      <c r="AL23" s="144"/>
-      <c r="AM23" s="145"/>
-      <c r="AN23" s="129"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="130"/>
-      <c r="AQ23" s="130"/>
-      <c r="AR23" s="131"/>
-      <c r="AS23" s="129"/>
-      <c r="AT23" s="130"/>
-      <c r="AU23" s="130"/>
-      <c r="AV23" s="130"/>
-      <c r="AW23" s="131"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="145"/>
+      <c r="AL23" s="145"/>
+      <c r="AM23" s="146"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="131"/>
+      <c r="AQ23" s="131"/>
+      <c r="AR23" s="132"/>
+      <c r="AS23" s="130"/>
+      <c r="AT23" s="131"/>
+      <c r="AU23" s="131"/>
+      <c r="AV23" s="131"/>
+      <c r="AW23" s="132"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="143"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="144"/>
-      <c r="AJ24" s="144"/>
-      <c r="AK24" s="144"/>
-      <c r="AL24" s="144"/>
-      <c r="AM24" s="145"/>
-      <c r="AN24" s="129"/>
-      <c r="AO24" s="130"/>
-      <c r="AP24" s="130"/>
-      <c r="AQ24" s="130"/>
-      <c r="AR24" s="131"/>
-      <c r="AS24" s="129"/>
-      <c r="AT24" s="130"/>
-      <c r="AU24" s="130"/>
-      <c r="AV24" s="130"/>
-      <c r="AW24" s="131"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
+      <c r="AK24" s="145"/>
+      <c r="AL24" s="145"/>
+      <c r="AM24" s="146"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="131"/>
+      <c r="AP24" s="131"/>
+      <c r="AQ24" s="131"/>
+      <c r="AR24" s="132"/>
+      <c r="AS24" s="130"/>
+      <c r="AT24" s="131"/>
+      <c r="AU24" s="131"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="132"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="142"/>
-      <c r="U25" s="142"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="144"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="144"/>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="144"/>
-      <c r="AK25" s="144"/>
-      <c r="AL25" s="144"/>
-      <c r="AM25" s="145"/>
-      <c r="AN25" s="129"/>
-      <c r="AO25" s="130"/>
-      <c r="AP25" s="130"/>
-      <c r="AQ25" s="130"/>
-      <c r="AR25" s="131"/>
-      <c r="AS25" s="129"/>
-      <c r="AT25" s="130"/>
-      <c r="AU25" s="130"/>
-      <c r="AV25" s="130"/>
-      <c r="AW25" s="131"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="145"/>
+      <c r="AL25" s="145"/>
+      <c r="AM25" s="146"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="131"/>
+      <c r="AQ25" s="131"/>
+      <c r="AR25" s="132"/>
+      <c r="AS25" s="130"/>
+      <c r="AT25" s="131"/>
+      <c r="AU25" s="131"/>
+      <c r="AV25" s="131"/>
+      <c r="AW25" s="132"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="142"/>
-      <c r="T26" s="142"/>
-      <c r="U26" s="142"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="144"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="144"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="144"/>
-      <c r="AL26" s="144"/>
-      <c r="AM26" s="145"/>
-      <c r="AN26" s="129"/>
-      <c r="AO26" s="130"/>
-      <c r="AP26" s="130"/>
-      <c r="AQ26" s="130"/>
-      <c r="AR26" s="131"/>
-      <c r="AS26" s="129"/>
-      <c r="AT26" s="130"/>
-      <c r="AU26" s="130"/>
-      <c r="AV26" s="130"/>
-      <c r="AW26" s="131"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="146"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="132"/>
+      <c r="AS26" s="130"/>
+      <c r="AT26" s="131"/>
+      <c r="AU26" s="131"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="132"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="142"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="144"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="144"/>
-      <c r="AJ27" s="144"/>
-      <c r="AK27" s="144"/>
-      <c r="AL27" s="144"/>
-      <c r="AM27" s="145"/>
-      <c r="AN27" s="129"/>
-      <c r="AO27" s="130"/>
-      <c r="AP27" s="130"/>
-      <c r="AQ27" s="130"/>
-      <c r="AR27" s="131"/>
-      <c r="AS27" s="129"/>
-      <c r="AT27" s="130"/>
-      <c r="AU27" s="130"/>
-      <c r="AV27" s="130"/>
-      <c r="AW27" s="131"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
+      <c r="AL27" s="145"/>
+      <c r="AM27" s="146"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="131"/>
+      <c r="AP27" s="131"/>
+      <c r="AQ27" s="131"/>
+      <c r="AR27" s="132"/>
+      <c r="AS27" s="130"/>
+      <c r="AT27" s="131"/>
+      <c r="AU27" s="131"/>
+      <c r="AV27" s="131"/>
+      <c r="AW27" s="132"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="142"/>
-      <c r="T28" s="142"/>
-      <c r="U28" s="142"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="144"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="144"/>
-      <c r="AJ28" s="144"/>
-      <c r="AK28" s="144"/>
-      <c r="AL28" s="144"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="129"/>
-      <c r="AO28" s="130"/>
-      <c r="AP28" s="130"/>
-      <c r="AQ28" s="130"/>
-      <c r="AR28" s="131"/>
-      <c r="AS28" s="129"/>
-      <c r="AT28" s="130"/>
-      <c r="AU28" s="130"/>
-      <c r="AV28" s="130"/>
-      <c r="AW28" s="131"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="146"/>
+      <c r="AN28" s="130"/>
+      <c r="AO28" s="131"/>
+      <c r="AP28" s="131"/>
+      <c r="AQ28" s="131"/>
+      <c r="AR28" s="132"/>
+      <c r="AS28" s="130"/>
+      <c r="AT28" s="131"/>
+      <c r="AU28" s="131"/>
+      <c r="AV28" s="131"/>
+      <c r="AW28" s="132"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="142"/>
-      <c r="U29" s="142"/>
-      <c r="V29" s="143"/>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="144"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="144"/>
-      <c r="AH29" s="144"/>
-      <c r="AI29" s="144"/>
-      <c r="AJ29" s="144"/>
-      <c r="AK29" s="144"/>
-      <c r="AL29" s="144"/>
-      <c r="AM29" s="145"/>
-      <c r="AN29" s="129"/>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130"/>
-      <c r="AR29" s="131"/>
-      <c r="AS29" s="129"/>
-      <c r="AT29" s="130"/>
-      <c r="AU29" s="130"/>
-      <c r="AV29" s="130"/>
-      <c r="AW29" s="131"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="144"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="145"/>
+      <c r="AL29" s="145"/>
+      <c r="AM29" s="146"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="131"/>
+      <c r="AP29" s="131"/>
+      <c r="AQ29" s="131"/>
+      <c r="AR29" s="132"/>
+      <c r="AS29" s="130"/>
+      <c r="AT29" s="131"/>
+      <c r="AU29" s="131"/>
+      <c r="AV29" s="131"/>
+      <c r="AW29" s="132"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="144"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="144"/>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="144"/>
-      <c r="AJ30" s="144"/>
-      <c r="AK30" s="144"/>
-      <c r="AL30" s="144"/>
-      <c r="AM30" s="145"/>
-      <c r="AN30" s="129"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="130"/>
-      <c r="AQ30" s="130"/>
-      <c r="AR30" s="131"/>
-      <c r="AS30" s="129"/>
-      <c r="AT30" s="130"/>
-      <c r="AU30" s="130"/>
-      <c r="AV30" s="130"/>
-      <c r="AW30" s="131"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="145"/>
+      <c r="AL30" s="145"/>
+      <c r="AM30" s="146"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="131"/>
+      <c r="AP30" s="131"/>
+      <c r="AQ30" s="131"/>
+      <c r="AR30" s="132"/>
+      <c r="AS30" s="130"/>
+      <c r="AT30" s="131"/>
+      <c r="AU30" s="131"/>
+      <c r="AV30" s="131"/>
+      <c r="AW30" s="132"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="142"/>
-      <c r="U31" s="142"/>
-      <c r="V31" s="143"/>
-      <c r="W31" s="144"/>
-      <c r="X31" s="144"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="144"/>
-      <c r="AA31" s="144"/>
-      <c r="AB31" s="144"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="144"/>
-      <c r="AE31" s="144"/>
-      <c r="AF31" s="144"/>
-      <c r="AG31" s="144"/>
-      <c r="AH31" s="144"/>
-      <c r="AI31" s="144"/>
-      <c r="AJ31" s="144"/>
-      <c r="AK31" s="144"/>
-      <c r="AL31" s="144"/>
-      <c r="AM31" s="145"/>
-      <c r="AN31" s="129"/>
-      <c r="AO31" s="130"/>
-      <c r="AP31" s="130"/>
-      <c r="AQ31" s="130"/>
-      <c r="AR31" s="131"/>
-      <c r="AS31" s="129"/>
-      <c r="AT31" s="130"/>
-      <c r="AU31" s="130"/>
-      <c r="AV31" s="130"/>
-      <c r="AW31" s="131"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="144"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="145"/>
+      <c r="AK31" s="145"/>
+      <c r="AL31" s="145"/>
+      <c r="AM31" s="146"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="131"/>
+      <c r="AP31" s="131"/>
+      <c r="AQ31" s="131"/>
+      <c r="AR31" s="132"/>
+      <c r="AS31" s="130"/>
+      <c r="AT31" s="131"/>
+      <c r="AU31" s="131"/>
+      <c r="AV31" s="131"/>
+      <c r="AW31" s="132"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="142"/>
-      <c r="U32" s="142"/>
-      <c r="V32" s="143"/>
-      <c r="W32" s="144"/>
-      <c r="X32" s="144"/>
-      <c r="Y32" s="144"/>
-      <c r="Z32" s="144"/>
-      <c r="AA32" s="144"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="144"/>
-      <c r="AE32" s="144"/>
-      <c r="AF32" s="144"/>
-      <c r="AG32" s="144"/>
-      <c r="AH32" s="144"/>
-      <c r="AI32" s="144"/>
-      <c r="AJ32" s="144"/>
-      <c r="AK32" s="144"/>
-      <c r="AL32" s="144"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="129"/>
-      <c r="AO32" s="130"/>
-      <c r="AP32" s="130"/>
-      <c r="AQ32" s="130"/>
-      <c r="AR32" s="131"/>
-      <c r="AS32" s="129"/>
-      <c r="AT32" s="130"/>
-      <c r="AU32" s="130"/>
-      <c r="AV32" s="130"/>
-      <c r="AW32" s="131"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="146"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="131"/>
+      <c r="AQ32" s="131"/>
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="130"/>
+      <c r="AT32" s="131"/>
+      <c r="AU32" s="131"/>
+      <c r="AV32" s="131"/>
+      <c r="AW32" s="132"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="132"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="142"/>
-      <c r="T33" s="142"/>
-      <c r="U33" s="142"/>
-      <c r="V33" s="143"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="144"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="144"/>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="144"/>
-      <c r="AJ33" s="144"/>
-      <c r="AK33" s="144"/>
-      <c r="AL33" s="144"/>
-      <c r="AM33" s="145"/>
-      <c r="AN33" s="129"/>
-      <c r="AO33" s="130"/>
-      <c r="AP33" s="130"/>
-      <c r="AQ33" s="130"/>
-      <c r="AR33" s="131"/>
-      <c r="AS33" s="129"/>
-      <c r="AT33" s="130"/>
-      <c r="AU33" s="130"/>
-      <c r="AV33" s="130"/>
-      <c r="AW33" s="131"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="145"/>
+      <c r="AL33" s="145"/>
+      <c r="AM33" s="146"/>
+      <c r="AN33" s="130"/>
+      <c r="AO33" s="131"/>
+      <c r="AP33" s="131"/>
+      <c r="AQ33" s="131"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="130"/>
+      <c r="AT33" s="131"/>
+      <c r="AU33" s="131"/>
+      <c r="AV33" s="131"/>
+      <c r="AW33" s="132"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="132"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="140"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="142"/>
-      <c r="U34" s="142"/>
-      <c r="V34" s="143"/>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
-      <c r="Y34" s="144"/>
-      <c r="Z34" s="144"/>
-      <c r="AA34" s="144"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="144"/>
-      <c r="AD34" s="144"/>
-      <c r="AE34" s="144"/>
-      <c r="AF34" s="144"/>
-      <c r="AG34" s="144"/>
-      <c r="AH34" s="144"/>
-      <c r="AI34" s="144"/>
-      <c r="AJ34" s="144"/>
-      <c r="AK34" s="144"/>
-      <c r="AL34" s="144"/>
-      <c r="AM34" s="145"/>
-      <c r="AN34" s="129"/>
-      <c r="AO34" s="130"/>
-      <c r="AP34" s="130"/>
-      <c r="AQ34" s="130"/>
-      <c r="AR34" s="131"/>
-      <c r="AS34" s="129"/>
-      <c r="AT34" s="130"/>
-      <c r="AU34" s="130"/>
-      <c r="AV34" s="130"/>
-      <c r="AW34" s="131"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="145"/>
+      <c r="AI34" s="145"/>
+      <c r="AJ34" s="145"/>
+      <c r="AK34" s="145"/>
+      <c r="AL34" s="145"/>
+      <c r="AM34" s="146"/>
+      <c r="AN34" s="130"/>
+      <c r="AO34" s="131"/>
+      <c r="AP34" s="131"/>
+      <c r="AQ34" s="131"/>
+      <c r="AR34" s="132"/>
+      <c r="AS34" s="130"/>
+      <c r="AT34" s="131"/>
+      <c r="AU34" s="131"/>
+      <c r="AV34" s="131"/>
+      <c r="AW34" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -7860,11 +7928,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="170"/>
-      <c r="AQ2" s="170"/>
-      <c r="AR2" s="170"/>
-      <c r="AS2" s="171"/>
+      <c r="AO2" s="170"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="172"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7873,14 +7941,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="172"/>
-      <c r="BA2" s="173"/>
-      <c r="BB2" s="173"/>
-      <c r="BC2" s="173"/>
-      <c r="BD2" s="173"/>
-      <c r="BE2" s="173"/>
-      <c r="BF2" s="173"/>
-      <c r="BG2" s="174"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="174"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="175"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -7961,7 +8029,7 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -8897,7 +8965,7 @@
       <c r="G32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -8921,7 +8989,7 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
@@ -8946,7 +9014,7 @@
       <c r="G33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -8969,7 +9037,7 @@
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
@@ -8992,7 +9060,7 @@
     </row>
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J34" s="9" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -9011,7 +9079,7 @@
       <c r="AE34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AL34" s="11"/>
       <c r="AN34" s="11"/>
@@ -9029,13 +9097,13 @@
     </row>
     <row r="35" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J35" s="9" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="R35" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -9052,7 +9120,7 @@
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="AL35" s="11"/>
       <c r="AN35" s="11"/>
@@ -9464,10 +9532,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="179"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -9550,10 +9618,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="179">
+      <c r="B46" s="180">
         <v>1</v>
       </c>
-      <c r="C46" s="180"/>
+      <c r="C46" s="181"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -9564,7 +9632,7 @@
       <c r="I46" s="79"/>
       <c r="J46" s="80"/>
       <c r="K46" s="119" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="L46" s="79"/>
       <c r="M46" s="79"/>
@@ -9585,18 +9653,18 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="175" t="s">
+      <c r="AE46" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF46" s="176"/>
-      <c r="AG46" s="175"/>
-      <c r="AH46" s="176"/>
+      <c r="AF46" s="177"/>
+      <c r="AG46" s="176"/>
+      <c r="AH46" s="177"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="175"/>
-      <c r="AL46" s="176"/>
+      <c r="AK46" s="176"/>
+      <c r="AL46" s="177"/>
       <c r="AM46" s="76" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AN46" s="77"/>
       <c r="AO46" s="77"/>
@@ -9628,10 +9696,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="179">
+      <c r="B47" s="180">
         <v>2</v>
       </c>
-      <c r="C47" s="180"/>
+      <c r="C47" s="181"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -9642,7 +9710,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="111"/>
       <c r="K47" s="110" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="L47" s="79"/>
       <c r="M47" s="79"/>
@@ -9663,18 +9731,18 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="175" t="s">
+      <c r="AE47" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF47" s="176"/>
-      <c r="AG47" s="175"/>
-      <c r="AH47" s="176"/>
+      <c r="AF47" s="177"/>
+      <c r="AG47" s="176"/>
+      <c r="AH47" s="177"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="175"/>
-      <c r="AL47" s="176"/>
+      <c r="AK47" s="176"/>
+      <c r="AL47" s="177"/>
       <c r="AM47" s="76" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AN47" s="77"/>
       <c r="AO47" s="77"/>
@@ -9706,10 +9774,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="179">
+      <c r="B48" s="180">
         <v>3</v>
       </c>
-      <c r="C48" s="180"/>
+      <c r="C48" s="181"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -9720,7 +9788,7 @@
       <c r="I48" s="79"/>
       <c r="J48" s="120"/>
       <c r="K48" s="75" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L48" s="79"/>
       <c r="M48" s="79"/>
@@ -9741,18 +9809,18 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="175" t="s">
+      <c r="AE48" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF48" s="176"/>
-      <c r="AG48" s="175"/>
-      <c r="AH48" s="176"/>
+      <c r="AF48" s="177"/>
+      <c r="AG48" s="176"/>
+      <c r="AH48" s="177"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="175"/>
-      <c r="AL48" s="176"/>
+      <c r="AK48" s="176"/>
+      <c r="AL48" s="177"/>
       <c r="AM48" s="76" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AN48" s="77"/>
       <c r="AO48" s="77"/>
@@ -9784,10 +9852,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="179">
+      <c r="B49" s="180">
         <v>4</v>
       </c>
-      <c r="C49" s="180"/>
+      <c r="C49" s="181"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -9798,7 +9866,7 @@
       <c r="I49" s="79"/>
       <c r="J49" s="120"/>
       <c r="K49" s="119" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L49" s="79"/>
       <c r="M49" s="79"/>
@@ -9819,18 +9887,18 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="175" t="s">
+      <c r="AE49" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF49" s="176"/>
-      <c r="AG49" s="175"/>
-      <c r="AH49" s="176"/>
+      <c r="AF49" s="177"/>
+      <c r="AG49" s="176"/>
+      <c r="AH49" s="177"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="175"/>
-      <c r="AL49" s="176"/>
+      <c r="AK49" s="176"/>
+      <c r="AL49" s="177"/>
       <c r="AM49" s="76" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AN49" s="77"/>
       <c r="AO49" s="77"/>
@@ -9862,10 +9930,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="179">
+      <c r="B50" s="180">
         <v>5</v>
       </c>
-      <c r="C50" s="180"/>
+      <c r="C50" s="181"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -9876,7 +9944,7 @@
       <c r="I50" s="79"/>
       <c r="J50" s="120"/>
       <c r="K50" s="119" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="L50" s="79"/>
       <c r="M50" s="79"/>
@@ -9897,18 +9965,18 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="175" t="s">
+      <c r="AE50" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF50" s="176"/>
-      <c r="AG50" s="175"/>
-      <c r="AH50" s="176"/>
+      <c r="AF50" s="177"/>
+      <c r="AG50" s="176"/>
+      <c r="AH50" s="177"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="175"/>
-      <c r="AL50" s="176"/>
+      <c r="AK50" s="176"/>
+      <c r="AL50" s="177"/>
       <c r="AM50" s="76" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="AN50" s="77"/>
       <c r="AO50" s="77"/>
@@ -9940,12 +10008,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="179">
+      <c r="B51" s="180">
         <v>6</v>
       </c>
-      <c r="C51" s="180"/>
+      <c r="C51" s="181"/>
       <c r="D51" s="119" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E51" s="79"/>
       <c r="F51" s="79"/>
@@ -9954,7 +10022,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="120"/>
       <c r="K51" s="119" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="L51" s="79"/>
       <c r="M51" s="79"/>
@@ -9975,18 +10043,18 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="175" t="s">
+      <c r="AE51" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF51" s="176"/>
-      <c r="AG51" s="175"/>
-      <c r="AH51" s="176"/>
+      <c r="AF51" s="177"/>
+      <c r="AG51" s="176"/>
+      <c r="AH51" s="177"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="175"/>
-      <c r="AL51" s="176"/>
+      <c r="AK51" s="176"/>
+      <c r="AL51" s="177"/>
       <c r="AM51" s="76" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AN51" s="77"/>
       <c r="AO51" s="77"/>
@@ -10018,12 +10086,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="179">
+      <c r="B52" s="180">
         <v>7</v>
       </c>
-      <c r="C52" s="180"/>
+      <c r="C52" s="181"/>
       <c r="D52" s="119" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E52" s="79"/>
       <c r="F52" s="79"/>
@@ -10032,7 +10100,7 @@
       <c r="I52" s="79"/>
       <c r="J52" s="111"/>
       <c r="K52" s="110" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L52" s="79"/>
       <c r="M52" s="79"/>
@@ -10053,18 +10121,18 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="175" t="s">
+      <c r="AE52" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF52" s="176"/>
-      <c r="AG52" s="175"/>
-      <c r="AH52" s="176"/>
+      <c r="AF52" s="177"/>
+      <c r="AG52" s="176"/>
+      <c r="AH52" s="177"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="175"/>
-      <c r="AL52" s="176"/>
+      <c r="AK52" s="176"/>
+      <c r="AL52" s="177"/>
       <c r="AM52" s="76" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AN52" s="77"/>
       <c r="AO52" s="77"/>
@@ -10096,12 +10164,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="179">
+      <c r="B53" s="180">
         <v>8</v>
       </c>
-      <c r="C53" s="180"/>
+      <c r="C53" s="181"/>
       <c r="D53" s="119" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E53" s="79"/>
       <c r="F53" s="79"/>
@@ -10110,7 +10178,7 @@
       <c r="I53" s="79"/>
       <c r="J53" s="120"/>
       <c r="K53" s="119" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="L53" s="79"/>
       <c r="M53" s="79"/>
@@ -10131,18 +10199,18 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="175" t="s">
+      <c r="AE53" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF53" s="176"/>
-      <c r="AG53" s="175"/>
-      <c r="AH53" s="176"/>
+      <c r="AF53" s="177"/>
+      <c r="AG53" s="176"/>
+      <c r="AH53" s="177"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="175"/>
-      <c r="AL53" s="176"/>
+      <c r="AK53" s="176"/>
+      <c r="AL53" s="177"/>
       <c r="AM53" s="76" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AN53" s="77"/>
       <c r="AO53" s="77"/>
@@ -10174,12 +10242,12 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="179">
+      <c r="B54" s="180">
         <v>9</v>
       </c>
-      <c r="C54" s="180"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="119" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E54" s="79"/>
       <c r="F54" s="79"/>
@@ -10188,7 +10256,7 @@
       <c r="I54" s="79"/>
       <c r="J54" s="120"/>
       <c r="K54" s="119" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="79"/>
@@ -10209,18 +10277,18 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="175" t="s">
+      <c r="AE54" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF54" s="176"/>
-      <c r="AG54" s="175"/>
-      <c r="AH54" s="176"/>
+      <c r="AF54" s="177"/>
+      <c r="AG54" s="176"/>
+      <c r="AH54" s="177"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="175"/>
-      <c r="AL54" s="176"/>
+      <c r="AK54" s="176"/>
+      <c r="AL54" s="177"/>
       <c r="AM54" s="76" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AN54" s="77"/>
       <c r="AO54" s="77"/>
@@ -10260,14 +10328,6 @@
     <mergeCell ref="AE49:AF49"/>
     <mergeCell ref="AG49:AH49"/>
     <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="AE53:AF53"/>
     <mergeCell ref="AG53:AH53"/>
@@ -10284,6 +10344,14 @@
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AG52:AH52"/>
     <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK46:AL46"/>
@@ -10414,20 +10482,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="183">
+      <c r="CD1" s="184">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="184"/>
-      <c r="CF1" s="184"/>
-      <c r="CG1" s="184"/>
-      <c r="CH1" s="184"/>
-      <c r="CI1" s="184"/>
-      <c r="CJ1" s="184"/>
-      <c r="CK1" s="184"/>
-      <c r="CL1" s="184"/>
-      <c r="CM1" s="184"/>
-      <c r="CN1" s="185"/>
+      <c r="CE1" s="185"/>
+      <c r="CF1" s="185"/>
+      <c r="CG1" s="185"/>
+      <c r="CH1" s="185"/>
+      <c r="CI1" s="185"/>
+      <c r="CJ1" s="185"/>
+      <c r="CK1" s="185"/>
+      <c r="CL1" s="185"/>
+      <c r="CM1" s="185"/>
+      <c r="CN1" s="186"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10436,23 +10504,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="172" t="str">
+      <c r="CU1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="181"/>
-      <c r="CW1" s="181"/>
-      <c r="CX1" s="181"/>
-      <c r="CY1" s="181"/>
-      <c r="CZ1" s="181"/>
-      <c r="DA1" s="181"/>
-      <c r="DB1" s="181"/>
-      <c r="DC1" s="181"/>
-      <c r="DD1" s="181"/>
-      <c r="DE1" s="181"/>
-      <c r="DF1" s="181"/>
-      <c r="DG1" s="181"/>
-      <c r="DH1" s="182"/>
+      <c r="CV1" s="182"/>
+      <c r="CW1" s="182"/>
+      <c r="CX1" s="182"/>
+      <c r="CY1" s="182"/>
+      <c r="CZ1" s="182"/>
+      <c r="DA1" s="182"/>
+      <c r="DB1" s="182"/>
+      <c r="DC1" s="182"/>
+      <c r="DD1" s="182"/>
+      <c r="DE1" s="182"/>
+      <c r="DF1" s="182"/>
+      <c r="DG1" s="182"/>
+      <c r="DH1" s="183"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10507,39 +10575,39 @@
       <c r="AQ2" s="88"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="89"/>
-      <c r="AT2" s="187" t="str">
+      <c r="AT2" s="188" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="188"/>
-      <c r="BA2" s="188"/>
-      <c r="BB2" s="188"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="188"/>
-      <c r="BE2" s="188"/>
-      <c r="BF2" s="188"/>
-      <c r="BG2" s="188"/>
-      <c r="BH2" s="188"/>
-      <c r="BI2" s="188"/>
-      <c r="BJ2" s="188"/>
-      <c r="BK2" s="188"/>
-      <c r="BL2" s="188"/>
-      <c r="BM2" s="188"/>
-      <c r="BN2" s="188"/>
-      <c r="BO2" s="188"/>
-      <c r="BP2" s="188"/>
-      <c r="BQ2" s="188"/>
-      <c r="BR2" s="188"/>
-      <c r="BS2" s="188"/>
-      <c r="BT2" s="188"/>
-      <c r="BU2" s="188"/>
-      <c r="BV2" s="188"/>
-      <c r="BW2" s="189"/>
+      <c r="AU2" s="189"/>
+      <c r="AV2" s="189"/>
+      <c r="AW2" s="189"/>
+      <c r="AX2" s="189"/>
+      <c r="AY2" s="189"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="189"/>
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="189"/>
+      <c r="BG2" s="189"/>
+      <c r="BH2" s="189"/>
+      <c r="BI2" s="189"/>
+      <c r="BJ2" s="189"/>
+      <c r="BK2" s="189"/>
+      <c r="BL2" s="189"/>
+      <c r="BM2" s="189"/>
+      <c r="BN2" s="189"/>
+      <c r="BO2" s="189"/>
+      <c r="BP2" s="189"/>
+      <c r="BQ2" s="189"/>
+      <c r="BR2" s="189"/>
+      <c r="BS2" s="189"/>
+      <c r="BT2" s="189"/>
+      <c r="BU2" s="189"/>
+      <c r="BV2" s="189"/>
+      <c r="BW2" s="190"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10548,17 +10616,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="186"/>
-      <c r="CE2" s="181"/>
-      <c r="CF2" s="181"/>
-      <c r="CG2" s="181"/>
-      <c r="CH2" s="181"/>
-      <c r="CI2" s="181"/>
-      <c r="CJ2" s="181"/>
-      <c r="CK2" s="181"/>
-      <c r="CL2" s="181"/>
-      <c r="CM2" s="181"/>
-      <c r="CN2" s="182"/>
+      <c r="CD2" s="187"/>
+      <c r="CE2" s="182"/>
+      <c r="CF2" s="182"/>
+      <c r="CG2" s="182"/>
+      <c r="CH2" s="182"/>
+      <c r="CI2" s="182"/>
+      <c r="CJ2" s="182"/>
+      <c r="CK2" s="182"/>
+      <c r="CL2" s="182"/>
+      <c r="CM2" s="182"/>
+      <c r="CN2" s="183"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -10567,20 +10635,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="172"/>
-      <c r="CV2" s="181"/>
-      <c r="CW2" s="181"/>
-      <c r="CX2" s="181"/>
-      <c r="CY2" s="181"/>
-      <c r="CZ2" s="181"/>
-      <c r="DA2" s="181"/>
-      <c r="DB2" s="181"/>
-      <c r="DC2" s="181"/>
-      <c r="DD2" s="181"/>
-      <c r="DE2" s="181"/>
-      <c r="DF2" s="181"/>
-      <c r="DG2" s="181"/>
-      <c r="DH2" s="182"/>
+      <c r="CU2" s="173"/>
+      <c r="CV2" s="182"/>
+      <c r="CW2" s="182"/>
+      <c r="CX2" s="182"/>
+      <c r="CY2" s="182"/>
+      <c r="CZ2" s="182"/>
+      <c r="DA2" s="182"/>
+      <c r="DB2" s="182"/>
+      <c r="DC2" s="182"/>
+      <c r="DD2" s="182"/>
+      <c r="DE2" s="182"/>
+      <c r="DF2" s="182"/>
+      <c r="DG2" s="182"/>
+      <c r="DH2" s="183"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -10663,7 +10731,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -10786,37 +10854,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="162" t="s">
+      <c r="E6" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="162" t="s">
+      <c r="G6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="190" t="s">
+      <c r="I6" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="190" t="s">
+      <c r="J6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="162" t="s">
+      <c r="L6" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="162" t="s">
+      <c r="M6" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -10824,24 +10892,24 @@
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="190" t="s">
+      <c r="Q6" s="191" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -10851,7 +10919,7 @@
       <c r="P7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="190"/>
+      <c r="Q7" s="191"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -10866,7 +10934,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>88</v>
@@ -10909,13 +10977,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>88</v>
@@ -10958,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>93</v>
@@ -11001,149 +11069,151 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="192" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="191" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="162" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="162" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="191" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="190" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="162" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="191" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="193"/>
+    </row>
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="192"/>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>41</v>
@@ -11155,16 +11225,16 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>214</v>
+        <v>173</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>34</v>
@@ -11172,27 +11242,27 @@
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="7" t="s">
-        <v>34</v>
+      <c r="Q16" s="126" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>41</v>
@@ -11204,13 +11274,13 @@
         <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>34</v>
@@ -11218,30 +11288,30 @@
       <c r="O17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q17" s="126" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>41</v>
@@ -11253,13 +11323,13 @@
         <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>337</v>
+        <v>220</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>34</v>
@@ -11267,27 +11337,27 @@
       <c r="O18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="121" t="s">
+      <c r="P18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>89</v>
@@ -11299,44 +11369,44 @@
         <v>35</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>89</v>
@@ -11354,7 +11424,7 @@
         <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>34</v>
@@ -11366,26 +11436,26 @@
         <v>34</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -11403,41 +11473,41 @@
         <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>333</v>
+        <v>292</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>41</v>
@@ -11449,22 +11519,22 @@
         <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -11474,19 +11544,19 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>41</v>
@@ -11498,10 +11568,10 @@
         <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>34</v>
@@ -11513,194 +11583,194 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="7">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="97"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="97"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="56"/>
+      <c r="C26" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="191" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="163" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="162" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="162" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="190" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="190" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="162" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="190" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="86" t="s">
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="O28" s="86" t="s">
+      <c r="O27" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="86" t="s">
+      <c r="P27" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="Q28" s="190"/>
-    </row>
-    <row r="29" spans="1:17" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="51"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="42" t="s">
+      <c r="Q27" s="191"/>
+    </row>
+    <row r="28" spans="1:17" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="51"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="46"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="46"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="56"/>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>102</v>
@@ -11721,7 +11791,7 @@
         <v>35</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>35</v>
@@ -11737,19 +11807,19 @@
       <c r="A31" s="13"/>
       <c r="B31" s="56"/>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>102</v>
@@ -11776,7 +11846,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -11786,16 +11856,16 @@
       <c r="A32" s="13"/>
       <c r="B32" s="56"/>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>109</v>
@@ -11825,7 +11895,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11835,16 +11905,16 @@
       <c r="A33" s="13"/>
       <c r="B33" s="56"/>
       <c r="C33" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>109</v>
@@ -11874,7 +11944,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11884,16 +11954,16 @@
       <c r="A34" s="13"/>
       <c r="B34" s="56"/>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>109</v>
@@ -11923,7 +11993,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>35</v>
@@ -11933,16 +12003,16 @@
       <c r="A35" s="13"/>
       <c r="B35" s="56"/>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>109</v>
@@ -11972,7 +12042,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>35</v>
@@ -11982,16 +12052,16 @@
       <c r="A36" s="13"/>
       <c r="B36" s="56"/>
       <c r="C36" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>109</v>
@@ -12021,7 +12091,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>35</v>
@@ -12031,16 +12101,16 @@
       <c r="A37" s="13"/>
       <c r="B37" s="56"/>
       <c r="C37" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>109</v>
@@ -12070,7 +12140,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>35</v>
@@ -12080,16 +12150,16 @@
       <c r="A38" s="13"/>
       <c r="B38" s="56"/>
       <c r="C38" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>109</v>
@@ -12119,7 +12189,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -12129,16 +12199,16 @@
       <c r="A39" s="13"/>
       <c r="B39" s="56"/>
       <c r="C39" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>109</v>
@@ -12168,26 +12238,26 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="56"/>
       <c r="C40" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>109</v>
@@ -12216,27 +12286,27 @@
       <c r="O40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="P40" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q40" s="125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="56"/>
       <c r="C41" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>109</v>
@@ -12251,7 +12321,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -12265,27 +12335,27 @@
       <c r="O41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q41" s="125" t="s">
-        <v>348</v>
+      <c r="P41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="56"/>
       <c r="C42" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>109</v>
@@ -12300,7 +12370,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -12315,99 +12385,50 @@
         <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="7">
-        <v>14</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12483,14 +12504,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="169">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="190"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -12499,16 +12520,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="172" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="182"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="183"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -12536,32 +12557,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="187" t="str">
+      <c r="S2" s="188" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="190"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="182"/>
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="183"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -12570,13 +12591,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -13108,7 +13129,7 @@
       <c r="G15" s="66"/>
       <c r="L15" s="117"/>
       <c r="M15" s="114" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="N15" s="114"/>
       <c r="O15" s="114"/>
@@ -13149,7 +13170,7 @@
       <c r="G16" s="66"/>
       <c r="L16" s="117"/>
       <c r="N16" s="114" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="O16" s="114"/>
       <c r="P16" s="114"/>
@@ -13189,7 +13210,7 @@
       <c r="G17" s="66"/>
       <c r="L17" s="117"/>
       <c r="N17" s="114" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="O17" s="114"/>
       <c r="P17" s="114"/>
@@ -13229,7 +13250,7 @@
       <c r="G18" s="66"/>
       <c r="L18" s="117"/>
       <c r="N18" s="114" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O18" s="114"/>
       <c r="P18" s="114"/>
@@ -13269,7 +13290,7 @@
       <c r="G19" s="66"/>
       <c r="L19" s="117"/>
       <c r="N19" s="114" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="O19" s="114"/>
       <c r="P19" s="114"/>
@@ -13309,7 +13330,7 @@
       <c r="G20" s="66"/>
       <c r="L20" s="117"/>
       <c r="N20" s="114" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O20" s="114"/>
       <c r="P20" s="114"/>
@@ -13349,7 +13370,7 @@
       <c r="G21" s="66"/>
       <c r="L21" s="117"/>
       <c r="N21" s="114" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="O21" s="114"/>
       <c r="P21" s="114"/>
@@ -13389,7 +13410,7 @@
       <c r="G22" s="66"/>
       <c r="L22" s="117"/>
       <c r="N22" s="114" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="O22" s="114"/>
       <c r="P22" s="114"/>
@@ -13430,7 +13451,7 @@
       <c r="L23" s="117"/>
       <c r="M23" s="124"/>
       <c r="N23" s="114" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="O23" s="114"/>
       <c r="P23" s="114"/>
@@ -13471,7 +13492,7 @@
       <c r="L24" s="117"/>
       <c r="M24" s="124"/>
       <c r="N24" s="114" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="O24" s="114"/>
       <c r="P24" s="114"/>
@@ -13512,7 +13533,7 @@
       <c r="L25" s="117"/>
       <c r="M25" s="124"/>
       <c r="N25" s="114" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="114"/>
@@ -13553,7 +13574,7 @@
       <c r="L26" s="117"/>
       <c r="M26" s="124"/>
       <c r="N26" s="114" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="O26" s="114"/>
       <c r="P26" s="114"/>
@@ -13594,7 +13615,7 @@
       <c r="L27" s="117"/>
       <c r="M27" s="124"/>
       <c r="N27" s="114" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="O27" s="114"/>
       <c r="P27" s="114"/>
@@ -13635,7 +13656,7 @@
       <c r="L28" s="117"/>
       <c r="M28" s="124"/>
       <c r="N28" s="114" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="O28" s="114"/>
       <c r="P28" s="114"/>
@@ -13676,7 +13697,7 @@
       <c r="L29" s="117"/>
       <c r="M29" s="124"/>
       <c r="N29" s="114" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="O29" s="114"/>
       <c r="P29" s="114"/>
@@ -13755,7 +13776,7 @@
       <c r="G31" s="66"/>
       <c r="L31" s="117"/>
       <c r="M31" s="114" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="N31" s="114"/>
       <c r="O31" s="114"/>
@@ -13796,7 +13817,7 @@
       <c r="G32" s="66"/>
       <c r="L32" s="117"/>
       <c r="N32" s="114" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O32" s="114"/>
       <c r="P32" s="114"/>
@@ -13836,7 +13857,7 @@
       <c r="G33" s="66"/>
       <c r="L33" s="117"/>
       <c r="N33" s="114" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O33" s="114"/>
       <c r="P33" s="114"/>
@@ -13877,7 +13898,7 @@
       <c r="L34" s="117"/>
       <c r="N34" s="114"/>
       <c r="O34" s="114" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="P34" s="114"/>
       <c r="Q34" s="114"/>
@@ -13888,8 +13909,12 @@
       <c r="V34" s="114"/>
       <c r="W34" s="114"/>
       <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
+      <c r="Y34" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z34" s="114" t="s">
+        <v>336</v>
+      </c>
       <c r="AA34" s="114"/>
       <c r="AB34" s="114"/>
       <c r="AC34" s="114"/>
@@ -13917,7 +13942,7 @@
       <c r="L35" s="117"/>
       <c r="N35" s="114"/>
       <c r="O35" s="114" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P35" s="114"/>
       <c r="Q35" s="114"/>
@@ -13928,8 +13953,12 @@
       <c r="V35" s="114"/>
       <c r="W35" s="114"/>
       <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
+      <c r="Y35" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z35" s="114" t="s">
+        <v>339</v>
+      </c>
       <c r="AA35" s="114"/>
       <c r="AB35" s="114"/>
       <c r="AC35" s="114"/>
@@ -13957,7 +13986,7 @@
       <c r="L36" s="117"/>
       <c r="N36" s="114"/>
       <c r="O36" s="114" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="P36" s="114"/>
       <c r="Q36" s="114"/>
@@ -13968,8 +13997,12 @@
       <c r="V36" s="114"/>
       <c r="W36" s="114"/>
       <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
-      <c r="Z36" s="114"/>
+      <c r="Y36" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z36" s="114" t="s">
+        <v>341</v>
+      </c>
       <c r="AA36" s="114"/>
       <c r="AB36" s="114"/>
       <c r="AC36" s="114"/>
@@ -13996,7 +14029,7 @@
       <c r="G37" s="66"/>
       <c r="L37" s="117"/>
       <c r="N37" s="114" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="O37" s="114"/>
       <c r="P37" s="114"/>
@@ -14037,7 +14070,7 @@
       <c r="L38" s="117"/>
       <c r="N38" s="114"/>
       <c r="O38" s="114" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="P38" s="114"/>
       <c r="Q38" s="114"/>
@@ -14048,8 +14081,12 @@
       <c r="V38" s="114"/>
       <c r="W38" s="114"/>
       <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="114"/>
+      <c r="Y38" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z38" s="114" t="s">
+        <v>342</v>
+      </c>
       <c r="AA38" s="114"/>
       <c r="AB38" s="114"/>
       <c r="AC38" s="114"/>
@@ -14077,7 +14114,7 @@
       <c r="L39" s="117"/>
       <c r="N39" s="114"/>
       <c r="O39" s="114" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="P39" s="114"/>
       <c r="Q39" s="114"/>
@@ -14088,8 +14125,12 @@
       <c r="V39" s="114"/>
       <c r="W39" s="114"/>
       <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
-      <c r="Z39" s="114"/>
+      <c r="Y39" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z39" s="114" t="s">
+        <v>343</v>
+      </c>
       <c r="AA39" s="114"/>
       <c r="AB39" s="114"/>
       <c r="AC39" s="114"/>
@@ -14116,7 +14157,7 @@
       <c r="G40" s="66"/>
       <c r="L40" s="117"/>
       <c r="N40" s="114" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="O40" s="114"/>
       <c r="P40" s="114"/>
@@ -14157,7 +14198,7 @@
       <c r="L41" s="117"/>
       <c r="N41" s="114"/>
       <c r="O41" s="114" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="P41" s="114"/>
       <c r="Q41" s="114"/>
@@ -14168,8 +14209,12 @@
       <c r="V41" s="114"/>
       <c r="W41" s="114"/>
       <c r="X41" s="114"/>
-      <c r="Y41" s="114"/>
-      <c r="Z41" s="114"/>
+      <c r="Y41" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z41" s="114" t="s">
+        <v>345</v>
+      </c>
       <c r="AA41" s="114"/>
       <c r="AB41" s="114"/>
       <c r="AC41" s="114"/>
@@ -14197,7 +14242,7 @@
       <c r="L42" s="117"/>
       <c r="N42" s="114"/>
       <c r="O42" s="114" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="P42" s="114"/>
       <c r="Q42" s="114"/>
@@ -14208,8 +14253,12 @@
       <c r="V42" s="114"/>
       <c r="W42" s="114"/>
       <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
+      <c r="Y42" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z42" s="114" t="s">
+        <v>347</v>
+      </c>
       <c r="AA42" s="114"/>
       <c r="AB42" s="114"/>
       <c r="AC42" s="114"/>
@@ -14237,7 +14286,7 @@
       <c r="L43" s="117"/>
       <c r="N43" s="114"/>
       <c r="O43" s="114" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="P43" s="114"/>
       <c r="Q43" s="114"/>
@@ -14248,8 +14297,12 @@
       <c r="V43" s="114"/>
       <c r="W43" s="114"/>
       <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
+      <c r="Y43" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z43" s="114" t="s">
+        <v>349</v>
+      </c>
       <c r="AA43" s="114"/>
       <c r="AB43" s="114"/>
       <c r="AC43" s="114"/>
@@ -14277,7 +14330,7 @@
       <c r="L44" s="117"/>
       <c r="N44" s="114"/>
       <c r="O44" s="114" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P44" s="114"/>
       <c r="Q44" s="114"/>
@@ -14288,8 +14341,12 @@
       <c r="V44" s="114"/>
       <c r="W44" s="114"/>
       <c r="X44" s="114"/>
-      <c r="Y44" s="114"/>
-      <c r="Z44" s="114"/>
+      <c r="Y44" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z44" s="114" t="s">
+        <v>351</v>
+      </c>
       <c r="AA44" s="114"/>
       <c r="AB44" s="114"/>
       <c r="AC44" s="114"/>
@@ -14317,7 +14374,7 @@
       <c r="L45" s="117"/>
       <c r="N45" s="114"/>
       <c r="O45" s="114" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="P45" s="114"/>
       <c r="Q45" s="114"/>
@@ -14328,8 +14385,12 @@
       <c r="V45" s="114"/>
       <c r="W45" s="114"/>
       <c r="X45" s="114"/>
-      <c r="Y45" s="114"/>
-      <c r="Z45" s="114"/>
+      <c r="Y45" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z45" s="114" t="s">
+        <v>353</v>
+      </c>
       <c r="AA45" s="114"/>
       <c r="AB45" s="114"/>
       <c r="AC45" s="114"/>
@@ -14356,7 +14417,7 @@
       <c r="G46" s="66"/>
       <c r="L46" s="117"/>
       <c r="N46" s="114" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="O46" s="114"/>
       <c r="P46" s="114"/>
@@ -14397,7 +14458,7 @@
       <c r="L47" s="117"/>
       <c r="N47" s="114"/>
       <c r="O47" s="114" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="P47" s="114"/>
       <c r="Q47" s="114"/>
@@ -14408,8 +14469,12 @@
       <c r="V47" s="114"/>
       <c r="W47" s="114"/>
       <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
+      <c r="Y47" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z47" s="114" t="s">
+        <v>354</v>
+      </c>
       <c r="AA47" s="114"/>
       <c r="AB47" s="114"/>
       <c r="AC47" s="114"/>
@@ -14437,7 +14502,7 @@
       <c r="L48" s="117"/>
       <c r="N48" s="114"/>
       <c r="O48" s="114" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="P48" s="114"/>
       <c r="Q48" s="114"/>
@@ -14448,8 +14513,12 @@
       <c r="V48" s="114"/>
       <c r="W48" s="114"/>
       <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
-      <c r="Z48" s="114"/>
+      <c r="Y48" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z48" s="114" t="s">
+        <v>356</v>
+      </c>
       <c r="AA48" s="114"/>
       <c r="AB48" s="114"/>
       <c r="AC48" s="114"/>
@@ -14476,7 +14545,7 @@
       <c r="G49" s="66"/>
       <c r="L49" s="117"/>
       <c r="N49" s="114" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="O49" s="114"/>
       <c r="P49" s="114"/>
@@ -14517,7 +14586,7 @@
       <c r="L50" s="117"/>
       <c r="N50" s="114"/>
       <c r="O50" s="114" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="P50" s="114"/>
       <c r="Q50" s="114"/>
@@ -14528,8 +14597,12 @@
       <c r="V50" s="114"/>
       <c r="W50" s="114"/>
       <c r="X50" s="114"/>
-      <c r="Y50" s="114"/>
-      <c r="Z50" s="114"/>
+      <c r="Y50" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z50" s="114" t="s">
+        <v>358</v>
+      </c>
       <c r="AA50" s="114"/>
       <c r="AB50" s="114"/>
       <c r="AC50" s="114"/>
@@ -14557,7 +14630,7 @@
       <c r="L51" s="117"/>
       <c r="N51" s="114"/>
       <c r="O51" s="114" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="P51" s="114"/>
       <c r="Q51" s="114"/>
@@ -14568,8 +14641,12 @@
       <c r="V51" s="114"/>
       <c r="W51" s="114"/>
       <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="114"/>
+      <c r="Y51" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z51" s="115" t="s">
+        <v>376</v>
+      </c>
       <c r="AA51" s="114"/>
       <c r="AB51" s="114"/>
       <c r="AC51" s="114"/>
@@ -14596,7 +14673,7 @@
       <c r="G52" s="66"/>
       <c r="L52" s="117"/>
       <c r="N52" s="114" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="O52" s="114"/>
       <c r="P52" s="114"/>
@@ -14637,7 +14714,7 @@
       <c r="L53" s="117"/>
       <c r="N53" s="114"/>
       <c r="O53" s="114" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="P53" s="114"/>
       <c r="Q53" s="114"/>
@@ -14648,8 +14725,12 @@
       <c r="V53" s="114"/>
       <c r="W53" s="114"/>
       <c r="X53" s="114"/>
-      <c r="Y53" s="114"/>
-      <c r="Z53" s="114"/>
+      <c r="Y53" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z53" s="114" t="s">
+        <v>361</v>
+      </c>
       <c r="AA53" s="114"/>
       <c r="AB53" s="114"/>
       <c r="AC53" s="114"/>
@@ -14715,7 +14796,7 @@
       <c r="G55" s="66"/>
       <c r="L55" s="117"/>
       <c r="M55" s="114" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="N55" s="114"/>
       <c r="O55" s="114"/>
@@ -14756,7 +14837,7 @@
       <c r="G56" s="66"/>
       <c r="L56" s="117"/>
       <c r="N56" s="114" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="O56" s="114"/>
       <c r="P56" s="114"/>
@@ -14771,7 +14852,7 @@
         <v>116</v>
       </c>
       <c r="Z56" s="114" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="AA56" s="114"/>
       <c r="AB56" s="114"/>
@@ -14794,7 +14875,7 @@
       <c r="G57" s="66"/>
       <c r="L57" s="117"/>
       <c r="N57" s="114" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="O57" s="114"/>
       <c r="P57" s="114"/>
@@ -14809,7 +14890,7 @@
         <v>116</v>
       </c>
       <c r="Z57" s="115" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="AA57" s="114"/>
       <c r="AB57" s="114"/>
@@ -14833,7 +14914,7 @@
       <c r="G58" s="66"/>
       <c r="L58" s="117"/>
       <c r="N58" s="114" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O58" s="114"/>
       <c r="P58" s="114"/>
@@ -14844,27 +14925,27 @@
       <c r="U58" s="114"/>
       <c r="V58" s="114"/>
       <c r="W58" s="114" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="Y58" s="114"/>
       <c r="Z58" s="114" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AA58" s="114"/>
       <c r="AB58" s="114"/>
       <c r="AC58" s="114"/>
       <c r="AE58" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AG58" s="114" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AH58" s="114"/>
       <c r="AI58" s="114"/>
       <c r="AJ58" s="114"/>
       <c r="AK58" s="116"/>
       <c r="AL58" s="15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AN58" s="118"/>
       <c r="AO58" s="118"/>
@@ -14879,7 +14960,7 @@
       <c r="G59" s="66"/>
       <c r="L59" s="117"/>
       <c r="N59" s="114" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O59" s="114"/>
       <c r="P59" s="114"/>
@@ -14894,7 +14975,7 @@
         <v>116</v>
       </c>
       <c r="Z59" s="114" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AA59" s="114"/>
       <c r="AB59" s="114"/>
@@ -14904,7 +14985,7 @@
       <c r="AJ59" s="114"/>
       <c r="AK59" s="114"/>
       <c r="AL59" s="15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AM59" s="114"/>
       <c r="AN59" s="118"/>
@@ -14920,7 +15001,7 @@
       <c r="G60" s="66"/>
       <c r="L60" s="117"/>
       <c r="N60" s="114" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O60" s="114"/>
       <c r="P60" s="114"/>
@@ -14935,7 +15016,7 @@
         <v>116</v>
       </c>
       <c r="Z60" s="114" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AA60" s="114"/>
       <c r="AB60" s="114"/>
@@ -14945,7 +15026,7 @@
       <c r="AJ60" s="114"/>
       <c r="AK60" s="114"/>
       <c r="AL60" s="15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM60" s="114"/>
       <c r="AN60" s="118"/>
@@ -14961,7 +15042,7 @@
       <c r="G61" s="66"/>
       <c r="L61" s="117"/>
       <c r="N61" s="114" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="O61" s="114"/>
       <c r="P61" s="114"/>
@@ -14976,7 +15057,7 @@
         <v>116</v>
       </c>
       <c r="Z61" s="114" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AA61" s="114"/>
       <c r="AB61" s="114"/>
@@ -14986,7 +15067,7 @@
       <c r="AJ61" s="114"/>
       <c r="AK61" s="114"/>
       <c r="AL61" s="15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM61" s="114"/>
       <c r="AN61" s="118"/>
@@ -15002,7 +15083,7 @@
       <c r="G62" s="66"/>
       <c r="L62" s="117"/>
       <c r="N62" s="114" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="O62" s="114"/>
       <c r="P62" s="114"/>
@@ -15017,7 +15098,7 @@
         <v>116</v>
       </c>
       <c r="Z62" s="114" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AA62" s="114"/>
       <c r="AB62" s="114"/>
@@ -15027,7 +15108,7 @@
       <c r="AJ62" s="114"/>
       <c r="AK62" s="114"/>
       <c r="AL62" s="15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM62" s="114"/>
       <c r="AN62" s="118"/>
@@ -15043,7 +15124,7 @@
       <c r="G63" s="66"/>
       <c r="L63" s="117"/>
       <c r="N63" s="114" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O63" s="114"/>
       <c r="P63" s="114"/>
@@ -15058,7 +15139,7 @@
         <v>116</v>
       </c>
       <c r="Z63" s="114" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AA63" s="114"/>
       <c r="AB63" s="114"/>
@@ -15068,7 +15149,7 @@
       <c r="AJ63" s="114"/>
       <c r="AK63" s="114"/>
       <c r="AL63" s="15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AM63" s="114"/>
       <c r="AN63" s="118"/>
@@ -15084,7 +15165,7 @@
       <c r="G64" s="66"/>
       <c r="L64" s="117"/>
       <c r="N64" s="114" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O64" s="114"/>
       <c r="P64" s="114"/>
@@ -15096,11 +15177,11 @@
       <c r="V64" s="114"/>
       <c r="W64" s="114"/>
       <c r="X64" s="15" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Y64" s="114"/>
       <c r="Z64" s="114" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AA64" s="114"/>
       <c r="AB64" s="114"/>
@@ -15110,7 +15191,7 @@
       <c r="AJ64" s="114"/>
       <c r="AK64" s="114"/>
       <c r="AL64" s="15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AM64" s="114"/>
       <c r="AN64" s="118"/>
@@ -15141,7 +15222,7 @@
       <c r="G66" s="66"/>
       <c r="L66" s="117"/>
       <c r="M66" s="114" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AJ66" s="114"/>
       <c r="AK66" s="114"/>
@@ -15160,7 +15241,7 @@
       <c r="G67" s="66"/>
       <c r="L67" s="117"/>
       <c r="N67" s="114" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AJ67" s="114"/>
       <c r="AK67" s="114"/>
@@ -15179,7 +15260,7 @@
       <c r="G68" s="66"/>
       <c r="L68" s="117"/>
       <c r="N68" s="114" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AJ68" s="114"/>
       <c r="AK68" s="114"/>
@@ -15198,7 +15279,7 @@
       <c r="G69" s="66"/>
       <c r="L69" s="117"/>
       <c r="N69" s="114" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AJ69" s="114"/>
       <c r="AK69" s="114"/>
@@ -15217,7 +15298,7 @@
       <c r="G70" s="66"/>
       <c r="L70" s="117"/>
       <c r="N70" s="114" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AJ70" s="114"/>
       <c r="AK70" s="114"/>
@@ -15236,7 +15317,7 @@
       <c r="G71" s="66"/>
       <c r="L71" s="117"/>
       <c r="N71" s="114" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AJ71" s="114"/>
       <c r="AK71" s="114"/>
@@ -15255,7 +15336,7 @@
       <c r="G72" s="66"/>
       <c r="L72" s="117"/>
       <c r="N72" s="114" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AJ72" s="114"/>
       <c r="AK72" s="114"/>
@@ -15274,7 +15355,7 @@
       <c r="G73" s="66"/>
       <c r="L73" s="117"/>
       <c r="N73" s="114" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="AJ73" s="114"/>
       <c r="AK73" s="114"/>
@@ -15325,7 +15406,7 @@
       <c r="G76" s="66"/>
       <c r="L76" s="117"/>
       <c r="N76" s="114" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AJ76" s="114"/>
       <c r="AK76" s="114"/>
@@ -15344,7 +15425,7 @@
       <c r="G77" s="66"/>
       <c r="L77" s="117"/>
       <c r="N77" s="114" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AJ77" s="114"/>
       <c r="AK77" s="114"/>
@@ -15402,10 +15483,10 @@
       <c r="F79" s="67"/>
       <c r="G79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="M79" s="114" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="N79" s="114"/>
       <c r="O79" s="114"/>
@@ -15445,7 +15526,7 @@
       <c r="G80" s="66"/>
       <c r="L80" s="66"/>
       <c r="M80" s="114" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="N80" s="114"/>
       <c r="O80" s="114"/>
@@ -15484,7 +15565,7 @@
       <c r="G81" s="66"/>
       <c r="L81" s="66"/>
       <c r="N81" s="114" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="O81" s="114"/>
       <c r="P81" s="114"/>
@@ -15522,7 +15603,7 @@
       <c r="G82" s="66"/>
       <c r="L82" s="66"/>
       <c r="N82" s="114" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="O82" s="114"/>
       <c r="P82" s="114"/>
@@ -15597,7 +15678,7 @@
       <c r="G84" s="66"/>
       <c r="L84" s="66"/>
       <c r="M84" s="114" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="N84" s="114"/>
       <c r="O84" s="114"/>
@@ -15636,7 +15717,7 @@
       <c r="G85" s="66"/>
       <c r="L85" s="66"/>
       <c r="N85" s="114" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="O85" s="114"/>
       <c r="P85" s="114"/>
@@ -15711,7 +15792,7 @@
       <c r="G87" s="66"/>
       <c r="L87" s="66"/>
       <c r="M87" s="114" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="O87" s="114"/>
       <c r="P87" s="114"/>
@@ -15745,7 +15826,7 @@
       <c r="G88" s="66"/>
       <c r="L88" s="66"/>
       <c r="N88" s="114" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="O88" s="114"/>
       <c r="P88" s="114"/>
@@ -15760,7 +15841,7 @@
         <v>116</v>
       </c>
       <c r="Z88" s="115" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="AA88" s="114"/>
       <c r="AB88" s="114"/>
@@ -15779,7 +15860,7 @@
       <c r="L89" s="66"/>
       <c r="M89" s="114"/>
       <c r="N89" s="114" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="O89" s="114"/>
       <c r="P89" s="114"/>
@@ -15794,7 +15875,7 @@
         <v>116</v>
       </c>
       <c r="Z89" s="115" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="AA89" s="114"/>
       <c r="AB89" s="114"/>
@@ -15815,7 +15896,7 @@
       <c r="G90" s="66"/>
       <c r="L90" s="66"/>
       <c r="N90" s="114" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="O90" s="114"/>
       <c r="P90" s="114"/>
@@ -15826,27 +15907,27 @@
       <c r="U90" s="114"/>
       <c r="V90" s="114"/>
       <c r="W90" s="114" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="Y90" s="114"/>
       <c r="Z90" s="114" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AA90" s="114"/>
       <c r="AB90" s="114"/>
       <c r="AC90" s="114"/>
       <c r="AE90" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AG90" s="114" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AH90" s="114"/>
       <c r="AI90" s="114"/>
       <c r="AJ90" s="114"/>
       <c r="AK90" s="116"/>
       <c r="AL90" s="15" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="AV90" s="67"/>
     </row>
@@ -15858,7 +15939,7 @@
       <c r="L91" s="66"/>
       <c r="M91" s="114"/>
       <c r="N91" s="114" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="O91" s="114"/>
       <c r="P91" s="114"/>
@@ -15873,7 +15954,7 @@
         <v>116</v>
       </c>
       <c r="Z91" s="115" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AA91" s="114"/>
       <c r="AB91" s="114"/>
@@ -15931,7 +16012,7 @@
       <c r="G93" s="66"/>
       <c r="L93" s="66"/>
       <c r="M93" s="114" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="AL93" s="114"/>
       <c r="AM93" s="114"/>
@@ -15947,7 +16028,7 @@
       <c r="L94" s="66"/>
       <c r="M94" s="114"/>
       <c r="N94" s="114" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AL94" s="114"/>
       <c r="AM94" s="114"/>
@@ -16002,7 +16083,7 @@
       <c r="G96" s="66"/>
       <c r="K96" s="67"/>
       <c r="L96" s="118" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="N96" s="118"/>
       <c r="O96" s="118"/>
@@ -16043,7 +16124,7 @@
       <c r="G97" s="66"/>
       <c r="K97" s="67"/>
       <c r="L97" s="118" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N97" s="118"/>
       <c r="O97" s="118"/>
@@ -16192,7 +16273,7 @@
       </c>
       <c r="L100" s="66"/>
       <c r="M100" s="15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV100" s="67"/>
     </row>
@@ -16368,7 +16449,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
@@ -16381,7 +16462,7 @@
       <c r="J105" s="20"/>
       <c r="K105" s="20"/>
       <c r="L105" s="19" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
@@ -16429,7 +16510,7 @@
       </c>
       <c r="L106" s="66"/>
       <c r="M106" s="15" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="AV106" s="67"/>
     </row>
@@ -16440,7 +16521,7 @@
       <c r="G107" s="66"/>
       <c r="L107" s="66"/>
       <c r="M107" s="15" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AV107" s="67"/>
     </row>
@@ -23717,14 +23798,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="169">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="190"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -23733,16 +23814,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="172" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="182"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="183"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -23770,32 +23851,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="187" t="str">
+      <c r="S2" s="188" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="190"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="182"/>
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="183"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -23804,13 +23885,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -24170,7 +24251,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
       <c r="T9" s="20" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -24182,7 +24263,7 @@
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
       <c r="AD9" s="19" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -24256,7 +24337,7 @@
       <c r="C11" s="66"/>
       <c r="I11" s="67"/>
       <c r="J11" s="19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -24270,7 +24351,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="21"/>
       <c r="T11" s="20" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -24282,7 +24363,7 @@
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="19" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AE11" s="20"/>
       <c r="AF11" s="20"/>
@@ -24356,7 +24437,7 @@
       <c r="C13" s="66"/>
       <c r="I13" s="67"/>
       <c r="J13" s="19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -24370,7 +24451,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="20" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -24382,7 +24463,7 @@
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="19" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -24456,7 +24537,7 @@
       <c r="C15" s="66"/>
       <c r="I15" s="67"/>
       <c r="J15" s="19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -24470,7 +24551,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="20" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
@@ -24482,7 +24563,7 @@
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
@@ -24556,7 +24637,7 @@
       <c r="C17" s="66"/>
       <c r="I17" s="67"/>
       <c r="J17" s="19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -24570,7 +24651,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="20" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
@@ -24582,7 +24663,7 @@
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
       <c r="AD17" s="19" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
@@ -24680,7 +24761,7 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="19" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
@@ -24967,7 +25048,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -28976,7 +29057,7 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ207"/>
+  <dimension ref="A1:AZ209"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -29034,14 +29115,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="169">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="190"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -29050,16 +29131,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="172" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="182"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="183"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -29087,32 +29168,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="187" t="str">
+      <c r="S2" s="188" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="190"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="182"/>
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="183"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -29121,13 +29202,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -29407,7 +29488,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -29462,7 +29543,9 @@
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="51" t="s">
+        <v>368</v>
+      </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -29516,7 +29599,9 @@
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="C10" s="51" t="s">
+        <v>369</v>
+      </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -40204,6 +40289,114 @@
       <c r="AX207" s="51"/>
       <c r="AY207" s="51"/>
       <c r="AZ207" s="51"/>
+    </row>
+    <row r="208" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A208" s="51"/>
+      <c r="B208" s="51"/>
+      <c r="C208" s="51"/>
+      <c r="D208" s="51"/>
+      <c r="E208" s="51"/>
+      <c r="F208" s="51"/>
+      <c r="G208" s="51"/>
+      <c r="H208" s="51"/>
+      <c r="I208" s="51"/>
+      <c r="J208" s="51"/>
+      <c r="K208" s="51"/>
+      <c r="L208" s="51"/>
+      <c r="M208" s="51"/>
+      <c r="N208" s="51"/>
+      <c r="O208" s="51"/>
+      <c r="P208" s="51"/>
+      <c r="Q208" s="51"/>
+      <c r="R208" s="51"/>
+      <c r="S208" s="51"/>
+      <c r="T208" s="51"/>
+      <c r="U208" s="51"/>
+      <c r="V208" s="51"/>
+      <c r="W208" s="51"/>
+      <c r="X208" s="51"/>
+      <c r="Y208" s="51"/>
+      <c r="Z208" s="51"/>
+      <c r="AA208" s="51"/>
+      <c r="AB208" s="51"/>
+      <c r="AC208" s="51"/>
+      <c r="AD208" s="51"/>
+      <c r="AE208" s="51"/>
+      <c r="AF208" s="51"/>
+      <c r="AG208" s="51"/>
+      <c r="AH208" s="51"/>
+      <c r="AI208" s="51"/>
+      <c r="AJ208" s="51"/>
+      <c r="AK208" s="51"/>
+      <c r="AL208" s="51"/>
+      <c r="AM208" s="51"/>
+      <c r="AN208" s="51"/>
+      <c r="AO208" s="51"/>
+      <c r="AP208" s="51"/>
+      <c r="AQ208" s="51"/>
+      <c r="AR208" s="51"/>
+      <c r="AS208" s="51"/>
+      <c r="AT208" s="51"/>
+      <c r="AU208" s="51"/>
+      <c r="AV208" s="51"/>
+      <c r="AW208" s="51"/>
+      <c r="AX208" s="51"/>
+      <c r="AY208" s="51"/>
+      <c r="AZ208" s="51"/>
+    </row>
+    <row r="209" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A209" s="51"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="51"/>
+      <c r="D209" s="51"/>
+      <c r="E209" s="51"/>
+      <c r="F209" s="51"/>
+      <c r="G209" s="51"/>
+      <c r="H209" s="51"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="51"/>
+      <c r="K209" s="51"/>
+      <c r="L209" s="51"/>
+      <c r="M209" s="51"/>
+      <c r="N209" s="51"/>
+      <c r="O209" s="51"/>
+      <c r="P209" s="51"/>
+      <c r="Q209" s="51"/>
+      <c r="R209" s="51"/>
+      <c r="S209" s="51"/>
+      <c r="T209" s="51"/>
+      <c r="U209" s="51"/>
+      <c r="V209" s="51"/>
+      <c r="W209" s="51"/>
+      <c r="X209" s="51"/>
+      <c r="Y209" s="51"/>
+      <c r="Z209" s="51"/>
+      <c r="AA209" s="51"/>
+      <c r="AB209" s="51"/>
+      <c r="AC209" s="51"/>
+      <c r="AD209" s="51"/>
+      <c r="AE209" s="51"/>
+      <c r="AF209" s="51"/>
+      <c r="AG209" s="51"/>
+      <c r="AH209" s="51"/>
+      <c r="AI209" s="51"/>
+      <c r="AJ209" s="51"/>
+      <c r="AK209" s="51"/>
+      <c r="AL209" s="51"/>
+      <c r="AM209" s="51"/>
+      <c r="AN209" s="51"/>
+      <c r="AO209" s="51"/>
+      <c r="AP209" s="51"/>
+      <c r="AQ209" s="51"/>
+      <c r="AR209" s="51"/>
+      <c r="AS209" s="51"/>
+      <c r="AT209" s="51"/>
+      <c r="AU209" s="51"/>
+      <c r="AV209" s="51"/>
+      <c r="AW209" s="51"/>
+      <c r="AX209" s="51"/>
+      <c r="AY209" s="51"/>
+      <c r="AZ209" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD467477-EA31-4B44-9701-57E02FB03AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AE2DC-0CF2-47C7-841C-97ED949076F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="15" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="386">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1252,10 +1252,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>＜集計条件＞</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>・実績管理データ</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -2138,42 +2134,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・SUM(作業計画データ.作業指示数量) AS 指示数</t>
-    <rPh sb="24" eb="26">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・SUM(実績数量.着手数) AS ショット数</t>
-    <rPh sb="10" eb="12">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・SUM(実績数量.完成数) AS 合格数</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・SUM(実績数量.不良数) AS 不良数</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・ISNULL(ROUND((SUM(実績数量.完成数) /NULLIF(SUM(実績数量.着手数),0))*100,2),0) AS 合格率</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・ISNULL(ROUND(((SUM(実績数量.不良数) + SUM(実績数量.調整数)) /NULLIF(SUM(実績数量.着手数),0))*100,2),0) AS 不良率</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>作業計画データ.事業所コード</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2329,13 +2289,6 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・SUM(実績数量.調整数) AS 調整数</t>
-    <rPh sb="10" eb="12">
-      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -2693,6 +2646,49 @@
       <t>ケンスウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・実績数量.着手数 AS ショット数</t>
+    <rPh sb="6" eb="8">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・作業計画データ.作業指示数量 AS 指示数</t>
+    <rPh sb="19" eb="21">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・実績数量.完成数 AS 合格数</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・実績数量.不良数</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・実績数量.調整数</t>
+    <rPh sb="6" eb="8">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・ISNULL(ROUND((実績数量.完成数 /NULLIF(実績数量.着手数,0))*100,2),0) AS 合格率</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・ISNULL(ROUND(((実績数量.不良数 + 実績数量.調整数) /NULLIF(実績数量.着手数,0))*100,2),0) AS 不良率</t>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -3545,6 +3541,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3572,103 +3653,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3687,10 +3671,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5746,1770 +5742,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="130"/>
-      <c r="AV1" s="130"/>
-      <c r="AW1" s="130"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="161"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="131"/>
-      <c r="AS2" s="131"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="131"/>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="131"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="133" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="132" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132" t="s">
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132" t="s">
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132" t="s">
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="132"/>
-      <c r="AW3" s="132"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="132"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="140">
+      <c r="B5" s="155">
         <v>1</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141">
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="136">
         <v>43734</v>
       </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="142" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="143"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="142" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="139" t="s">
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="148" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="139" t="s">
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="154"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="154"/>
+      <c r="AB5" s="154"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="154"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="139"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="139"/>
-      <c r="AS5" s="139"/>
-      <c r="AT5" s="139"/>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="148"/>
-      <c r="Y6" s="148"/>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="148"/>
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="148"/>
-      <c r="AD6" s="148"/>
-      <c r="AE6" s="148"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="148"/>
-      <c r="AH6" s="148"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="148"/>
-      <c r="AK6" s="148"/>
-      <c r="AL6" s="148"/>
-      <c r="AM6" s="148"/>
-      <c r="AN6" s="139"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="139"/>
-      <c r="AQ6" s="139"/>
-      <c r="AR6" s="139"/>
-      <c r="AS6" s="139"/>
-      <c r="AT6" s="139"/>
-      <c r="AU6" s="139"/>
-      <c r="AV6" s="139"/>
-      <c r="AW6" s="139"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
+      <c r="AE6" s="154"/>
+      <c r="AF6" s="154"/>
+      <c r="AG6" s="154"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="154"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="154"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="139"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="139"/>
-      <c r="AQ7" s="139"/>
-      <c r="AR7" s="139"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="139"/>
-      <c r="AU7" s="139"/>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="154"/>
+      <c r="AD7" s="154"/>
+      <c r="AE7" s="154"/>
+      <c r="AF7" s="154"/>
+      <c r="AG7" s="154"/>
+      <c r="AH7" s="154"/>
+      <c r="AI7" s="154"/>
+      <c r="AJ7" s="154"/>
+      <c r="AK7" s="154"/>
+      <c r="AL7" s="154"/>
+      <c r="AM7" s="154"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="148"/>
-      <c r="AL8" s="148"/>
-      <c r="AM8" s="148"/>
-      <c r="AN8" s="139"/>
-      <c r="AO8" s="139"/>
-      <c r="AP8" s="139"/>
-      <c r="AQ8" s="139"/>
-      <c r="AR8" s="139"/>
-      <c r="AS8" s="139"/>
-      <c r="AT8" s="139"/>
-      <c r="AU8" s="139"/>
-      <c r="AV8" s="139"/>
-      <c r="AW8" s="139"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="154"/>
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="154"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="148"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="148"/>
-      <c r="AL9" s="148"/>
-      <c r="AM9" s="148"/>
-      <c r="AN9" s="139"/>
-      <c r="AO9" s="139"/>
-      <c r="AP9" s="139"/>
-      <c r="AQ9" s="139"/>
-      <c r="AR9" s="139"/>
-      <c r="AS9" s="139"/>
-      <c r="AT9" s="139"/>
-      <c r="AU9" s="139"/>
-      <c r="AV9" s="139"/>
-      <c r="AW9" s="139"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="154"/>
+      <c r="AK9" s="154"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="154"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="148"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="148"/>
-      <c r="AL10" s="148"/>
-      <c r="AM10" s="148"/>
-      <c r="AN10" s="139"/>
-      <c r="AO10" s="139"/>
-      <c r="AP10" s="139"/>
-      <c r="AQ10" s="139"/>
-      <c r="AR10" s="139"/>
-      <c r="AS10" s="139"/>
-      <c r="AT10" s="139"/>
-      <c r="AU10" s="139"/>
-      <c r="AV10" s="139"/>
-      <c r="AW10" s="139"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="154"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="154"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="161"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="161"/>
-      <c r="AI11" s="161"/>
-      <c r="AJ11" s="161"/>
-      <c r="AK11" s="161"/>
-      <c r="AL11" s="161"/>
-      <c r="AM11" s="162"/>
-      <c r="AN11" s="139"/>
-      <c r="AO11" s="139"/>
-      <c r="AP11" s="139"/>
-      <c r="AQ11" s="139"/>
-      <c r="AR11" s="139"/>
-      <c r="AS11" s="139"/>
-      <c r="AT11" s="139"/>
-      <c r="AU11" s="139"/>
-      <c r="AV11" s="139"/>
-      <c r="AW11" s="139"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="156"/>
-      <c r="AH12" s="156"/>
-      <c r="AI12" s="156"/>
-      <c r="AJ12" s="156"/>
-      <c r="AK12" s="156"/>
-      <c r="AL12" s="156"/>
-      <c r="AM12" s="157"/>
-      <c r="AN12" s="158"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="159"/>
-      <c r="AQ12" s="159"/>
-      <c r="AR12" s="160"/>
-      <c r="AS12" s="158"/>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="160"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
+      <c r="AK12" s="145"/>
+      <c r="AL12" s="145"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="132"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="131"/>
+      <c r="AU12" s="131"/>
+      <c r="AV12" s="131"/>
+      <c r="AW12" s="132"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="156"/>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="157"/>
-      <c r="AN13" s="158"/>
-      <c r="AO13" s="159"/>
-      <c r="AP13" s="159"/>
-      <c r="AQ13" s="159"/>
-      <c r="AR13" s="160"/>
-      <c r="AS13" s="158"/>
-      <c r="AT13" s="159"/>
-      <c r="AU13" s="159"/>
-      <c r="AV13" s="159"/>
-      <c r="AW13" s="160"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="145"/>
+      <c r="AM13" s="146"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="131"/>
+      <c r="AP13" s="131"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="132"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="131"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="131"/>
+      <c r="AW13" s="132"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="148"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="148"/>
-      <c r="AJ14" s="148"/>
-      <c r="AK14" s="148"/>
-      <c r="AL14" s="148"/>
-      <c r="AM14" s="148"/>
-      <c r="AN14" s="139"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="139"/>
-      <c r="AQ14" s="139"/>
-      <c r="AR14" s="139"/>
-      <c r="AS14" s="158"/>
-      <c r="AT14" s="159"/>
-      <c r="AU14" s="159"/>
-      <c r="AV14" s="159"/>
-      <c r="AW14" s="160"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="154"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="154"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="131"/>
+      <c r="AU14" s="131"/>
+      <c r="AV14" s="131"/>
+      <c r="AW14" s="132"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="156"/>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="156"/>
-      <c r="AK15" s="156"/>
-      <c r="AL15" s="156"/>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="158"/>
-      <c r="AO15" s="159"/>
-      <c r="AP15" s="159"/>
-      <c r="AQ15" s="159"/>
-      <c r="AR15" s="160"/>
-      <c r="AS15" s="158"/>
-      <c r="AT15" s="159"/>
-      <c r="AU15" s="159"/>
-      <c r="AV15" s="159"/>
-      <c r="AW15" s="160"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="146"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="131"/>
+      <c r="AP15" s="131"/>
+      <c r="AQ15" s="131"/>
+      <c r="AR15" s="132"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="131"/>
+      <c r="AU15" s="131"/>
+      <c r="AV15" s="131"/>
+      <c r="AW15" s="132"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="156"/>
-      <c r="AH16" s="156"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="156"/>
-      <c r="AK16" s="156"/>
-      <c r="AL16" s="156"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="158"/>
-      <c r="AO16" s="159"/>
-      <c r="AP16" s="159"/>
-      <c r="AQ16" s="159"/>
-      <c r="AR16" s="160"/>
-      <c r="AS16" s="158"/>
-      <c r="AT16" s="159"/>
-      <c r="AU16" s="159"/>
-      <c r="AV16" s="159"/>
-      <c r="AW16" s="160"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
+      <c r="AL16" s="145"/>
+      <c r="AM16" s="146"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="131"/>
+      <c r="AP16" s="131"/>
+      <c r="AQ16" s="131"/>
+      <c r="AR16" s="132"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="131"/>
+      <c r="AU16" s="131"/>
+      <c r="AV16" s="131"/>
+      <c r="AW16" s="132"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="156"/>
-      <c r="AH17" s="156"/>
-      <c r="AI17" s="156"/>
-      <c r="AJ17" s="156"/>
-      <c r="AK17" s="156"/>
-      <c r="AL17" s="156"/>
-      <c r="AM17" s="157"/>
-      <c r="AN17" s="158"/>
-      <c r="AO17" s="159"/>
-      <c r="AP17" s="159"/>
-      <c r="AQ17" s="159"/>
-      <c r="AR17" s="160"/>
-      <c r="AS17" s="158"/>
-      <c r="AT17" s="159"/>
-      <c r="AU17" s="159"/>
-      <c r="AV17" s="159"/>
-      <c r="AW17" s="160"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="146"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="131"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="131"/>
+      <c r="AR17" s="132"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="131"/>
+      <c r="AU17" s="131"/>
+      <c r="AV17" s="131"/>
+      <c r="AW17" s="132"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="156"/>
-      <c r="AH18" s="156"/>
-      <c r="AI18" s="156"/>
-      <c r="AJ18" s="156"/>
-      <c r="AK18" s="156"/>
-      <c r="AL18" s="156"/>
-      <c r="AM18" s="157"/>
-      <c r="AN18" s="158"/>
-      <c r="AO18" s="159"/>
-      <c r="AP18" s="159"/>
-      <c r="AQ18" s="159"/>
-      <c r="AR18" s="160"/>
-      <c r="AS18" s="158"/>
-      <c r="AT18" s="159"/>
-      <c r="AU18" s="159"/>
-      <c r="AV18" s="159"/>
-      <c r="AW18" s="160"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="130"/>
+      <c r="AO18" s="131"/>
+      <c r="AP18" s="131"/>
+      <c r="AQ18" s="131"/>
+      <c r="AR18" s="132"/>
+      <c r="AS18" s="130"/>
+      <c r="AT18" s="131"/>
+      <c r="AU18" s="131"/>
+      <c r="AV18" s="131"/>
+      <c r="AW18" s="132"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="156"/>
-      <c r="AH19" s="156"/>
-      <c r="AI19" s="156"/>
-      <c r="AJ19" s="156"/>
-      <c r="AK19" s="156"/>
-      <c r="AL19" s="156"/>
-      <c r="AM19" s="157"/>
-      <c r="AN19" s="139"/>
-      <c r="AO19" s="139"/>
-      <c r="AP19" s="139"/>
-      <c r="AQ19" s="139"/>
-      <c r="AR19" s="139"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="159"/>
-      <c r="AU19" s="159"/>
-      <c r="AV19" s="159"/>
-      <c r="AW19" s="160"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="145"/>
+      <c r="AL19" s="145"/>
+      <c r="AM19" s="146"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="130"/>
+      <c r="AT19" s="131"/>
+      <c r="AU19" s="131"/>
+      <c r="AV19" s="131"/>
+      <c r="AW19" s="132"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="156"/>
-      <c r="AI20" s="156"/>
-      <c r="AJ20" s="156"/>
-      <c r="AK20" s="156"/>
-      <c r="AL20" s="156"/>
-      <c r="AM20" s="157"/>
-      <c r="AN20" s="158"/>
-      <c r="AO20" s="159"/>
-      <c r="AP20" s="159"/>
-      <c r="AQ20" s="159"/>
-      <c r="AR20" s="160"/>
-      <c r="AS20" s="158"/>
-      <c r="AT20" s="159"/>
-      <c r="AU20" s="159"/>
-      <c r="AV20" s="159"/>
-      <c r="AW20" s="160"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
+      <c r="AK20" s="145"/>
+      <c r="AL20" s="145"/>
+      <c r="AM20" s="146"/>
+      <c r="AN20" s="130"/>
+      <c r="AO20" s="131"/>
+      <c r="AP20" s="131"/>
+      <c r="AQ20" s="131"/>
+      <c r="AR20" s="132"/>
+      <c r="AS20" s="130"/>
+      <c r="AT20" s="131"/>
+      <c r="AU20" s="131"/>
+      <c r="AV20" s="131"/>
+      <c r="AW20" s="132"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="156"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="156"/>
-      <c r="AJ21" s="156"/>
-      <c r="AK21" s="156"/>
-      <c r="AL21" s="156"/>
-      <c r="AM21" s="157"/>
-      <c r="AN21" s="158"/>
-      <c r="AO21" s="159"/>
-      <c r="AP21" s="159"/>
-      <c r="AQ21" s="159"/>
-      <c r="AR21" s="160"/>
-      <c r="AS21" s="158"/>
-      <c r="AT21" s="159"/>
-      <c r="AU21" s="159"/>
-      <c r="AV21" s="159"/>
-      <c r="AW21" s="160"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="145"/>
+      <c r="AL21" s="145"/>
+      <c r="AM21" s="146"/>
+      <c r="AN21" s="130"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="131"/>
+      <c r="AR21" s="132"/>
+      <c r="AS21" s="130"/>
+      <c r="AT21" s="131"/>
+      <c r="AU21" s="131"/>
+      <c r="AV21" s="131"/>
+      <c r="AW21" s="132"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="156"/>
-      <c r="AJ22" s="156"/>
-      <c r="AK22" s="156"/>
-      <c r="AL22" s="156"/>
-      <c r="AM22" s="157"/>
-      <c r="AN22" s="158"/>
-      <c r="AO22" s="159"/>
-      <c r="AP22" s="159"/>
-      <c r="AQ22" s="159"/>
-      <c r="AR22" s="160"/>
-      <c r="AS22" s="158"/>
-      <c r="AT22" s="159"/>
-      <c r="AU22" s="159"/>
-      <c r="AV22" s="159"/>
-      <c r="AW22" s="160"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="145"/>
+      <c r="AL22" s="145"/>
+      <c r="AM22" s="146"/>
+      <c r="AN22" s="130"/>
+      <c r="AO22" s="131"/>
+      <c r="AP22" s="131"/>
+      <c r="AQ22" s="131"/>
+      <c r="AR22" s="132"/>
+      <c r="AS22" s="130"/>
+      <c r="AT22" s="131"/>
+      <c r="AU22" s="131"/>
+      <c r="AV22" s="131"/>
+      <c r="AW22" s="132"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="156"/>
-      <c r="AI23" s="156"/>
-      <c r="AJ23" s="156"/>
-      <c r="AK23" s="156"/>
-      <c r="AL23" s="156"/>
-      <c r="AM23" s="157"/>
-      <c r="AN23" s="158"/>
-      <c r="AO23" s="159"/>
-      <c r="AP23" s="159"/>
-      <c r="AQ23" s="159"/>
-      <c r="AR23" s="160"/>
-      <c r="AS23" s="158"/>
-      <c r="AT23" s="159"/>
-      <c r="AU23" s="159"/>
-      <c r="AV23" s="159"/>
-      <c r="AW23" s="160"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="145"/>
+      <c r="AL23" s="145"/>
+      <c r="AM23" s="146"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="131"/>
+      <c r="AQ23" s="131"/>
+      <c r="AR23" s="132"/>
+      <c r="AS23" s="130"/>
+      <c r="AT23" s="131"/>
+      <c r="AU23" s="131"/>
+      <c r="AV23" s="131"/>
+      <c r="AW23" s="132"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="156"/>
-      <c r="AH24" s="156"/>
-      <c r="AI24" s="156"/>
-      <c r="AJ24" s="156"/>
-      <c r="AK24" s="156"/>
-      <c r="AL24" s="156"/>
-      <c r="AM24" s="157"/>
-      <c r="AN24" s="158"/>
-      <c r="AO24" s="159"/>
-      <c r="AP24" s="159"/>
-      <c r="AQ24" s="159"/>
-      <c r="AR24" s="160"/>
-      <c r="AS24" s="158"/>
-      <c r="AT24" s="159"/>
-      <c r="AU24" s="159"/>
-      <c r="AV24" s="159"/>
-      <c r="AW24" s="160"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
+      <c r="AK24" s="145"/>
+      <c r="AL24" s="145"/>
+      <c r="AM24" s="146"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="131"/>
+      <c r="AP24" s="131"/>
+      <c r="AQ24" s="131"/>
+      <c r="AR24" s="132"/>
+      <c r="AS24" s="130"/>
+      <c r="AT24" s="131"/>
+      <c r="AU24" s="131"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="132"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="156"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="156"/>
-      <c r="AJ25" s="156"/>
-      <c r="AK25" s="156"/>
-      <c r="AL25" s="156"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="158"/>
-      <c r="AO25" s="159"/>
-      <c r="AP25" s="159"/>
-      <c r="AQ25" s="159"/>
-      <c r="AR25" s="160"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="159"/>
-      <c r="AU25" s="159"/>
-      <c r="AV25" s="159"/>
-      <c r="AW25" s="160"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="145"/>
+      <c r="AL25" s="145"/>
+      <c r="AM25" s="146"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="131"/>
+      <c r="AQ25" s="131"/>
+      <c r="AR25" s="132"/>
+      <c r="AS25" s="130"/>
+      <c r="AT25" s="131"/>
+      <c r="AU25" s="131"/>
+      <c r="AV25" s="131"/>
+      <c r="AW25" s="132"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="156"/>
-      <c r="AH26" s="156"/>
-      <c r="AI26" s="156"/>
-      <c r="AJ26" s="156"/>
-      <c r="AK26" s="156"/>
-      <c r="AL26" s="156"/>
-      <c r="AM26" s="157"/>
-      <c r="AN26" s="158"/>
-      <c r="AO26" s="159"/>
-      <c r="AP26" s="159"/>
-      <c r="AQ26" s="159"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="158"/>
-      <c r="AT26" s="159"/>
-      <c r="AU26" s="159"/>
-      <c r="AV26" s="159"/>
-      <c r="AW26" s="160"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="146"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="132"/>
+      <c r="AS26" s="130"/>
+      <c r="AT26" s="131"/>
+      <c r="AU26" s="131"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="132"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="156"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="156"/>
-      <c r="Z27" s="156"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="156"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="156"/>
-      <c r="AH27" s="156"/>
-      <c r="AI27" s="156"/>
-      <c r="AJ27" s="156"/>
-      <c r="AK27" s="156"/>
-      <c r="AL27" s="156"/>
-      <c r="AM27" s="157"/>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="159"/>
-      <c r="AP27" s="159"/>
-      <c r="AQ27" s="159"/>
-      <c r="AR27" s="160"/>
-      <c r="AS27" s="158"/>
-      <c r="AT27" s="159"/>
-      <c r="AU27" s="159"/>
-      <c r="AV27" s="159"/>
-      <c r="AW27" s="160"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
+      <c r="AL27" s="145"/>
+      <c r="AM27" s="146"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="131"/>
+      <c r="AP27" s="131"/>
+      <c r="AQ27" s="131"/>
+      <c r="AR27" s="132"/>
+      <c r="AS27" s="130"/>
+      <c r="AT27" s="131"/>
+      <c r="AU27" s="131"/>
+      <c r="AV27" s="131"/>
+      <c r="AW27" s="132"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="157"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="159"/>
-      <c r="AP28" s="159"/>
-      <c r="AQ28" s="159"/>
-      <c r="AR28" s="160"/>
-      <c r="AS28" s="158"/>
-      <c r="AT28" s="159"/>
-      <c r="AU28" s="159"/>
-      <c r="AV28" s="159"/>
-      <c r="AW28" s="160"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="146"/>
+      <c r="AN28" s="130"/>
+      <c r="AO28" s="131"/>
+      <c r="AP28" s="131"/>
+      <c r="AQ28" s="131"/>
+      <c r="AR28" s="132"/>
+      <c r="AS28" s="130"/>
+      <c r="AT28" s="131"/>
+      <c r="AU28" s="131"/>
+      <c r="AV28" s="131"/>
+      <c r="AW28" s="132"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="156"/>
-      <c r="AH29" s="156"/>
-      <c r="AI29" s="156"/>
-      <c r="AJ29" s="156"/>
-      <c r="AK29" s="156"/>
-      <c r="AL29" s="156"/>
-      <c r="AM29" s="157"/>
-      <c r="AN29" s="158"/>
-      <c r="AO29" s="159"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="160"/>
-      <c r="AS29" s="158"/>
-      <c r="AT29" s="159"/>
-      <c r="AU29" s="159"/>
-      <c r="AV29" s="159"/>
-      <c r="AW29" s="160"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="144"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="145"/>
+      <c r="AL29" s="145"/>
+      <c r="AM29" s="146"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="131"/>
+      <c r="AP29" s="131"/>
+      <c r="AQ29" s="131"/>
+      <c r="AR29" s="132"/>
+      <c r="AS29" s="130"/>
+      <c r="AT29" s="131"/>
+      <c r="AU29" s="131"/>
+      <c r="AV29" s="131"/>
+      <c r="AW29" s="132"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="156"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="156"/>
-      <c r="AJ30" s="156"/>
-      <c r="AK30" s="156"/>
-      <c r="AL30" s="156"/>
-      <c r="AM30" s="157"/>
-      <c r="AN30" s="158"/>
-      <c r="AO30" s="159"/>
-      <c r="AP30" s="159"/>
-      <c r="AQ30" s="159"/>
-      <c r="AR30" s="160"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="159"/>
-      <c r="AU30" s="159"/>
-      <c r="AV30" s="159"/>
-      <c r="AW30" s="160"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="145"/>
+      <c r="AL30" s="145"/>
+      <c r="AM30" s="146"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="131"/>
+      <c r="AP30" s="131"/>
+      <c r="AQ30" s="131"/>
+      <c r="AR30" s="132"/>
+      <c r="AS30" s="130"/>
+      <c r="AT30" s="131"/>
+      <c r="AU30" s="131"/>
+      <c r="AV30" s="131"/>
+      <c r="AW30" s="132"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="156"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="156"/>
-      <c r="AJ31" s="156"/>
-      <c r="AK31" s="156"/>
-      <c r="AL31" s="156"/>
-      <c r="AM31" s="157"/>
-      <c r="AN31" s="158"/>
-      <c r="AO31" s="159"/>
-      <c r="AP31" s="159"/>
-      <c r="AQ31" s="159"/>
-      <c r="AR31" s="160"/>
-      <c r="AS31" s="158"/>
-      <c r="AT31" s="159"/>
-      <c r="AU31" s="159"/>
-      <c r="AV31" s="159"/>
-      <c r="AW31" s="160"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="144"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="145"/>
+      <c r="AK31" s="145"/>
+      <c r="AL31" s="145"/>
+      <c r="AM31" s="146"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="131"/>
+      <c r="AP31" s="131"/>
+      <c r="AQ31" s="131"/>
+      <c r="AR31" s="132"/>
+      <c r="AS31" s="130"/>
+      <c r="AT31" s="131"/>
+      <c r="AU31" s="131"/>
+      <c r="AV31" s="131"/>
+      <c r="AW31" s="132"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="156"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="156"/>
-      <c r="AH32" s="156"/>
-      <c r="AI32" s="156"/>
-      <c r="AJ32" s="156"/>
-      <c r="AK32" s="156"/>
-      <c r="AL32" s="156"/>
-      <c r="AM32" s="157"/>
-      <c r="AN32" s="158"/>
-      <c r="AO32" s="159"/>
-      <c r="AP32" s="159"/>
-      <c r="AQ32" s="159"/>
-      <c r="AR32" s="160"/>
-      <c r="AS32" s="158"/>
-      <c r="AT32" s="159"/>
-      <c r="AU32" s="159"/>
-      <c r="AV32" s="159"/>
-      <c r="AW32" s="160"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="146"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="131"/>
+      <c r="AQ32" s="131"/>
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="130"/>
+      <c r="AT32" s="131"/>
+      <c r="AU32" s="131"/>
+      <c r="AV32" s="131"/>
+      <c r="AW32" s="132"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="149"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="156"/>
-      <c r="AH33" s="156"/>
-      <c r="AI33" s="156"/>
-      <c r="AJ33" s="156"/>
-      <c r="AK33" s="156"/>
-      <c r="AL33" s="156"/>
-      <c r="AM33" s="157"/>
-      <c r="AN33" s="158"/>
-      <c r="AO33" s="159"/>
-      <c r="AP33" s="159"/>
-      <c r="AQ33" s="159"/>
-      <c r="AR33" s="160"/>
-      <c r="AS33" s="158"/>
-      <c r="AT33" s="159"/>
-      <c r="AU33" s="159"/>
-      <c r="AV33" s="159"/>
-      <c r="AW33" s="160"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="145"/>
+      <c r="AL33" s="145"/>
+      <c r="AM33" s="146"/>
+      <c r="AN33" s="130"/>
+      <c r="AO33" s="131"/>
+      <c r="AP33" s="131"/>
+      <c r="AQ33" s="131"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="130"/>
+      <c r="AT33" s="131"/>
+      <c r="AU33" s="131"/>
+      <c r="AV33" s="131"/>
+      <c r="AW33" s="132"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="149"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="168"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="168"/>
-      <c r="Q34" s="168"/>
-      <c r="R34" s="169"/>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="139"/>
-      <c r="V34" s="155"/>
-      <c r="W34" s="156"/>
-      <c r="X34" s="156"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="156"/>
-      <c r="AA34" s="156"/>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="156"/>
-      <c r="AG34" s="156"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="156"/>
-      <c r="AJ34" s="156"/>
-      <c r="AK34" s="156"/>
-      <c r="AL34" s="156"/>
-      <c r="AM34" s="157"/>
-      <c r="AN34" s="158"/>
-      <c r="AO34" s="159"/>
-      <c r="AP34" s="159"/>
-      <c r="AQ34" s="159"/>
-      <c r="AR34" s="160"/>
-      <c r="AS34" s="158"/>
-      <c r="AT34" s="159"/>
-      <c r="AU34" s="159"/>
-      <c r="AV34" s="159"/>
-      <c r="AW34" s="160"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="145"/>
+      <c r="AI34" s="145"/>
+      <c r="AJ34" s="145"/>
+      <c r="AK34" s="145"/>
+      <c r="AL34" s="145"/>
+      <c r="AM34" s="146"/>
+      <c r="AN34" s="130"/>
+      <c r="AO34" s="131"/>
+      <c r="AP34" s="131"/>
+      <c r="AQ34" s="131"/>
+      <c r="AR34" s="132"/>
+      <c r="AS34" s="130"/>
+      <c r="AT34" s="131"/>
+      <c r="AU34" s="131"/>
+      <c r="AV34" s="131"/>
+      <c r="AW34" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7526,239 +7755,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7918,11 +7914,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="176"/>
+      <c r="AO2" s="170"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="172"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7931,14 +7927,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="179"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="174"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="175"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8019,7 +8015,7 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -8955,7 +8951,7 @@
       <c r="G32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -8979,7 +8975,7 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
@@ -9004,7 +9000,7 @@
       <c r="G33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -9027,7 +9023,7 @@
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
@@ -9050,7 +9046,7 @@
     </row>
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J34" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -9069,7 +9065,7 @@
       <c r="AE34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL34" s="11"/>
       <c r="AN34" s="11"/>
@@ -9087,13 +9083,13 @@
     </row>
     <row r="35" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J35" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="R35" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -9110,7 +9106,7 @@
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL35" s="11"/>
       <c r="AN35" s="11"/>
@@ -9522,10 +9518,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="180" t="s">
+      <c r="B45" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="181"/>
+      <c r="C45" s="179"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -9608,10 +9604,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="170">
+      <c r="B46" s="180">
         <v>1</v>
       </c>
-      <c r="C46" s="171"/>
+      <c r="C46" s="181"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -9622,7 +9618,7 @@
       <c r="I46" s="79"/>
       <c r="J46" s="80"/>
       <c r="K46" s="119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L46" s="79"/>
       <c r="M46" s="79"/>
@@ -9643,18 +9639,18 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="172" t="s">
+      <c r="AE46" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF46" s="173"/>
-      <c r="AG46" s="172"/>
-      <c r="AH46" s="173"/>
+      <c r="AF46" s="177"/>
+      <c r="AG46" s="176"/>
+      <c r="AH46" s="177"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="172"/>
-      <c r="AL46" s="173"/>
+      <c r="AK46" s="176"/>
+      <c r="AL46" s="177"/>
       <c r="AM46" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN46" s="77"/>
       <c r="AO46" s="77"/>
@@ -9686,10 +9682,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="170">
+      <c r="B47" s="180">
         <v>2</v>
       </c>
-      <c r="C47" s="171"/>
+      <c r="C47" s="181"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -9700,7 +9696,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="111"/>
       <c r="K47" s="110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L47" s="79"/>
       <c r="M47" s="79"/>
@@ -9721,18 +9717,18 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="172" t="s">
+      <c r="AE47" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF47" s="173"/>
-      <c r="AG47" s="172"/>
-      <c r="AH47" s="173"/>
+      <c r="AF47" s="177"/>
+      <c r="AG47" s="176"/>
+      <c r="AH47" s="177"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="172"/>
-      <c r="AL47" s="173"/>
+      <c r="AK47" s="176"/>
+      <c r="AL47" s="177"/>
       <c r="AM47" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN47" s="77"/>
       <c r="AO47" s="77"/>
@@ -9764,10 +9760,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="170">
+      <c r="B48" s="180">
         <v>3</v>
       </c>
-      <c r="C48" s="171"/>
+      <c r="C48" s="181"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -9778,7 +9774,7 @@
       <c r="I48" s="79"/>
       <c r="J48" s="120"/>
       <c r="K48" s="75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L48" s="79"/>
       <c r="M48" s="79"/>
@@ -9799,18 +9795,18 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="172" t="s">
+      <c r="AE48" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF48" s="173"/>
-      <c r="AG48" s="172"/>
-      <c r="AH48" s="173"/>
+      <c r="AF48" s="177"/>
+      <c r="AG48" s="176"/>
+      <c r="AH48" s="177"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="172"/>
-      <c r="AL48" s="173"/>
+      <c r="AK48" s="176"/>
+      <c r="AL48" s="177"/>
       <c r="AM48" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN48" s="77"/>
       <c r="AO48" s="77"/>
@@ -9842,10 +9838,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="170">
+      <c r="B49" s="180">
         <v>4</v>
       </c>
-      <c r="C49" s="171"/>
+      <c r="C49" s="181"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -9856,7 +9852,7 @@
       <c r="I49" s="79"/>
       <c r="J49" s="120"/>
       <c r="K49" s="119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L49" s="79"/>
       <c r="M49" s="79"/>
@@ -9877,18 +9873,18 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="172" t="s">
+      <c r="AE49" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF49" s="173"/>
-      <c r="AG49" s="172"/>
-      <c r="AH49" s="173"/>
+      <c r="AF49" s="177"/>
+      <c r="AG49" s="176"/>
+      <c r="AH49" s="177"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="172"/>
-      <c r="AL49" s="173"/>
+      <c r="AK49" s="176"/>
+      <c r="AL49" s="177"/>
       <c r="AM49" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN49" s="77"/>
       <c r="AO49" s="77"/>
@@ -9920,10 +9916,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="170">
+      <c r="B50" s="180">
         <v>5</v>
       </c>
-      <c r="C50" s="171"/>
+      <c r="C50" s="181"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -9934,7 +9930,7 @@
       <c r="I50" s="79"/>
       <c r="J50" s="120"/>
       <c r="K50" s="119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L50" s="79"/>
       <c r="M50" s="79"/>
@@ -9955,18 +9951,18 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="172" t="s">
+      <c r="AE50" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF50" s="173"/>
-      <c r="AG50" s="172"/>
-      <c r="AH50" s="173"/>
+      <c r="AF50" s="177"/>
+      <c r="AG50" s="176"/>
+      <c r="AH50" s="177"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="172"/>
-      <c r="AL50" s="173"/>
+      <c r="AK50" s="176"/>
+      <c r="AL50" s="177"/>
       <c r="AM50" s="76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AN50" s="77"/>
       <c r="AO50" s="77"/>
@@ -9998,12 +9994,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="170">
+      <c r="B51" s="180">
         <v>6</v>
       </c>
-      <c r="C51" s="171"/>
+      <c r="C51" s="181"/>
       <c r="D51" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E51" s="79"/>
       <c r="F51" s="79"/>
@@ -10012,7 +10008,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="120"/>
       <c r="K51" s="119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L51" s="79"/>
       <c r="M51" s="79"/>
@@ -10033,18 +10029,18 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="172" t="s">
+      <c r="AE51" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF51" s="173"/>
-      <c r="AG51" s="172"/>
-      <c r="AH51" s="173"/>
+      <c r="AF51" s="177"/>
+      <c r="AG51" s="176"/>
+      <c r="AH51" s="177"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="172"/>
-      <c r="AL51" s="173"/>
+      <c r="AK51" s="176"/>
+      <c r="AL51" s="177"/>
       <c r="AM51" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN51" s="77"/>
       <c r="AO51" s="77"/>
@@ -10076,12 +10072,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="170">
+      <c r="B52" s="180">
         <v>7</v>
       </c>
-      <c r="C52" s="171"/>
+      <c r="C52" s="181"/>
       <c r="D52" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E52" s="79"/>
       <c r="F52" s="79"/>
@@ -10090,7 +10086,7 @@
       <c r="I52" s="79"/>
       <c r="J52" s="111"/>
       <c r="K52" s="110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L52" s="79"/>
       <c r="M52" s="79"/>
@@ -10111,18 +10107,18 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="172" t="s">
+      <c r="AE52" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF52" s="173"/>
-      <c r="AG52" s="172"/>
-      <c r="AH52" s="173"/>
+      <c r="AF52" s="177"/>
+      <c r="AG52" s="176"/>
+      <c r="AH52" s="177"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="172"/>
-      <c r="AL52" s="173"/>
+      <c r="AK52" s="176"/>
+      <c r="AL52" s="177"/>
       <c r="AM52" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN52" s="77"/>
       <c r="AO52" s="77"/>
@@ -10154,12 +10150,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="170">
+      <c r="B53" s="180">
         <v>8</v>
       </c>
-      <c r="C53" s="171"/>
+      <c r="C53" s="181"/>
       <c r="D53" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="79"/>
       <c r="F53" s="79"/>
@@ -10168,7 +10164,7 @@
       <c r="I53" s="79"/>
       <c r="J53" s="120"/>
       <c r="K53" s="119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L53" s="79"/>
       <c r="M53" s="79"/>
@@ -10189,18 +10185,18 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="172" t="s">
+      <c r="AE53" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF53" s="173"/>
-      <c r="AG53" s="172"/>
-      <c r="AH53" s="173"/>
+      <c r="AF53" s="177"/>
+      <c r="AG53" s="176"/>
+      <c r="AH53" s="177"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="172"/>
-      <c r="AL53" s="173"/>
+      <c r="AK53" s="176"/>
+      <c r="AL53" s="177"/>
       <c r="AM53" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN53" s="77"/>
       <c r="AO53" s="77"/>
@@ -10232,12 +10228,12 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="170">
+      <c r="B54" s="180">
         <v>9</v>
       </c>
-      <c r="C54" s="171"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E54" s="79"/>
       <c r="F54" s="79"/>
@@ -10246,7 +10242,7 @@
       <c r="I54" s="79"/>
       <c r="J54" s="120"/>
       <c r="K54" s="119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="79"/>
@@ -10267,18 +10263,18 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="172" t="s">
+      <c r="AE54" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="AF54" s="173"/>
-      <c r="AG54" s="172"/>
-      <c r="AH54" s="173"/>
+      <c r="AF54" s="177"/>
+      <c r="AG54" s="176"/>
+      <c r="AH54" s="177"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="172"/>
-      <c r="AL54" s="173"/>
+      <c r="AK54" s="176"/>
+      <c r="AL54" s="177"/>
       <c r="AM54" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN54" s="77"/>
       <c r="AO54" s="77"/>
@@ -10310,13 +10306,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10333,22 +10338,13 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10370,7 +10366,7 @@
   <dimension ref="A1:DI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -10494,7 +10490,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="177" t="str">
+      <c r="CU1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -10625,7 +10621,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="177"/>
+      <c r="CU2" s="173"/>
       <c r="CV2" s="182"/>
       <c r="CW2" s="182"/>
       <c r="CX2" s="182"/>
@@ -10844,22 +10840,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="163" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="191" t="s">
@@ -10868,13 +10864,13 @@
       <c r="J6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -10889,17 +10885,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="191"/>
       <c r="J7" s="191"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -10924,7 +10920,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>88</v>
@@ -10970,10 +10966,10 @@
         <v>131</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>88</v>
@@ -11071,22 +11067,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="163" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="192" t="s">
@@ -11095,13 +11091,13 @@
       <c r="J13" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="132" t="s">
+      <c r="L13" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="132" t="s">
+      <c r="M13" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11116,17 +11112,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
       <c r="I14" s="193"/>
       <c r="J14" s="191"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11148,7 +11144,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>164</v>
@@ -11169,13 +11165,13 @@
         <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -11194,13 +11190,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>169</v>
@@ -11215,13 +11211,13 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -11233,7 +11229,7 @@
         <v>34</v>
       </c>
       <c r="Q16" s="126" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11243,13 +11239,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>169</v>
@@ -11264,13 +11260,13 @@
         <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>34</v>
@@ -11282,7 +11278,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="126" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -11292,13 +11288,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>89</v>
@@ -11313,10 +11309,10 @@
         <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>43</v>
@@ -11328,7 +11324,7 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -11341,7 +11337,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>133</v>
@@ -11365,7 +11361,7 @@
         <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>34</v>
@@ -11377,10 +11373,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11390,7 +11386,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -11414,7 +11410,7 @@
         <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>34</v>
@@ -11429,7 +11425,7 @@
         <v>172</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -11439,13 +11435,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -11463,22 +11459,22 @@
         <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -11488,13 +11484,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>170</v>
@@ -11512,7 +11508,7 @@
         <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
@@ -11537,13 +11533,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>89</v>
@@ -11561,7 +11557,7 @@
         <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>34</v>
@@ -11573,7 +11569,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -11607,22 +11603,22 @@
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="132" t="s">
+      <c r="D26" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="132" t="s">
+      <c r="E26" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="132" t="s">
+      <c r="F26" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="132" t="s">
+      <c r="H26" s="163" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="191" t="s">
@@ -11631,13 +11627,13 @@
       <c r="J26" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="132" t="s">
+      <c r="K26" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="132" t="s">
+      <c r="L26" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="132" t="s">
+      <c r="M26" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -11652,17 +11648,17 @@
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
       <c r="I27" s="191"/>
       <c r="J27" s="191"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -11732,7 +11728,7 @@
         <v>35</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>35</v>
@@ -11836,7 +11832,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -11855,7 +11851,7 @@
         <v>95</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>109</v>
@@ -11885,7 +11881,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11904,7 +11900,7 @@
         <v>144</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>109</v>
@@ -11934,7 +11930,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11953,7 +11949,7 @@
         <v>142</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>109</v>
@@ -11983,7 +11979,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>35</v>
@@ -12002,7 +11998,7 @@
         <v>145</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>109</v>
@@ -12032,7 +12028,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>35</v>
@@ -12051,7 +12047,7 @@
         <v>146</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>109</v>
@@ -12081,7 +12077,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>35</v>
@@ -12100,7 +12096,7 @@
         <v>147</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>109</v>
@@ -12130,7 +12126,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>35</v>
@@ -12149,7 +12145,7 @@
         <v>148</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>109</v>
@@ -12179,7 +12175,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -12198,7 +12194,7 @@
         <v>149</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>109</v>
@@ -12228,7 +12224,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
@@ -12277,10 +12273,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="125" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12296,7 +12292,7 @@
         <v>151</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>109</v>
@@ -12311,7 +12307,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -12326,10 +12322,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12345,7 +12341,7 @@
         <v>152</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>109</v>
@@ -12360,7 +12356,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -12375,38 +12371,14 @@
         <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -12419,6 +12391,30 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12434,7 +12430,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ261"/>
+  <dimension ref="A1:AZ252"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -12494,7 +12490,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -12510,7 +12506,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -12581,7 +12577,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="173"/>
       <c r="AU2" s="182"/>
       <c r="AV2" s="182"/>
       <c r="AW2" s="182"/>
@@ -13118,10 +13114,10 @@
       <c r="F15" s="67"/>
       <c r="G15" s="66"/>
       <c r="L15" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M15" s="114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N15" s="114"/>
       <c r="O15" s="114"/>
@@ -13161,7 +13157,7 @@
       <c r="G16" s="66"/>
       <c r="L16" s="66"/>
       <c r="M16" s="114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N16" s="114"/>
       <c r="O16" s="114"/>
@@ -13201,7 +13197,7 @@
       <c r="L17" s="66"/>
       <c r="M17" s="114"/>
       <c r="N17" s="114" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AL17" s="114"/>
       <c r="AM17" s="114"/>
@@ -13217,7 +13213,7 @@
       <c r="L18" s="66"/>
       <c r="M18" s="114"/>
       <c r="N18" s="114" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AL18" s="114"/>
       <c r="AM18" s="114"/>
@@ -13233,7 +13229,7 @@
       <c r="L19" s="66"/>
       <c r="M19" s="114"/>
       <c r="N19" s="114" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AL19" s="114"/>
       <c r="AM19" s="114"/>
@@ -13249,7 +13245,7 @@
       <c r="L20" s="66"/>
       <c r="M20" s="114"/>
       <c r="N20" s="114" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AL20" s="114"/>
       <c r="AM20" s="114"/>
@@ -13265,7 +13261,7 @@
       <c r="L21" s="66"/>
       <c r="M21" s="114"/>
       <c r="N21" s="114" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AL21" s="114"/>
       <c r="AM21" s="114"/>
@@ -13280,7 +13276,7 @@
       <c r="G22" s="66"/>
       <c r="L22" s="66"/>
       <c r="N22" s="114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O22" s="114"/>
       <c r="P22" s="114"/>
@@ -13355,7 +13351,7 @@
       <c r="G24" s="66"/>
       <c r="L24" s="66"/>
       <c r="M24" s="114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N24" s="114"/>
       <c r="O24" s="114"/>
@@ -13394,7 +13390,7 @@
       <c r="G25" s="66"/>
       <c r="L25" s="66"/>
       <c r="N25" s="114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="114"/>
@@ -13469,7 +13465,7 @@
       <c r="G27" s="66"/>
       <c r="L27" s="66"/>
       <c r="M27" s="114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O27" s="114"/>
       <c r="P27" s="114"/>
@@ -13503,7 +13499,7 @@
       <c r="G28" s="66"/>
       <c r="L28" s="66"/>
       <c r="N28" s="114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O28" s="114"/>
       <c r="P28" s="114"/>
@@ -13518,7 +13514,7 @@
         <v>116</v>
       </c>
       <c r="Z28" s="114" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AA28" s="114"/>
       <c r="AB28" s="114"/>
@@ -13537,7 +13533,7 @@
       <c r="L29" s="66"/>
       <c r="M29" s="114"/>
       <c r="N29" s="114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O29" s="114"/>
       <c r="P29" s="114"/>
@@ -13552,7 +13548,7 @@
         <v>116</v>
       </c>
       <c r="Z29" s="115" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AA29" s="114"/>
       <c r="AB29" s="114"/>
@@ -13573,7 +13569,7 @@
       <c r="G30" s="66"/>
       <c r="L30" s="66"/>
       <c r="N30" s="114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O30" s="114"/>
       <c r="P30" s="114"/>
@@ -13585,7 +13581,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="114"/>
       <c r="Y30" s="114" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Z30" s="114"/>
       <c r="AA30" s="114"/>
@@ -13597,7 +13593,7 @@
       <c r="AJ30" s="114"/>
       <c r="AK30" s="116"/>
       <c r="AL30" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AV30" s="67"/>
     </row>
@@ -13609,7 +13605,7 @@
       <c r="L31" s="66"/>
       <c r="M31" s="114"/>
       <c r="N31" s="114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O31" s="114"/>
       <c r="P31" s="114"/>
@@ -13624,7 +13620,7 @@
         <v>116</v>
       </c>
       <c r="Z31" s="115" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AA31" s="114"/>
       <c r="AB31" s="114"/>
@@ -13682,7 +13678,7 @@
       <c r="G33" s="66"/>
       <c r="L33" s="66"/>
       <c r="M33" s="114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL33" s="114"/>
       <c r="AM33" s="114"/>
@@ -13698,7 +13694,7 @@
       <c r="L34" s="66"/>
       <c r="M34" s="114"/>
       <c r="N34" s="114" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AL34" s="114"/>
       <c r="AM34" s="114"/>
@@ -13714,7 +13710,7 @@
       <c r="L35" s="66"/>
       <c r="M35" s="114"/>
       <c r="N35" s="114" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AL35" s="114"/>
       <c r="AM35" s="114"/>
@@ -13730,7 +13726,7 @@
       <c r="L36" s="66"/>
       <c r="M36" s="114"/>
       <c r="N36" s="114" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AL36" s="114"/>
       <c r="AM36" s="114"/>
@@ -13746,7 +13742,7 @@
       <c r="L37" s="66"/>
       <c r="M37" s="114"/>
       <c r="N37" s="114" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AL37" s="114"/>
       <c r="AM37" s="114"/>
@@ -13762,7 +13758,7 @@
       <c r="L38" s="66"/>
       <c r="M38" s="114"/>
       <c r="N38" s="114" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AL38" s="114"/>
       <c r="AM38" s="114"/>
@@ -13817,7 +13813,7 @@
       <c r="G40" s="66"/>
       <c r="K40" s="67"/>
       <c r="L40" s="117" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M40" s="118"/>
       <c r="N40" s="118"/>
@@ -13859,7 +13855,7 @@
       <c r="G41" s="66"/>
       <c r="L41" s="117"/>
       <c r="M41" s="114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N41" s="114"/>
       <c r="O41" s="114"/>
@@ -13900,7 +13896,7 @@
       <c r="G42" s="66"/>
       <c r="L42" s="117"/>
       <c r="N42" s="114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O42" s="114"/>
       <c r="P42" s="114"/>
@@ -13940,7 +13936,7 @@
       <c r="G43" s="66"/>
       <c r="L43" s="117"/>
       <c r="N43" s="114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O43" s="114"/>
       <c r="P43" s="114"/>
@@ -13980,7 +13976,7 @@
       <c r="G44" s="66"/>
       <c r="L44" s="117"/>
       <c r="N44" s="114" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="O44" s="114"/>
       <c r="P44" s="114"/>
@@ -14020,7 +14016,7 @@
       <c r="G45" s="66"/>
       <c r="L45" s="117"/>
       <c r="N45" s="114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O45" s="114"/>
       <c r="P45" s="114"/>
@@ -14060,7 +14056,7 @@
       <c r="G46" s="66"/>
       <c r="L46" s="117"/>
       <c r="N46" s="114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O46" s="114"/>
       <c r="P46" s="114"/>
@@ -14100,7 +14096,7 @@
       <c r="G47" s="66"/>
       <c r="L47" s="117"/>
       <c r="N47" s="114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O47" s="114"/>
       <c r="P47" s="114"/>
@@ -14140,7 +14136,7 @@
       <c r="G48" s="66"/>
       <c r="L48" s="117"/>
       <c r="N48" s="114" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="O48" s="114"/>
       <c r="P48" s="114"/>
@@ -14181,7 +14177,7 @@
       <c r="L49" s="117"/>
       <c r="M49" s="124"/>
       <c r="N49" s="114" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="O49" s="114"/>
       <c r="P49" s="114"/>
@@ -14222,7 +14218,7 @@
       <c r="L50" s="117"/>
       <c r="M50" s="124"/>
       <c r="N50" s="114" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="O50" s="114"/>
       <c r="P50" s="114"/>
@@ -14263,7 +14259,7 @@
       <c r="L51" s="117"/>
       <c r="M51" s="124"/>
       <c r="N51" s="114" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="O51" s="114"/>
       <c r="P51" s="114"/>
@@ -14304,7 +14300,7 @@
       <c r="L52" s="117"/>
       <c r="M52" s="124"/>
       <c r="N52" s="114" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="O52" s="114"/>
       <c r="P52" s="114"/>
@@ -14345,7 +14341,7 @@
       <c r="L53" s="117"/>
       <c r="M53" s="124"/>
       <c r="N53" s="114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O53" s="114"/>
       <c r="P53" s="114"/>
@@ -14386,7 +14382,7 @@
       <c r="L54" s="117"/>
       <c r="M54" s="124"/>
       <c r="N54" s="114" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="O54" s="114"/>
       <c r="P54" s="114"/>
@@ -14427,7 +14423,7 @@
       <c r="L55" s="117"/>
       <c r="M55" s="124"/>
       <c r="N55" s="114" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="O55" s="114"/>
       <c r="P55" s="114"/>
@@ -14506,7 +14502,7 @@
       <c r="G57" s="66"/>
       <c r="L57" s="117"/>
       <c r="M57" s="114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N57" s="114"/>
       <c r="O57" s="114"/>
@@ -14547,7 +14543,7 @@
       <c r="G58" s="66"/>
       <c r="L58" s="117"/>
       <c r="N58" s="114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="114"/>
       <c r="P58" s="114"/>
@@ -14587,7 +14583,7 @@
       <c r="G59" s="66"/>
       <c r="L59" s="117"/>
       <c r="N59" s="114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O59" s="114"/>
       <c r="P59" s="114"/>
@@ -14628,7 +14624,7 @@
       <c r="L60" s="117"/>
       <c r="N60" s="114"/>
       <c r="O60" s="114" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P60" s="114"/>
       <c r="Q60" s="114"/>
@@ -14643,7 +14639,7 @@
         <v>116</v>
       </c>
       <c r="Z60" s="114" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AA60" s="114"/>
       <c r="AB60" s="114"/>
@@ -14672,7 +14668,7 @@
       <c r="L61" s="117"/>
       <c r="N61" s="114"/>
       <c r="O61" s="114" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P61" s="114"/>
       <c r="Q61" s="114"/>
@@ -14687,7 +14683,7 @@
         <v>116</v>
       </c>
       <c r="Z61" s="114" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AA61" s="114"/>
       <c r="AB61" s="114"/>
@@ -14715,7 +14711,7 @@
       <c r="G62" s="66"/>
       <c r="L62" s="117"/>
       <c r="N62" s="114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O62" s="114"/>
       <c r="P62" s="114"/>
@@ -14756,7 +14752,7 @@
       <c r="L63" s="117"/>
       <c r="N63" s="114"/>
       <c r="O63" s="114" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P63" s="114"/>
       <c r="Q63" s="114"/>
@@ -14771,7 +14767,7 @@
         <v>116</v>
       </c>
       <c r="Z63" s="114" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AA63" s="114"/>
       <c r="AB63" s="114"/>
@@ -14800,7 +14796,7 @@
       <c r="L64" s="117"/>
       <c r="N64" s="114"/>
       <c r="O64" s="114" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P64" s="114"/>
       <c r="Q64" s="114"/>
@@ -14815,7 +14811,7 @@
         <v>116</v>
       </c>
       <c r="Z64" s="114" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AA64" s="114"/>
       <c r="AB64" s="114"/>
@@ -14844,7 +14840,7 @@
       <c r="L65" s="117"/>
       <c r="N65" s="114"/>
       <c r="O65" s="114" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P65" s="114"/>
       <c r="Q65" s="114"/>
@@ -14859,7 +14855,7 @@
         <v>116</v>
       </c>
       <c r="Z65" s="114" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AA65" s="114"/>
       <c r="AB65" s="114"/>
@@ -14888,7 +14884,7 @@
       <c r="L66" s="117"/>
       <c r="N66" s="114"/>
       <c r="O66" s="114" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P66" s="114"/>
       <c r="Q66" s="114"/>
@@ -14903,7 +14899,7 @@
         <v>116</v>
       </c>
       <c r="Z66" s="114" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AA66" s="114"/>
       <c r="AB66" s="114"/>
@@ -14932,7 +14928,7 @@
       <c r="L67" s="117"/>
       <c r="N67" s="114"/>
       <c r="O67" s="114" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P67" s="114"/>
       <c r="Q67" s="114"/>
@@ -14947,7 +14943,7 @@
         <v>116</v>
       </c>
       <c r="Z67" s="114" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AA67" s="114"/>
       <c r="AB67" s="114"/>
@@ -14976,7 +14972,7 @@
       <c r="L68" s="117"/>
       <c r="N68" s="114"/>
       <c r="O68" s="114" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P68" s="114"/>
       <c r="Q68" s="114"/>
@@ -14991,7 +14987,7 @@
         <v>116</v>
       </c>
       <c r="Z68" s="114" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AA68" s="114"/>
       <c r="AB68" s="114"/>
@@ -15020,7 +15016,7 @@
       <c r="L69" s="117"/>
       <c r="N69" s="114"/>
       <c r="O69" s="114" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P69" s="114"/>
       <c r="Q69" s="114"/>
@@ -15035,7 +15031,7 @@
         <v>116</v>
       </c>
       <c r="Z69" s="114" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AA69" s="114"/>
       <c r="AB69" s="114"/>
@@ -15063,7 +15059,7 @@
       <c r="G70" s="66"/>
       <c r="L70" s="117"/>
       <c r="N70" s="114" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="O70" s="114"/>
       <c r="P70" s="114"/>
@@ -15104,7 +15100,7 @@
       <c r="L71" s="117"/>
       <c r="N71" s="114"/>
       <c r="O71" s="114" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P71" s="114"/>
       <c r="Q71" s="114"/>
@@ -15119,7 +15115,7 @@
         <v>116</v>
       </c>
       <c r="Z71" s="114" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AA71" s="114"/>
       <c r="AB71" s="114"/>
@@ -15148,7 +15144,7 @@
       <c r="L72" s="117"/>
       <c r="N72" s="114"/>
       <c r="O72" s="114" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P72" s="114"/>
       <c r="Q72" s="114"/>
@@ -15163,7 +15159,7 @@
         <v>116</v>
       </c>
       <c r="Z72" s="114" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AA72" s="114"/>
       <c r="AB72" s="114"/>
@@ -15192,7 +15188,7 @@
       <c r="L73" s="117"/>
       <c r="N73" s="114"/>
       <c r="O73" s="114" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P73" s="114"/>
       <c r="Q73" s="114"/>
@@ -15207,7 +15203,7 @@
         <v>116</v>
       </c>
       <c r="Z73" s="114" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AA73" s="114"/>
       <c r="AB73" s="114"/>
@@ -15236,7 +15232,7 @@
       <c r="L74" s="117"/>
       <c r="N74" s="114"/>
       <c r="O74" s="114" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P74" s="114"/>
       <c r="Q74" s="114"/>
@@ -15251,7 +15247,7 @@
         <v>116</v>
       </c>
       <c r="Z74" s="114" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AA74" s="114"/>
       <c r="AB74" s="114"/>
@@ -15280,7 +15276,7 @@
       <c r="L75" s="117"/>
       <c r="N75" s="114"/>
       <c r="O75" s="114" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P75" s="114"/>
       <c r="Q75" s="114"/>
@@ -15295,7 +15291,7 @@
         <v>116</v>
       </c>
       <c r="Z75" s="114" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AA75" s="114"/>
       <c r="AB75" s="114"/>
@@ -15323,7 +15319,7 @@
       <c r="G76" s="66"/>
       <c r="L76" s="117"/>
       <c r="N76" s="114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O76" s="114"/>
       <c r="P76" s="114"/>
@@ -15364,7 +15360,7 @@
       <c r="L77" s="117"/>
       <c r="N77" s="114"/>
       <c r="O77" s="114" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P77" s="114"/>
       <c r="Q77" s="114"/>
@@ -15379,7 +15375,7 @@
         <v>116</v>
       </c>
       <c r="Z77" s="114" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AA77" s="114"/>
       <c r="AB77" s="114"/>
@@ -15408,7 +15404,7 @@
       <c r="L78" s="117"/>
       <c r="N78" s="114"/>
       <c r="O78" s="114" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P78" s="114"/>
       <c r="Q78" s="114"/>
@@ -15423,7 +15419,7 @@
         <v>116</v>
       </c>
       <c r="Z78" s="114" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AA78" s="114"/>
       <c r="AB78" s="114"/>
@@ -15451,7 +15447,7 @@
       <c r="G79" s="66"/>
       <c r="L79" s="117"/>
       <c r="N79" s="114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O79" s="114"/>
       <c r="P79" s="114"/>
@@ -15492,7 +15488,7 @@
       <c r="L80" s="117"/>
       <c r="N80" s="114"/>
       <c r="O80" s="114" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P80" s="114"/>
       <c r="Q80" s="114"/>
@@ -15507,7 +15503,7 @@
         <v>116</v>
       </c>
       <c r="Z80" s="114" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AA80" s="114"/>
       <c r="AB80" s="114"/>
@@ -15536,7 +15532,7 @@
       <c r="L81" s="117"/>
       <c r="N81" s="114"/>
       <c r="O81" s="114" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P81" s="114"/>
       <c r="Q81" s="114"/>
@@ -15550,7 +15546,7 @@
         <v>116</v>
       </c>
       <c r="Z81" s="115" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AA81" s="114"/>
       <c r="AB81" s="114"/>
@@ -15573,7 +15569,7 @@
       <c r="G82" s="66"/>
       <c r="L82" s="117"/>
       <c r="N82" s="114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O82" s="114"/>
       <c r="P82" s="114"/>
@@ -15614,7 +15610,7 @@
       <c r="L83" s="117"/>
       <c r="N83" s="114"/>
       <c r="O83" s="114" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P83" s="114"/>
       <c r="Q83" s="114"/>
@@ -15629,7 +15625,7 @@
         <v>116</v>
       </c>
       <c r="Z83" s="114" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AA83" s="114"/>
       <c r="AB83" s="114"/>
@@ -15658,7 +15654,7 @@
       <c r="L84" s="117"/>
       <c r="N84" s="114"/>
       <c r="O84" s="114" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P84" s="114"/>
       <c r="Q84" s="114"/>
@@ -15673,7 +15669,7 @@
         <v>116</v>
       </c>
       <c r="Z84" s="114" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AA84" s="114"/>
       <c r="AB84" s="114"/>
@@ -15702,7 +15698,7 @@
       <c r="L85" s="117"/>
       <c r="N85" s="114"/>
       <c r="O85" s="114" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P85" s="114"/>
       <c r="Q85" s="114"/>
@@ -15717,7 +15713,7 @@
         <v>116</v>
       </c>
       <c r="Z85" s="114" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AA85" s="114"/>
       <c r="AB85" s="114"/>
@@ -15746,7 +15742,7 @@
       <c r="L86" s="117"/>
       <c r="N86" s="114"/>
       <c r="O86" s="114" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P86" s="114"/>
       <c r="Q86" s="114"/>
@@ -15761,7 +15757,7 @@
         <v>116</v>
       </c>
       <c r="Z86" s="114" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AA86" s="114"/>
       <c r="AB86" s="114"/>
@@ -15790,7 +15786,7 @@
       <c r="L87" s="117"/>
       <c r="N87" s="114"/>
       <c r="O87" s="114" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P87" s="114"/>
       <c r="Q87" s="114"/>
@@ -15805,7 +15801,7 @@
         <v>116</v>
       </c>
       <c r="Z87" s="114" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AA87" s="114"/>
       <c r="AB87" s="114"/>
@@ -15872,7 +15868,7 @@
       <c r="G89" s="66"/>
       <c r="L89" s="117"/>
       <c r="M89" s="114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N89" s="114"/>
       <c r="O89" s="114"/>
@@ -15913,7 +15909,7 @@
       <c r="G90" s="66"/>
       <c r="L90" s="117"/>
       <c r="N90" s="114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O90" s="114"/>
       <c r="P90" s="114"/>
@@ -15928,7 +15924,7 @@
         <v>116</v>
       </c>
       <c r="Z90" s="114" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AA90" s="114"/>
       <c r="AB90" s="114"/>
@@ -15951,7 +15947,7 @@
       <c r="G91" s="66"/>
       <c r="L91" s="117"/>
       <c r="N91" s="114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O91" s="114"/>
       <c r="P91" s="114"/>
@@ -15966,7 +15962,7 @@
         <v>116</v>
       </c>
       <c r="Z91" s="115" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AA91" s="114"/>
       <c r="AB91" s="114"/>
@@ -15990,7 +15986,7 @@
       <c r="G92" s="66"/>
       <c r="L92" s="117"/>
       <c r="N92" s="114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O92" s="114"/>
       <c r="P92" s="114"/>
@@ -16001,10 +15997,10 @@
       <c r="U92" s="114"/>
       <c r="V92" s="114"/>
       <c r="W92" s="114" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Y92" s="114" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Z92" s="114"/>
       <c r="AA92" s="114"/>
@@ -16016,7 +16012,7 @@
       <c r="AJ92" s="114"/>
       <c r="AK92" s="116"/>
       <c r="AL92" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN92" s="118"/>
       <c r="AO92" s="118"/>
@@ -16031,7 +16027,7 @@
       <c r="G93" s="66"/>
       <c r="L93" s="117"/>
       <c r="N93" s="114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O93" s="114"/>
       <c r="P93" s="114"/>
@@ -16046,7 +16042,7 @@
         <v>116</v>
       </c>
       <c r="Z93" s="114" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AA93" s="114"/>
       <c r="AB93" s="114"/>
@@ -16056,7 +16052,7 @@
       <c r="AJ93" s="114"/>
       <c r="AK93" s="114"/>
       <c r="AL93" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM93" s="114"/>
       <c r="AN93" s="118"/>
@@ -16072,7 +16068,7 @@
       <c r="G94" s="66"/>
       <c r="L94" s="117"/>
       <c r="N94" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O94" s="114"/>
       <c r="P94" s="114"/>
@@ -16087,7 +16083,7 @@
         <v>116</v>
       </c>
       <c r="Z94" s="114" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AA94" s="114"/>
       <c r="AB94" s="114"/>
@@ -16097,7 +16093,7 @@
       <c r="AJ94" s="114"/>
       <c r="AK94" s="114"/>
       <c r="AL94" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM94" s="114"/>
       <c r="AN94" s="118"/>
@@ -16113,7 +16109,7 @@
       <c r="G95" s="66"/>
       <c r="L95" s="117"/>
       <c r="N95" s="114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="114"/>
       <c r="P95" s="114"/>
@@ -16128,7 +16124,7 @@
         <v>116</v>
       </c>
       <c r="Z95" s="114" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AA95" s="114"/>
       <c r="AB95" s="114"/>
@@ -16138,7 +16134,7 @@
       <c r="AJ95" s="114"/>
       <c r="AK95" s="114"/>
       <c r="AL95" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM95" s="114"/>
       <c r="AN95" s="118"/>
@@ -16154,7 +16150,7 @@
       <c r="G96" s="66"/>
       <c r="L96" s="117"/>
       <c r="N96" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O96" s="114"/>
       <c r="P96" s="114"/>
@@ -16169,7 +16165,7 @@
         <v>116</v>
       </c>
       <c r="Z96" s="114" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AA96" s="114"/>
       <c r="AB96" s="114"/>
@@ -16179,7 +16175,7 @@
       <c r="AJ96" s="114"/>
       <c r="AK96" s="114"/>
       <c r="AL96" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM96" s="114"/>
       <c r="AN96" s="118"/>
@@ -16195,7 +16191,7 @@
       <c r="G97" s="66"/>
       <c r="L97" s="117"/>
       <c r="N97" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O97" s="114"/>
       <c r="P97" s="114"/>
@@ -16210,7 +16206,7 @@
         <v>116</v>
       </c>
       <c r="Z97" s="114" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AA97" s="114"/>
       <c r="AB97" s="114"/>
@@ -16220,7 +16216,7 @@
       <c r="AJ97" s="114"/>
       <c r="AK97" s="114"/>
       <c r="AL97" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM97" s="114"/>
       <c r="AN97" s="118"/>
@@ -16236,7 +16232,7 @@
       <c r="G98" s="66"/>
       <c r="L98" s="117"/>
       <c r="N98" s="114" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="O98" s="114"/>
       <c r="P98" s="114"/>
@@ -16248,10 +16244,10 @@
       <c r="V98" s="114"/>
       <c r="W98" s="114"/>
       <c r="X98" s="15" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Y98" s="114" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AA98" s="114"/>
       <c r="AB98" s="114"/>
@@ -16261,7 +16257,7 @@
       <c r="AJ98" s="114"/>
       <c r="AK98" s="114"/>
       <c r="AL98" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM98" s="114"/>
       <c r="AN98" s="118"/>
@@ -16290,18 +16286,14 @@
       <c r="C100" s="66"/>
       <c r="F100" s="67"/>
       <c r="G100" s="66"/>
-      <c r="L100" s="117"/>
+      <c r="L100" s="66"/>
       <c r="M100" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ100" s="114"/>
-      <c r="AK100" s="114"/>
-      <c r="AL100" s="114"/>
+        <v>117</v>
+      </c>
       <c r="AM100" s="114"/>
-      <c r="AN100" s="118"/>
-      <c r="AO100" s="118"/>
-      <c r="AP100" s="118"/>
-      <c r="AQ100" s="118"/>
+      <c r="AN100" s="114"/>
+      <c r="AO100" s="114"/>
+      <c r="AP100" s="114"/>
       <c r="AV100" s="67"/>
     </row>
     <row r="101" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16311,7 +16303,7 @@
       <c r="G101" s="66"/>
       <c r="L101" s="117"/>
       <c r="N101" s="114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ101" s="114"/>
       <c r="AK101" s="114"/>
@@ -16330,7 +16322,7 @@
       <c r="G102" s="66"/>
       <c r="L102" s="117"/>
       <c r="N102" s="114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ102" s="114"/>
       <c r="AK102" s="114"/>
@@ -16347,14 +16339,35 @@
       <c r="C103" s="66"/>
       <c r="F103" s="67"/>
       <c r="G103" s="66"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="117"/>
-      <c r="N103" s="114" t="s">
-        <v>357</v>
-      </c>
-      <c r="AJ103" s="114"/>
-      <c r="AK103" s="114"/>
-      <c r="AL103" s="114"/>
-      <c r="AM103" s="114"/>
+      <c r="M103" s="118"/>
+      <c r="N103" s="118"/>
+      <c r="O103" s="118"/>
+      <c r="P103" s="118"/>
+      <c r="Q103" s="118"/>
+      <c r="R103" s="118"/>
+      <c r="S103" s="118"/>
+      <c r="T103" s="118"/>
+      <c r="U103" s="118"/>
+      <c r="V103" s="118"/>
+      <c r="W103" s="118"/>
+      <c r="X103" s="118"/>
+      <c r="Y103" s="118"/>
+      <c r="Z103" s="118"/>
+      <c r="AA103" s="118"/>
+      <c r="AB103" s="118"/>
+      <c r="AC103" s="118"/>
+      <c r="AD103" s="118"/>
+      <c r="AE103" s="118"/>
+      <c r="AF103" s="118"/>
+      <c r="AG103" s="118"/>
+      <c r="AH103" s="118"/>
+      <c r="AI103" s="118"/>
+      <c r="AJ103" s="118"/>
+      <c r="AK103" s="118"/>
+      <c r="AL103" s="118"/>
+      <c r="AM103" s="118"/>
       <c r="AN103" s="118"/>
       <c r="AO103" s="118"/>
       <c r="AP103" s="118"/>
@@ -16366,14 +16379,36 @@
       <c r="C104" s="66"/>
       <c r="F104" s="67"/>
       <c r="G104" s="66"/>
-      <c r="L104" s="117"/>
-      <c r="N104" s="114" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ104" s="114"/>
-      <c r="AK104" s="114"/>
-      <c r="AL104" s="114"/>
-      <c r="AM104" s="114"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="N104" s="118"/>
+      <c r="O104" s="118"/>
+      <c r="P104" s="118"/>
+      <c r="Q104" s="118"/>
+      <c r="R104" s="118"/>
+      <c r="S104" s="118"/>
+      <c r="T104" s="118"/>
+      <c r="U104" s="118"/>
+      <c r="V104" s="118"/>
+      <c r="W104" s="118"/>
+      <c r="X104" s="118"/>
+      <c r="Y104" s="118"/>
+      <c r="Z104" s="118"/>
+      <c r="AA104" s="118"/>
+      <c r="AB104" s="118"/>
+      <c r="AC104" s="118"/>
+      <c r="AD104" s="118"/>
+      <c r="AE104" s="118"/>
+      <c r="AF104" s="118"/>
+      <c r="AG104" s="118"/>
+      <c r="AH104" s="118"/>
+      <c r="AI104" s="118"/>
+      <c r="AJ104" s="118"/>
+      <c r="AK104" s="118"/>
+      <c r="AL104" s="118"/>
+      <c r="AM104" s="118"/>
       <c r="AN104" s="118"/>
       <c r="AO104" s="118"/>
       <c r="AP104" s="118"/>
@@ -16385,14 +16420,36 @@
       <c r="C105" s="66"/>
       <c r="F105" s="67"/>
       <c r="G105" s="66"/>
-      <c r="L105" s="117"/>
-      <c r="N105" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ105" s="114"/>
-      <c r="AK105" s="114"/>
-      <c r="AL105" s="114"/>
-      <c r="AM105" s="114"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="N105" s="118"/>
+      <c r="O105" s="118"/>
+      <c r="P105" s="118"/>
+      <c r="Q105" s="118"/>
+      <c r="R105" s="118"/>
+      <c r="S105" s="118"/>
+      <c r="T105" s="118"/>
+      <c r="U105" s="118"/>
+      <c r="V105" s="118"/>
+      <c r="W105" s="118"/>
+      <c r="X105" s="118"/>
+      <c r="Y105" s="118"/>
+      <c r="Z105" s="118"/>
+      <c r="AA105" s="118"/>
+      <c r="AB105" s="118"/>
+      <c r="AC105" s="118"/>
+      <c r="AD105" s="118"/>
+      <c r="AE105" s="118"/>
+      <c r="AF105" s="118"/>
+      <c r="AG105" s="118"/>
+      <c r="AH105" s="118"/>
+      <c r="AI105" s="118"/>
+      <c r="AJ105" s="118"/>
+      <c r="AK105" s="118"/>
+      <c r="AL105" s="118"/>
+      <c r="AM105" s="118"/>
       <c r="AN105" s="118"/>
       <c r="AO105" s="118"/>
       <c r="AP105" s="118"/>
@@ -16400,58 +16457,122 @@
       <c r="AV105" s="67"/>
     </row>
     <row r="106" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="66"/>
-      <c r="L106" s="117"/>
-      <c r="N106" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ106" s="114"/>
-      <c r="AK106" s="114"/>
-      <c r="AL106" s="114"/>
-      <c r="AM106" s="114"/>
-      <c r="AN106" s="118"/>
-      <c r="AO106" s="118"/>
-      <c r="AP106" s="118"/>
-      <c r="AQ106" s="118"/>
-      <c r="AV106" s="67"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="109"/>
+      <c r="M106" s="108"/>
+      <c r="N106" s="108"/>
+      <c r="O106" s="108"/>
+      <c r="P106" s="108"/>
+      <c r="Q106" s="108"/>
+      <c r="R106" s="108"/>
+      <c r="S106" s="108"/>
+      <c r="T106" s="109"/>
+      <c r="U106" s="109"/>
+      <c r="V106" s="109"/>
+      <c r="W106" s="109"/>
+      <c r="X106" s="109"/>
+      <c r="Y106" s="109"/>
+      <c r="Z106" s="109"/>
+      <c r="AA106" s="24"/>
+      <c r="AB106" s="24"/>
+      <c r="AC106" s="24"/>
+      <c r="AD106" s="24"/>
+      <c r="AE106" s="24"/>
+      <c r="AF106" s="24"/>
+      <c r="AG106" s="24"/>
+      <c r="AH106" s="24"/>
+      <c r="AI106" s="24"/>
+      <c r="AJ106" s="24"/>
+      <c r="AK106" s="24"/>
+      <c r="AL106" s="24"/>
+      <c r="AM106" s="24"/>
+      <c r="AN106" s="24"/>
+      <c r="AO106" s="24"/>
+      <c r="AP106" s="24"/>
+      <c r="AQ106" s="24"/>
+      <c r="AR106" s="24"/>
+      <c r="AS106" s="24"/>
+      <c r="AT106" s="24"/>
+      <c r="AU106" s="24"/>
+      <c r="AV106" s="25"/>
     </row>
     <row r="107" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="66"/>
-      <c r="L107" s="117"/>
-      <c r="N107" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="AJ107" s="114"/>
-      <c r="AK107" s="114"/>
-      <c r="AL107" s="114"/>
-      <c r="AM107" s="114"/>
-      <c r="AN107" s="118"/>
-      <c r="AO107" s="118"/>
-      <c r="AP107" s="118"/>
-      <c r="AQ107" s="118"/>
-      <c r="AV107" s="67"/>
+      <c r="B107" s="19">
+        <v>3</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="20"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="20"/>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="20"/>
+      <c r="AI107" s="20"/>
+      <c r="AJ107" s="20"/>
+      <c r="AK107" s="20"/>
+      <c r="AL107" s="20"/>
+      <c r="AM107" s="20"/>
+      <c r="AN107" s="20"/>
+      <c r="AO107" s="20"/>
+      <c r="AP107" s="20"/>
+      <c r="AQ107" s="20"/>
+      <c r="AR107" s="20"/>
+      <c r="AS107" s="20"/>
+      <c r="AT107" s="20"/>
+      <c r="AU107" s="20"/>
+      <c r="AV107" s="21"/>
     </row>
     <row r="108" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B108" s="66"/>
       <c r="C108" s="66"/>
       <c r="F108" s="67"/>
-      <c r="G108" s="66"/>
-      <c r="L108" s="117"/>
-      <c r="N108" s="114"/>
-      <c r="AJ108" s="114"/>
-      <c r="AK108" s="114"/>
-      <c r="AL108" s="114"/>
-      <c r="AM108" s="114"/>
-      <c r="AN108" s="118"/>
-      <c r="AO108" s="118"/>
-      <c r="AP108" s="118"/>
-      <c r="AQ108" s="118"/>
+      <c r="G108" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L108" s="66"/>
+      <c r="M108" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="AV108" s="67"/>
     </row>
     <row r="109" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16460,553 +16581,745 @@
       <c r="F109" s="67"/>
       <c r="G109" s="66"/>
       <c r="L109" s="66"/>
-      <c r="M109" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM109" s="114"/>
-      <c r="AN109" s="114"/>
-      <c r="AO109" s="114"/>
-      <c r="AP109" s="114"/>
       <c r="AV109" s="67"/>
     </row>
     <row r="110" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="66"/>
-      <c r="L110" s="117"/>
-      <c r="N110" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ110" s="114"/>
-      <c r="AK110" s="114"/>
-      <c r="AL110" s="114"/>
-      <c r="AM110" s="114"/>
-      <c r="AN110" s="118"/>
-      <c r="AO110" s="118"/>
-      <c r="AP110" s="118"/>
-      <c r="AQ110" s="118"/>
-      <c r="AV110" s="67"/>
+      <c r="B110" s="19">
+        <v>4</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="20"/>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
+      <c r="AA110" s="20"/>
+      <c r="AB110" s="20"/>
+      <c r="AC110" s="20"/>
+      <c r="AD110" s="20"/>
+      <c r="AE110" s="20"/>
+      <c r="AF110" s="20"/>
+      <c r="AG110" s="20"/>
+      <c r="AH110" s="20"/>
+      <c r="AI110" s="20"/>
+      <c r="AJ110" s="20"/>
+      <c r="AK110" s="20"/>
+      <c r="AL110" s="20"/>
+      <c r="AM110" s="20"/>
+      <c r="AN110" s="20"/>
+      <c r="AO110" s="20"/>
+      <c r="AP110" s="20"/>
+      <c r="AQ110" s="20"/>
+      <c r="AR110" s="20"/>
+      <c r="AS110" s="20"/>
+      <c r="AT110" s="20"/>
+      <c r="AU110" s="20"/>
+      <c r="AV110" s="21"/>
     </row>
     <row r="111" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B111" s="66"/>
       <c r="C111" s="66"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="67"/>
-      <c r="G111" s="66"/>
-      <c r="L111" s="117"/>
-      <c r="N111" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ111" s="114"/>
-      <c r="AK111" s="114"/>
-      <c r="AL111" s="114"/>
-      <c r="AM111" s="114"/>
-      <c r="AN111" s="118"/>
-      <c r="AO111" s="118"/>
-      <c r="AP111" s="118"/>
-      <c r="AQ111" s="118"/>
+      <c r="G111" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
+      <c r="V111" s="22"/>
+      <c r="W111" s="22"/>
+      <c r="X111" s="22"/>
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="22"/>
+      <c r="AA111" s="22"/>
+      <c r="AB111" s="22"/>
+      <c r="AC111" s="22"/>
+      <c r="AD111" s="22"/>
+      <c r="AE111" s="22"/>
+      <c r="AF111" s="22"/>
+      <c r="AG111" s="22"/>
+      <c r="AH111" s="22"/>
+      <c r="AI111" s="22"/>
+      <c r="AJ111" s="22"/>
+      <c r="AK111" s="22"/>
+      <c r="AL111" s="22"/>
+      <c r="AM111" s="22"/>
+      <c r="AN111" s="22"/>
+      <c r="AO111" s="22"/>
+      <c r="AP111" s="22"/>
+      <c r="AQ111" s="22"/>
+      <c r="AR111" s="22"/>
+      <c r="AS111" s="22"/>
+      <c r="AT111" s="22"/>
+      <c r="AU111" s="22"/>
       <c r="AV111" s="67"/>
     </row>
     <row r="112" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="66"/>
-      <c r="K112" s="67"/>
-      <c r="L112" s="117"/>
-      <c r="M112" s="118"/>
-      <c r="N112" s="118"/>
-      <c r="O112" s="118"/>
-      <c r="P112" s="118"/>
-      <c r="Q112" s="118"/>
-      <c r="R112" s="118"/>
-      <c r="S112" s="118"/>
-      <c r="T112" s="118"/>
-      <c r="U112" s="118"/>
-      <c r="V112" s="118"/>
-      <c r="W112" s="118"/>
-      <c r="X112" s="118"/>
-      <c r="Y112" s="118"/>
-      <c r="Z112" s="118"/>
-      <c r="AA112" s="118"/>
-      <c r="AB112" s="118"/>
-      <c r="AC112" s="118"/>
-      <c r="AD112" s="118"/>
-      <c r="AE112" s="118"/>
-      <c r="AF112" s="118"/>
-      <c r="AG112" s="118"/>
-      <c r="AH112" s="118"/>
-      <c r="AI112" s="118"/>
-      <c r="AJ112" s="118"/>
-      <c r="AK112" s="118"/>
-      <c r="AL112" s="118"/>
-      <c r="AM112" s="118"/>
-      <c r="AN112" s="118"/>
-      <c r="AO112" s="118"/>
-      <c r="AP112" s="118"/>
-      <c r="AQ112" s="118"/>
-      <c r="AV112" s="67"/>
-    </row>
-    <row r="113" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="66"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="N113" s="118"/>
-      <c r="O113" s="118"/>
-      <c r="P113" s="118"/>
-      <c r="Q113" s="118"/>
-      <c r="R113" s="118"/>
-      <c r="S113" s="118"/>
-      <c r="T113" s="118"/>
-      <c r="U113" s="118"/>
-      <c r="V113" s="118"/>
-      <c r="W113" s="118"/>
-      <c r="X113" s="118"/>
-      <c r="Y113" s="118"/>
-      <c r="Z113" s="118"/>
-      <c r="AA113" s="118"/>
-      <c r="AB113" s="118"/>
-      <c r="AC113" s="118"/>
-      <c r="AD113" s="118"/>
-      <c r="AE113" s="118"/>
-      <c r="AF113" s="118"/>
-      <c r="AG113" s="118"/>
-      <c r="AH113" s="118"/>
-      <c r="AI113" s="118"/>
-      <c r="AJ113" s="118"/>
-      <c r="AK113" s="118"/>
-      <c r="AL113" s="118"/>
-      <c r="AM113" s="118"/>
-      <c r="AN113" s="118"/>
-      <c r="AO113" s="118"/>
-      <c r="AP113" s="118"/>
-      <c r="AQ113" s="118"/>
-      <c r="AV113" s="67"/>
-    </row>
-    <row r="114" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="24"/>
+      <c r="U112" s="24"/>
+      <c r="V112" s="24"/>
+      <c r="W112" s="24"/>
+      <c r="X112" s="24"/>
+      <c r="Y112" s="24"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="24"/>
+      <c r="AB112" s="24"/>
+      <c r="AC112" s="24"/>
+      <c r="AD112" s="24"/>
+      <c r="AE112" s="24"/>
+      <c r="AF112" s="24"/>
+      <c r="AG112" s="24"/>
+      <c r="AH112" s="24"/>
+      <c r="AI112" s="24"/>
+      <c r="AJ112" s="24"/>
+      <c r="AK112" s="24"/>
+      <c r="AL112" s="24"/>
+      <c r="AM112" s="24"/>
+      <c r="AN112" s="24"/>
+      <c r="AO112" s="24"/>
+      <c r="AP112" s="24"/>
+      <c r="AQ112" s="24"/>
+      <c r="AR112" s="24"/>
+      <c r="AS112" s="24"/>
+      <c r="AT112" s="24"/>
+      <c r="AU112" s="24"/>
+      <c r="AV112" s="25"/>
+    </row>
+    <row r="113" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B113" s="19">
+        <v>5</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="20"/>
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="20"/>
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="20"/>
+      <c r="AI113" s="20"/>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="20"/>
+      <c r="AL113" s="20"/>
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="20"/>
+      <c r="AO113" s="20"/>
+      <c r="AP113" s="20"/>
+      <c r="AQ113" s="20"/>
+      <c r="AR113" s="20"/>
+      <c r="AS113" s="20"/>
+      <c r="AT113" s="20"/>
+      <c r="AU113" s="20"/>
+      <c r="AV113" s="21"/>
+    </row>
+    <row r="114" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B114" s="66"/>
       <c r="C114" s="66"/>
       <c r="F114" s="67"/>
-      <c r="G114" s="66"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="118" t="s">
-        <v>344</v>
-      </c>
-      <c r="N114" s="118"/>
-      <c r="O114" s="118"/>
-      <c r="P114" s="118"/>
-      <c r="Q114" s="118"/>
-      <c r="R114" s="118"/>
-      <c r="S114" s="118"/>
-      <c r="T114" s="118"/>
-      <c r="U114" s="118"/>
-      <c r="V114" s="118"/>
-      <c r="W114" s="118"/>
-      <c r="X114" s="118"/>
-      <c r="Y114" s="118"/>
-      <c r="Z114" s="118"/>
-      <c r="AA114" s="118"/>
-      <c r="AB114" s="118"/>
-      <c r="AC114" s="118"/>
-      <c r="AD114" s="118"/>
-      <c r="AE114" s="118"/>
-      <c r="AF114" s="118"/>
-      <c r="AG114" s="118"/>
-      <c r="AH114" s="118"/>
-      <c r="AI114" s="118"/>
-      <c r="AJ114" s="118"/>
-      <c r="AK114" s="118"/>
-      <c r="AL114" s="118"/>
-      <c r="AM114" s="118"/>
-      <c r="AN114" s="118"/>
-      <c r="AO114" s="118"/>
-      <c r="AP114" s="118"/>
-      <c r="AQ114" s="118"/>
+      <c r="G114" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L114" s="66"/>
+      <c r="M114" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="AV114" s="67"/>
     </row>
-    <row r="115" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="109"/>
-      <c r="M115" s="108"/>
-      <c r="N115" s="108"/>
-      <c r="O115" s="108"/>
-      <c r="P115" s="108"/>
-      <c r="Q115" s="108"/>
-      <c r="R115" s="108"/>
-      <c r="S115" s="108"/>
-      <c r="T115" s="109"/>
-      <c r="U115" s="109"/>
-      <c r="V115" s="109"/>
-      <c r="W115" s="109"/>
-      <c r="X115" s="109"/>
-      <c r="Y115" s="109"/>
-      <c r="Z115" s="109"/>
-      <c r="AA115" s="24"/>
-      <c r="AB115" s="24"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="24"/>
-      <c r="AG115" s="24"/>
-      <c r="AH115" s="24"/>
-      <c r="AI115" s="24"/>
-      <c r="AJ115" s="24"/>
-      <c r="AK115" s="24"/>
-      <c r="AL115" s="24"/>
-      <c r="AM115" s="24"/>
-      <c r="AN115" s="24"/>
-      <c r="AO115" s="24"/>
-      <c r="AP115" s="24"/>
-      <c r="AQ115" s="24"/>
-      <c r="AR115" s="24"/>
-      <c r="AS115" s="24"/>
-      <c r="AT115" s="24"/>
-      <c r="AU115" s="24"/>
-      <c r="AV115" s="25"/>
-    </row>
-    <row r="116" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B116" s="19">
-        <v>3</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
-      <c r="V116" s="20"/>
-      <c r="W116" s="20"/>
-      <c r="X116" s="20"/>
-      <c r="Y116" s="20"/>
-      <c r="Z116" s="20"/>
-      <c r="AA116" s="20"/>
-      <c r="AB116" s="20"/>
-      <c r="AC116" s="20"/>
-      <c r="AD116" s="20"/>
-      <c r="AE116" s="20"/>
-      <c r="AF116" s="20"/>
-      <c r="AG116" s="20"/>
-      <c r="AH116" s="20"/>
-      <c r="AI116" s="20"/>
-      <c r="AJ116" s="20"/>
-      <c r="AK116" s="20"/>
-      <c r="AL116" s="20"/>
-      <c r="AM116" s="20"/>
-      <c r="AN116" s="20"/>
-      <c r="AO116" s="20"/>
-      <c r="AP116" s="20"/>
-      <c r="AQ116" s="20"/>
-      <c r="AR116" s="20"/>
-      <c r="AS116" s="20"/>
-      <c r="AT116" s="20"/>
-      <c r="AU116" s="20"/>
-      <c r="AV116" s="21"/>
-    </row>
-    <row r="117" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L117" s="66"/>
-      <c r="M117" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV117" s="67"/>
-    </row>
-    <row r="118" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B118" s="66"/>
-      <c r="C118" s="66"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="66"/>
-      <c r="L118" s="66"/>
-      <c r="AV118" s="67"/>
-    </row>
-    <row r="119" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B119" s="19">
-        <v>4</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M119" s="20"/>
-      <c r="N119" s="20"/>
-      <c r="O119" s="20"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="20"/>
-      <c r="S119" s="20"/>
-      <c r="T119" s="20"/>
-      <c r="U119" s="20"/>
-      <c r="V119" s="20"/>
-      <c r="W119" s="20"/>
-      <c r="X119" s="20"/>
-      <c r="Y119" s="20"/>
-      <c r="Z119" s="20"/>
-      <c r="AA119" s="20"/>
-      <c r="AB119" s="20"/>
-      <c r="AC119" s="20"/>
-      <c r="AD119" s="20"/>
-      <c r="AE119" s="20"/>
-      <c r="AF119" s="20"/>
-      <c r="AG119" s="20"/>
-      <c r="AH119" s="20"/>
-      <c r="AI119" s="20"/>
-      <c r="AJ119" s="20"/>
-      <c r="AK119" s="20"/>
-      <c r="AL119" s="20"/>
-      <c r="AM119" s="20"/>
-      <c r="AN119" s="20"/>
-      <c r="AO119" s="20"/>
-      <c r="AP119" s="20"/>
-      <c r="AQ119" s="20"/>
-      <c r="AR119" s="20"/>
-      <c r="AS119" s="20"/>
-      <c r="AT119" s="20"/>
-      <c r="AU119" s="20"/>
-      <c r="AV119" s="21"/>
-    </row>
-    <row r="120" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="67"/>
-      <c r="L120" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22"/>
-      <c r="AI120" s="22"/>
-      <c r="AJ120" s="22"/>
-      <c r="AK120" s="22"/>
-      <c r="AL120" s="22"/>
-      <c r="AM120" s="22"/>
-      <c r="AN120" s="22"/>
-      <c r="AO120" s="22"/>
-      <c r="AP120" s="22"/>
-      <c r="AQ120" s="22"/>
-      <c r="AR120" s="22"/>
-      <c r="AS120" s="22"/>
-      <c r="AT120" s="22"/>
-      <c r="AU120" s="22"/>
-      <c r="AV120" s="67"/>
-    </row>
-    <row r="121" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="24"/>
-      <c r="O121" s="24"/>
-      <c r="P121" s="24"/>
-      <c r="Q121" s="24"/>
-      <c r="R121" s="24"/>
-      <c r="S121" s="24"/>
-      <c r="T121" s="24"/>
-      <c r="U121" s="24"/>
-      <c r="V121" s="24"/>
-      <c r="W121" s="24"/>
-      <c r="X121" s="24"/>
-      <c r="Y121" s="24"/>
-      <c r="Z121" s="24"/>
-      <c r="AA121" s="24"/>
-      <c r="AB121" s="24"/>
-      <c r="AC121" s="24"/>
-      <c r="AD121" s="24"/>
-      <c r="AE121" s="24"/>
-      <c r="AF121" s="24"/>
-      <c r="AG121" s="24"/>
-      <c r="AH121" s="24"/>
-      <c r="AI121" s="24"/>
-      <c r="AJ121" s="24"/>
-      <c r="AK121" s="24"/>
-      <c r="AL121" s="24"/>
-      <c r="AM121" s="24"/>
-      <c r="AN121" s="24"/>
-      <c r="AO121" s="24"/>
-      <c r="AP121" s="24"/>
-      <c r="AQ121" s="24"/>
-      <c r="AR121" s="24"/>
-      <c r="AS121" s="24"/>
-      <c r="AT121" s="24"/>
-      <c r="AU121" s="24"/>
-      <c r="AV121" s="25"/>
-    </row>
-    <row r="122" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B122" s="19">
-        <v>5</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20"/>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="20"/>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="20"/>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="20"/>
-      <c r="AA122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="20"/>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="20"/>
-      <c r="AI122" s="20"/>
-      <c r="AJ122" s="20"/>
-      <c r="AK122" s="20"/>
-      <c r="AL122" s="20"/>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
-      <c r="AP122" s="20"/>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="20"/>
-      <c r="AU122" s="20"/>
-      <c r="AV122" s="21"/>
-    </row>
-    <row r="123" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L123" s="66"/>
-      <c r="M123" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="AV123" s="67"/>
-    </row>
-    <row r="124" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="66"/>
-      <c r="L124" s="66"/>
-      <c r="M124" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV124" s="67"/>
-    </row>
-    <row r="125" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="66"/>
-      <c r="L125" s="66"/>
-      <c r="AV125" s="67"/>
-    </row>
-    <row r="126" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="66"/>
+      <c r="L115" s="66"/>
+      <c r="M115" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV115" s="67"/>
+    </row>
+    <row r="116" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B116" s="66"/>
+      <c r="C116" s="66"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="66"/>
+      <c r="L116" s="66"/>
+      <c r="AV116" s="67"/>
+    </row>
+    <row r="117" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A120" s="51"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="51"/>
+      <c r="P120" s="51"/>
+      <c r="Q120" s="51"/>
+      <c r="R120" s="51"/>
+      <c r="S120" s="51"/>
+      <c r="T120" s="51"/>
+      <c r="U120" s="51"/>
+      <c r="V120" s="51"/>
+      <c r="W120" s="51"/>
+      <c r="X120" s="51"/>
+      <c r="Y120" s="51"/>
+      <c r="Z120" s="51"/>
+      <c r="AA120" s="51"/>
+      <c r="AB120" s="51"/>
+      <c r="AC120" s="51"/>
+      <c r="AD120" s="51"/>
+      <c r="AE120" s="51"/>
+      <c r="AF120" s="51"/>
+      <c r="AG120" s="51"/>
+      <c r="AH120" s="51"/>
+      <c r="AI120" s="51"/>
+      <c r="AJ120" s="51"/>
+      <c r="AK120" s="51"/>
+      <c r="AL120" s="51"/>
+      <c r="AM120" s="51"/>
+      <c r="AN120" s="51"/>
+      <c r="AO120" s="51"/>
+      <c r="AP120" s="51"/>
+      <c r="AQ120" s="51"/>
+      <c r="AR120" s="51"/>
+      <c r="AS120" s="51"/>
+      <c r="AT120" s="51"/>
+      <c r="AU120" s="51"/>
+      <c r="AV120" s="51"/>
+      <c r="AW120" s="51"/>
+      <c r="AX120" s="51"/>
+      <c r="AY120" s="51"/>
+      <c r="AZ120" s="51"/>
+    </row>
+    <row r="121" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="51"/>
+      <c r="M121" s="51"/>
+      <c r="N121" s="51"/>
+      <c r="O121" s="51"/>
+      <c r="P121" s="51"/>
+      <c r="Q121" s="51"/>
+      <c r="R121" s="51"/>
+      <c r="S121" s="51"/>
+      <c r="T121" s="51"/>
+      <c r="U121" s="51"/>
+      <c r="V121" s="51"/>
+      <c r="W121" s="51"/>
+      <c r="X121" s="51"/>
+      <c r="Y121" s="51"/>
+      <c r="Z121" s="51"/>
+      <c r="AA121" s="51"/>
+      <c r="AB121" s="51"/>
+      <c r="AC121" s="51"/>
+      <c r="AD121" s="51"/>
+      <c r="AE121" s="51"/>
+      <c r="AF121" s="51"/>
+      <c r="AG121" s="51"/>
+      <c r="AH121" s="51"/>
+      <c r="AI121" s="51"/>
+      <c r="AJ121" s="51"/>
+      <c r="AK121" s="51"/>
+      <c r="AL121" s="51"/>
+      <c r="AM121" s="51"/>
+      <c r="AN121" s="51"/>
+      <c r="AO121" s="51"/>
+      <c r="AP121" s="51"/>
+      <c r="AQ121" s="51"/>
+      <c r="AR121" s="51"/>
+      <c r="AS121" s="51"/>
+      <c r="AT121" s="51"/>
+      <c r="AU121" s="51"/>
+      <c r="AV121" s="51"/>
+      <c r="AW121" s="51"/>
+      <c r="AX121" s="51"/>
+      <c r="AY121" s="51"/>
+      <c r="AZ121" s="51"/>
+    </row>
+    <row r="122" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A122" s="51"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="51"/>
+      <c r="O122" s="51"/>
+      <c r="P122" s="51"/>
+      <c r="Q122" s="51"/>
+      <c r="R122" s="51"/>
+      <c r="S122" s="51"/>
+      <c r="T122" s="51"/>
+      <c r="U122" s="51"/>
+      <c r="V122" s="51"/>
+      <c r="W122" s="51"/>
+      <c r="X122" s="51"/>
+      <c r="Y122" s="51"/>
+      <c r="Z122" s="51"/>
+      <c r="AA122" s="51"/>
+      <c r="AB122" s="51"/>
+      <c r="AC122" s="51"/>
+      <c r="AD122" s="51"/>
+      <c r="AE122" s="51"/>
+      <c r="AF122" s="51"/>
+      <c r="AG122" s="51"/>
+      <c r="AH122" s="51"/>
+      <c r="AI122" s="51"/>
+      <c r="AJ122" s="51"/>
+      <c r="AK122" s="51"/>
+      <c r="AL122" s="51"/>
+      <c r="AM122" s="51"/>
+      <c r="AN122" s="51"/>
+      <c r="AO122" s="51"/>
+      <c r="AP122" s="51"/>
+      <c r="AQ122" s="51"/>
+      <c r="AR122" s="51"/>
+      <c r="AS122" s="51"/>
+      <c r="AT122" s="51"/>
+      <c r="AU122" s="51"/>
+      <c r="AV122" s="51"/>
+      <c r="AW122" s="51"/>
+      <c r="AX122" s="51"/>
+      <c r="AY122" s="51"/>
+      <c r="AZ122" s="51"/>
+    </row>
+    <row r="123" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A123" s="51"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="51"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
+      <c r="P123" s="51"/>
+      <c r="Q123" s="51"/>
+      <c r="R123" s="51"/>
+      <c r="S123" s="51"/>
+      <c r="T123" s="51"/>
+      <c r="U123" s="51"/>
+      <c r="V123" s="51"/>
+      <c r="W123" s="51"/>
+      <c r="X123" s="51"/>
+      <c r="Y123" s="51"/>
+      <c r="Z123" s="51"/>
+      <c r="AA123" s="51"/>
+      <c r="AB123" s="51"/>
+      <c r="AC123" s="51"/>
+      <c r="AD123" s="51"/>
+      <c r="AE123" s="51"/>
+      <c r="AF123" s="51"/>
+      <c r="AG123" s="51"/>
+      <c r="AH123" s="51"/>
+      <c r="AI123" s="51"/>
+      <c r="AJ123" s="51"/>
+      <c r="AK123" s="51"/>
+      <c r="AL123" s="51"/>
+      <c r="AM123" s="51"/>
+      <c r="AN123" s="51"/>
+      <c r="AO123" s="51"/>
+      <c r="AP123" s="51"/>
+      <c r="AQ123" s="51"/>
+      <c r="AR123" s="51"/>
+      <c r="AS123" s="51"/>
+      <c r="AT123" s="51"/>
+      <c r="AU123" s="51"/>
+      <c r="AV123" s="51"/>
+      <c r="AW123" s="51"/>
+      <c r="AX123" s="51"/>
+      <c r="AY123" s="51"/>
+      <c r="AZ123" s="51"/>
+    </row>
+    <row r="124" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A124" s="51"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="51"/>
+      <c r="L124" s="51"/>
+      <c r="M124" s="51"/>
+      <c r="N124" s="51"/>
+      <c r="O124" s="51"/>
+      <c r="P124" s="51"/>
+      <c r="Q124" s="51"/>
+      <c r="R124" s="51"/>
+      <c r="S124" s="51"/>
+      <c r="T124" s="51"/>
+      <c r="U124" s="51"/>
+      <c r="V124" s="51"/>
+      <c r="W124" s="51"/>
+      <c r="X124" s="51"/>
+      <c r="Y124" s="51"/>
+      <c r="Z124" s="51"/>
+      <c r="AA124" s="51"/>
+      <c r="AB124" s="51"/>
+      <c r="AC124" s="51"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+      <c r="AF124" s="51"/>
+      <c r="AG124" s="51"/>
+      <c r="AH124" s="51"/>
+      <c r="AI124" s="51"/>
+      <c r="AJ124" s="51"/>
+      <c r="AK124" s="51"/>
+      <c r="AL124" s="51"/>
+      <c r="AM124" s="51"/>
+      <c r="AN124" s="51"/>
+      <c r="AO124" s="51"/>
+      <c r="AP124" s="51"/>
+      <c r="AQ124" s="51"/>
+      <c r="AR124" s="51"/>
+      <c r="AS124" s="51"/>
+      <c r="AT124" s="51"/>
+      <c r="AU124" s="51"/>
+      <c r="AV124" s="51"/>
+      <c r="AW124" s="51"/>
+      <c r="AX124" s="51"/>
+      <c r="AY124" s="51"/>
+      <c r="AZ124" s="51"/>
+    </row>
+    <row r="125" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A125" s="51"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="51"/>
+      <c r="M125" s="51"/>
+      <c r="N125" s="51"/>
+      <c r="O125" s="51"/>
+      <c r="P125" s="51"/>
+      <c r="Q125" s="51"/>
+      <c r="R125" s="51"/>
+      <c r="S125" s="51"/>
+      <c r="T125" s="51"/>
+      <c r="U125" s="51"/>
+      <c r="V125" s="51"/>
+      <c r="W125" s="51"/>
+      <c r="X125" s="51"/>
+      <c r="Y125" s="51"/>
+      <c r="Z125" s="51"/>
+      <c r="AA125" s="51"/>
+      <c r="AB125" s="51"/>
+      <c r="AC125" s="51"/>
+      <c r="AD125" s="51"/>
+      <c r="AE125" s="51"/>
+      <c r="AF125" s="51"/>
+      <c r="AG125" s="51"/>
+      <c r="AH125" s="51"/>
+      <c r="AI125" s="51"/>
+      <c r="AJ125" s="51"/>
+      <c r="AK125" s="51"/>
+      <c r="AL125" s="51"/>
+      <c r="AM125" s="51"/>
+      <c r="AN125" s="51"/>
+      <c r="AO125" s="51"/>
+      <c r="AP125" s="51"/>
+      <c r="AQ125" s="51"/>
+      <c r="AR125" s="51"/>
+      <c r="AS125" s="51"/>
+      <c r="AT125" s="51"/>
+      <c r="AU125" s="51"/>
+      <c r="AV125" s="51"/>
+      <c r="AW125" s="51"/>
+      <c r="AX125" s="51"/>
+      <c r="AY125" s="51"/>
+      <c r="AZ125" s="51"/>
+    </row>
+    <row r="126" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="51"/>
+      <c r="M126" s="51"/>
+      <c r="N126" s="51"/>
+      <c r="O126" s="51"/>
+      <c r="P126" s="51"/>
+      <c r="Q126" s="51"/>
+      <c r="R126" s="51"/>
+      <c r="S126" s="51"/>
+      <c r="T126" s="51"/>
+      <c r="U126" s="51"/>
+      <c r="V126" s="51"/>
+      <c r="W126" s="51"/>
+      <c r="X126" s="51"/>
+      <c r="Y126" s="51"/>
+      <c r="Z126" s="51"/>
+      <c r="AA126" s="51"/>
+      <c r="AB126" s="51"/>
+      <c r="AC126" s="51"/>
+      <c r="AD126" s="51"/>
+      <c r="AE126" s="51"/>
+      <c r="AF126" s="51"/>
+      <c r="AG126" s="51"/>
+      <c r="AH126" s="51"/>
+      <c r="AI126" s="51"/>
+      <c r="AJ126" s="51"/>
+      <c r="AK126" s="51"/>
+      <c r="AL126" s="51"/>
+      <c r="AM126" s="51"/>
+      <c r="AN126" s="51"/>
+      <c r="AO126" s="51"/>
+      <c r="AP126" s="51"/>
+      <c r="AQ126" s="51"/>
+      <c r="AR126" s="51"/>
+      <c r="AS126" s="51"/>
+      <c r="AT126" s="51"/>
+      <c r="AU126" s="51"/>
+      <c r="AV126" s="51"/>
+      <c r="AW126" s="51"/>
+      <c r="AX126" s="51"/>
+      <c r="AY126" s="51"/>
+      <c r="AZ126" s="51"/>
+    </row>
+    <row r="127" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A127" s="51"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
+      <c r="K127" s="51"/>
+      <c r="L127" s="51"/>
+      <c r="M127" s="51"/>
+      <c r="N127" s="51"/>
+      <c r="O127" s="51"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="51"/>
+      <c r="R127" s="51"/>
+      <c r="S127" s="51"/>
+      <c r="T127" s="51"/>
+      <c r="U127" s="51"/>
+      <c r="V127" s="51"/>
+      <c r="W127" s="51"/>
+      <c r="X127" s="51"/>
+      <c r="Y127" s="51"/>
+      <c r="Z127" s="51"/>
+      <c r="AA127" s="51"/>
+      <c r="AB127" s="51"/>
+      <c r="AC127" s="51"/>
+      <c r="AD127" s="51"/>
+      <c r="AE127" s="51"/>
+      <c r="AF127" s="51"/>
+      <c r="AG127" s="51"/>
+      <c r="AH127" s="51"/>
+      <c r="AI127" s="51"/>
+      <c r="AJ127" s="51"/>
+      <c r="AK127" s="51"/>
+      <c r="AL127" s="51"/>
+      <c r="AM127" s="51"/>
+      <c r="AN127" s="51"/>
+      <c r="AO127" s="51"/>
+      <c r="AP127" s="51"/>
+      <c r="AQ127" s="51"/>
+      <c r="AR127" s="51"/>
+      <c r="AS127" s="51"/>
+      <c r="AT127" s="51"/>
+      <c r="AU127" s="51"/>
+      <c r="AV127" s="51"/>
+      <c r="AW127" s="51"/>
+      <c r="AX127" s="51"/>
+      <c r="AY127" s="51"/>
+      <c r="AZ127" s="51"/>
+    </row>
+    <row r="128" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A128" s="51"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="51"/>
+      <c r="L128" s="51"/>
+      <c r="M128" s="51"/>
+      <c r="N128" s="51"/>
+      <c r="O128" s="51"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="51"/>
+      <c r="R128" s="51"/>
+      <c r="S128" s="51"/>
+      <c r="T128" s="51"/>
+      <c r="U128" s="51"/>
+      <c r="V128" s="51"/>
+      <c r="W128" s="51"/>
+      <c r="X128" s="51"/>
+      <c r="Y128" s="51"/>
+      <c r="Z128" s="51"/>
+      <c r="AA128" s="51"/>
+      <c r="AB128" s="51"/>
+      <c r="AC128" s="51"/>
+      <c r="AD128" s="51"/>
+      <c r="AE128" s="51"/>
+      <c r="AF128" s="51"/>
+      <c r="AG128" s="51"/>
+      <c r="AH128" s="51"/>
+      <c r="AI128" s="51"/>
+      <c r="AJ128" s="51"/>
+      <c r="AK128" s="51"/>
+      <c r="AL128" s="51"/>
+      <c r="AM128" s="51"/>
+      <c r="AN128" s="51"/>
+      <c r="AO128" s="51"/>
+      <c r="AP128" s="51"/>
+      <c r="AQ128" s="51"/>
+      <c r="AR128" s="51"/>
+      <c r="AS128" s="51"/>
+      <c r="AT128" s="51"/>
+      <c r="AU128" s="51"/>
+      <c r="AV128" s="51"/>
+      <c r="AW128" s="51"/>
+      <c r="AX128" s="51"/>
+      <c r="AY128" s="51"/>
+      <c r="AZ128" s="51"/>
+    </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A129" s="51"/>
       <c r="B129" s="51"/>
@@ -23703,492 +24016,6 @@
       <c r="AY252" s="51"/>
       <c r="AZ252" s="51"/>
     </row>
-    <row r="253" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A253" s="51"/>
-      <c r="B253" s="51"/>
-      <c r="C253" s="51"/>
-      <c r="D253" s="51"/>
-      <c r="E253" s="51"/>
-      <c r="F253" s="51"/>
-      <c r="G253" s="51"/>
-      <c r="H253" s="51"/>
-      <c r="I253" s="51"/>
-      <c r="J253" s="51"/>
-      <c r="K253" s="51"/>
-      <c r="L253" s="51"/>
-      <c r="M253" s="51"/>
-      <c r="N253" s="51"/>
-      <c r="O253" s="51"/>
-      <c r="P253" s="51"/>
-      <c r="Q253" s="51"/>
-      <c r="R253" s="51"/>
-      <c r="S253" s="51"/>
-      <c r="T253" s="51"/>
-      <c r="U253" s="51"/>
-      <c r="V253" s="51"/>
-      <c r="W253" s="51"/>
-      <c r="X253" s="51"/>
-      <c r="Y253" s="51"/>
-      <c r="Z253" s="51"/>
-      <c r="AA253" s="51"/>
-      <c r="AB253" s="51"/>
-      <c r="AC253" s="51"/>
-      <c r="AD253" s="51"/>
-      <c r="AE253" s="51"/>
-      <c r="AF253" s="51"/>
-      <c r="AG253" s="51"/>
-      <c r="AH253" s="51"/>
-      <c r="AI253" s="51"/>
-      <c r="AJ253" s="51"/>
-      <c r="AK253" s="51"/>
-      <c r="AL253" s="51"/>
-      <c r="AM253" s="51"/>
-      <c r="AN253" s="51"/>
-      <c r="AO253" s="51"/>
-      <c r="AP253" s="51"/>
-      <c r="AQ253" s="51"/>
-      <c r="AR253" s="51"/>
-      <c r="AS253" s="51"/>
-      <c r="AT253" s="51"/>
-      <c r="AU253" s="51"/>
-      <c r="AV253" s="51"/>
-      <c r="AW253" s="51"/>
-      <c r="AX253" s="51"/>
-      <c r="AY253" s="51"/>
-      <c r="AZ253" s="51"/>
-    </row>
-    <row r="254" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A254" s="51"/>
-      <c r="B254" s="51"/>
-      <c r="C254" s="51"/>
-      <c r="D254" s="51"/>
-      <c r="E254" s="51"/>
-      <c r="F254" s="51"/>
-      <c r="G254" s="51"/>
-      <c r="H254" s="51"/>
-      <c r="I254" s="51"/>
-      <c r="J254" s="51"/>
-      <c r="K254" s="51"/>
-      <c r="L254" s="51"/>
-      <c r="M254" s="51"/>
-      <c r="N254" s="51"/>
-      <c r="O254" s="51"/>
-      <c r="P254" s="51"/>
-      <c r="Q254" s="51"/>
-      <c r="R254" s="51"/>
-      <c r="S254" s="51"/>
-      <c r="T254" s="51"/>
-      <c r="U254" s="51"/>
-      <c r="V254" s="51"/>
-      <c r="W254" s="51"/>
-      <c r="X254" s="51"/>
-      <c r="Y254" s="51"/>
-      <c r="Z254" s="51"/>
-      <c r="AA254" s="51"/>
-      <c r="AB254" s="51"/>
-      <c r="AC254" s="51"/>
-      <c r="AD254" s="51"/>
-      <c r="AE254" s="51"/>
-      <c r="AF254" s="51"/>
-      <c r="AG254" s="51"/>
-      <c r="AH254" s="51"/>
-      <c r="AI254" s="51"/>
-      <c r="AJ254" s="51"/>
-      <c r="AK254" s="51"/>
-      <c r="AL254" s="51"/>
-      <c r="AM254" s="51"/>
-      <c r="AN254" s="51"/>
-      <c r="AO254" s="51"/>
-      <c r="AP254" s="51"/>
-      <c r="AQ254" s="51"/>
-      <c r="AR254" s="51"/>
-      <c r="AS254" s="51"/>
-      <c r="AT254" s="51"/>
-      <c r="AU254" s="51"/>
-      <c r="AV254" s="51"/>
-      <c r="AW254" s="51"/>
-      <c r="AX254" s="51"/>
-      <c r="AY254" s="51"/>
-      <c r="AZ254" s="51"/>
-    </row>
-    <row r="255" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A255" s="51"/>
-      <c r="B255" s="51"/>
-      <c r="C255" s="51"/>
-      <c r="D255" s="51"/>
-      <c r="E255" s="51"/>
-      <c r="F255" s="51"/>
-      <c r="G255" s="51"/>
-      <c r="H255" s="51"/>
-      <c r="I255" s="51"/>
-      <c r="J255" s="51"/>
-      <c r="K255" s="51"/>
-      <c r="L255" s="51"/>
-      <c r="M255" s="51"/>
-      <c r="N255" s="51"/>
-      <c r="O255" s="51"/>
-      <c r="P255" s="51"/>
-      <c r="Q255" s="51"/>
-      <c r="R255" s="51"/>
-      <c r="S255" s="51"/>
-      <c r="T255" s="51"/>
-      <c r="U255" s="51"/>
-      <c r="V255" s="51"/>
-      <c r="W255" s="51"/>
-      <c r="X255" s="51"/>
-      <c r="Y255" s="51"/>
-      <c r="Z255" s="51"/>
-      <c r="AA255" s="51"/>
-      <c r="AB255" s="51"/>
-      <c r="AC255" s="51"/>
-      <c r="AD255" s="51"/>
-      <c r="AE255" s="51"/>
-      <c r="AF255" s="51"/>
-      <c r="AG255" s="51"/>
-      <c r="AH255" s="51"/>
-      <c r="AI255" s="51"/>
-      <c r="AJ255" s="51"/>
-      <c r="AK255" s="51"/>
-      <c r="AL255" s="51"/>
-      <c r="AM255" s="51"/>
-      <c r="AN255" s="51"/>
-      <c r="AO255" s="51"/>
-      <c r="AP255" s="51"/>
-      <c r="AQ255" s="51"/>
-      <c r="AR255" s="51"/>
-      <c r="AS255" s="51"/>
-      <c r="AT255" s="51"/>
-      <c r="AU255" s="51"/>
-      <c r="AV255" s="51"/>
-      <c r="AW255" s="51"/>
-      <c r="AX255" s="51"/>
-      <c r="AY255" s="51"/>
-      <c r="AZ255" s="51"/>
-    </row>
-    <row r="256" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A256" s="51"/>
-      <c r="B256" s="51"/>
-      <c r="C256" s="51"/>
-      <c r="D256" s="51"/>
-      <c r="E256" s="51"/>
-      <c r="F256" s="51"/>
-      <c r="G256" s="51"/>
-      <c r="H256" s="51"/>
-      <c r="I256" s="51"/>
-      <c r="J256" s="51"/>
-      <c r="K256" s="51"/>
-      <c r="L256" s="51"/>
-      <c r="M256" s="51"/>
-      <c r="N256" s="51"/>
-      <c r="O256" s="51"/>
-      <c r="P256" s="51"/>
-      <c r="Q256" s="51"/>
-      <c r="R256" s="51"/>
-      <c r="S256" s="51"/>
-      <c r="T256" s="51"/>
-      <c r="U256" s="51"/>
-      <c r="V256" s="51"/>
-      <c r="W256" s="51"/>
-      <c r="X256" s="51"/>
-      <c r="Y256" s="51"/>
-      <c r="Z256" s="51"/>
-      <c r="AA256" s="51"/>
-      <c r="AB256" s="51"/>
-      <c r="AC256" s="51"/>
-      <c r="AD256" s="51"/>
-      <c r="AE256" s="51"/>
-      <c r="AF256" s="51"/>
-      <c r="AG256" s="51"/>
-      <c r="AH256" s="51"/>
-      <c r="AI256" s="51"/>
-      <c r="AJ256" s="51"/>
-      <c r="AK256" s="51"/>
-      <c r="AL256" s="51"/>
-      <c r="AM256" s="51"/>
-      <c r="AN256" s="51"/>
-      <c r="AO256" s="51"/>
-      <c r="AP256" s="51"/>
-      <c r="AQ256" s="51"/>
-      <c r="AR256" s="51"/>
-      <c r="AS256" s="51"/>
-      <c r="AT256" s="51"/>
-      <c r="AU256" s="51"/>
-      <c r="AV256" s="51"/>
-      <c r="AW256" s="51"/>
-      <c r="AX256" s="51"/>
-      <c r="AY256" s="51"/>
-      <c r="AZ256" s="51"/>
-    </row>
-    <row r="257" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A257" s="51"/>
-      <c r="B257" s="51"/>
-      <c r="C257" s="51"/>
-      <c r="D257" s="51"/>
-      <c r="E257" s="51"/>
-      <c r="F257" s="51"/>
-      <c r="G257" s="51"/>
-      <c r="H257" s="51"/>
-      <c r="I257" s="51"/>
-      <c r="J257" s="51"/>
-      <c r="K257" s="51"/>
-      <c r="L257" s="51"/>
-      <c r="M257" s="51"/>
-      <c r="N257" s="51"/>
-      <c r="O257" s="51"/>
-      <c r="P257" s="51"/>
-      <c r="Q257" s="51"/>
-      <c r="R257" s="51"/>
-      <c r="S257" s="51"/>
-      <c r="T257" s="51"/>
-      <c r="U257" s="51"/>
-      <c r="V257" s="51"/>
-      <c r="W257" s="51"/>
-      <c r="X257" s="51"/>
-      <c r="Y257" s="51"/>
-      <c r="Z257" s="51"/>
-      <c r="AA257" s="51"/>
-      <c r="AB257" s="51"/>
-      <c r="AC257" s="51"/>
-      <c r="AD257" s="51"/>
-      <c r="AE257" s="51"/>
-      <c r="AF257" s="51"/>
-      <c r="AG257" s="51"/>
-      <c r="AH257" s="51"/>
-      <c r="AI257" s="51"/>
-      <c r="AJ257" s="51"/>
-      <c r="AK257" s="51"/>
-      <c r="AL257" s="51"/>
-      <c r="AM257" s="51"/>
-      <c r="AN257" s="51"/>
-      <c r="AO257" s="51"/>
-      <c r="AP257" s="51"/>
-      <c r="AQ257" s="51"/>
-      <c r="AR257" s="51"/>
-      <c r="AS257" s="51"/>
-      <c r="AT257" s="51"/>
-      <c r="AU257" s="51"/>
-      <c r="AV257" s="51"/>
-      <c r="AW257" s="51"/>
-      <c r="AX257" s="51"/>
-      <c r="AY257" s="51"/>
-      <c r="AZ257" s="51"/>
-    </row>
-    <row r="258" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A258" s="51"/>
-      <c r="B258" s="51"/>
-      <c r="C258" s="51"/>
-      <c r="D258" s="51"/>
-      <c r="E258" s="51"/>
-      <c r="F258" s="51"/>
-      <c r="G258" s="51"/>
-      <c r="H258" s="51"/>
-      <c r="I258" s="51"/>
-      <c r="J258" s="51"/>
-      <c r="K258" s="51"/>
-      <c r="L258" s="51"/>
-      <c r="M258" s="51"/>
-      <c r="N258" s="51"/>
-      <c r="O258" s="51"/>
-      <c r="P258" s="51"/>
-      <c r="Q258" s="51"/>
-      <c r="R258" s="51"/>
-      <c r="S258" s="51"/>
-      <c r="T258" s="51"/>
-      <c r="U258" s="51"/>
-      <c r="V258" s="51"/>
-      <c r="W258" s="51"/>
-      <c r="X258" s="51"/>
-      <c r="Y258" s="51"/>
-      <c r="Z258" s="51"/>
-      <c r="AA258" s="51"/>
-      <c r="AB258" s="51"/>
-      <c r="AC258" s="51"/>
-      <c r="AD258" s="51"/>
-      <c r="AE258" s="51"/>
-      <c r="AF258" s="51"/>
-      <c r="AG258" s="51"/>
-      <c r="AH258" s="51"/>
-      <c r="AI258" s="51"/>
-      <c r="AJ258" s="51"/>
-      <c r="AK258" s="51"/>
-      <c r="AL258" s="51"/>
-      <c r="AM258" s="51"/>
-      <c r="AN258" s="51"/>
-      <c r="AO258" s="51"/>
-      <c r="AP258" s="51"/>
-      <c r="AQ258" s="51"/>
-      <c r="AR258" s="51"/>
-      <c r="AS258" s="51"/>
-      <c r="AT258" s="51"/>
-      <c r="AU258" s="51"/>
-      <c r="AV258" s="51"/>
-      <c r="AW258" s="51"/>
-      <c r="AX258" s="51"/>
-      <c r="AY258" s="51"/>
-      <c r="AZ258" s="51"/>
-    </row>
-    <row r="259" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A259" s="51"/>
-      <c r="B259" s="51"/>
-      <c r="C259" s="51"/>
-      <c r="D259" s="51"/>
-      <c r="E259" s="51"/>
-      <c r="F259" s="51"/>
-      <c r="G259" s="51"/>
-      <c r="H259" s="51"/>
-      <c r="I259" s="51"/>
-      <c r="J259" s="51"/>
-      <c r="K259" s="51"/>
-      <c r="L259" s="51"/>
-      <c r="M259" s="51"/>
-      <c r="N259" s="51"/>
-      <c r="O259" s="51"/>
-      <c r="P259" s="51"/>
-      <c r="Q259" s="51"/>
-      <c r="R259" s="51"/>
-      <c r="S259" s="51"/>
-      <c r="T259" s="51"/>
-      <c r="U259" s="51"/>
-      <c r="V259" s="51"/>
-      <c r="W259" s="51"/>
-      <c r="X259" s="51"/>
-      <c r="Y259" s="51"/>
-      <c r="Z259" s="51"/>
-      <c r="AA259" s="51"/>
-      <c r="AB259" s="51"/>
-      <c r="AC259" s="51"/>
-      <c r="AD259" s="51"/>
-      <c r="AE259" s="51"/>
-      <c r="AF259" s="51"/>
-      <c r="AG259" s="51"/>
-      <c r="AH259" s="51"/>
-      <c r="AI259" s="51"/>
-      <c r="AJ259" s="51"/>
-      <c r="AK259" s="51"/>
-      <c r="AL259" s="51"/>
-      <c r="AM259" s="51"/>
-      <c r="AN259" s="51"/>
-      <c r="AO259" s="51"/>
-      <c r="AP259" s="51"/>
-      <c r="AQ259" s="51"/>
-      <c r="AR259" s="51"/>
-      <c r="AS259" s="51"/>
-      <c r="AT259" s="51"/>
-      <c r="AU259" s="51"/>
-      <c r="AV259" s="51"/>
-      <c r="AW259" s="51"/>
-      <c r="AX259" s="51"/>
-      <c r="AY259" s="51"/>
-      <c r="AZ259" s="51"/>
-    </row>
-    <row r="260" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A260" s="51"/>
-      <c r="B260" s="51"/>
-      <c r="C260" s="51"/>
-      <c r="D260" s="51"/>
-      <c r="E260" s="51"/>
-      <c r="F260" s="51"/>
-      <c r="G260" s="51"/>
-      <c r="H260" s="51"/>
-      <c r="I260" s="51"/>
-      <c r="J260" s="51"/>
-      <c r="K260" s="51"/>
-      <c r="L260" s="51"/>
-      <c r="M260" s="51"/>
-      <c r="N260" s="51"/>
-      <c r="O260" s="51"/>
-      <c r="P260" s="51"/>
-      <c r="Q260" s="51"/>
-      <c r="R260" s="51"/>
-      <c r="S260" s="51"/>
-      <c r="T260" s="51"/>
-      <c r="U260" s="51"/>
-      <c r="V260" s="51"/>
-      <c r="W260" s="51"/>
-      <c r="X260" s="51"/>
-      <c r="Y260" s="51"/>
-      <c r="Z260" s="51"/>
-      <c r="AA260" s="51"/>
-      <c r="AB260" s="51"/>
-      <c r="AC260" s="51"/>
-      <c r="AD260" s="51"/>
-      <c r="AE260" s="51"/>
-      <c r="AF260" s="51"/>
-      <c r="AG260" s="51"/>
-      <c r="AH260" s="51"/>
-      <c r="AI260" s="51"/>
-      <c r="AJ260" s="51"/>
-      <c r="AK260" s="51"/>
-      <c r="AL260" s="51"/>
-      <c r="AM260" s="51"/>
-      <c r="AN260" s="51"/>
-      <c r="AO260" s="51"/>
-      <c r="AP260" s="51"/>
-      <c r="AQ260" s="51"/>
-      <c r="AR260" s="51"/>
-      <c r="AS260" s="51"/>
-      <c r="AT260" s="51"/>
-      <c r="AU260" s="51"/>
-      <c r="AV260" s="51"/>
-      <c r="AW260" s="51"/>
-      <c r="AX260" s="51"/>
-      <c r="AY260" s="51"/>
-      <c r="AZ260" s="51"/>
-    </row>
-    <row r="261" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A261" s="51"/>
-      <c r="B261" s="51"/>
-      <c r="C261" s="51"/>
-      <c r="D261" s="51"/>
-      <c r="E261" s="51"/>
-      <c r="F261" s="51"/>
-      <c r="G261" s="51"/>
-      <c r="H261" s="51"/>
-      <c r="I261" s="51"/>
-      <c r="J261" s="51"/>
-      <c r="K261" s="51"/>
-      <c r="L261" s="51"/>
-      <c r="M261" s="51"/>
-      <c r="N261" s="51"/>
-      <c r="O261" s="51"/>
-      <c r="P261" s="51"/>
-      <c r="Q261" s="51"/>
-      <c r="R261" s="51"/>
-      <c r="S261" s="51"/>
-      <c r="T261" s="51"/>
-      <c r="U261" s="51"/>
-      <c r="V261" s="51"/>
-      <c r="W261" s="51"/>
-      <c r="X261" s="51"/>
-      <c r="Y261" s="51"/>
-      <c r="Z261" s="51"/>
-      <c r="AA261" s="51"/>
-      <c r="AB261" s="51"/>
-      <c r="AC261" s="51"/>
-      <c r="AD261" s="51"/>
-      <c r="AE261" s="51"/>
-      <c r="AF261" s="51"/>
-      <c r="AG261" s="51"/>
-      <c r="AH261" s="51"/>
-      <c r="AI261" s="51"/>
-      <c r="AJ261" s="51"/>
-      <c r="AK261" s="51"/>
-      <c r="AL261" s="51"/>
-      <c r="AM261" s="51"/>
-      <c r="AN261" s="51"/>
-      <c r="AO261" s="51"/>
-      <c r="AP261" s="51"/>
-      <c r="AQ261" s="51"/>
-      <c r="AR261" s="51"/>
-      <c r="AS261" s="51"/>
-      <c r="AT261" s="51"/>
-      <c r="AU261" s="51"/>
-      <c r="AV261" s="51"/>
-      <c r="AW261" s="51"/>
-      <c r="AX261" s="51"/>
-      <c r="AY261" s="51"/>
-      <c r="AZ261" s="51"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -24269,7 +24096,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -24285,7 +24112,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -24356,7 +24183,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="173"/>
       <c r="AU2" s="182"/>
       <c r="AV2" s="182"/>
       <c r="AW2" s="182"/>
@@ -24722,7 +24549,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
       <c r="T9" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -24734,7 +24561,7 @@
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
       <c r="AD9" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -24808,7 +24635,7 @@
       <c r="C11" s="66"/>
       <c r="I11" s="67"/>
       <c r="J11" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -24822,7 +24649,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="21"/>
       <c r="T11" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -24834,7 +24661,7 @@
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE11" s="20"/>
       <c r="AF11" s="20"/>
@@ -24908,7 +24735,7 @@
       <c r="C13" s="66"/>
       <c r="I13" s="67"/>
       <c r="J13" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -24922,7 +24749,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -24934,7 +24761,7 @@
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -25008,7 +24835,7 @@
       <c r="C15" s="66"/>
       <c r="I15" s="67"/>
       <c r="J15" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -25022,7 +24849,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
@@ -25034,7 +24861,7 @@
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
@@ -25108,7 +24935,7 @@
       <c r="C17" s="66"/>
       <c r="I17" s="67"/>
       <c r="J17" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -25122,7 +24949,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
@@ -25134,7 +24961,7 @@
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
       <c r="AD17" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
@@ -25232,7 +25059,7 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
@@ -25519,7 +25346,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -29586,7 +29413,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -29602,7 +29429,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -29673,7 +29500,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="173"/>
       <c r="AU2" s="182"/>
       <c r="AV2" s="182"/>
       <c r="AW2" s="182"/>
@@ -29959,7 +29786,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -30015,7 +29842,7 @@
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -30071,7 +29898,7 @@
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -40893,6 +40720,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -41050,15 +40886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -41069,6 +40896,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41084,12 +40919,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AE2DC-0CF2-47C7-841C-97ED949076F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A136599-D83E-4B91-83A7-5A595720A26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="15" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="384">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1806,10 +1806,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Product name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Similar search</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2039,10 +2035,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>・COUNT(*) AS その他払出数</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>＜利用テーブル＞</t>
     <rPh sb="1" eb="3">
       <t>リヨウ</t>
@@ -2069,10 +2061,6 @@
     <rPh sb="3" eb="6">
       <t>ネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>・受払区分</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -2301,14 +2289,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・期間は最大2ヶ月まで
-・前々月以前の日付を選択不可</t>
-    <rPh sb="24" eb="26">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>生産製品マスタ.品種コード=画面.品種コード</t>
     <rPh sb="14" eb="16">
       <t>ガメン</t>
@@ -2328,10 +2308,6 @@
   <si>
     <t>'MOLD'：金型番号</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>'8'：その他払出</t>
-    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>##.00%</t>
@@ -2561,46 +2537,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>明細行の場合、選択行の品名略称、金型番号、設備コード、検索条件部の実績日(From)、実績日(To)又は実績月</t>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>リャクショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>合計行の場合、検索条件部の実績日(From)、実績日(To)又は実績月、設備コード、品種コード、金型番号、品名</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -2628,22 +2564,6 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>ヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受払データに当該品名の受払区分が'8'(その他払出)の件数</t>
-    <rPh sb="0" eb="2">
-      <t>ウケハライ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケンスウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2688,6 +2608,103 @@
   </si>
   <si>
     <t>・ISNULL(ROUND(((実績数量.不良数 + 実績数量.調整数) /NULLIF(実績数量.着手数,0))*100,2),0) AS 不良率</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>明細行の場合、選択行の品名略称、金型番号、金型、設備コード、検索条件部の実績日(From)、実績日(To)又は実績月</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>・期間は最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ヶ月まで
+・前々月以前の日付を選択不可</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データに当該品名の受払区分が'8'(その他払出)の件数-受払区分が'A'(その他払出取消)の件数</t>
+    <rPh sb="0" eb="2">
+      <t>ウケハライ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・SUM(CASE WHEN 受払区分 = '8'：その他払出 THEN 1 ELSE 0 END) - SUM(CASE WHEN 受払区分 = 'A'：その他払出取消 THEN 1 ELSE 0 END) AS その他払出数</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -3170,7 +3187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -3527,9 +3544,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3541,91 +3555,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3653,6 +3582,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3671,22 +3697,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4796,16 +4810,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>91</xdr:col>
-      <xdr:colOff>103400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>8749</xdr:rowOff>
+      <xdr:colOff>93876</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>189726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186A2651-E62B-4339-BE93-7CFF93A0479A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CF44EA-B82D-4413-BDC9-0C4099C7CB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4822,7 +4836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="11000000" cy="6209524"/>
+          <a:ext cx="10990476" cy="6190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5520,108 +5534,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="127"/>
-      <c r="AN32" s="127"/>
-      <c r="AO32" s="127"/>
-      <c r="AP32" s="127"/>
-      <c r="AQ32" s="127"/>
-      <c r="AR32" s="127"/>
-      <c r="AS32" s="127"/>
-      <c r="AT32" s="127"/>
-      <c r="AU32" s="127"/>
-      <c r="AV32" s="127"/>
-      <c r="AW32" s="127"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="126"/>
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="126"/>
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="126"/>
+      <c r="AJ32" s="126"/>
+      <c r="AK32" s="126"/>
+      <c r="AL32" s="126"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
+      <c r="AQ32" s="126"/>
+      <c r="AR32" s="126"/>
+      <c r="AS32" s="126"/>
+      <c r="AT32" s="126"/>
+      <c r="AU32" s="126"/>
+      <c r="AV32" s="126"/>
+      <c r="AW32" s="126"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="128"/>
-      <c r="AO33" s="128"/>
-      <c r="AP33" s="128"/>
-      <c r="AQ33" s="128"/>
-      <c r="AR33" s="128"/>
-      <c r="AS33" s="128"/>
-      <c r="AT33" s="128"/>
-      <c r="AU33" s="128"/>
-      <c r="AV33" s="128"/>
-      <c r="AW33" s="128"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="127"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="127"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="127"/>
+      <c r="AJ33" s="127"/>
+      <c r="AK33" s="127"/>
+      <c r="AL33" s="127"/>
+      <c r="AM33" s="127"/>
+      <c r="AN33" s="127"/>
+      <c r="AO33" s="127"/>
+      <c r="AP33" s="127"/>
+      <c r="AQ33" s="127"/>
+      <c r="AR33" s="127"/>
+      <c r="AS33" s="127"/>
+      <c r="AT33" s="127"/>
+      <c r="AU33" s="127"/>
+      <c r="AV33" s="127"/>
+      <c r="AW33" s="127"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5659,55 +5673,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="129"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="129"/>
-      <c r="Z35" s="129"/>
-      <c r="AA35" s="129"/>
-      <c r="AB35" s="129"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="129"/>
-      <c r="AE35" s="129"/>
-      <c r="AF35" s="129"/>
-      <c r="AG35" s="129"/>
-      <c r="AH35" s="129"/>
-      <c r="AI35" s="129"/>
-      <c r="AJ35" s="129"/>
-      <c r="AK35" s="129"/>
-      <c r="AL35" s="129"/>
-      <c r="AM35" s="129"/>
-      <c r="AN35" s="129"/>
-      <c r="AO35" s="129"/>
-      <c r="AP35" s="129"/>
-      <c r="AQ35" s="129"/>
-      <c r="AR35" s="129"/>
-      <c r="AS35" s="129"/>
-      <c r="AT35" s="129"/>
-      <c r="AU35" s="129"/>
-      <c r="AV35" s="129"/>
-      <c r="AW35" s="129"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128"/>
+      <c r="AD35" s="128"/>
+      <c r="AE35" s="128"/>
+      <c r="AF35" s="128"/>
+      <c r="AG35" s="128"/>
+      <c r="AH35" s="128"/>
+      <c r="AI35" s="128"/>
+      <c r="AJ35" s="128"/>
+      <c r="AK35" s="128"/>
+      <c r="AL35" s="128"/>
+      <c r="AM35" s="128"/>
+      <c r="AN35" s="128"/>
+      <c r="AO35" s="128"/>
+      <c r="AP35" s="128"/>
+      <c r="AQ35" s="128"/>
+      <c r="AR35" s="128"/>
+      <c r="AS35" s="128"/>
+      <c r="AT35" s="128"/>
+      <c r="AU35" s="128"/>
+      <c r="AV35" s="128"/>
+      <c r="AW35" s="128"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5742,1779 +5756,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="161"/>
-      <c r="AU1" s="161"/>
-      <c r="AV1" s="161"/>
-      <c r="AW1" s="161"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="162"/>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="162"/>
-      <c r="AR2" s="162"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="162"/>
-      <c r="AU2" s="162"/>
-      <c r="AV2" s="162"/>
-      <c r="AW2" s="162"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164" t="s">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="164" t="s">
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="163" t="s">
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163" t="s">
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
-      <c r="AK3" s="163"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="163" t="s">
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="163"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="163" t="s">
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="163"/>
-      <c r="AU3" s="163"/>
-      <c r="AV3" s="163"/>
-      <c r="AW3" s="163"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="163"/>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="155">
+      <c r="B5" s="139">
         <v>1</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="136">
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140">
         <v>43734</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="137" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="143" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="154" t="s">
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="154"/>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="154"/>
-      <c r="AE5" s="154"/>
-      <c r="AF5" s="154"/>
-      <c r="AG5" s="154"/>
-      <c r="AH5" s="154"/>
-      <c r="AI5" s="154"/>
-      <c r="AJ5" s="154"/>
-      <c r="AK5" s="154"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="154"/>
-      <c r="AN5" s="143" t="s">
+      <c r="W5" s="147"/>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="147"/>
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="147"/>
+      <c r="AM5" s="147"/>
+      <c r="AN5" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
+      <c r="AO5" s="138"/>
+      <c r="AP5" s="138"/>
+      <c r="AQ5" s="138"/>
+      <c r="AR5" s="138"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="138"/>
+      <c r="AU5" s="138"/>
+      <c r="AV5" s="138"/>
+      <c r="AW5" s="138"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="154"/>
-      <c r="AB6" s="154"/>
-      <c r="AC6" s="154"/>
-      <c r="AD6" s="154"/>
-      <c r="AE6" s="154"/>
-      <c r="AF6" s="154"/>
-      <c r="AG6" s="154"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="154"/>
-      <c r="AJ6" s="154"/>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
-      <c r="AN6" s="143"/>
-      <c r="AO6" s="143"/>
-      <c r="AP6" s="143"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="143"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="138"/>
+      <c r="AO6" s="138"/>
+      <c r="AP6" s="138"/>
+      <c r="AQ6" s="138"/>
+      <c r="AR6" s="138"/>
+      <c r="AS6" s="138"/>
+      <c r="AT6" s="138"/>
+      <c r="AU6" s="138"/>
+      <c r="AV6" s="138"/>
+      <c r="AW6" s="138"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="154"/>
-      <c r="AD7" s="154"/>
-      <c r="AE7" s="154"/>
-      <c r="AF7" s="154"/>
-      <c r="AG7" s="154"/>
-      <c r="AH7" s="154"/>
-      <c r="AI7" s="154"/>
-      <c r="AJ7" s="154"/>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="154"/>
-      <c r="AM7" s="154"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="147"/>
+      <c r="W7" s="147"/>
+      <c r="X7" s="147"/>
+      <c r="Y7" s="147"/>
+      <c r="Z7" s="147"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="147"/>
+      <c r="AD7" s="147"/>
+      <c r="AE7" s="147"/>
+      <c r="AF7" s="147"/>
+      <c r="AG7" s="147"/>
+      <c r="AH7" s="147"/>
+      <c r="AI7" s="147"/>
+      <c r="AJ7" s="147"/>
+      <c r="AK7" s="147"/>
+      <c r="AL7" s="147"/>
+      <c r="AM7" s="147"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="138"/>
+      <c r="AS7" s="138"/>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="154"/>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="154"/>
-      <c r="AJ8" s="154"/>
-      <c r="AK8" s="154"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="147"/>
+      <c r="AA8" s="147"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="147"/>
+      <c r="AJ8" s="147"/>
+      <c r="AK8" s="147"/>
+      <c r="AL8" s="147"/>
+      <c r="AM8" s="147"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="138"/>
+      <c r="AP8" s="138"/>
+      <c r="AQ8" s="138"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="138"/>
+      <c r="AT8" s="138"/>
+      <c r="AU8" s="138"/>
+      <c r="AV8" s="138"/>
+      <c r="AW8" s="138"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="154"/>
-      <c r="AG9" s="154"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="154"/>
-      <c r="AJ9" s="154"/>
-      <c r="AK9" s="154"/>
-      <c r="AL9" s="154"/>
-      <c r="AM9" s="154"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="143"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="143"/>
-      <c r="AW9" s="143"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="147"/>
+      <c r="AG9" s="147"/>
+      <c r="AH9" s="147"/>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="147"/>
+      <c r="AK9" s="147"/>
+      <c r="AL9" s="147"/>
+      <c r="AM9" s="147"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="138"/>
+      <c r="AP9" s="138"/>
+      <c r="AQ9" s="138"/>
+      <c r="AR9" s="138"/>
+      <c r="AS9" s="138"/>
+      <c r="AT9" s="138"/>
+      <c r="AU9" s="138"/>
+      <c r="AV9" s="138"/>
+      <c r="AW9" s="138"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="154"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="154"/>
-      <c r="AI10" s="154"/>
-      <c r="AJ10" s="154"/>
-      <c r="AK10" s="154"/>
-      <c r="AL10" s="154"/>
-      <c r="AM10" s="154"/>
-      <c r="AN10" s="143"/>
-      <c r="AO10" s="143"/>
-      <c r="AP10" s="143"/>
-      <c r="AQ10" s="143"/>
-      <c r="AR10" s="143"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="143"/>
-      <c r="AU10" s="143"/>
-      <c r="AV10" s="143"/>
-      <c r="AW10" s="143"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="147"/>
+      <c r="AG10" s="147"/>
+      <c r="AH10" s="147"/>
+      <c r="AI10" s="147"/>
+      <c r="AJ10" s="147"/>
+      <c r="AK10" s="147"/>
+      <c r="AL10" s="147"/>
+      <c r="AM10" s="147"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="138"/>
+      <c r="AP10" s="138"/>
+      <c r="AQ10" s="138"/>
+      <c r="AR10" s="138"/>
+      <c r="AS10" s="138"/>
+      <c r="AT10" s="138"/>
+      <c r="AU10" s="138"/>
+      <c r="AV10" s="138"/>
+      <c r="AW10" s="138"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="156"/>
-      <c r="AH11" s="156"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="156"/>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="157"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="138"/>
+      <c r="AQ11" s="138"/>
+      <c r="AR11" s="138"/>
+      <c r="AS11" s="138"/>
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="138"/>
+      <c r="AV11" s="138"/>
+      <c r="AW11" s="138"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="145"/>
-      <c r="AJ12" s="145"/>
-      <c r="AK12" s="145"/>
-      <c r="AL12" s="145"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="130"/>
-      <c r="AO12" s="131"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="131"/>
-      <c r="AR12" s="132"/>
-      <c r="AS12" s="130"/>
-      <c r="AT12" s="131"/>
-      <c r="AU12" s="131"/>
-      <c r="AV12" s="131"/>
-      <c r="AW12" s="132"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="155"/>
+      <c r="AG12" s="155"/>
+      <c r="AH12" s="155"/>
+      <c r="AI12" s="155"/>
+      <c r="AJ12" s="155"/>
+      <c r="AK12" s="155"/>
+      <c r="AL12" s="155"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="157"/>
+      <c r="AO12" s="158"/>
+      <c r="AP12" s="158"/>
+      <c r="AQ12" s="158"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="157"/>
+      <c r="AT12" s="158"/>
+      <c r="AU12" s="158"/>
+      <c r="AV12" s="158"/>
+      <c r="AW12" s="159"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="145"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="145"/>
-      <c r="AM13" s="146"/>
-      <c r="AN13" s="130"/>
-      <c r="AO13" s="131"/>
-      <c r="AP13" s="131"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="132"/>
-      <c r="AS13" s="130"/>
-      <c r="AT13" s="131"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="131"/>
-      <c r="AW13" s="132"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="155"/>
+      <c r="AG13" s="155"/>
+      <c r="AH13" s="155"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="155"/>
+      <c r="AK13" s="155"/>
+      <c r="AL13" s="155"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="157"/>
+      <c r="AO13" s="158"/>
+      <c r="AP13" s="158"/>
+      <c r="AQ13" s="158"/>
+      <c r="AR13" s="159"/>
+      <c r="AS13" s="157"/>
+      <c r="AT13" s="158"/>
+      <c r="AU13" s="158"/>
+      <c r="AV13" s="158"/>
+      <c r="AW13" s="159"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="154"/>
-      <c r="AG14" s="154"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="154"/>
-      <c r="AJ14" s="154"/>
-      <c r="AK14" s="154"/>
-      <c r="AL14" s="154"/>
-      <c r="AM14" s="154"/>
-      <c r="AN14" s="143"/>
-      <c r="AO14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="143"/>
-      <c r="AS14" s="130"/>
-      <c r="AT14" s="131"/>
-      <c r="AU14" s="131"/>
-      <c r="AV14" s="131"/>
-      <c r="AW14" s="132"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="147"/>
+      <c r="AH14" s="147"/>
+      <c r="AI14" s="147"/>
+      <c r="AJ14" s="147"/>
+      <c r="AK14" s="147"/>
+      <c r="AL14" s="147"/>
+      <c r="AM14" s="147"/>
+      <c r="AN14" s="138"/>
+      <c r="AO14" s="138"/>
+      <c r="AP14" s="138"/>
+      <c r="AQ14" s="138"/>
+      <c r="AR14" s="138"/>
+      <c r="AS14" s="157"/>
+      <c r="AT14" s="158"/>
+      <c r="AU14" s="158"/>
+      <c r="AV14" s="158"/>
+      <c r="AW14" s="159"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="145"/>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="145"/>
-      <c r="AM15" s="146"/>
-      <c r="AN15" s="130"/>
-      <c r="AO15" s="131"/>
-      <c r="AP15" s="131"/>
-      <c r="AQ15" s="131"/>
-      <c r="AR15" s="132"/>
-      <c r="AS15" s="130"/>
-      <c r="AT15" s="131"/>
-      <c r="AU15" s="131"/>
-      <c r="AV15" s="131"/>
-      <c r="AW15" s="132"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="155"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="155"/>
+      <c r="AI15" s="155"/>
+      <c r="AJ15" s="155"/>
+      <c r="AK15" s="155"/>
+      <c r="AL15" s="155"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="157"/>
+      <c r="AO15" s="158"/>
+      <c r="AP15" s="158"/>
+      <c r="AQ15" s="158"/>
+      <c r="AR15" s="159"/>
+      <c r="AS15" s="157"/>
+      <c r="AT15" s="158"/>
+      <c r="AU15" s="158"/>
+      <c r="AV15" s="158"/>
+      <c r="AW15" s="159"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="145"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="145"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="145"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="145"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="145"/>
-      <c r="AM16" s="146"/>
-      <c r="AN16" s="130"/>
-      <c r="AO16" s="131"/>
-      <c r="AP16" s="131"/>
-      <c r="AQ16" s="131"/>
-      <c r="AR16" s="132"/>
-      <c r="AS16" s="130"/>
-      <c r="AT16" s="131"/>
-      <c r="AU16" s="131"/>
-      <c r="AV16" s="131"/>
-      <c r="AW16" s="132"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="155"/>
+      <c r="AG16" s="155"/>
+      <c r="AH16" s="155"/>
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="155"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="155"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="157"/>
+      <c r="AO16" s="158"/>
+      <c r="AP16" s="158"/>
+      <c r="AQ16" s="158"/>
+      <c r="AR16" s="159"/>
+      <c r="AS16" s="157"/>
+      <c r="AT16" s="158"/>
+      <c r="AU16" s="158"/>
+      <c r="AV16" s="158"/>
+      <c r="AW16" s="159"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="152"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="145"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="131"/>
-      <c r="AP17" s="131"/>
-      <c r="AQ17" s="131"/>
-      <c r="AR17" s="132"/>
-      <c r="AS17" s="130"/>
-      <c r="AT17" s="131"/>
-      <c r="AU17" s="131"/>
-      <c r="AV17" s="131"/>
-      <c r="AW17" s="132"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="155"/>
+      <c r="AG17" s="155"/>
+      <c r="AH17" s="155"/>
+      <c r="AI17" s="155"/>
+      <c r="AJ17" s="155"/>
+      <c r="AK17" s="155"/>
+      <c r="AL17" s="155"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="157"/>
+      <c r="AO17" s="158"/>
+      <c r="AP17" s="158"/>
+      <c r="AQ17" s="158"/>
+      <c r="AR17" s="159"/>
+      <c r="AS17" s="157"/>
+      <c r="AT17" s="158"/>
+      <c r="AU17" s="158"/>
+      <c r="AV17" s="158"/>
+      <c r="AW17" s="159"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
-      <c r="Y18" s="145"/>
-      <c r="Z18" s="145"/>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="145"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="145"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="130"/>
-      <c r="AO18" s="131"/>
-      <c r="AP18" s="131"/>
-      <c r="AQ18" s="131"/>
-      <c r="AR18" s="132"/>
-      <c r="AS18" s="130"/>
-      <c r="AT18" s="131"/>
-      <c r="AU18" s="131"/>
-      <c r="AV18" s="131"/>
-      <c r="AW18" s="132"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="155"/>
+      <c r="AF18" s="155"/>
+      <c r="AG18" s="155"/>
+      <c r="AH18" s="155"/>
+      <c r="AI18" s="155"/>
+      <c r="AJ18" s="155"/>
+      <c r="AK18" s="155"/>
+      <c r="AL18" s="155"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="157"/>
+      <c r="AO18" s="158"/>
+      <c r="AP18" s="158"/>
+      <c r="AQ18" s="158"/>
+      <c r="AR18" s="159"/>
+      <c r="AS18" s="157"/>
+      <c r="AT18" s="158"/>
+      <c r="AU18" s="158"/>
+      <c r="AV18" s="158"/>
+      <c r="AW18" s="159"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="145"/>
-      <c r="AM19" s="146"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="130"/>
-      <c r="AT19" s="131"/>
-      <c r="AU19" s="131"/>
-      <c r="AV19" s="131"/>
-      <c r="AW19" s="132"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="155"/>
+      <c r="AG19" s="155"/>
+      <c r="AH19" s="155"/>
+      <c r="AI19" s="155"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="155"/>
+      <c r="AL19" s="155"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="138"/>
+      <c r="AS19" s="157"/>
+      <c r="AT19" s="158"/>
+      <c r="AU19" s="158"/>
+      <c r="AV19" s="158"/>
+      <c r="AW19" s="159"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="145"/>
-      <c r="AM20" s="146"/>
-      <c r="AN20" s="130"/>
-      <c r="AO20" s="131"/>
-      <c r="AP20" s="131"/>
-      <c r="AQ20" s="131"/>
-      <c r="AR20" s="132"/>
-      <c r="AS20" s="130"/>
-      <c r="AT20" s="131"/>
-      <c r="AU20" s="131"/>
-      <c r="AV20" s="131"/>
-      <c r="AW20" s="132"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="158"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="155"/>
+      <c r="AG20" s="155"/>
+      <c r="AH20" s="155"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="155"/>
+      <c r="AK20" s="155"/>
+      <c r="AL20" s="155"/>
+      <c r="AM20" s="156"/>
+      <c r="AN20" s="157"/>
+      <c r="AO20" s="158"/>
+      <c r="AP20" s="158"/>
+      <c r="AQ20" s="158"/>
+      <c r="AR20" s="159"/>
+      <c r="AS20" s="157"/>
+      <c r="AT20" s="158"/>
+      <c r="AU20" s="158"/>
+      <c r="AV20" s="158"/>
+      <c r="AW20" s="159"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="145"/>
-      <c r="AM21" s="146"/>
-      <c r="AN21" s="130"/>
-      <c r="AO21" s="131"/>
-      <c r="AP21" s="131"/>
-      <c r="AQ21" s="131"/>
-      <c r="AR21" s="132"/>
-      <c r="AS21" s="130"/>
-      <c r="AT21" s="131"/>
-      <c r="AU21" s="131"/>
-      <c r="AV21" s="131"/>
-      <c r="AW21" s="132"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="155"/>
+      <c r="AG21" s="155"/>
+      <c r="AH21" s="155"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="155"/>
+      <c r="AK21" s="155"/>
+      <c r="AL21" s="155"/>
+      <c r="AM21" s="156"/>
+      <c r="AN21" s="157"/>
+      <c r="AO21" s="158"/>
+      <c r="AP21" s="158"/>
+      <c r="AQ21" s="158"/>
+      <c r="AR21" s="159"/>
+      <c r="AS21" s="157"/>
+      <c r="AT21" s="158"/>
+      <c r="AU21" s="158"/>
+      <c r="AV21" s="158"/>
+      <c r="AW21" s="159"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="145"/>
-      <c r="AM22" s="146"/>
-      <c r="AN22" s="130"/>
-      <c r="AO22" s="131"/>
-      <c r="AP22" s="131"/>
-      <c r="AQ22" s="131"/>
-      <c r="AR22" s="132"/>
-      <c r="AS22" s="130"/>
-      <c r="AT22" s="131"/>
-      <c r="AU22" s="131"/>
-      <c r="AV22" s="131"/>
-      <c r="AW22" s="132"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="155"/>
+      <c r="AG22" s="155"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="155"/>
+      <c r="AL22" s="155"/>
+      <c r="AM22" s="156"/>
+      <c r="AN22" s="157"/>
+      <c r="AO22" s="158"/>
+      <c r="AP22" s="158"/>
+      <c r="AQ22" s="158"/>
+      <c r="AR22" s="159"/>
+      <c r="AS22" s="157"/>
+      <c r="AT22" s="158"/>
+      <c r="AU22" s="158"/>
+      <c r="AV22" s="158"/>
+      <c r="AW22" s="159"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="145"/>
-      <c r="AK23" s="145"/>
-      <c r="AL23" s="145"/>
-      <c r="AM23" s="146"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="131"/>
-      <c r="AP23" s="131"/>
-      <c r="AQ23" s="131"/>
-      <c r="AR23" s="132"/>
-      <c r="AS23" s="130"/>
-      <c r="AT23" s="131"/>
-      <c r="AU23" s="131"/>
-      <c r="AV23" s="131"/>
-      <c r="AW23" s="132"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="155"/>
+      <c r="AG23" s="155"/>
+      <c r="AH23" s="155"/>
+      <c r="AI23" s="155"/>
+      <c r="AJ23" s="155"/>
+      <c r="AK23" s="155"/>
+      <c r="AL23" s="155"/>
+      <c r="AM23" s="156"/>
+      <c r="AN23" s="157"/>
+      <c r="AO23" s="158"/>
+      <c r="AP23" s="158"/>
+      <c r="AQ23" s="158"/>
+      <c r="AR23" s="159"/>
+      <c r="AS23" s="157"/>
+      <c r="AT23" s="158"/>
+      <c r="AU23" s="158"/>
+      <c r="AV23" s="158"/>
+      <c r="AW23" s="159"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
-      <c r="Y24" s="145"/>
-      <c r="Z24" s="145"/>
-      <c r="AA24" s="145"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="145"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="145"/>
-      <c r="AL24" s="145"/>
-      <c r="AM24" s="146"/>
-      <c r="AN24" s="130"/>
-      <c r="AO24" s="131"/>
-      <c r="AP24" s="131"/>
-      <c r="AQ24" s="131"/>
-      <c r="AR24" s="132"/>
-      <c r="AS24" s="130"/>
-      <c r="AT24" s="131"/>
-      <c r="AU24" s="131"/>
-      <c r="AV24" s="131"/>
-      <c r="AW24" s="132"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="155"/>
+      <c r="AG24" s="155"/>
+      <c r="AH24" s="155"/>
+      <c r="AI24" s="155"/>
+      <c r="AJ24" s="155"/>
+      <c r="AK24" s="155"/>
+      <c r="AL24" s="155"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="157"/>
+      <c r="AO24" s="158"/>
+      <c r="AP24" s="158"/>
+      <c r="AQ24" s="158"/>
+      <c r="AR24" s="159"/>
+      <c r="AS24" s="157"/>
+      <c r="AT24" s="158"/>
+      <c r="AU24" s="158"/>
+      <c r="AV24" s="158"/>
+      <c r="AW24" s="159"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
-      <c r="Y25" s="145"/>
-      <c r="Z25" s="145"/>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="145"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="145"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="145"/>
-      <c r="AJ25" s="145"/>
-      <c r="AK25" s="145"/>
-      <c r="AL25" s="145"/>
-      <c r="AM25" s="146"/>
-      <c r="AN25" s="130"/>
-      <c r="AO25" s="131"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="131"/>
-      <c r="AR25" s="132"/>
-      <c r="AS25" s="130"/>
-      <c r="AT25" s="131"/>
-      <c r="AU25" s="131"/>
-      <c r="AV25" s="131"/>
-      <c r="AW25" s="132"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="155"/>
+      <c r="AG25" s="155"/>
+      <c r="AH25" s="155"/>
+      <c r="AI25" s="155"/>
+      <c r="AJ25" s="155"/>
+      <c r="AK25" s="155"/>
+      <c r="AL25" s="155"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="158"/>
+      <c r="AP25" s="158"/>
+      <c r="AQ25" s="158"/>
+      <c r="AR25" s="159"/>
+      <c r="AS25" s="157"/>
+      <c r="AT25" s="158"/>
+      <c r="AU25" s="158"/>
+      <c r="AV25" s="158"/>
+      <c r="AW25" s="159"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="145"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="145"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="145"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="145"/>
-      <c r="AM26" s="146"/>
-      <c r="AN26" s="130"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="132"/>
-      <c r="AS26" s="130"/>
-      <c r="AT26" s="131"/>
-      <c r="AU26" s="131"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="132"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="155"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="155"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="155"/>
+      <c r="AL26" s="155"/>
+      <c r="AM26" s="156"/>
+      <c r="AN26" s="157"/>
+      <c r="AO26" s="158"/>
+      <c r="AP26" s="158"/>
+      <c r="AQ26" s="158"/>
+      <c r="AR26" s="159"/>
+      <c r="AS26" s="157"/>
+      <c r="AT26" s="158"/>
+      <c r="AU26" s="158"/>
+      <c r="AV26" s="158"/>
+      <c r="AW26" s="159"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="145"/>
-      <c r="AM27" s="146"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="131"/>
-      <c r="AP27" s="131"/>
-      <c r="AQ27" s="131"/>
-      <c r="AR27" s="132"/>
-      <c r="AS27" s="130"/>
-      <c r="AT27" s="131"/>
-      <c r="AU27" s="131"/>
-      <c r="AV27" s="131"/>
-      <c r="AW27" s="132"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="155"/>
+      <c r="AG27" s="155"/>
+      <c r="AH27" s="155"/>
+      <c r="AI27" s="155"/>
+      <c r="AJ27" s="155"/>
+      <c r="AK27" s="155"/>
+      <c r="AL27" s="155"/>
+      <c r="AM27" s="156"/>
+      <c r="AN27" s="157"/>
+      <c r="AO27" s="158"/>
+      <c r="AP27" s="158"/>
+      <c r="AQ27" s="158"/>
+      <c r="AR27" s="159"/>
+      <c r="AS27" s="157"/>
+      <c r="AT27" s="158"/>
+      <c r="AU27" s="158"/>
+      <c r="AV27" s="158"/>
+      <c r="AW27" s="159"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="146"/>
-      <c r="AN28" s="130"/>
-      <c r="AO28" s="131"/>
-      <c r="AP28" s="131"/>
-      <c r="AQ28" s="131"/>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="130"/>
-      <c r="AT28" s="131"/>
-      <c r="AU28" s="131"/>
-      <c r="AV28" s="131"/>
-      <c r="AW28" s="132"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="157"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
+      <c r="AQ28" s="158"/>
+      <c r="AR28" s="159"/>
+      <c r="AS28" s="157"/>
+      <c r="AT28" s="158"/>
+      <c r="AU28" s="158"/>
+      <c r="AV28" s="158"/>
+      <c r="AW28" s="159"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="145"/>
-      <c r="AL29" s="145"/>
-      <c r="AM29" s="146"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="131"/>
-      <c r="AP29" s="131"/>
-      <c r="AQ29" s="131"/>
-      <c r="AR29" s="132"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="131"/>
-      <c r="AU29" s="131"/>
-      <c r="AV29" s="131"/>
-      <c r="AW29" s="132"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="155"/>
+      <c r="AG29" s="155"/>
+      <c r="AH29" s="155"/>
+      <c r="AI29" s="155"/>
+      <c r="AJ29" s="155"/>
+      <c r="AK29" s="155"/>
+      <c r="AL29" s="155"/>
+      <c r="AM29" s="156"/>
+      <c r="AN29" s="157"/>
+      <c r="AO29" s="158"/>
+      <c r="AP29" s="158"/>
+      <c r="AQ29" s="158"/>
+      <c r="AR29" s="159"/>
+      <c r="AS29" s="157"/>
+      <c r="AT29" s="158"/>
+      <c r="AU29" s="158"/>
+      <c r="AV29" s="158"/>
+      <c r="AW29" s="159"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="145"/>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="145"/>
-      <c r="AL30" s="145"/>
-      <c r="AM30" s="146"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="131"/>
-      <c r="AP30" s="131"/>
-      <c r="AQ30" s="131"/>
-      <c r="AR30" s="132"/>
-      <c r="AS30" s="130"/>
-      <c r="AT30" s="131"/>
-      <c r="AU30" s="131"/>
-      <c r="AV30" s="131"/>
-      <c r="AW30" s="132"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="155"/>
+      <c r="AG30" s="155"/>
+      <c r="AH30" s="155"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="155"/>
+      <c r="AK30" s="155"/>
+      <c r="AL30" s="155"/>
+      <c r="AM30" s="156"/>
+      <c r="AN30" s="157"/>
+      <c r="AO30" s="158"/>
+      <c r="AP30" s="158"/>
+      <c r="AQ30" s="158"/>
+      <c r="AR30" s="159"/>
+      <c r="AS30" s="157"/>
+      <c r="AT30" s="158"/>
+      <c r="AU30" s="158"/>
+      <c r="AV30" s="158"/>
+      <c r="AW30" s="159"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="144"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="145"/>
-      <c r="AM31" s="146"/>
-      <c r="AN31" s="130"/>
-      <c r="AO31" s="131"/>
-      <c r="AP31" s="131"/>
-      <c r="AQ31" s="131"/>
-      <c r="AR31" s="132"/>
-      <c r="AS31" s="130"/>
-      <c r="AT31" s="131"/>
-      <c r="AU31" s="131"/>
-      <c r="AV31" s="131"/>
-      <c r="AW31" s="132"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="155"/>
+      <c r="AG31" s="155"/>
+      <c r="AH31" s="155"/>
+      <c r="AI31" s="155"/>
+      <c r="AJ31" s="155"/>
+      <c r="AK31" s="155"/>
+      <c r="AL31" s="155"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="157"/>
+      <c r="AO31" s="158"/>
+      <c r="AP31" s="158"/>
+      <c r="AQ31" s="158"/>
+      <c r="AR31" s="159"/>
+      <c r="AS31" s="157"/>
+      <c r="AT31" s="158"/>
+      <c r="AU31" s="158"/>
+      <c r="AV31" s="158"/>
+      <c r="AW31" s="159"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="146"/>
-      <c r="AN32" s="130"/>
-      <c r="AO32" s="131"/>
-      <c r="AP32" s="131"/>
-      <c r="AQ32" s="131"/>
-      <c r="AR32" s="132"/>
-      <c r="AS32" s="130"/>
-      <c r="AT32" s="131"/>
-      <c r="AU32" s="131"/>
-      <c r="AV32" s="131"/>
-      <c r="AW32" s="132"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="156"/>
+      <c r="AN32" s="157"/>
+      <c r="AO32" s="158"/>
+      <c r="AP32" s="158"/>
+      <c r="AQ32" s="158"/>
+      <c r="AR32" s="159"/>
+      <c r="AS32" s="157"/>
+      <c r="AT32" s="158"/>
+      <c r="AU32" s="158"/>
+      <c r="AV32" s="158"/>
+      <c r="AW32" s="159"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="145"/>
-      <c r="AM33" s="146"/>
-      <c r="AN33" s="130"/>
-      <c r="AO33" s="131"/>
-      <c r="AP33" s="131"/>
-      <c r="AQ33" s="131"/>
-      <c r="AR33" s="132"/>
-      <c r="AS33" s="130"/>
-      <c r="AT33" s="131"/>
-      <c r="AU33" s="131"/>
-      <c r="AV33" s="131"/>
-      <c r="AW33" s="132"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="155"/>
+      <c r="AG33" s="155"/>
+      <c r="AH33" s="155"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="155"/>
+      <c r="AL33" s="155"/>
+      <c r="AM33" s="156"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="158"/>
+      <c r="AP33" s="158"/>
+      <c r="AQ33" s="158"/>
+      <c r="AR33" s="159"/>
+      <c r="AS33" s="157"/>
+      <c r="AT33" s="158"/>
+      <c r="AU33" s="158"/>
+      <c r="AV33" s="158"/>
+      <c r="AW33" s="159"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="142"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="145"/>
-      <c r="Z34" s="145"/>
-      <c r="AA34" s="145"/>
-      <c r="AB34" s="145"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="145"/>
-      <c r="AE34" s="145"/>
-      <c r="AF34" s="145"/>
-      <c r="AG34" s="145"/>
-      <c r="AH34" s="145"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="145"/>
-      <c r="AM34" s="146"/>
-      <c r="AN34" s="130"/>
-      <c r="AO34" s="131"/>
-      <c r="AP34" s="131"/>
-      <c r="AQ34" s="131"/>
-      <c r="AR34" s="132"/>
-      <c r="AS34" s="130"/>
-      <c r="AT34" s="131"/>
-      <c r="AU34" s="131"/>
-      <c r="AV34" s="131"/>
-      <c r="AW34" s="132"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="154"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="155"/>
+      <c r="AC34" s="155"/>
+      <c r="AD34" s="155"/>
+      <c r="AE34" s="155"/>
+      <c r="AF34" s="155"/>
+      <c r="AG34" s="155"/>
+      <c r="AH34" s="155"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="156"/>
+      <c r="AN34" s="157"/>
+      <c r="AO34" s="158"/>
+      <c r="AP34" s="158"/>
+      <c r="AQ34" s="158"/>
+      <c r="AR34" s="159"/>
+      <c r="AS34" s="157"/>
+      <c r="AT34" s="158"/>
+      <c r="AU34" s="158"/>
+      <c r="AV34" s="158"/>
+      <c r="AW34" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7531,230 +7760,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7914,11 +7928,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="170"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="171"/>
-      <c r="AS2" s="172"/>
+      <c r="AO2" s="173"/>
+      <c r="AP2" s="174"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="175"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7927,14 +7941,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="174"/>
-      <c r="BB2" s="174"/>
-      <c r="BC2" s="174"/>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="175"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="177"/>
+      <c r="BB2" s="177"/>
+      <c r="BC2" s="177"/>
+      <c r="BD2" s="177"/>
+      <c r="BE2" s="177"/>
+      <c r="BF2" s="177"/>
+      <c r="BG2" s="178"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -9000,7 +9014,7 @@
       <c r="G33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -9106,7 +9120,7 @@
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AL35" s="11"/>
       <c r="AN35" s="11"/>
@@ -9518,10 +9532,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="179"/>
+      <c r="C45" s="180"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -9604,10 +9618,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="180">
+      <c r="B46" s="169">
         <v>1</v>
       </c>
-      <c r="C46" s="181"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -9639,16 +9653,16 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="176" t="s">
+      <c r="AE46" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF46" s="177"/>
-      <c r="AG46" s="176"/>
-      <c r="AH46" s="177"/>
+      <c r="AF46" s="172"/>
+      <c r="AG46" s="171"/>
+      <c r="AH46" s="172"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="176"/>
-      <c r="AL46" s="177"/>
+      <c r="AK46" s="171"/>
+      <c r="AL46" s="172"/>
       <c r="AM46" s="76" t="s">
         <v>227</v>
       </c>
@@ -9682,10 +9696,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="180">
+      <c r="B47" s="169">
         <v>2</v>
       </c>
-      <c r="C47" s="181"/>
+      <c r="C47" s="170"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -9696,7 +9710,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="111"/>
       <c r="K47" s="110" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L47" s="79"/>
       <c r="M47" s="79"/>
@@ -9717,16 +9731,16 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="176" t="s">
+      <c r="AE47" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF47" s="177"/>
-      <c r="AG47" s="176"/>
-      <c r="AH47" s="177"/>
+      <c r="AF47" s="172"/>
+      <c r="AG47" s="171"/>
+      <c r="AH47" s="172"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="176"/>
-      <c r="AL47" s="177"/>
+      <c r="AK47" s="171"/>
+      <c r="AL47" s="172"/>
       <c r="AM47" s="76" t="s">
         <v>230</v>
       </c>
@@ -9760,10 +9774,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="180">
+      <c r="B48" s="169">
         <v>3</v>
       </c>
-      <c r="C48" s="181"/>
+      <c r="C48" s="170"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -9795,16 +9809,16 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="176" t="s">
+      <c r="AE48" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF48" s="177"/>
-      <c r="AG48" s="176"/>
-      <c r="AH48" s="177"/>
+      <c r="AF48" s="172"/>
+      <c r="AG48" s="171"/>
+      <c r="AH48" s="172"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="176"/>
-      <c r="AL48" s="177"/>
+      <c r="AK48" s="171"/>
+      <c r="AL48" s="172"/>
       <c r="AM48" s="76" t="s">
         <v>226</v>
       </c>
@@ -9838,10 +9852,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="180">
+      <c r="B49" s="169">
         <v>4</v>
       </c>
-      <c r="C49" s="181"/>
+      <c r="C49" s="170"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -9873,16 +9887,16 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="176" t="s">
+      <c r="AE49" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF49" s="177"/>
-      <c r="AG49" s="176"/>
-      <c r="AH49" s="177"/>
+      <c r="AF49" s="172"/>
+      <c r="AG49" s="171"/>
+      <c r="AH49" s="172"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="176"/>
-      <c r="AL49" s="177"/>
+      <c r="AK49" s="171"/>
+      <c r="AL49" s="172"/>
       <c r="AM49" s="76" t="s">
         <v>228</v>
       </c>
@@ -9916,10 +9930,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="180">
+      <c r="B50" s="169">
         <v>5</v>
       </c>
-      <c r="C50" s="181"/>
+      <c r="C50" s="170"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -9951,16 +9965,16 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="176" t="s">
+      <c r="AE50" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF50" s="177"/>
-      <c r="AG50" s="176"/>
-      <c r="AH50" s="177"/>
+      <c r="AF50" s="172"/>
+      <c r="AG50" s="171"/>
+      <c r="AH50" s="172"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="176"/>
-      <c r="AL50" s="177"/>
+      <c r="AK50" s="171"/>
+      <c r="AL50" s="172"/>
       <c r="AM50" s="76" t="s">
         <v>229</v>
       </c>
@@ -9994,10 +10008,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="180">
+      <c r="B51" s="169">
         <v>6</v>
       </c>
-      <c r="C51" s="181"/>
+      <c r="C51" s="170"/>
       <c r="D51" s="119" t="s">
         <v>199</v>
       </c>
@@ -10029,16 +10043,16 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="176" t="s">
+      <c r="AE51" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF51" s="177"/>
-      <c r="AG51" s="176"/>
-      <c r="AH51" s="177"/>
+      <c r="AF51" s="172"/>
+      <c r="AG51" s="171"/>
+      <c r="AH51" s="172"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="176"/>
-      <c r="AL51" s="177"/>
+      <c r="AK51" s="171"/>
+      <c r="AL51" s="172"/>
       <c r="AM51" s="76" t="s">
         <v>232</v>
       </c>
@@ -10072,10 +10086,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="180">
+      <c r="B52" s="169">
         <v>7</v>
       </c>
-      <c r="C52" s="181"/>
+      <c r="C52" s="170"/>
       <c r="D52" s="119" t="s">
         <v>199</v>
       </c>
@@ -10107,16 +10121,16 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="176" t="s">
+      <c r="AE52" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF52" s="177"/>
-      <c r="AG52" s="176"/>
-      <c r="AH52" s="177"/>
+      <c r="AF52" s="172"/>
+      <c r="AG52" s="171"/>
+      <c r="AH52" s="172"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="176"/>
-      <c r="AL52" s="177"/>
+      <c r="AK52" s="171"/>
+      <c r="AL52" s="172"/>
       <c r="AM52" s="76" t="s">
         <v>232</v>
       </c>
@@ -10150,10 +10164,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="180">
+      <c r="B53" s="169">
         <v>8</v>
       </c>
-      <c r="C53" s="181"/>
+      <c r="C53" s="170"/>
       <c r="D53" s="119" t="s">
         <v>199</v>
       </c>
@@ -10185,16 +10199,16 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="176" t="s">
+      <c r="AE53" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF53" s="177"/>
-      <c r="AG53" s="176"/>
-      <c r="AH53" s="177"/>
+      <c r="AF53" s="172"/>
+      <c r="AG53" s="171"/>
+      <c r="AH53" s="172"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="176"/>
-      <c r="AL53" s="177"/>
+      <c r="AK53" s="171"/>
+      <c r="AL53" s="172"/>
       <c r="AM53" s="76" t="s">
         <v>232</v>
       </c>
@@ -10228,10 +10242,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="180">
+      <c r="B54" s="169">
         <v>9</v>
       </c>
-      <c r="C54" s="181"/>
+      <c r="C54" s="170"/>
       <c r="D54" s="119" t="s">
         <v>199</v>
       </c>
@@ -10242,7 +10256,7 @@
       <c r="I54" s="79"/>
       <c r="J54" s="120"/>
       <c r="K54" s="119" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="79"/>
@@ -10263,16 +10277,16 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="176" t="s">
+      <c r="AE54" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AF54" s="177"/>
-      <c r="AG54" s="176"/>
-      <c r="AH54" s="177"/>
+      <c r="AF54" s="172"/>
+      <c r="AG54" s="171"/>
+      <c r="AH54" s="172"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="176"/>
-      <c r="AL54" s="177"/>
+      <c r="AK54" s="171"/>
+      <c r="AL54" s="172"/>
       <c r="AM54" s="76" t="s">
         <v>231</v>
       </c>
@@ -10306,22 +10320,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10338,13 +10343,22 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10366,7 +10380,7 @@
   <dimension ref="A1:DI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -10468,20 +10482,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="184">
+      <c r="CD1" s="183">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="185"/>
-      <c r="CF1" s="185"/>
-      <c r="CG1" s="185"/>
-      <c r="CH1" s="185"/>
-      <c r="CI1" s="185"/>
-      <c r="CJ1" s="185"/>
-      <c r="CK1" s="185"/>
-      <c r="CL1" s="185"/>
-      <c r="CM1" s="185"/>
-      <c r="CN1" s="186"/>
+      <c r="CE1" s="184"/>
+      <c r="CF1" s="184"/>
+      <c r="CG1" s="184"/>
+      <c r="CH1" s="184"/>
+      <c r="CI1" s="184"/>
+      <c r="CJ1" s="184"/>
+      <c r="CK1" s="184"/>
+      <c r="CL1" s="184"/>
+      <c r="CM1" s="184"/>
+      <c r="CN1" s="185"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10490,23 +10504,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="173" t="str">
+      <c r="CU1" s="176" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="182"/>
-      <c r="CW1" s="182"/>
-      <c r="CX1" s="182"/>
-      <c r="CY1" s="182"/>
-      <c r="CZ1" s="182"/>
-      <c r="DA1" s="182"/>
-      <c r="DB1" s="182"/>
-      <c r="DC1" s="182"/>
-      <c r="DD1" s="182"/>
-      <c r="DE1" s="182"/>
-      <c r="DF1" s="182"/>
-      <c r="DG1" s="182"/>
-      <c r="DH1" s="183"/>
+      <c r="CV1" s="181"/>
+      <c r="CW1" s="181"/>
+      <c r="CX1" s="181"/>
+      <c r="CY1" s="181"/>
+      <c r="CZ1" s="181"/>
+      <c r="DA1" s="181"/>
+      <c r="DB1" s="181"/>
+      <c r="DC1" s="181"/>
+      <c r="DD1" s="181"/>
+      <c r="DE1" s="181"/>
+      <c r="DF1" s="181"/>
+      <c r="DG1" s="181"/>
+      <c r="DH1" s="182"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10561,39 +10575,39 @@
       <c r="AQ2" s="88"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="89"/>
-      <c r="AT2" s="188" t="str">
+      <c r="AT2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="AU2" s="189"/>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="189"/>
-      <c r="AY2" s="189"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="189"/>
-      <c r="BC2" s="189"/>
-      <c r="BD2" s="189"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="189"/>
-      <c r="BG2" s="189"/>
-      <c r="BH2" s="189"/>
-      <c r="BI2" s="189"/>
-      <c r="BJ2" s="189"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="189"/>
-      <c r="BM2" s="189"/>
-      <c r="BN2" s="189"/>
-      <c r="BO2" s="189"/>
-      <c r="BP2" s="189"/>
-      <c r="BQ2" s="189"/>
-      <c r="BR2" s="189"/>
-      <c r="BS2" s="189"/>
-      <c r="BT2" s="189"/>
-      <c r="BU2" s="189"/>
-      <c r="BV2" s="189"/>
-      <c r="BW2" s="190"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="188"/>
+      <c r="BA2" s="188"/>
+      <c r="BB2" s="188"/>
+      <c r="BC2" s="188"/>
+      <c r="BD2" s="188"/>
+      <c r="BE2" s="188"/>
+      <c r="BF2" s="188"/>
+      <c r="BG2" s="188"/>
+      <c r="BH2" s="188"/>
+      <c r="BI2" s="188"/>
+      <c r="BJ2" s="188"/>
+      <c r="BK2" s="188"/>
+      <c r="BL2" s="188"/>
+      <c r="BM2" s="188"/>
+      <c r="BN2" s="188"/>
+      <c r="BO2" s="188"/>
+      <c r="BP2" s="188"/>
+      <c r="BQ2" s="188"/>
+      <c r="BR2" s="188"/>
+      <c r="BS2" s="188"/>
+      <c r="BT2" s="188"/>
+      <c r="BU2" s="188"/>
+      <c r="BV2" s="188"/>
+      <c r="BW2" s="189"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10602,17 +10616,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="187"/>
-      <c r="CE2" s="182"/>
-      <c r="CF2" s="182"/>
-      <c r="CG2" s="182"/>
-      <c r="CH2" s="182"/>
-      <c r="CI2" s="182"/>
-      <c r="CJ2" s="182"/>
-      <c r="CK2" s="182"/>
-      <c r="CL2" s="182"/>
-      <c r="CM2" s="182"/>
-      <c r="CN2" s="183"/>
+      <c r="CD2" s="186"/>
+      <c r="CE2" s="181"/>
+      <c r="CF2" s="181"/>
+      <c r="CG2" s="181"/>
+      <c r="CH2" s="181"/>
+      <c r="CI2" s="181"/>
+      <c r="CJ2" s="181"/>
+      <c r="CK2" s="181"/>
+      <c r="CL2" s="181"/>
+      <c r="CM2" s="181"/>
+      <c r="CN2" s="182"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -10621,20 +10635,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="173"/>
-      <c r="CV2" s="182"/>
-      <c r="CW2" s="182"/>
-      <c r="CX2" s="182"/>
-      <c r="CY2" s="182"/>
-      <c r="CZ2" s="182"/>
-      <c r="DA2" s="182"/>
-      <c r="DB2" s="182"/>
-      <c r="DC2" s="182"/>
-      <c r="DD2" s="182"/>
-      <c r="DE2" s="182"/>
-      <c r="DF2" s="182"/>
-      <c r="DG2" s="182"/>
-      <c r="DH2" s="183"/>
+      <c r="CU2" s="176"/>
+      <c r="CV2" s="181"/>
+      <c r="CW2" s="181"/>
+      <c r="CX2" s="181"/>
+      <c r="CY2" s="181"/>
+      <c r="CZ2" s="181"/>
+      <c r="DA2" s="181"/>
+      <c r="DB2" s="181"/>
+      <c r="DC2" s="181"/>
+      <c r="DD2" s="181"/>
+      <c r="DE2" s="181"/>
+      <c r="DF2" s="181"/>
+      <c r="DG2" s="181"/>
+      <c r="DH2" s="182"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -10840,37 +10854,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="163" t="s">
+      <c r="F6" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="163" t="s">
+      <c r="H6" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="191" t="s">
+      <c r="I6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="191" t="s">
+      <c r="J6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="163" t="s">
+      <c r="L6" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="131" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -10878,24 +10892,24 @@
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="191" t="s">
+      <c r="Q6" s="190" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -10905,7 +10919,7 @@
       <c r="P7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="191"/>
+      <c r="Q7" s="190"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -10920,7 +10934,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>88</v>
@@ -10966,10 +10980,10 @@
         <v>131</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>88</v>
@@ -11067,37 +11081,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="163" t="s">
+      <c r="D13" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="163" t="s">
+      <c r="H13" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="192" t="s">
+      <c r="I13" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="191" t="s">
+      <c r="J13" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="163" t="s">
+      <c r="K13" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="163" t="s">
+      <c r="L13" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="163" t="s">
+      <c r="M13" s="131" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11105,24 +11119,24 @@
       </c>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="192" t="s">
+      <c r="Q13" s="191" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11132,7 +11146,7 @@
       <c r="P14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="193"/>
+      <c r="Q14" s="192"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -11171,7 +11185,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -11196,7 +11210,7 @@
         <v>166</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>169</v>
@@ -11211,13 +11225,13 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -11228,11 +11242,11 @@
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="126" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q16" s="125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7">
@@ -11245,7 +11259,7 @@
         <v>167</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>169</v>
@@ -11260,13 +11274,13 @@
         <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>34</v>
@@ -11277,8 +11291,8 @@
       <c r="P17" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="126" t="s">
-        <v>329</v>
+      <c r="Q17" s="125" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -11309,7 +11323,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>204</v>
@@ -11373,10 +11387,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11425,7 +11439,7 @@
         <v>172</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -11441,7 +11455,7 @@
         <v>135</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -11465,16 +11479,16 @@
         <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -11490,7 +11504,7 @@
         <v>136</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>170</v>
@@ -11508,7 +11522,7 @@
         <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
@@ -11569,7 +11583,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -11603,37 +11617,37 @@
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="163" t="s">
+      <c r="D26" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="163" t="s">
+      <c r="E26" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="163" t="s">
+      <c r="F26" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="163" t="s">
+      <c r="G26" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="163" t="s">
+      <c r="H26" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="191" t="s">
+      <c r="I26" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="191" t="s">
+      <c r="J26" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="163" t="s">
+      <c r="K26" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="163" t="s">
+      <c r="L26" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="163" t="s">
+      <c r="M26" s="131" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -11641,24 +11655,24 @@
       </c>
       <c r="O26" s="63"/>
       <c r="P26" s="63"/>
-      <c r="Q26" s="191" t="s">
+      <c r="Q26" s="190" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -11668,7 +11682,7 @@
       <c r="P27" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="191"/>
+      <c r="Q27" s="190"/>
     </row>
     <row r="28" spans="1:17" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -11832,7 +11846,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -11881,7 +11895,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11930,7 +11944,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11979,7 +11993,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>35</v>
@@ -12077,7 +12091,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>35</v>
@@ -12175,7 +12189,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -12224,7 +12238,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
@@ -12273,10 +12287,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="125" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12307,7 +12321,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -12322,10 +12336,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12356,7 +12370,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -12371,14 +12385,38 @@
         <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -12391,30 +12429,6 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12430,7 +12444,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ252"/>
+  <dimension ref="A1:AZ251"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -12490,14 +12504,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="170">
+      <c r="AI1" s="173">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="189"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -12506,16 +12520,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="173" t="str">
+      <c r="AT1" s="176" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="183"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="182"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -12543,32 +12557,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="188" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="183"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="182"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -12577,13 +12591,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
+      <c r="AT2" s="176"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -13114,10 +13128,10 @@
       <c r="F15" s="67"/>
       <c r="G15" s="66"/>
       <c r="L15" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M15" s="114" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N15" s="114"/>
       <c r="O15" s="114"/>
@@ -13157,7 +13171,7 @@
       <c r="G16" s="66"/>
       <c r="L16" s="66"/>
       <c r="M16" s="114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N16" s="114"/>
       <c r="O16" s="114"/>
@@ -13197,7 +13211,7 @@
       <c r="L17" s="66"/>
       <c r="M17" s="114"/>
       <c r="N17" s="114" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AL17" s="114"/>
       <c r="AM17" s="114"/>
@@ -13213,7 +13227,7 @@
       <c r="L18" s="66"/>
       <c r="M18" s="114"/>
       <c r="N18" s="114" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AL18" s="114"/>
       <c r="AM18" s="114"/>
@@ -13229,7 +13243,7 @@
       <c r="L19" s="66"/>
       <c r="M19" s="114"/>
       <c r="N19" s="114" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AL19" s="114"/>
       <c r="AM19" s="114"/>
@@ -13245,7 +13259,7 @@
       <c r="L20" s="66"/>
       <c r="M20" s="114"/>
       <c r="N20" s="114" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AL20" s="114"/>
       <c r="AM20" s="114"/>
@@ -13261,7 +13275,7 @@
       <c r="L21" s="66"/>
       <c r="M21" s="114"/>
       <c r="N21" s="114" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AL21" s="114"/>
       <c r="AM21" s="114"/>
@@ -13276,7 +13290,7 @@
       <c r="G22" s="66"/>
       <c r="L22" s="66"/>
       <c r="N22" s="114" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="O22" s="114"/>
       <c r="P22" s="114"/>
@@ -13351,7 +13365,7 @@
       <c r="G24" s="66"/>
       <c r="L24" s="66"/>
       <c r="M24" s="114" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N24" s="114"/>
       <c r="O24" s="114"/>
@@ -13390,7 +13404,7 @@
       <c r="G25" s="66"/>
       <c r="L25" s="66"/>
       <c r="N25" s="114" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="114"/>
@@ -13465,7 +13479,7 @@
       <c r="G27" s="66"/>
       <c r="L27" s="66"/>
       <c r="M27" s="114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O27" s="114"/>
       <c r="P27" s="114"/>
@@ -13499,7 +13513,7 @@
       <c r="G28" s="66"/>
       <c r="L28" s="66"/>
       <c r="N28" s="114" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O28" s="114"/>
       <c r="P28" s="114"/>
@@ -13514,7 +13528,7 @@
         <v>116</v>
       </c>
       <c r="Z28" s="114" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AA28" s="114"/>
       <c r="AB28" s="114"/>
@@ -13533,7 +13547,7 @@
       <c r="L29" s="66"/>
       <c r="M29" s="114"/>
       <c r="N29" s="114" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O29" s="114"/>
       <c r="P29" s="114"/>
@@ -13548,7 +13562,7 @@
         <v>116</v>
       </c>
       <c r="Z29" s="115" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AA29" s="114"/>
       <c r="AB29" s="114"/>
@@ -13569,7 +13583,7 @@
       <c r="G30" s="66"/>
       <c r="L30" s="66"/>
       <c r="N30" s="114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O30" s="114"/>
       <c r="P30" s="114"/>
@@ -13581,7 +13595,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="114"/>
       <c r="Y30" s="114" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Z30" s="114"/>
       <c r="AA30" s="114"/>
@@ -13593,7 +13607,7 @@
       <c r="AJ30" s="114"/>
       <c r="AK30" s="116"/>
       <c r="AL30" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AV30" s="67"/>
     </row>
@@ -13604,9 +13618,7 @@
       <c r="G31" s="66"/>
       <c r="L31" s="66"/>
       <c r="M31" s="114"/>
-      <c r="N31" s="114" t="s">
-        <v>297</v>
-      </c>
+      <c r="N31" s="114"/>
       <c r="O31" s="114"/>
       <c r="P31" s="114"/>
       <c r="Q31" s="114"/>
@@ -13616,18 +13628,20 @@
       <c r="U31" s="114"/>
       <c r="V31" s="114"/>
       <c r="W31" s="114"/>
-      <c r="Y31" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z31" s="115" t="s">
-        <v>334</v>
-      </c>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
       <c r="AA31" s="114"/>
       <c r="AB31" s="114"/>
       <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
       <c r="AI31" s="114"/>
       <c r="AJ31" s="114"/>
-      <c r="AK31" s="116"/>
+      <c r="AK31" s="114"/>
       <c r="AL31" s="114"/>
       <c r="AM31" s="114"/>
       <c r="AO31" s="114"/>
@@ -13640,31 +13654,9 @@
       <c r="F32" s="67"/>
       <c r="G32" s="66"/>
       <c r="L32" s="66"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="114"/>
-      <c r="AC32" s="114"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="114"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="114"/>
-      <c r="AJ32" s="114"/>
-      <c r="AK32" s="114"/>
+      <c r="M32" s="114" t="s">
+        <v>289</v>
+      </c>
       <c r="AL32" s="114"/>
       <c r="AM32" s="114"/>
       <c r="AO32" s="114"/>
@@ -13677,8 +13669,9 @@
       <c r="F33" s="67"/>
       <c r="G33" s="66"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="114" t="s">
-        <v>290</v>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114" t="s">
+        <v>346</v>
       </c>
       <c r="AL33" s="114"/>
       <c r="AM33" s="114"/>
@@ -13694,7 +13687,7 @@
       <c r="L34" s="66"/>
       <c r="M34" s="114"/>
       <c r="N34" s="114" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AL34" s="114"/>
       <c r="AM34" s="114"/>
@@ -13710,7 +13703,7 @@
       <c r="L35" s="66"/>
       <c r="M35" s="114"/>
       <c r="N35" s="114" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AL35" s="114"/>
       <c r="AM35" s="114"/>
@@ -13726,7 +13719,7 @@
       <c r="L36" s="66"/>
       <c r="M36" s="114"/>
       <c r="N36" s="114" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AL36" s="114"/>
       <c r="AM36" s="114"/>
@@ -13742,7 +13735,7 @@
       <c r="L37" s="66"/>
       <c r="M37" s="114"/>
       <c r="N37" s="114" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AL37" s="114"/>
       <c r="AM37" s="114"/>
@@ -13755,15 +13748,39 @@
       <c r="C38" s="66"/>
       <c r="F38" s="67"/>
       <c r="G38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="AL38" s="114"/>
-      <c r="AM38" s="114"/>
-      <c r="AO38" s="114"/>
-      <c r="AP38" s="114"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="118"/>
+      <c r="V38" s="118"/>
+      <c r="W38" s="118"/>
+      <c r="X38" s="118"/>
+      <c r="Y38" s="118"/>
+      <c r="Z38" s="118"/>
+      <c r="AA38" s="118"/>
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="118"/>
+      <c r="AD38" s="118"/>
+      <c r="AE38" s="118"/>
+      <c r="AF38" s="118"/>
+      <c r="AG38" s="118"/>
+      <c r="AH38" s="118"/>
+      <c r="AI38" s="118"/>
+      <c r="AJ38" s="118"/>
+      <c r="AK38" s="118"/>
+      <c r="AL38" s="118"/>
+      <c r="AM38" s="118"/>
+      <c r="AN38" s="118"/>
+      <c r="AO38" s="118"/>
+      <c r="AP38" s="118"/>
+      <c r="AQ38" s="118"/>
       <c r="AV38" s="67"/>
     </row>
     <row r="39" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -13772,7 +13789,9 @@
       <c r="F39" s="67"/>
       <c r="G39" s="66"/>
       <c r="K39" s="67"/>
-      <c r="L39" s="117"/>
+      <c r="L39" s="117" t="s">
+        <v>345</v>
+      </c>
       <c r="M39" s="118"/>
       <c r="N39" s="118"/>
       <c r="O39" s="118"/>
@@ -13811,37 +13830,36 @@
       <c r="C40" s="66"/>
       <c r="F40" s="67"/>
       <c r="G40" s="66"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="117" t="s">
-        <v>350</v>
-      </c>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118"/>
-      <c r="X40" s="118"/>
-      <c r="Y40" s="118"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="118"/>
-      <c r="AB40" s="118"/>
-      <c r="AC40" s="118"/>
-      <c r="AD40" s="118"/>
-      <c r="AE40" s="118"/>
-      <c r="AF40" s="118"/>
-      <c r="AG40" s="118"/>
-      <c r="AH40" s="118"/>
-      <c r="AI40" s="118"/>
-      <c r="AJ40" s="118"/>
-      <c r="AK40" s="118"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="118"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="114"/>
+      <c r="AB40" s="114"/>
+      <c r="AC40" s="114"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
+      <c r="AL40" s="114"/>
+      <c r="AM40" s="114"/>
       <c r="AN40" s="118"/>
       <c r="AO40" s="118"/>
       <c r="AP40" s="118"/>
@@ -13854,10 +13872,9 @@
       <c r="F41" s="67"/>
       <c r="G41" s="66"/>
       <c r="L41" s="117"/>
-      <c r="M41" s="114" t="s">
-        <v>256</v>
-      </c>
-      <c r="N41" s="114"/>
+      <c r="N41" s="114" t="s">
+        <v>258</v>
+      </c>
       <c r="O41" s="114"/>
       <c r="P41" s="114"/>
       <c r="Q41" s="114"/>
@@ -13936,7 +13953,7 @@
       <c r="G43" s="66"/>
       <c r="L43" s="117"/>
       <c r="N43" s="114" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="O43" s="114"/>
       <c r="P43" s="114"/>
@@ -13976,7 +13993,7 @@
       <c r="G44" s="66"/>
       <c r="L44" s="117"/>
       <c r="N44" s="114" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="O44" s="114"/>
       <c r="P44" s="114"/>
@@ -14016,7 +14033,7 @@
       <c r="G45" s="66"/>
       <c r="L45" s="117"/>
       <c r="N45" s="114" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="O45" s="114"/>
       <c r="P45" s="114"/>
@@ -14056,7 +14073,7 @@
       <c r="G46" s="66"/>
       <c r="L46" s="117"/>
       <c r="N46" s="114" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="O46" s="114"/>
       <c r="P46" s="114"/>
@@ -14096,7 +14113,7 @@
       <c r="G47" s="66"/>
       <c r="L47" s="117"/>
       <c r="N47" s="114" t="s">
-        <v>262</v>
+        <v>373</v>
       </c>
       <c r="O47" s="114"/>
       <c r="P47" s="114"/>
@@ -14135,8 +14152,9 @@
       <c r="F48" s="67"/>
       <c r="G48" s="66"/>
       <c r="L48" s="117"/>
+      <c r="M48" s="124"/>
       <c r="N48" s="114" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="O48" s="114"/>
       <c r="P48" s="114"/>
@@ -14177,7 +14195,7 @@
       <c r="L49" s="117"/>
       <c r="M49" s="124"/>
       <c r="N49" s="114" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O49" s="114"/>
       <c r="P49" s="114"/>
@@ -14218,7 +14236,7 @@
       <c r="L50" s="117"/>
       <c r="M50" s="124"/>
       <c r="N50" s="114" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O50" s="114"/>
       <c r="P50" s="114"/>
@@ -14259,7 +14277,7 @@
       <c r="L51" s="117"/>
       <c r="M51" s="124"/>
       <c r="N51" s="114" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="O51" s="114"/>
       <c r="P51" s="114"/>
@@ -14300,7 +14318,7 @@
       <c r="L52" s="117"/>
       <c r="M52" s="124"/>
       <c r="N52" s="114" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="O52" s="114"/>
       <c r="P52" s="114"/>
@@ -14341,7 +14359,7 @@
       <c r="L53" s="117"/>
       <c r="M53" s="124"/>
       <c r="N53" s="114" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="O53" s="114"/>
       <c r="P53" s="114"/>
@@ -14382,7 +14400,7 @@
       <c r="L54" s="117"/>
       <c r="M54" s="124"/>
       <c r="N54" s="114" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="O54" s="114"/>
       <c r="P54" s="114"/>
@@ -14421,10 +14439,8 @@
       <c r="F55" s="67"/>
       <c r="G55" s="66"/>
       <c r="L55" s="117"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="114" t="s">
-        <v>385</v>
-      </c>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
       <c r="O55" s="114"/>
       <c r="P55" s="114"/>
       <c r="Q55" s="114"/>
@@ -14462,7 +14478,9 @@
       <c r="F56" s="67"/>
       <c r="G56" s="66"/>
       <c r="L56" s="117"/>
-      <c r="M56" s="114"/>
+      <c r="M56" s="114" t="s">
+        <v>256</v>
+      </c>
       <c r="N56" s="114"/>
       <c r="O56" s="114"/>
       <c r="P56" s="114"/>
@@ -14501,10 +14519,9 @@
       <c r="F57" s="67"/>
       <c r="G57" s="66"/>
       <c r="L57" s="117"/>
-      <c r="M57" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="N57" s="114"/>
+      <c r="N57" s="114" t="s">
+        <v>174</v>
+      </c>
       <c r="O57" s="114"/>
       <c r="P57" s="114"/>
       <c r="Q57" s="114"/>
@@ -14543,7 +14560,7 @@
       <c r="G58" s="66"/>
       <c r="L58" s="117"/>
       <c r="N58" s="114" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="O58" s="114"/>
       <c r="P58" s="114"/>
@@ -14582,10 +14599,10 @@
       <c r="F59" s="67"/>
       <c r="G59" s="66"/>
       <c r="L59" s="117"/>
-      <c r="N59" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="O59" s="114"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114" t="s">
+        <v>305</v>
+      </c>
       <c r="P59" s="114"/>
       <c r="Q59" s="114"/>
       <c r="R59" s="114"/>
@@ -14595,8 +14612,12 @@
       <c r="V59" s="114"/>
       <c r="W59" s="114"/>
       <c r="X59" s="114"/>
-      <c r="Y59" s="114"/>
-      <c r="Z59" s="114"/>
+      <c r="Y59" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z59" s="114" t="s">
+        <v>304</v>
+      </c>
       <c r="AA59" s="114"/>
       <c r="AB59" s="114"/>
       <c r="AC59" s="114"/>
@@ -14624,7 +14645,7 @@
       <c r="L60" s="117"/>
       <c r="N60" s="114"/>
       <c r="O60" s="114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P60" s="114"/>
       <c r="Q60" s="114"/>
@@ -14666,10 +14687,10 @@
       <c r="F61" s="67"/>
       <c r="G61" s="66"/>
       <c r="L61" s="117"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114" t="s">
-        <v>309</v>
-      </c>
+      <c r="N61" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="O61" s="114"/>
       <c r="P61" s="114"/>
       <c r="Q61" s="114"/>
       <c r="R61" s="114"/>
@@ -14679,12 +14700,8 @@
       <c r="V61" s="114"/>
       <c r="W61" s="114"/>
       <c r="X61" s="114"/>
-      <c r="Y61" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z61" s="114" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y61" s="114"/>
+      <c r="Z61" s="114"/>
       <c r="AA61" s="114"/>
       <c r="AB61" s="114"/>
       <c r="AC61" s="114"/>
@@ -14710,10 +14727,10 @@
       <c r="F62" s="67"/>
       <c r="G62" s="66"/>
       <c r="L62" s="117"/>
-      <c r="N62" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114" t="s">
+        <v>305</v>
+      </c>
       <c r="P62" s="114"/>
       <c r="Q62" s="114"/>
       <c r="R62" s="114"/>
@@ -14723,8 +14740,12 @@
       <c r="V62" s="114"/>
       <c r="W62" s="114"/>
       <c r="X62" s="114"/>
-      <c r="Y62" s="114"/>
-      <c r="Z62" s="114"/>
+      <c r="Y62" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z62" s="114" t="s">
+        <v>308</v>
+      </c>
       <c r="AA62" s="114"/>
       <c r="AB62" s="114"/>
       <c r="AC62" s="114"/>
@@ -14752,7 +14773,7 @@
       <c r="L63" s="117"/>
       <c r="N63" s="114"/>
       <c r="O63" s="114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P63" s="114"/>
       <c r="Q63" s="114"/>
@@ -14767,7 +14788,7 @@
         <v>116</v>
       </c>
       <c r="Z63" s="114" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA63" s="114"/>
       <c r="AB63" s="114"/>
@@ -14796,7 +14817,7 @@
       <c r="L64" s="117"/>
       <c r="N64" s="114"/>
       <c r="O64" s="114" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="P64" s="114"/>
       <c r="Q64" s="114"/>
@@ -14811,7 +14832,7 @@
         <v>116</v>
       </c>
       <c r="Z64" s="114" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="AA64" s="114"/>
       <c r="AB64" s="114"/>
@@ -14840,7 +14861,7 @@
       <c r="L65" s="117"/>
       <c r="N65" s="114"/>
       <c r="O65" s="114" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="P65" s="114"/>
       <c r="Q65" s="114"/>
@@ -14855,7 +14876,7 @@
         <v>116</v>
       </c>
       <c r="Z65" s="114" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AA65" s="114"/>
       <c r="AB65" s="114"/>
@@ -14884,7 +14905,7 @@
       <c r="L66" s="117"/>
       <c r="N66" s="114"/>
       <c r="O66" s="114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P66" s="114"/>
       <c r="Q66" s="114"/>
@@ -14899,7 +14920,7 @@
         <v>116</v>
       </c>
       <c r="Z66" s="114" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA66" s="114"/>
       <c r="AB66" s="114"/>
@@ -14928,7 +14949,7 @@
       <c r="L67" s="117"/>
       <c r="N67" s="114"/>
       <c r="O67" s="114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P67" s="114"/>
       <c r="Q67" s="114"/>
@@ -14943,7 +14964,7 @@
         <v>116</v>
       </c>
       <c r="Z67" s="114" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AA67" s="114"/>
       <c r="AB67" s="114"/>
@@ -14972,7 +14993,7 @@
       <c r="L68" s="117"/>
       <c r="N68" s="114"/>
       <c r="O68" s="114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P68" s="114"/>
       <c r="Q68" s="114"/>
@@ -14987,7 +15008,7 @@
         <v>116</v>
       </c>
       <c r="Z68" s="114" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AA68" s="114"/>
       <c r="AB68" s="114"/>
@@ -15014,10 +15035,10 @@
       <c r="F69" s="67"/>
       <c r="G69" s="66"/>
       <c r="L69" s="117"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114" t="s">
-        <v>317</v>
-      </c>
+      <c r="N69" s="114" t="s">
+        <v>338</v>
+      </c>
+      <c r="O69" s="114"/>
       <c r="P69" s="114"/>
       <c r="Q69" s="114"/>
       <c r="R69" s="114"/>
@@ -15027,12 +15048,8 @@
       <c r="V69" s="114"/>
       <c r="W69" s="114"/>
       <c r="X69" s="114"/>
-      <c r="Y69" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z69" s="114" t="s">
-        <v>342</v>
-      </c>
+      <c r="Y69" s="114"/>
+      <c r="Z69" s="114"/>
       <c r="AA69" s="114"/>
       <c r="AB69" s="114"/>
       <c r="AC69" s="114"/>
@@ -15058,10 +15075,10 @@
       <c r="F70" s="67"/>
       <c r="G70" s="66"/>
       <c r="L70" s="117"/>
-      <c r="N70" s="114" t="s">
-        <v>343</v>
-      </c>
-      <c r="O70" s="114"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114" t="s">
+        <v>310</v>
+      </c>
       <c r="P70" s="114"/>
       <c r="Q70" s="114"/>
       <c r="R70" s="114"/>
@@ -15071,8 +15088,12 @@
       <c r="V70" s="114"/>
       <c r="W70" s="114"/>
       <c r="X70" s="114"/>
-      <c r="Y70" s="114"/>
-      <c r="Z70" s="114"/>
+      <c r="Y70" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z70" s="114" t="s">
+        <v>339</v>
+      </c>
       <c r="AA70" s="114"/>
       <c r="AB70" s="114"/>
       <c r="AC70" s="114"/>
@@ -15100,7 +15121,7 @@
       <c r="L71" s="117"/>
       <c r="N71" s="114"/>
       <c r="O71" s="114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P71" s="114"/>
       <c r="Q71" s="114"/>
@@ -15115,7 +15136,7 @@
         <v>116</v>
       </c>
       <c r="Z71" s="114" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AA71" s="114"/>
       <c r="AB71" s="114"/>
@@ -15144,7 +15165,7 @@
       <c r="L72" s="117"/>
       <c r="N72" s="114"/>
       <c r="O72" s="114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P72" s="114"/>
       <c r="Q72" s="114"/>
@@ -15159,7 +15180,7 @@
         <v>116</v>
       </c>
       <c r="Z72" s="114" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AA72" s="114"/>
       <c r="AB72" s="114"/>
@@ -15188,7 +15209,7 @@
       <c r="L73" s="117"/>
       <c r="N73" s="114"/>
       <c r="O73" s="114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P73" s="114"/>
       <c r="Q73" s="114"/>
@@ -15203,7 +15224,7 @@
         <v>116</v>
       </c>
       <c r="Z73" s="114" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA73" s="114"/>
       <c r="AB73" s="114"/>
@@ -15232,7 +15253,7 @@
       <c r="L74" s="117"/>
       <c r="N74" s="114"/>
       <c r="O74" s="114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P74" s="114"/>
       <c r="Q74" s="114"/>
@@ -15247,7 +15268,7 @@
         <v>116</v>
       </c>
       <c r="Z74" s="114" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AA74" s="114"/>
       <c r="AB74" s="114"/>
@@ -15274,10 +15295,10 @@
       <c r="F75" s="67"/>
       <c r="G75" s="66"/>
       <c r="L75" s="117"/>
-      <c r="N75" s="114"/>
-      <c r="O75" s="114" t="s">
-        <v>317</v>
-      </c>
+      <c r="N75" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="O75" s="114"/>
       <c r="P75" s="114"/>
       <c r="Q75" s="114"/>
       <c r="R75" s="114"/>
@@ -15287,12 +15308,8 @@
       <c r="V75" s="114"/>
       <c r="W75" s="114"/>
       <c r="X75" s="114"/>
-      <c r="Y75" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z75" s="114" t="s">
-        <v>348</v>
-      </c>
+      <c r="Y75" s="114"/>
+      <c r="Z75" s="114"/>
       <c r="AA75" s="114"/>
       <c r="AB75" s="114"/>
       <c r="AC75" s="114"/>
@@ -15318,10 +15335,10 @@
       <c r="F76" s="67"/>
       <c r="G76" s="66"/>
       <c r="L76" s="117"/>
-      <c r="N76" s="114" t="s">
-        <v>266</v>
-      </c>
-      <c r="O76" s="114"/>
+      <c r="N76" s="114"/>
+      <c r="O76" s="114" t="s">
+        <v>305</v>
+      </c>
       <c r="P76" s="114"/>
       <c r="Q76" s="114"/>
       <c r="R76" s="114"/>
@@ -15331,8 +15348,12 @@
       <c r="V76" s="114"/>
       <c r="W76" s="114"/>
       <c r="X76" s="114"/>
-      <c r="Y76" s="114"/>
-      <c r="Z76" s="114"/>
+      <c r="Y76" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z76" s="114" t="s">
+        <v>315</v>
+      </c>
       <c r="AA76" s="114"/>
       <c r="AB76" s="114"/>
       <c r="AC76" s="114"/>
@@ -15360,7 +15381,7 @@
       <c r="L77" s="117"/>
       <c r="N77" s="114"/>
       <c r="O77" s="114" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P77" s="114"/>
       <c r="Q77" s="114"/>
@@ -15375,7 +15396,7 @@
         <v>116</v>
       </c>
       <c r="Z77" s="114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA77" s="114"/>
       <c r="AB77" s="114"/>
@@ -15402,10 +15423,10 @@
       <c r="F78" s="67"/>
       <c r="G78" s="66"/>
       <c r="L78" s="117"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="114" t="s">
-        <v>319</v>
-      </c>
+      <c r="N78" s="114" t="s">
+        <v>266</v>
+      </c>
+      <c r="O78" s="114"/>
       <c r="P78" s="114"/>
       <c r="Q78" s="114"/>
       <c r="R78" s="114"/>
@@ -15415,12 +15436,8 @@
       <c r="V78" s="114"/>
       <c r="W78" s="114"/>
       <c r="X78" s="114"/>
-      <c r="Y78" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z78" s="114" t="s">
-        <v>320</v>
-      </c>
+      <c r="Y78" s="114"/>
+      <c r="Z78" s="114"/>
       <c r="AA78" s="114"/>
       <c r="AB78" s="114"/>
       <c r="AC78" s="114"/>
@@ -15446,10 +15463,10 @@
       <c r="F79" s="67"/>
       <c r="G79" s="66"/>
       <c r="L79" s="117"/>
-      <c r="N79" s="114" t="s">
-        <v>267</v>
-      </c>
-      <c r="O79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114" t="s">
+        <v>318</v>
+      </c>
       <c r="P79" s="114"/>
       <c r="Q79" s="114"/>
       <c r="R79" s="114"/>
@@ -15459,8 +15476,12 @@
       <c r="V79" s="114"/>
       <c r="W79" s="114"/>
       <c r="X79" s="114"/>
-      <c r="Y79" s="114"/>
-      <c r="Z79" s="114"/>
+      <c r="Y79" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z79" s="114" t="s">
+        <v>319</v>
+      </c>
       <c r="AA79" s="114"/>
       <c r="AB79" s="114"/>
       <c r="AC79" s="114"/>
@@ -15488,7 +15509,7 @@
       <c r="L80" s="117"/>
       <c r="N80" s="114"/>
       <c r="O80" s="114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P80" s="114"/>
       <c r="Q80" s="114"/>
@@ -15498,26 +15519,20 @@
       <c r="U80" s="114"/>
       <c r="V80" s="114"/>
       <c r="W80" s="114"/>
-      <c r="X80" s="114"/>
       <c r="Y80" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="Z80" s="114" t="s">
-        <v>322</v>
+      <c r="Z80" s="115" t="s">
+        <v>329</v>
       </c>
       <c r="AA80" s="114"/>
       <c r="AB80" s="114"/>
       <c r="AC80" s="114"/>
-      <c r="AD80" s="114"/>
-      <c r="AE80" s="114"/>
-      <c r="AF80" s="114"/>
       <c r="AG80" s="114"/>
       <c r="AH80" s="114"/>
       <c r="AI80" s="114"/>
       <c r="AJ80" s="114"/>
-      <c r="AK80" s="114"/>
-      <c r="AL80" s="114"/>
-      <c r="AM80" s="114"/>
+      <c r="AK80" s="116"/>
       <c r="AN80" s="118"/>
       <c r="AO80" s="118"/>
       <c r="AP80" s="118"/>
@@ -15530,10 +15545,10 @@
       <c r="F81" s="67"/>
       <c r="G81" s="66"/>
       <c r="L81" s="117"/>
-      <c r="N81" s="114"/>
-      <c r="O81" s="114" t="s">
-        <v>323</v>
-      </c>
+      <c r="N81" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="O81" s="114"/>
       <c r="P81" s="114"/>
       <c r="Q81" s="114"/>
       <c r="R81" s="114"/>
@@ -15542,20 +15557,22 @@
       <c r="U81" s="114"/>
       <c r="V81" s="114"/>
       <c r="W81" s="114"/>
-      <c r="Y81" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z81" s="115" t="s">
-        <v>333</v>
-      </c>
+      <c r="X81" s="114"/>
+      <c r="Y81" s="114"/>
+      <c r="Z81" s="114"/>
       <c r="AA81" s="114"/>
       <c r="AB81" s="114"/>
       <c r="AC81" s="114"/>
+      <c r="AD81" s="114"/>
+      <c r="AE81" s="114"/>
+      <c r="AF81" s="114"/>
       <c r="AG81" s="114"/>
       <c r="AH81" s="114"/>
       <c r="AI81" s="114"/>
       <c r="AJ81" s="114"/>
-      <c r="AK81" s="116"/>
+      <c r="AK81" s="114"/>
+      <c r="AL81" s="114"/>
+      <c r="AM81" s="114"/>
       <c r="AN81" s="118"/>
       <c r="AO81" s="118"/>
       <c r="AP81" s="118"/>
@@ -15568,10 +15585,10 @@
       <c r="F82" s="67"/>
       <c r="G82" s="66"/>
       <c r="L82" s="117"/>
-      <c r="N82" s="114" t="s">
-        <v>268</v>
-      </c>
-      <c r="O82" s="114"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="114" t="s">
+        <v>310</v>
+      </c>
       <c r="P82" s="114"/>
       <c r="Q82" s="114"/>
       <c r="R82" s="114"/>
@@ -15581,8 +15598,12 @@
       <c r="V82" s="114"/>
       <c r="W82" s="114"/>
       <c r="X82" s="114"/>
-      <c r="Y82" s="114"/>
-      <c r="Z82" s="114"/>
+      <c r="Y82" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z82" s="114" t="s">
+        <v>352</v>
+      </c>
       <c r="AA82" s="114"/>
       <c r="AB82" s="114"/>
       <c r="AC82" s="114"/>
@@ -15610,7 +15631,7 @@
       <c r="L83" s="117"/>
       <c r="N83" s="114"/>
       <c r="O83" s="114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P83" s="114"/>
       <c r="Q83" s="114"/>
@@ -15625,7 +15646,7 @@
         <v>116</v>
       </c>
       <c r="Z83" s="114" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AA83" s="114"/>
       <c r="AB83" s="114"/>
@@ -15654,7 +15675,7 @@
       <c r="L84" s="117"/>
       <c r="N84" s="114"/>
       <c r="O84" s="114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P84" s="114"/>
       <c r="Q84" s="114"/>
@@ -15669,7 +15690,7 @@
         <v>116</v>
       </c>
       <c r="Z84" s="114" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AA84" s="114"/>
       <c r="AB84" s="114"/>
@@ -15698,7 +15719,7 @@
       <c r="L85" s="117"/>
       <c r="N85" s="114"/>
       <c r="O85" s="114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P85" s="114"/>
       <c r="Q85" s="114"/>
@@ -15713,7 +15734,7 @@
         <v>116</v>
       </c>
       <c r="Z85" s="114" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AA85" s="114"/>
       <c r="AB85" s="114"/>
@@ -15742,7 +15763,7 @@
       <c r="L86" s="117"/>
       <c r="N86" s="114"/>
       <c r="O86" s="114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P86" s="114"/>
       <c r="Q86" s="114"/>
@@ -15757,7 +15778,7 @@
         <v>116</v>
       </c>
       <c r="Z86" s="114" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AA86" s="114"/>
       <c r="AB86" s="114"/>
@@ -15784,10 +15805,9 @@
       <c r="F87" s="67"/>
       <c r="G87" s="66"/>
       <c r="L87" s="117"/>
+      <c r="M87" s="114"/>
       <c r="N87" s="114"/>
-      <c r="O87" s="114" t="s">
-        <v>317</v>
-      </c>
+      <c r="O87" s="114"/>
       <c r="P87" s="114"/>
       <c r="Q87" s="114"/>
       <c r="R87" s="114"/>
@@ -15797,12 +15817,8 @@
       <c r="V87" s="114"/>
       <c r="W87" s="114"/>
       <c r="X87" s="114"/>
-      <c r="Y87" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z87" s="114" t="s">
-        <v>361</v>
-      </c>
+      <c r="Y87" s="114"/>
+      <c r="Z87" s="114"/>
       <c r="AA87" s="114"/>
       <c r="AB87" s="114"/>
       <c r="AC87" s="114"/>
@@ -15828,7 +15844,9 @@
       <c r="F88" s="67"/>
       <c r="G88" s="66"/>
       <c r="L88" s="117"/>
-      <c r="M88" s="114"/>
+      <c r="M88" s="114" t="s">
+        <v>257</v>
+      </c>
       <c r="N88" s="114"/>
       <c r="O88" s="114"/>
       <c r="P88" s="114"/>
@@ -15867,10 +15885,9 @@
       <c r="F89" s="67"/>
       <c r="G89" s="66"/>
       <c r="L89" s="117"/>
-      <c r="M89" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="N89" s="114"/>
+      <c r="N89" s="114" t="s">
+        <v>268</v>
+      </c>
       <c r="O89" s="114"/>
       <c r="P89" s="114"/>
       <c r="Q89" s="114"/>
@@ -15880,22 +15897,20 @@
       <c r="U89" s="114"/>
       <c r="V89" s="114"/>
       <c r="W89" s="114"/>
-      <c r="X89" s="114"/>
-      <c r="Y89" s="114"/>
-      <c r="Z89" s="114"/>
+      <c r="Y89" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z89" s="114" t="s">
+        <v>367</v>
+      </c>
       <c r="AA89" s="114"/>
       <c r="AB89" s="114"/>
       <c r="AC89" s="114"/>
-      <c r="AD89" s="114"/>
-      <c r="AE89" s="114"/>
-      <c r="AF89" s="114"/>
       <c r="AG89" s="114"/>
       <c r="AH89" s="114"/>
       <c r="AI89" s="114"/>
       <c r="AJ89" s="114"/>
-      <c r="AK89" s="114"/>
-      <c r="AL89" s="114"/>
-      <c r="AM89" s="114"/>
+      <c r="AK89" s="116"/>
       <c r="AN89" s="118"/>
       <c r="AO89" s="118"/>
       <c r="AP89" s="118"/>
@@ -15923,17 +15938,18 @@
       <c r="Y90" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="Z90" s="114" t="s">
-        <v>372</v>
+      <c r="Z90" s="115" t="s">
+        <v>328</v>
       </c>
       <c r="AA90" s="114"/>
       <c r="AB90" s="114"/>
       <c r="AC90" s="114"/>
-      <c r="AG90" s="114"/>
       <c r="AH90" s="114"/>
       <c r="AI90" s="114"/>
       <c r="AJ90" s="114"/>
-      <c r="AK90" s="116"/>
+      <c r="AK90" s="114"/>
+      <c r="AL90" s="114"/>
+      <c r="AM90" s="114"/>
       <c r="AN90" s="118"/>
       <c r="AO90" s="118"/>
       <c r="AP90" s="118"/>
@@ -15947,7 +15963,7 @@
       <c r="G91" s="66"/>
       <c r="L91" s="117"/>
       <c r="N91" s="114" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="O91" s="114"/>
       <c r="P91" s="114"/>
@@ -15957,22 +15973,24 @@
       <c r="T91" s="114"/>
       <c r="U91" s="114"/>
       <c r="V91" s="114"/>
-      <c r="W91" s="114"/>
+      <c r="W91" s="114" t="s">
+        <v>358</v>
+      </c>
       <c r="Y91" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z91" s="115" t="s">
-        <v>332</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="Z91" s="114"/>
       <c r="AA91" s="114"/>
       <c r="AB91" s="114"/>
       <c r="AC91" s="114"/>
+      <c r="AG91" s="114"/>
       <c r="AH91" s="114"/>
       <c r="AI91" s="114"/>
       <c r="AJ91" s="114"/>
-      <c r="AK91" s="114"/>
-      <c r="AL91" s="114"/>
-      <c r="AM91" s="114"/>
+      <c r="AK91" s="116"/>
+      <c r="AL91" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="AN91" s="118"/>
       <c r="AO91" s="118"/>
       <c r="AP91" s="118"/>
@@ -15986,7 +16004,7 @@
       <c r="G92" s="66"/>
       <c r="L92" s="117"/>
       <c r="N92" s="114" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O92" s="114"/>
       <c r="P92" s="114"/>
@@ -15996,24 +16014,24 @@
       <c r="T92" s="114"/>
       <c r="U92" s="114"/>
       <c r="V92" s="114"/>
-      <c r="W92" s="114" t="s">
-        <v>363</v>
-      </c>
+      <c r="W92" s="114"/>
       <c r="Y92" s="114" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z92" s="114"/>
+        <v>116</v>
+      </c>
+      <c r="Z92" s="114" t="s">
+        <v>361</v>
+      </c>
       <c r="AA92" s="114"/>
       <c r="AB92" s="114"/>
       <c r="AC92" s="114"/>
-      <c r="AG92" s="114"/>
       <c r="AH92" s="114"/>
       <c r="AI92" s="114"/>
       <c r="AJ92" s="114"/>
-      <c r="AK92" s="116"/>
+      <c r="AK92" s="114"/>
       <c r="AL92" s="15" t="s">
-        <v>177</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="AM92" s="114"/>
       <c r="AN92" s="118"/>
       <c r="AO92" s="118"/>
       <c r="AP92" s="118"/>
@@ -16027,7 +16045,7 @@
       <c r="G93" s="66"/>
       <c r="L93" s="117"/>
       <c r="N93" s="114" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O93" s="114"/>
       <c r="P93" s="114"/>
@@ -16042,7 +16060,7 @@
         <v>116</v>
       </c>
       <c r="Z93" s="114" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AA93" s="114"/>
       <c r="AB93" s="114"/>
@@ -16052,7 +16070,7 @@
       <c r="AJ93" s="114"/>
       <c r="AK93" s="114"/>
       <c r="AL93" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AM93" s="114"/>
       <c r="AN93" s="118"/>
@@ -16068,7 +16086,7 @@
       <c r="G94" s="66"/>
       <c r="L94" s="117"/>
       <c r="N94" s="114" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="O94" s="114"/>
       <c r="P94" s="114"/>
@@ -16083,7 +16101,7 @@
         <v>116</v>
       </c>
       <c r="Z94" s="114" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AA94" s="114"/>
       <c r="AB94" s="114"/>
@@ -16109,7 +16127,7 @@
       <c r="G95" s="66"/>
       <c r="L95" s="117"/>
       <c r="N95" s="114" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="O95" s="114"/>
       <c r="P95" s="114"/>
@@ -16124,7 +16142,7 @@
         <v>116</v>
       </c>
       <c r="Z95" s="114" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AA95" s="114"/>
       <c r="AB95" s="114"/>
@@ -16150,7 +16168,7 @@
       <c r="G96" s="66"/>
       <c r="L96" s="117"/>
       <c r="N96" s="114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O96" s="114"/>
       <c r="P96" s="114"/>
@@ -16165,7 +16183,7 @@
         <v>116</v>
       </c>
       <c r="Z96" s="114" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AA96" s="114"/>
       <c r="AB96" s="114"/>
@@ -16175,7 +16193,7 @@
       <c r="AJ96" s="114"/>
       <c r="AK96" s="114"/>
       <c r="AL96" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AM96" s="114"/>
       <c r="AN96" s="118"/>
@@ -16191,7 +16209,7 @@
       <c r="G97" s="66"/>
       <c r="L97" s="117"/>
       <c r="N97" s="114" t="s">
-        <v>183</v>
+        <v>359</v>
       </c>
       <c r="O97" s="114"/>
       <c r="P97" s="114"/>
@@ -16202,11 +16220,11 @@
       <c r="U97" s="114"/>
       <c r="V97" s="114"/>
       <c r="W97" s="114"/>
+      <c r="X97" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="Y97" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z97" s="114" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AA97" s="114"/>
       <c r="AB97" s="114"/>
@@ -16216,7 +16234,7 @@
       <c r="AJ97" s="114"/>
       <c r="AK97" s="114"/>
       <c r="AL97" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM97" s="114"/>
       <c r="AN97" s="118"/>
@@ -16230,40 +16248,14 @@
       <c r="C98" s="66"/>
       <c r="F98" s="67"/>
       <c r="G98" s="66"/>
-      <c r="L98" s="117"/>
-      <c r="N98" s="114" t="s">
-        <v>364</v>
-      </c>
+      <c r="L98" s="66"/>
+      <c r="M98" s="114"/>
+      <c r="N98" s="114"/>
       <c r="O98" s="114"/>
-      <c r="P98" s="114"/>
-      <c r="Q98" s="114"/>
-      <c r="R98" s="114"/>
-      <c r="S98" s="114"/>
-      <c r="T98" s="114"/>
-      <c r="U98" s="114"/>
-      <c r="V98" s="114"/>
-      <c r="W98" s="114"/>
-      <c r="X98" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y98" s="114" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA98" s="114"/>
-      <c r="AB98" s="114"/>
-      <c r="AC98" s="114"/>
-      <c r="AH98" s="114"/>
-      <c r="AI98" s="114"/>
-      <c r="AJ98" s="114"/>
-      <c r="AK98" s="114"/>
-      <c r="AL98" s="15" t="s">
-        <v>184</v>
-      </c>
       <c r="AM98" s="114"/>
-      <c r="AN98" s="118"/>
-      <c r="AO98" s="118"/>
-      <c r="AP98" s="118"/>
-      <c r="AQ98" s="118"/>
+      <c r="AN98" s="114"/>
+      <c r="AO98" s="114"/>
+      <c r="AP98" s="114"/>
       <c r="AV98" s="67"/>
     </row>
     <row r="99" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16272,9 +16264,9 @@
       <c r="F99" s="67"/>
       <c r="G99" s="66"/>
       <c r="L99" s="66"/>
-      <c r="M99" s="114"/>
-      <c r="N99" s="114"/>
-      <c r="O99" s="114"/>
+      <c r="M99" s="114" t="s">
+        <v>117</v>
+      </c>
       <c r="AM99" s="114"/>
       <c r="AN99" s="114"/>
       <c r="AO99" s="114"/>
@@ -16286,14 +16278,18 @@
       <c r="C100" s="66"/>
       <c r="F100" s="67"/>
       <c r="G100" s="66"/>
-      <c r="L100" s="66"/>
-      <c r="M100" s="114" t="s">
-        <v>117</v>
-      </c>
+      <c r="L100" s="117"/>
+      <c r="N100" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ100" s="114"/>
+      <c r="AK100" s="114"/>
+      <c r="AL100" s="114"/>
       <c r="AM100" s="114"/>
-      <c r="AN100" s="114"/>
-      <c r="AO100" s="114"/>
-      <c r="AP100" s="114"/>
+      <c r="AN100" s="118"/>
+      <c r="AO100" s="118"/>
+      <c r="AP100" s="118"/>
+      <c r="AQ100" s="118"/>
       <c r="AV100" s="67"/>
     </row>
     <row r="101" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16320,14 +16316,35 @@
       <c r="C102" s="66"/>
       <c r="F102" s="67"/>
       <c r="G102" s="66"/>
+      <c r="K102" s="67"/>
       <c r="L102" s="117"/>
-      <c r="N102" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ102" s="114"/>
-      <c r="AK102" s="114"/>
-      <c r="AL102" s="114"/>
-      <c r="AM102" s="114"/>
+      <c r="M102" s="118"/>
+      <c r="N102" s="118"/>
+      <c r="O102" s="118"/>
+      <c r="P102" s="118"/>
+      <c r="Q102" s="118"/>
+      <c r="R102" s="118"/>
+      <c r="S102" s="118"/>
+      <c r="T102" s="118"/>
+      <c r="U102" s="118"/>
+      <c r="V102" s="118"/>
+      <c r="W102" s="118"/>
+      <c r="X102" s="118"/>
+      <c r="Y102" s="118"/>
+      <c r="Z102" s="118"/>
+      <c r="AA102" s="118"/>
+      <c r="AB102" s="118"/>
+      <c r="AC102" s="118"/>
+      <c r="AD102" s="118"/>
+      <c r="AE102" s="118"/>
+      <c r="AF102" s="118"/>
+      <c r="AG102" s="118"/>
+      <c r="AH102" s="118"/>
+      <c r="AI102" s="118"/>
+      <c r="AJ102" s="118"/>
+      <c r="AK102" s="118"/>
+      <c r="AL102" s="118"/>
+      <c r="AM102" s="118"/>
       <c r="AN102" s="118"/>
       <c r="AO102" s="118"/>
       <c r="AP102" s="118"/>
@@ -16340,8 +16357,9 @@
       <c r="F103" s="67"/>
       <c r="G103" s="66"/>
       <c r="K103" s="67"/>
-      <c r="L103" s="117"/>
-      <c r="M103" s="118"/>
+      <c r="L103" s="118" t="s">
+        <v>186</v>
+      </c>
       <c r="N103" s="118"/>
       <c r="O103" s="118"/>
       <c r="P103" s="118"/>
@@ -16381,7 +16399,7 @@
       <c r="G104" s="66"/>
       <c r="K104" s="67"/>
       <c r="L104" s="118" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="N104" s="118"/>
       <c r="O104" s="118"/>
@@ -16416,399 +16434,369 @@
       <c r="AV104" s="67"/>
     </row>
     <row r="105" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="66"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="118" t="s">
-        <v>336</v>
-      </c>
-      <c r="N105" s="118"/>
-      <c r="O105" s="118"/>
-      <c r="P105" s="118"/>
-      <c r="Q105" s="118"/>
-      <c r="R105" s="118"/>
-      <c r="S105" s="118"/>
-      <c r="T105" s="118"/>
-      <c r="U105" s="118"/>
-      <c r="V105" s="118"/>
-      <c r="W105" s="118"/>
-      <c r="X105" s="118"/>
-      <c r="Y105" s="118"/>
-      <c r="Z105" s="118"/>
-      <c r="AA105" s="118"/>
-      <c r="AB105" s="118"/>
-      <c r="AC105" s="118"/>
-      <c r="AD105" s="118"/>
-      <c r="AE105" s="118"/>
-      <c r="AF105" s="118"/>
-      <c r="AG105" s="118"/>
-      <c r="AH105" s="118"/>
-      <c r="AI105" s="118"/>
-      <c r="AJ105" s="118"/>
-      <c r="AK105" s="118"/>
-      <c r="AL105" s="118"/>
-      <c r="AM105" s="118"/>
-      <c r="AN105" s="118"/>
-      <c r="AO105" s="118"/>
-      <c r="AP105" s="118"/>
-      <c r="AQ105" s="118"/>
-      <c r="AV105" s="67"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="109"/>
+      <c r="M105" s="108"/>
+      <c r="N105" s="108"/>
+      <c r="O105" s="108"/>
+      <c r="P105" s="108"/>
+      <c r="Q105" s="108"/>
+      <c r="R105" s="108"/>
+      <c r="S105" s="108"/>
+      <c r="T105" s="109"/>
+      <c r="U105" s="109"/>
+      <c r="V105" s="109"/>
+      <c r="W105" s="109"/>
+      <c r="X105" s="109"/>
+      <c r="Y105" s="109"/>
+      <c r="Z105" s="109"/>
+      <c r="AA105" s="24"/>
+      <c r="AB105" s="24"/>
+      <c r="AC105" s="24"/>
+      <c r="AD105" s="24"/>
+      <c r="AE105" s="24"/>
+      <c r="AF105" s="24"/>
+      <c r="AG105" s="24"/>
+      <c r="AH105" s="24"/>
+      <c r="AI105" s="24"/>
+      <c r="AJ105" s="24"/>
+      <c r="AK105" s="24"/>
+      <c r="AL105" s="24"/>
+      <c r="AM105" s="24"/>
+      <c r="AN105" s="24"/>
+      <c r="AO105" s="24"/>
+      <c r="AP105" s="24"/>
+      <c r="AQ105" s="24"/>
+      <c r="AR105" s="24"/>
+      <c r="AS105" s="24"/>
+      <c r="AT105" s="24"/>
+      <c r="AU105" s="24"/>
+      <c r="AV105" s="25"/>
     </row>
     <row r="106" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="109"/>
-      <c r="M106" s="108"/>
-      <c r="N106" s="108"/>
-      <c r="O106" s="108"/>
-      <c r="P106" s="108"/>
-      <c r="Q106" s="108"/>
-      <c r="R106" s="108"/>
-      <c r="S106" s="108"/>
-      <c r="T106" s="109"/>
-      <c r="U106" s="109"/>
-      <c r="V106" s="109"/>
-      <c r="W106" s="109"/>
-      <c r="X106" s="109"/>
-      <c r="Y106" s="109"/>
-      <c r="Z106" s="109"/>
-      <c r="AA106" s="24"/>
-      <c r="AB106" s="24"/>
-      <c r="AC106" s="24"/>
-      <c r="AD106" s="24"/>
-      <c r="AE106" s="24"/>
-      <c r="AF106" s="24"/>
-      <c r="AG106" s="24"/>
-      <c r="AH106" s="24"/>
-      <c r="AI106" s="24"/>
-      <c r="AJ106" s="24"/>
-      <c r="AK106" s="24"/>
-      <c r="AL106" s="24"/>
-      <c r="AM106" s="24"/>
-      <c r="AN106" s="24"/>
-      <c r="AO106" s="24"/>
-      <c r="AP106" s="24"/>
-      <c r="AQ106" s="24"/>
-      <c r="AR106" s="24"/>
-      <c r="AS106" s="24"/>
-      <c r="AT106" s="24"/>
-      <c r="AU106" s="24"/>
-      <c r="AV106" s="25"/>
+      <c r="B106" s="19">
+        <v>3</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="20"/>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="20"/>
+      <c r="AA106" s="20"/>
+      <c r="AB106" s="20"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="20"/>
+      <c r="AE106" s="20"/>
+      <c r="AF106" s="20"/>
+      <c r="AG106" s="20"/>
+      <c r="AH106" s="20"/>
+      <c r="AI106" s="20"/>
+      <c r="AJ106" s="20"/>
+      <c r="AK106" s="20"/>
+      <c r="AL106" s="20"/>
+      <c r="AM106" s="20"/>
+      <c r="AN106" s="20"/>
+      <c r="AO106" s="20"/>
+      <c r="AP106" s="20"/>
+      <c r="AQ106" s="20"/>
+      <c r="AR106" s="20"/>
+      <c r="AS106" s="20"/>
+      <c r="AT106" s="20"/>
+      <c r="AU106" s="20"/>
+      <c r="AV106" s="21"/>
     </row>
     <row r="107" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B107" s="19">
-        <v>3</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="20"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
-      <c r="V107" s="20"/>
-      <c r="W107" s="20"/>
-      <c r="X107" s="20"/>
-      <c r="Y107" s="20"/>
-      <c r="Z107" s="20"/>
-      <c r="AA107" s="20"/>
-      <c r="AB107" s="20"/>
-      <c r="AC107" s="20"/>
-      <c r="AD107" s="20"/>
-      <c r="AE107" s="20"/>
-      <c r="AF107" s="20"/>
-      <c r="AG107" s="20"/>
-      <c r="AH107" s="20"/>
-      <c r="AI107" s="20"/>
-      <c r="AJ107" s="20"/>
-      <c r="AK107" s="20"/>
-      <c r="AL107" s="20"/>
-      <c r="AM107" s="20"/>
-      <c r="AN107" s="20"/>
-      <c r="AO107" s="20"/>
-      <c r="AP107" s="20"/>
-      <c r="AQ107" s="20"/>
-      <c r="AR107" s="20"/>
-      <c r="AS107" s="20"/>
-      <c r="AT107" s="20"/>
-      <c r="AU107" s="20"/>
-      <c r="AV107" s="21"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L107" s="66"/>
+      <c r="M107" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV107" s="67"/>
     </row>
     <row r="108" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B108" s="66"/>
       <c r="C108" s="66"/>
       <c r="F108" s="67"/>
-      <c r="G108" s="66" t="s">
+      <c r="G108" s="66"/>
+      <c r="L108" s="66"/>
+      <c r="AV108" s="67"/>
+    </row>
+    <row r="109" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B109" s="19">
+        <v>4</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="20"/>
+      <c r="AA109" s="20"/>
+      <c r="AB109" s="20"/>
+      <c r="AC109" s="20"/>
+      <c r="AD109" s="20"/>
+      <c r="AE109" s="20"/>
+      <c r="AF109" s="20"/>
+      <c r="AG109" s="20"/>
+      <c r="AH109" s="20"/>
+      <c r="AI109" s="20"/>
+      <c r="AJ109" s="20"/>
+      <c r="AK109" s="20"/>
+      <c r="AL109" s="20"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="20"/>
+      <c r="AO109" s="20"/>
+      <c r="AP109" s="20"/>
+      <c r="AQ109" s="20"/>
+      <c r="AR109" s="20"/>
+      <c r="AS109" s="20"/>
+      <c r="AT109" s="20"/>
+      <c r="AU109" s="20"/>
+      <c r="AV109" s="21"/>
+    </row>
+    <row r="110" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="L108" s="66"/>
-      <c r="M108" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV108" s="67"/>
-    </row>
-    <row r="109" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="66"/>
-      <c r="L109" s="66"/>
-      <c r="AV109" s="67"/>
-    </row>
-    <row r="110" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B110" s="19">
-        <v>4</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="20"/>
-      <c r="W110" s="20"/>
-      <c r="X110" s="20"/>
-      <c r="Y110" s="20"/>
-      <c r="Z110" s="20"/>
-      <c r="AA110" s="20"/>
-      <c r="AB110" s="20"/>
-      <c r="AC110" s="20"/>
-      <c r="AD110" s="20"/>
-      <c r="AE110" s="20"/>
-      <c r="AF110" s="20"/>
-      <c r="AG110" s="20"/>
-      <c r="AH110" s="20"/>
-      <c r="AI110" s="20"/>
-      <c r="AJ110" s="20"/>
-      <c r="AK110" s="20"/>
-      <c r="AL110" s="20"/>
-      <c r="AM110" s="20"/>
-      <c r="AN110" s="20"/>
-      <c r="AO110" s="20"/>
-      <c r="AP110" s="20"/>
-      <c r="AQ110" s="20"/>
-      <c r="AR110" s="20"/>
-      <c r="AS110" s="20"/>
-      <c r="AT110" s="20"/>
-      <c r="AU110" s="20"/>
-      <c r="AV110" s="21"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
+      <c r="AA110" s="22"/>
+      <c r="AB110" s="22"/>
+      <c r="AC110" s="22"/>
+      <c r="AD110" s="22"/>
+      <c r="AE110" s="22"/>
+      <c r="AF110" s="22"/>
+      <c r="AG110" s="22"/>
+      <c r="AH110" s="22"/>
+      <c r="AI110" s="22"/>
+      <c r="AJ110" s="22"/>
+      <c r="AK110" s="22"/>
+      <c r="AL110" s="22"/>
+      <c r="AM110" s="22"/>
+      <c r="AN110" s="22"/>
+      <c r="AO110" s="22"/>
+      <c r="AP110" s="22"/>
+      <c r="AQ110" s="22"/>
+      <c r="AR110" s="22"/>
+      <c r="AS110" s="22"/>
+      <c r="AT110" s="22"/>
+      <c r="AU110" s="22"/>
+      <c r="AV110" s="67"/>
     </row>
     <row r="111" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="66" t="s">
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="24"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
+      <c r="AB111" s="24"/>
+      <c r="AC111" s="24"/>
+      <c r="AD111" s="24"/>
+      <c r="AE111" s="24"/>
+      <c r="AF111" s="24"/>
+      <c r="AG111" s="24"/>
+      <c r="AH111" s="24"/>
+      <c r="AI111" s="24"/>
+      <c r="AJ111" s="24"/>
+      <c r="AK111" s="24"/>
+      <c r="AL111" s="24"/>
+      <c r="AM111" s="24"/>
+      <c r="AN111" s="24"/>
+      <c r="AO111" s="24"/>
+      <c r="AP111" s="24"/>
+      <c r="AQ111" s="24"/>
+      <c r="AR111" s="24"/>
+      <c r="AS111" s="24"/>
+      <c r="AT111" s="24"/>
+      <c r="AU111" s="24"/>
+      <c r="AV111" s="25"/>
+    </row>
+    <row r="112" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B112" s="19">
+        <v>5</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
+      <c r="AH112" s="20"/>
+      <c r="AI112" s="20"/>
+      <c r="AJ112" s="20"/>
+      <c r="AK112" s="20"/>
+      <c r="AL112" s="20"/>
+      <c r="AM112" s="20"/>
+      <c r="AN112" s="20"/>
+      <c r="AO112" s="20"/>
+      <c r="AP112" s="20"/>
+      <c r="AQ112" s="20"/>
+      <c r="AR112" s="20"/>
+      <c r="AS112" s="20"/>
+      <c r="AT112" s="20"/>
+      <c r="AU112" s="20"/>
+      <c r="AV112" s="21"/>
+    </row>
+    <row r="113" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="67"/>
-      <c r="L111" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
-      <c r="Z111" s="22"/>
-      <c r="AA111" s="22"/>
-      <c r="AB111" s="22"/>
-      <c r="AC111" s="22"/>
-      <c r="AD111" s="22"/>
-      <c r="AE111" s="22"/>
-      <c r="AF111" s="22"/>
-      <c r="AG111" s="22"/>
-      <c r="AH111" s="22"/>
-      <c r="AI111" s="22"/>
-      <c r="AJ111" s="22"/>
-      <c r="AK111" s="22"/>
-      <c r="AL111" s="22"/>
-      <c r="AM111" s="22"/>
-      <c r="AN111" s="22"/>
-      <c r="AO111" s="22"/>
-      <c r="AP111" s="22"/>
-      <c r="AQ111" s="22"/>
-      <c r="AR111" s="22"/>
-      <c r="AS111" s="22"/>
-      <c r="AT111" s="22"/>
-      <c r="AU111" s="22"/>
-      <c r="AV111" s="67"/>
-    </row>
-    <row r="112" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="24"/>
-      <c r="O112" s="24"/>
-      <c r="P112" s="24"/>
-      <c r="Q112" s="24"/>
-      <c r="R112" s="24"/>
-      <c r="S112" s="24"/>
-      <c r="T112" s="24"/>
-      <c r="U112" s="24"/>
-      <c r="V112" s="24"/>
-      <c r="W112" s="24"/>
-      <c r="X112" s="24"/>
-      <c r="Y112" s="24"/>
-      <c r="Z112" s="24"/>
-      <c r="AA112" s="24"/>
-      <c r="AB112" s="24"/>
-      <c r="AC112" s="24"/>
-      <c r="AD112" s="24"/>
-      <c r="AE112" s="24"/>
-      <c r="AF112" s="24"/>
-      <c r="AG112" s="24"/>
-      <c r="AH112" s="24"/>
-      <c r="AI112" s="24"/>
-      <c r="AJ112" s="24"/>
-      <c r="AK112" s="24"/>
-      <c r="AL112" s="24"/>
-      <c r="AM112" s="24"/>
-      <c r="AN112" s="24"/>
-      <c r="AO112" s="24"/>
-      <c r="AP112" s="24"/>
-      <c r="AQ112" s="24"/>
-      <c r="AR112" s="24"/>
-      <c r="AS112" s="24"/>
-      <c r="AT112" s="24"/>
-      <c r="AU112" s="24"/>
-      <c r="AV112" s="25"/>
-    </row>
-    <row r="113" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B113" s="19">
-        <v>5</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20"/>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="20"/>
-      <c r="W113" s="20"/>
-      <c r="X113" s="20"/>
-      <c r="Y113" s="20"/>
-      <c r="Z113" s="20"/>
-      <c r="AA113" s="20"/>
-      <c r="AB113" s="20"/>
-      <c r="AC113" s="20"/>
-      <c r="AD113" s="20"/>
-      <c r="AE113" s="20"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
-      <c r="AH113" s="20"/>
-      <c r="AI113" s="20"/>
-      <c r="AJ113" s="20"/>
-      <c r="AK113" s="20"/>
-      <c r="AL113" s="20"/>
-      <c r="AM113" s="20"/>
-      <c r="AN113" s="20"/>
-      <c r="AO113" s="20"/>
-      <c r="AP113" s="20"/>
-      <c r="AQ113" s="20"/>
-      <c r="AR113" s="20"/>
-      <c r="AS113" s="20"/>
-      <c r="AT113" s="20"/>
-      <c r="AU113" s="20"/>
-      <c r="AV113" s="21"/>
+      <c r="L113" s="66"/>
+      <c r="M113" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV113" s="67"/>
     </row>
     <row r="114" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B114" s="66"/>
       <c r="C114" s="66"/>
       <c r="F114" s="67"/>
-      <c r="G114" s="66" t="s">
-        <v>76</v>
-      </c>
+      <c r="G114" s="66"/>
       <c r="L114" s="66"/>
       <c r="M114" s="15" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AV114" s="67"/>
     </row>
@@ -16818,22 +16806,65 @@
       <c r="F115" s="67"/>
       <c r="G115" s="66"/>
       <c r="L115" s="66"/>
-      <c r="M115" s="15" t="s">
-        <v>377</v>
-      </c>
       <c r="AV115" s="67"/>
     </row>
-    <row r="116" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="66"/>
-      <c r="L116" s="66"/>
-      <c r="AV116" s="67"/>
-    </row>
+    <row r="116" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
     <row r="117" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
     <row r="118" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A119" s="51"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="51"/>
+      <c r="N119" s="51"/>
+      <c r="O119" s="51"/>
+      <c r="P119" s="51"/>
+      <c r="Q119" s="51"/>
+      <c r="R119" s="51"/>
+      <c r="S119" s="51"/>
+      <c r="T119" s="51"/>
+      <c r="U119" s="51"/>
+      <c r="V119" s="51"/>
+      <c r="W119" s="51"/>
+      <c r="X119" s="51"/>
+      <c r="Y119" s="51"/>
+      <c r="Z119" s="51"/>
+      <c r="AA119" s="51"/>
+      <c r="AB119" s="51"/>
+      <c r="AC119" s="51"/>
+      <c r="AD119" s="51"/>
+      <c r="AE119" s="51"/>
+      <c r="AF119" s="51"/>
+      <c r="AG119" s="51"/>
+      <c r="AH119" s="51"/>
+      <c r="AI119" s="51"/>
+      <c r="AJ119" s="51"/>
+      <c r="AK119" s="51"/>
+      <c r="AL119" s="51"/>
+      <c r="AM119" s="51"/>
+      <c r="AN119" s="51"/>
+      <c r="AO119" s="51"/>
+      <c r="AP119" s="51"/>
+      <c r="AQ119" s="51"/>
+      <c r="AR119" s="51"/>
+      <c r="AS119" s="51"/>
+      <c r="AT119" s="51"/>
+      <c r="AU119" s="51"/>
+      <c r="AV119" s="51"/>
+      <c r="AW119" s="51"/>
+      <c r="AX119" s="51"/>
+      <c r="AY119" s="51"/>
+      <c r="AZ119" s="51"/>
+    </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A120" s="51"/>
       <c r="B120" s="51"/>
@@ -23962,60 +23993,6 @@
       <c r="AY251" s="51"/>
       <c r="AZ251" s="51"/>
     </row>
-    <row r="252" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A252" s="51"/>
-      <c r="B252" s="51"/>
-      <c r="C252" s="51"/>
-      <c r="D252" s="51"/>
-      <c r="E252" s="51"/>
-      <c r="F252" s="51"/>
-      <c r="G252" s="51"/>
-      <c r="H252" s="51"/>
-      <c r="I252" s="51"/>
-      <c r="J252" s="51"/>
-      <c r="K252" s="51"/>
-      <c r="L252" s="51"/>
-      <c r="M252" s="51"/>
-      <c r="N252" s="51"/>
-      <c r="O252" s="51"/>
-      <c r="P252" s="51"/>
-      <c r="Q252" s="51"/>
-      <c r="R252" s="51"/>
-      <c r="S252" s="51"/>
-      <c r="T252" s="51"/>
-      <c r="U252" s="51"/>
-      <c r="V252" s="51"/>
-      <c r="W252" s="51"/>
-      <c r="X252" s="51"/>
-      <c r="Y252" s="51"/>
-      <c r="Z252" s="51"/>
-      <c r="AA252" s="51"/>
-      <c r="AB252" s="51"/>
-      <c r="AC252" s="51"/>
-      <c r="AD252" s="51"/>
-      <c r="AE252" s="51"/>
-      <c r="AF252" s="51"/>
-      <c r="AG252" s="51"/>
-      <c r="AH252" s="51"/>
-      <c r="AI252" s="51"/>
-      <c r="AJ252" s="51"/>
-      <c r="AK252" s="51"/>
-      <c r="AL252" s="51"/>
-      <c r="AM252" s="51"/>
-      <c r="AN252" s="51"/>
-      <c r="AO252" s="51"/>
-      <c r="AP252" s="51"/>
-      <c r="AQ252" s="51"/>
-      <c r="AR252" s="51"/>
-      <c r="AS252" s="51"/>
-      <c r="AT252" s="51"/>
-      <c r="AU252" s="51"/>
-      <c r="AV252" s="51"/>
-      <c r="AW252" s="51"/>
-      <c r="AX252" s="51"/>
-      <c r="AY252" s="51"/>
-      <c r="AZ252" s="51"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -24096,14 +24073,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="170">
+      <c r="AI1" s="173">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="189"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -24112,16 +24089,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="173" t="str">
+      <c r="AT1" s="176" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="183"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="182"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -24149,32 +24126,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="188" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="183"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="182"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -24183,13 +24160,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
+      <c r="AT2" s="176"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -29413,14 +29390,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="170">
+      <c r="AI1" s="173">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="189"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -29429,16 +29406,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="173" t="str">
+      <c r="AT1" s="176" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="183"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="182"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -29466,32 +29443,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="188" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="183"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="182"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -29500,13 +29477,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
+      <c r="AT2" s="176"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -29786,7 +29763,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -29842,7 +29819,7 @@
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -29898,7 +29875,7 @@
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -40714,18 +40691,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40887,18 +40864,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21863E6-DF7E-4653-8121-DF92E81BE45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C8442-510A-46B8-882E-340A4C4FB558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3710,6 +3710,18 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3719,91 +3731,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3831,6 +3758,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3849,22 +3873,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3902,18 +3914,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5710,108 +5710,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="127"/>
-      <c r="AN32" s="127"/>
-      <c r="AO32" s="127"/>
-      <c r="AP32" s="127"/>
-      <c r="AQ32" s="127"/>
-      <c r="AR32" s="127"/>
-      <c r="AS32" s="127"/>
-      <c r="AT32" s="127"/>
-      <c r="AU32" s="127"/>
-      <c r="AV32" s="127"/>
-      <c r="AW32" s="127"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="131"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="131"/>
+      <c r="AJ32" s="131"/>
+      <c r="AK32" s="131"/>
+      <c r="AL32" s="131"/>
+      <c r="AM32" s="131"/>
+      <c r="AN32" s="131"/>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="131"/>
+      <c r="AQ32" s="131"/>
+      <c r="AR32" s="131"/>
+      <c r="AS32" s="131"/>
+      <c r="AT32" s="131"/>
+      <c r="AU32" s="131"/>
+      <c r="AV32" s="131"/>
+      <c r="AW32" s="131"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="128"/>
-      <c r="AO33" s="128"/>
-      <c r="AP33" s="128"/>
-      <c r="AQ33" s="128"/>
-      <c r="AR33" s="128"/>
-      <c r="AS33" s="128"/>
-      <c r="AT33" s="128"/>
-      <c r="AU33" s="128"/>
-      <c r="AV33" s="128"/>
-      <c r="AW33" s="128"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="132"/>
+      <c r="AL33" s="132"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="132"/>
+      <c r="AP33" s="132"/>
+      <c r="AQ33" s="132"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="132"/>
+      <c r="AT33" s="132"/>
+      <c r="AU33" s="132"/>
+      <c r="AV33" s="132"/>
+      <c r="AW33" s="132"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5849,55 +5849,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="129"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="129"/>
-      <c r="Z35" s="129"/>
-      <c r="AA35" s="129"/>
-      <c r="AB35" s="129"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="129"/>
-      <c r="AE35" s="129"/>
-      <c r="AF35" s="129"/>
-      <c r="AG35" s="129"/>
-      <c r="AH35" s="129"/>
-      <c r="AI35" s="129"/>
-      <c r="AJ35" s="129"/>
-      <c r="AK35" s="129"/>
-      <c r="AL35" s="129"/>
-      <c r="AM35" s="129"/>
-      <c r="AN35" s="129"/>
-      <c r="AO35" s="129"/>
-      <c r="AP35" s="129"/>
-      <c r="AQ35" s="129"/>
-      <c r="AR35" s="129"/>
-      <c r="AS35" s="129"/>
-      <c r="AT35" s="129"/>
-      <c r="AU35" s="129"/>
-      <c r="AV35" s="129"/>
-      <c r="AW35" s="129"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="133"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="133"/>
+      <c r="AC35" s="133"/>
+      <c r="AD35" s="133"/>
+      <c r="AE35" s="133"/>
+      <c r="AF35" s="133"/>
+      <c r="AG35" s="133"/>
+      <c r="AH35" s="133"/>
+      <c r="AI35" s="133"/>
+      <c r="AJ35" s="133"/>
+      <c r="AK35" s="133"/>
+      <c r="AL35" s="133"/>
+      <c r="AM35" s="133"/>
+      <c r="AN35" s="133"/>
+      <c r="AO35" s="133"/>
+      <c r="AP35" s="133"/>
+      <c r="AQ35" s="133"/>
+      <c r="AR35" s="133"/>
+      <c r="AS35" s="133"/>
+      <c r="AT35" s="133"/>
+      <c r="AU35" s="133"/>
+      <c r="AV35" s="133"/>
+      <c r="AW35" s="133"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5932,278 +5932,278 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="161"/>
-      <c r="AU1" s="161"/>
-      <c r="AV1" s="161"/>
-      <c r="AW1" s="161"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="162"/>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="162"/>
-      <c r="AR2" s="162"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="162"/>
-      <c r="AU2" s="162"/>
-      <c r="AV2" s="162"/>
-      <c r="AW2" s="162"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="164" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="163" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163" t="s">
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
-      <c r="AK3" s="163"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="163" t="s">
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="163"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="163" t="s">
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="163"/>
-      <c r="AU3" s="163"/>
-      <c r="AV3" s="163"/>
-      <c r="AW3" s="163"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="163"/>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="155">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="136">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145">
         <v>43734</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="137" t="s">
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="139"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="148"/>
       <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
       <c r="T5" s="143"/>
       <c r="U5" s="143"/>
-      <c r="V5" s="154" t="s">
+      <c r="V5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="154"/>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="154"/>
-      <c r="AE5" s="154"/>
-      <c r="AF5" s="154"/>
-      <c r="AG5" s="154"/>
-      <c r="AH5" s="154"/>
-      <c r="AI5" s="154"/>
-      <c r="AJ5" s="154"/>
-      <c r="AK5" s="154"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="154"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="152"/>
       <c r="AN5" s="143" t="s">
         <v>127</v>
       </c>
@@ -6219,44 +6219,44 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="160"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="151"/>
       <c r="S6" s="143"/>
       <c r="T6" s="143"/>
       <c r="U6" s="143"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="154"/>
-      <c r="AB6" s="154"/>
-      <c r="AC6" s="154"/>
-      <c r="AD6" s="154"/>
-      <c r="AE6" s="154"/>
-      <c r="AF6" s="154"/>
-      <c r="AG6" s="154"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="154"/>
-      <c r="AJ6" s="154"/>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="152"/>
+      <c r="AL6" s="152"/>
+      <c r="AM6" s="152"/>
       <c r="AN6" s="143"/>
       <c r="AO6" s="143"/>
       <c r="AP6" s="143"/>
@@ -6270,44 +6270,44 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="160"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="151"/>
       <c r="S7" s="143"/>
       <c r="T7" s="143"/>
       <c r="U7" s="143"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="154"/>
-      <c r="AD7" s="154"/>
-      <c r="AE7" s="154"/>
-      <c r="AF7" s="154"/>
-      <c r="AG7" s="154"/>
-      <c r="AH7" s="154"/>
-      <c r="AI7" s="154"/>
-      <c r="AJ7" s="154"/>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="154"/>
-      <c r="AM7" s="154"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
       <c r="AN7" s="143"/>
       <c r="AO7" s="143"/>
       <c r="AP7" s="143"/>
@@ -6321,44 +6321,44 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
       <c r="S8" s="143"/>
       <c r="T8" s="143"/>
       <c r="U8" s="143"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="154"/>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="154"/>
-      <c r="AJ8" s="154"/>
-      <c r="AK8" s="154"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
       <c r="AN8" s="143"/>
       <c r="AO8" s="143"/>
       <c r="AP8" s="143"/>
@@ -6372,44 +6372,44 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
       <c r="S9" s="143"/>
       <c r="T9" s="143"/>
       <c r="U9" s="143"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="154"/>
-      <c r="AG9" s="154"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="154"/>
-      <c r="AJ9" s="154"/>
-      <c r="AK9" s="154"/>
-      <c r="AL9" s="154"/>
-      <c r="AM9" s="154"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
       <c r="AN9" s="143"/>
       <c r="AO9" s="143"/>
       <c r="AP9" s="143"/>
@@ -6423,44 +6423,44 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="160"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="151"/>
       <c r="S10" s="143"/>
       <c r="T10" s="143"/>
       <c r="U10" s="143"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="154"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="154"/>
-      <c r="AI10" s="154"/>
-      <c r="AJ10" s="154"/>
-      <c r="AK10" s="154"/>
-      <c r="AL10" s="154"/>
-      <c r="AM10" s="154"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
       <c r="AN10" s="143"/>
       <c r="AO10" s="143"/>
       <c r="AP10" s="143"/>
@@ -6474,44 +6474,44 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="149"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
       <c r="S11" s="143"/>
       <c r="T11" s="143"/>
       <c r="U11" s="143"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="156"/>
-      <c r="AH11" s="156"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="156"/>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="157"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
+      <c r="AL11" s="165"/>
+      <c r="AM11" s="166"/>
       <c r="AN11" s="143"/>
       <c r="AO11" s="143"/>
       <c r="AP11" s="143"/>
@@ -6525,1186 +6525,1401 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="149"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158"/>
       <c r="S12" s="143"/>
       <c r="T12" s="143"/>
       <c r="U12" s="143"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="145"/>
-      <c r="AJ12" s="145"/>
-      <c r="AK12" s="145"/>
-      <c r="AL12" s="145"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="130"/>
-      <c r="AO12" s="131"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="131"/>
-      <c r="AR12" s="132"/>
-      <c r="AS12" s="130"/>
-      <c r="AT12" s="131"/>
-      <c r="AU12" s="131"/>
-      <c r="AV12" s="131"/>
-      <c r="AW12" s="132"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="160"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="162"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="163"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="164"/>
+      <c r="AS12" s="162"/>
+      <c r="AT12" s="163"/>
+      <c r="AU12" s="163"/>
+      <c r="AV12" s="163"/>
+      <c r="AW12" s="164"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="149"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
       <c r="S13" s="143"/>
       <c r="T13" s="143"/>
       <c r="U13" s="143"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="145"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="145"/>
-      <c r="AM13" s="146"/>
-      <c r="AN13" s="130"/>
-      <c r="AO13" s="131"/>
-      <c r="AP13" s="131"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="132"/>
-      <c r="AS13" s="130"/>
-      <c r="AT13" s="131"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="131"/>
-      <c r="AW13" s="132"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="160"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
+      <c r="AI13" s="160"/>
+      <c r="AJ13" s="160"/>
+      <c r="AK13" s="160"/>
+      <c r="AL13" s="160"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="162"/>
+      <c r="AO13" s="163"/>
+      <c r="AP13" s="163"/>
+      <c r="AQ13" s="163"/>
+      <c r="AR13" s="164"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="163"/>
+      <c r="AU13" s="163"/>
+      <c r="AV13" s="163"/>
+      <c r="AW13" s="164"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="149"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
       <c r="S14" s="143"/>
       <c r="T14" s="143"/>
       <c r="U14" s="143"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="154"/>
-      <c r="AG14" s="154"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="154"/>
-      <c r="AJ14" s="154"/>
-      <c r="AK14" s="154"/>
-      <c r="AL14" s="154"/>
-      <c r="AM14" s="154"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
       <c r="AN14" s="143"/>
       <c r="AO14" s="143"/>
       <c r="AP14" s="143"/>
       <c r="AQ14" s="143"/>
       <c r="AR14" s="143"/>
-      <c r="AS14" s="130"/>
-      <c r="AT14" s="131"/>
-      <c r="AU14" s="131"/>
-      <c r="AV14" s="131"/>
-      <c r="AW14" s="132"/>
+      <c r="AS14" s="162"/>
+      <c r="AT14" s="163"/>
+      <c r="AU14" s="163"/>
+      <c r="AV14" s="163"/>
+      <c r="AW14" s="164"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="149"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
       <c r="S15" s="143"/>
       <c r="T15" s="143"/>
       <c r="U15" s="143"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="145"/>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="145"/>
-      <c r="AM15" s="146"/>
-      <c r="AN15" s="130"/>
-      <c r="AO15" s="131"/>
-      <c r="AP15" s="131"/>
-      <c r="AQ15" s="131"/>
-      <c r="AR15" s="132"/>
-      <c r="AS15" s="130"/>
-      <c r="AT15" s="131"/>
-      <c r="AU15" s="131"/>
-      <c r="AV15" s="131"/>
-      <c r="AW15" s="132"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="160"/>
+      <c r="AK15" s="160"/>
+      <c r="AL15" s="160"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="163"/>
+      <c r="AQ15" s="163"/>
+      <c r="AR15" s="164"/>
+      <c r="AS15" s="162"/>
+      <c r="AT15" s="163"/>
+      <c r="AU15" s="163"/>
+      <c r="AV15" s="163"/>
+      <c r="AW15" s="164"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="149"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="158"/>
       <c r="S16" s="143"/>
       <c r="T16" s="143"/>
       <c r="U16" s="143"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="145"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="145"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="145"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="145"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="145"/>
-      <c r="AM16" s="146"/>
-      <c r="AN16" s="130"/>
-      <c r="AO16" s="131"/>
-      <c r="AP16" s="131"/>
-      <c r="AQ16" s="131"/>
-      <c r="AR16" s="132"/>
-      <c r="AS16" s="130"/>
-      <c r="AT16" s="131"/>
-      <c r="AU16" s="131"/>
-      <c r="AV16" s="131"/>
-      <c r="AW16" s="132"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="160"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="160"/>
+      <c r="AI16" s="160"/>
+      <c r="AJ16" s="160"/>
+      <c r="AK16" s="160"/>
+      <c r="AL16" s="160"/>
+      <c r="AM16" s="161"/>
+      <c r="AN16" s="162"/>
+      <c r="AO16" s="163"/>
+      <c r="AP16" s="163"/>
+      <c r="AQ16" s="163"/>
+      <c r="AR16" s="164"/>
+      <c r="AS16" s="162"/>
+      <c r="AT16" s="163"/>
+      <c r="AU16" s="163"/>
+      <c r="AV16" s="163"/>
+      <c r="AW16" s="164"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="152"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="145"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="131"/>
-      <c r="AP17" s="131"/>
-      <c r="AQ17" s="131"/>
-      <c r="AR17" s="132"/>
-      <c r="AS17" s="130"/>
-      <c r="AT17" s="131"/>
-      <c r="AU17" s="131"/>
-      <c r="AV17" s="131"/>
-      <c r="AW17" s="132"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="160"/>
+      <c r="AH17" s="160"/>
+      <c r="AI17" s="160"/>
+      <c r="AJ17" s="160"/>
+      <c r="AK17" s="160"/>
+      <c r="AL17" s="160"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="163"/>
+      <c r="AP17" s="163"/>
+      <c r="AQ17" s="163"/>
+      <c r="AR17" s="164"/>
+      <c r="AS17" s="162"/>
+      <c r="AT17" s="163"/>
+      <c r="AU17" s="163"/>
+      <c r="AV17" s="163"/>
+      <c r="AW17" s="164"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="149"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="158"/>
       <c r="S18" s="143"/>
       <c r="T18" s="143"/>
       <c r="U18" s="143"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
-      <c r="Y18" s="145"/>
-      <c r="Z18" s="145"/>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="145"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="145"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="130"/>
-      <c r="AO18" s="131"/>
-      <c r="AP18" s="131"/>
-      <c r="AQ18" s="131"/>
-      <c r="AR18" s="132"/>
-      <c r="AS18" s="130"/>
-      <c r="AT18" s="131"/>
-      <c r="AU18" s="131"/>
-      <c r="AV18" s="131"/>
-      <c r="AW18" s="132"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="160"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="160"/>
+      <c r="AH18" s="160"/>
+      <c r="AI18" s="160"/>
+      <c r="AJ18" s="160"/>
+      <c r="AK18" s="160"/>
+      <c r="AL18" s="160"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="162"/>
+      <c r="AO18" s="163"/>
+      <c r="AP18" s="163"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="164"/>
+      <c r="AS18" s="162"/>
+      <c r="AT18" s="163"/>
+      <c r="AU18" s="163"/>
+      <c r="AV18" s="163"/>
+      <c r="AW18" s="164"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="149"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="158"/>
       <c r="S19" s="143"/>
       <c r="T19" s="143"/>
       <c r="U19" s="143"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="145"/>
-      <c r="AM19" s="146"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="161"/>
       <c r="AN19" s="143"/>
       <c r="AO19" s="143"/>
       <c r="AP19" s="143"/>
       <c r="AQ19" s="143"/>
       <c r="AR19" s="143"/>
-      <c r="AS19" s="130"/>
-      <c r="AT19" s="131"/>
-      <c r="AU19" s="131"/>
-      <c r="AV19" s="131"/>
-      <c r="AW19" s="132"/>
+      <c r="AS19" s="162"/>
+      <c r="AT19" s="163"/>
+      <c r="AU19" s="163"/>
+      <c r="AV19" s="163"/>
+      <c r="AW19" s="164"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="145"/>
-      <c r="AM20" s="146"/>
-      <c r="AN20" s="130"/>
-      <c r="AO20" s="131"/>
-      <c r="AP20" s="131"/>
-      <c r="AQ20" s="131"/>
-      <c r="AR20" s="132"/>
-      <c r="AS20" s="130"/>
-      <c r="AT20" s="131"/>
-      <c r="AU20" s="131"/>
-      <c r="AV20" s="131"/>
-      <c r="AW20" s="132"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="160"/>
+      <c r="AL20" s="160"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="162"/>
+      <c r="AO20" s="163"/>
+      <c r="AP20" s="163"/>
+      <c r="AQ20" s="163"/>
+      <c r="AR20" s="164"/>
+      <c r="AS20" s="162"/>
+      <c r="AT20" s="163"/>
+      <c r="AU20" s="163"/>
+      <c r="AV20" s="163"/>
+      <c r="AW20" s="164"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="158"/>
       <c r="S21" s="143"/>
       <c r="T21" s="143"/>
       <c r="U21" s="143"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="145"/>
-      <c r="AM21" s="146"/>
-      <c r="AN21" s="130"/>
-      <c r="AO21" s="131"/>
-      <c r="AP21" s="131"/>
-      <c r="AQ21" s="131"/>
-      <c r="AR21" s="132"/>
-      <c r="AS21" s="130"/>
-      <c r="AT21" s="131"/>
-      <c r="AU21" s="131"/>
-      <c r="AV21" s="131"/>
-      <c r="AW21" s="132"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="160"/>
+      <c r="AL21" s="160"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="163"/>
+      <c r="AP21" s="163"/>
+      <c r="AQ21" s="163"/>
+      <c r="AR21" s="164"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="163"/>
+      <c r="AU21" s="163"/>
+      <c r="AV21" s="163"/>
+      <c r="AW21" s="164"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="158"/>
       <c r="S22" s="143"/>
       <c r="T22" s="143"/>
       <c r="U22" s="143"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="145"/>
-      <c r="AM22" s="146"/>
-      <c r="AN22" s="130"/>
-      <c r="AO22" s="131"/>
-      <c r="AP22" s="131"/>
-      <c r="AQ22" s="131"/>
-      <c r="AR22" s="132"/>
-      <c r="AS22" s="130"/>
-      <c r="AT22" s="131"/>
-      <c r="AU22" s="131"/>
-      <c r="AV22" s="131"/>
-      <c r="AW22" s="132"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="160"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="160"/>
+      <c r="AK22" s="160"/>
+      <c r="AL22" s="160"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="162"/>
+      <c r="AO22" s="163"/>
+      <c r="AP22" s="163"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="164"/>
+      <c r="AS22" s="162"/>
+      <c r="AT22" s="163"/>
+      <c r="AU22" s="163"/>
+      <c r="AV22" s="163"/>
+      <c r="AW22" s="164"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="158"/>
       <c r="S23" s="143"/>
       <c r="T23" s="143"/>
       <c r="U23" s="143"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="145"/>
-      <c r="AK23" s="145"/>
-      <c r="AL23" s="145"/>
-      <c r="AM23" s="146"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="131"/>
-      <c r="AP23" s="131"/>
-      <c r="AQ23" s="131"/>
-      <c r="AR23" s="132"/>
-      <c r="AS23" s="130"/>
-      <c r="AT23" s="131"/>
-      <c r="AU23" s="131"/>
-      <c r="AV23" s="131"/>
-      <c r="AW23" s="132"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
+      <c r="AK23" s="160"/>
+      <c r="AL23" s="160"/>
+      <c r="AM23" s="161"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="163"/>
+      <c r="AP23" s="163"/>
+      <c r="AQ23" s="163"/>
+      <c r="AR23" s="164"/>
+      <c r="AS23" s="162"/>
+      <c r="AT23" s="163"/>
+      <c r="AU23" s="163"/>
+      <c r="AV23" s="163"/>
+      <c r="AW23" s="164"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="158"/>
       <c r="S24" s="143"/>
       <c r="T24" s="143"/>
       <c r="U24" s="143"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
-      <c r="Y24" s="145"/>
-      <c r="Z24" s="145"/>
-      <c r="AA24" s="145"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="145"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="145"/>
-      <c r="AL24" s="145"/>
-      <c r="AM24" s="146"/>
-      <c r="AN24" s="130"/>
-      <c r="AO24" s="131"/>
-      <c r="AP24" s="131"/>
-      <c r="AQ24" s="131"/>
-      <c r="AR24" s="132"/>
-      <c r="AS24" s="130"/>
-      <c r="AT24" s="131"/>
-      <c r="AU24" s="131"/>
-      <c r="AV24" s="131"/>
-      <c r="AW24" s="132"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="160"/>
+      <c r="AK24" s="160"/>
+      <c r="AL24" s="160"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="162"/>
+      <c r="AO24" s="163"/>
+      <c r="AP24" s="163"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="164"/>
+      <c r="AS24" s="162"/>
+      <c r="AT24" s="163"/>
+      <c r="AU24" s="163"/>
+      <c r="AV24" s="163"/>
+      <c r="AW24" s="164"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="158"/>
       <c r="S25" s="143"/>
       <c r="T25" s="143"/>
       <c r="U25" s="143"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
-      <c r="Y25" s="145"/>
-      <c r="Z25" s="145"/>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="145"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="145"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="145"/>
-      <c r="AJ25" s="145"/>
-      <c r="AK25" s="145"/>
-      <c r="AL25" s="145"/>
-      <c r="AM25" s="146"/>
-      <c r="AN25" s="130"/>
-      <c r="AO25" s="131"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="131"/>
-      <c r="AR25" s="132"/>
-      <c r="AS25" s="130"/>
-      <c r="AT25" s="131"/>
-      <c r="AU25" s="131"/>
-      <c r="AV25" s="131"/>
-      <c r="AW25" s="132"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160"/>
+      <c r="AB25" s="160"/>
+      <c r="AC25" s="160"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="160"/>
+      <c r="AH25" s="160"/>
+      <c r="AI25" s="160"/>
+      <c r="AJ25" s="160"/>
+      <c r="AK25" s="160"/>
+      <c r="AL25" s="160"/>
+      <c r="AM25" s="161"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="163"/>
+      <c r="AP25" s="163"/>
+      <c r="AQ25" s="163"/>
+      <c r="AR25" s="164"/>
+      <c r="AS25" s="162"/>
+      <c r="AT25" s="163"/>
+      <c r="AU25" s="163"/>
+      <c r="AV25" s="163"/>
+      <c r="AW25" s="164"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="158"/>
       <c r="S26" s="143"/>
       <c r="T26" s="143"/>
       <c r="U26" s="143"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="145"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="145"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="145"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="145"/>
-      <c r="AM26" s="146"/>
-      <c r="AN26" s="130"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="132"/>
-      <c r="AS26" s="130"/>
-      <c r="AT26" s="131"/>
-      <c r="AU26" s="131"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="132"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="161"/>
+      <c r="AN26" s="162"/>
+      <c r="AO26" s="163"/>
+      <c r="AP26" s="163"/>
+      <c r="AQ26" s="163"/>
+      <c r="AR26" s="164"/>
+      <c r="AS26" s="162"/>
+      <c r="AT26" s="163"/>
+      <c r="AU26" s="163"/>
+      <c r="AV26" s="163"/>
+      <c r="AW26" s="164"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="158"/>
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="145"/>
-      <c r="AM27" s="146"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="131"/>
-      <c r="AP27" s="131"/>
-      <c r="AQ27" s="131"/>
-      <c r="AR27" s="132"/>
-      <c r="AS27" s="130"/>
-      <c r="AT27" s="131"/>
-      <c r="AU27" s="131"/>
-      <c r="AV27" s="131"/>
-      <c r="AW27" s="132"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="160"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="160"/>
+      <c r="AJ27" s="160"/>
+      <c r="AK27" s="160"/>
+      <c r="AL27" s="160"/>
+      <c r="AM27" s="161"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="163"/>
+      <c r="AP27" s="163"/>
+      <c r="AQ27" s="163"/>
+      <c r="AR27" s="164"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="163"/>
+      <c r="AU27" s="163"/>
+      <c r="AV27" s="163"/>
+      <c r="AW27" s="164"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="149"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="158"/>
       <c r="S28" s="143"/>
       <c r="T28" s="143"/>
       <c r="U28" s="143"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="146"/>
-      <c r="AN28" s="130"/>
-      <c r="AO28" s="131"/>
-      <c r="AP28" s="131"/>
-      <c r="AQ28" s="131"/>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="130"/>
-      <c r="AT28" s="131"/>
-      <c r="AU28" s="131"/>
-      <c r="AV28" s="131"/>
-      <c r="AW28" s="132"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="160"/>
+      <c r="AH28" s="160"/>
+      <c r="AI28" s="160"/>
+      <c r="AJ28" s="160"/>
+      <c r="AK28" s="160"/>
+      <c r="AL28" s="160"/>
+      <c r="AM28" s="161"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="163"/>
+      <c r="AP28" s="163"/>
+      <c r="AQ28" s="163"/>
+      <c r="AR28" s="164"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="163"/>
+      <c r="AU28" s="163"/>
+      <c r="AV28" s="163"/>
+      <c r="AW28" s="164"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="149"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="158"/>
       <c r="S29" s="143"/>
       <c r="T29" s="143"/>
       <c r="U29" s="143"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="145"/>
-      <c r="AL29" s="145"/>
-      <c r="AM29" s="146"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="131"/>
-      <c r="AP29" s="131"/>
-      <c r="AQ29" s="131"/>
-      <c r="AR29" s="132"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="131"/>
-      <c r="AU29" s="131"/>
-      <c r="AV29" s="131"/>
-      <c r="AW29" s="132"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="160"/>
+      <c r="X29" s="160"/>
+      <c r="Y29" s="160"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="160"/>
+      <c r="AH29" s="160"/>
+      <c r="AI29" s="160"/>
+      <c r="AJ29" s="160"/>
+      <c r="AK29" s="160"/>
+      <c r="AL29" s="160"/>
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="163"/>
+      <c r="AP29" s="163"/>
+      <c r="AQ29" s="163"/>
+      <c r="AR29" s="164"/>
+      <c r="AS29" s="162"/>
+      <c r="AT29" s="163"/>
+      <c r="AU29" s="163"/>
+      <c r="AV29" s="163"/>
+      <c r="AW29" s="164"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="149"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="158"/>
       <c r="S30" s="143"/>
       <c r="T30" s="143"/>
       <c r="U30" s="143"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="145"/>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="145"/>
-      <c r="AL30" s="145"/>
-      <c r="AM30" s="146"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="131"/>
-      <c r="AP30" s="131"/>
-      <c r="AQ30" s="131"/>
-      <c r="AR30" s="132"/>
-      <c r="AS30" s="130"/>
-      <c r="AT30" s="131"/>
-      <c r="AU30" s="131"/>
-      <c r="AV30" s="131"/>
-      <c r="AW30" s="132"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="160"/>
+      <c r="AB30" s="160"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="160"/>
+      <c r="AH30" s="160"/>
+      <c r="AI30" s="160"/>
+      <c r="AJ30" s="160"/>
+      <c r="AK30" s="160"/>
+      <c r="AL30" s="160"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="162"/>
+      <c r="AO30" s="163"/>
+      <c r="AP30" s="163"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="164"/>
+      <c r="AS30" s="162"/>
+      <c r="AT30" s="163"/>
+      <c r="AU30" s="163"/>
+      <c r="AV30" s="163"/>
+      <c r="AW30" s="164"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="149"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="158"/>
       <c r="S31" s="143"/>
       <c r="T31" s="143"/>
       <c r="U31" s="143"/>
-      <c r="V31" s="144"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="145"/>
-      <c r="AM31" s="146"/>
-      <c r="AN31" s="130"/>
-      <c r="AO31" s="131"/>
-      <c r="AP31" s="131"/>
-      <c r="AQ31" s="131"/>
-      <c r="AR31" s="132"/>
-      <c r="AS31" s="130"/>
-      <c r="AT31" s="131"/>
-      <c r="AU31" s="131"/>
-      <c r="AV31" s="131"/>
-      <c r="AW31" s="132"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="160"/>
+      <c r="AJ31" s="160"/>
+      <c r="AK31" s="160"/>
+      <c r="AL31" s="160"/>
+      <c r="AM31" s="161"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="163"/>
+      <c r="AP31" s="163"/>
+      <c r="AQ31" s="163"/>
+      <c r="AR31" s="164"/>
+      <c r="AS31" s="162"/>
+      <c r="AT31" s="163"/>
+      <c r="AU31" s="163"/>
+      <c r="AV31" s="163"/>
+      <c r="AW31" s="164"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="149"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="158"/>
       <c r="S32" s="143"/>
       <c r="T32" s="143"/>
       <c r="U32" s="143"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="146"/>
-      <c r="AN32" s="130"/>
-      <c r="AO32" s="131"/>
-      <c r="AP32" s="131"/>
-      <c r="AQ32" s="131"/>
-      <c r="AR32" s="132"/>
-      <c r="AS32" s="130"/>
-      <c r="AT32" s="131"/>
-      <c r="AU32" s="131"/>
-      <c r="AV32" s="131"/>
-      <c r="AW32" s="132"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="162"/>
+      <c r="AO32" s="163"/>
+      <c r="AP32" s="163"/>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="164"/>
+      <c r="AS32" s="162"/>
+      <c r="AT32" s="163"/>
+      <c r="AU32" s="163"/>
+      <c r="AV32" s="163"/>
+      <c r="AW32" s="164"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="149"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="158"/>
       <c r="S33" s="143"/>
       <c r="T33" s="143"/>
       <c r="U33" s="143"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="145"/>
-      <c r="AM33" s="146"/>
-      <c r="AN33" s="130"/>
-      <c r="AO33" s="131"/>
-      <c r="AP33" s="131"/>
-      <c r="AQ33" s="131"/>
-      <c r="AR33" s="132"/>
-      <c r="AS33" s="130"/>
-      <c r="AT33" s="131"/>
-      <c r="AU33" s="131"/>
-      <c r="AV33" s="131"/>
-      <c r="AW33" s="132"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="160"/>
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="160"/>
+      <c r="AJ33" s="160"/>
+      <c r="AK33" s="160"/>
+      <c r="AL33" s="160"/>
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="162"/>
+      <c r="AO33" s="163"/>
+      <c r="AP33" s="163"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="162"/>
+      <c r="AT33" s="163"/>
+      <c r="AU33" s="163"/>
+      <c r="AV33" s="163"/>
+      <c r="AW33" s="164"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="142"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="173"/>
       <c r="S34" s="143"/>
       <c r="T34" s="143"/>
       <c r="U34" s="143"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="145"/>
-      <c r="Z34" s="145"/>
-      <c r="AA34" s="145"/>
-      <c r="AB34" s="145"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="145"/>
-      <c r="AE34" s="145"/>
-      <c r="AF34" s="145"/>
-      <c r="AG34" s="145"/>
-      <c r="AH34" s="145"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="145"/>
-      <c r="AM34" s="146"/>
-      <c r="AN34" s="130"/>
-      <c r="AO34" s="131"/>
-      <c r="AP34" s="131"/>
-      <c r="AQ34" s="131"/>
-      <c r="AR34" s="132"/>
-      <c r="AS34" s="130"/>
-      <c r="AT34" s="131"/>
-      <c r="AU34" s="131"/>
-      <c r="AV34" s="131"/>
-      <c r="AW34" s="132"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="160"/>
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160"/>
+      <c r="AB34" s="160"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="160"/>
+      <c r="AE34" s="160"/>
+      <c r="AF34" s="160"/>
+      <c r="AG34" s="160"/>
+      <c r="AH34" s="160"/>
+      <c r="AI34" s="160"/>
+      <c r="AJ34" s="160"/>
+      <c r="AK34" s="160"/>
+      <c r="AL34" s="160"/>
+      <c r="AM34" s="161"/>
+      <c r="AN34" s="162"/>
+      <c r="AO34" s="163"/>
+      <c r="AP34" s="163"/>
+      <c r="AQ34" s="163"/>
+      <c r="AR34" s="164"/>
+      <c r="AS34" s="162"/>
+      <c r="AT34" s="163"/>
+      <c r="AU34" s="163"/>
+      <c r="AV34" s="163"/>
+      <c r="AW34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7721,230 +7936,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8104,11 +8104,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="170"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="171"/>
-      <c r="AS2" s="172"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="180"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -8117,14 +8117,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="174"/>
-      <c r="BB2" s="174"/>
-      <c r="BC2" s="174"/>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="175"/>
+      <c r="AZ2" s="181"/>
+      <c r="BA2" s="182"/>
+      <c r="BB2" s="182"/>
+      <c r="BC2" s="182"/>
+      <c r="BD2" s="182"/>
+      <c r="BE2" s="182"/>
+      <c r="BF2" s="182"/>
+      <c r="BG2" s="183"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -9708,10 +9708,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="179"/>
+      <c r="C45" s="185"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -9794,10 +9794,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="180">
+      <c r="B46" s="174">
         <v>1</v>
       </c>
-      <c r="C46" s="181"/>
+      <c r="C46" s="175"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -9872,10 +9872,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="180">
+      <c r="B47" s="174">
         <v>2</v>
       </c>
-      <c r="C47" s="181"/>
+      <c r="C47" s="175"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="180">
+      <c r="B48" s="174">
         <v>3</v>
       </c>
-      <c r="C48" s="181"/>
+      <c r="C48" s="175"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -10028,10 +10028,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="180">
+      <c r="B49" s="174">
         <v>4</v>
       </c>
-      <c r="C49" s="181"/>
+      <c r="C49" s="175"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="180">
+      <c r="B50" s="174">
         <v>5</v>
       </c>
-      <c r="C50" s="181"/>
+      <c r="C50" s="175"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -10184,10 +10184,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="180">
+      <c r="B51" s="174">
         <v>6</v>
       </c>
-      <c r="C51" s="181"/>
+      <c r="C51" s="175"/>
       <c r="D51" s="119" t="s">
         <v>198</v>
       </c>
@@ -10262,10 +10262,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="180">
+      <c r="B52" s="174">
         <v>7</v>
       </c>
-      <c r="C52" s="181"/>
+      <c r="C52" s="175"/>
       <c r="D52" s="119" t="s">
         <v>198</v>
       </c>
@@ -10340,10 +10340,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="180">
+      <c r="B53" s="174">
         <v>8</v>
       </c>
-      <c r="C53" s="181"/>
+      <c r="C53" s="175"/>
       <c r="D53" s="119" t="s">
         <v>198</v>
       </c>
@@ -10418,10 +10418,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="180">
+      <c r="B54" s="174">
         <v>9</v>
       </c>
-      <c r="C54" s="181"/>
+      <c r="C54" s="175"/>
       <c r="D54" s="119" t="s">
         <v>198</v>
       </c>
@@ -10496,22 +10496,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10528,13 +10519,22 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10658,20 +10658,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="184">
+      <c r="CD1" s="188">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="185"/>
-      <c r="CF1" s="185"/>
-      <c r="CG1" s="185"/>
-      <c r="CH1" s="185"/>
-      <c r="CI1" s="185"/>
-      <c r="CJ1" s="185"/>
-      <c r="CK1" s="185"/>
-      <c r="CL1" s="185"/>
-      <c r="CM1" s="185"/>
-      <c r="CN1" s="186"/>
+      <c r="CE1" s="189"/>
+      <c r="CF1" s="189"/>
+      <c r="CG1" s="189"/>
+      <c r="CH1" s="189"/>
+      <c r="CI1" s="189"/>
+      <c r="CJ1" s="189"/>
+      <c r="CK1" s="189"/>
+      <c r="CL1" s="189"/>
+      <c r="CM1" s="189"/>
+      <c r="CN1" s="190"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10680,23 +10680,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="173" t="str">
+      <c r="CU1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="182"/>
-      <c r="CW1" s="182"/>
-      <c r="CX1" s="182"/>
-      <c r="CY1" s="182"/>
-      <c r="CZ1" s="182"/>
-      <c r="DA1" s="182"/>
-      <c r="DB1" s="182"/>
-      <c r="DC1" s="182"/>
-      <c r="DD1" s="182"/>
-      <c r="DE1" s="182"/>
-      <c r="DF1" s="182"/>
-      <c r="DG1" s="182"/>
-      <c r="DH1" s="183"/>
+      <c r="CV1" s="186"/>
+      <c r="CW1" s="186"/>
+      <c r="CX1" s="186"/>
+      <c r="CY1" s="186"/>
+      <c r="CZ1" s="186"/>
+      <c r="DA1" s="186"/>
+      <c r="DB1" s="186"/>
+      <c r="DC1" s="186"/>
+      <c r="DD1" s="186"/>
+      <c r="DE1" s="186"/>
+      <c r="DF1" s="186"/>
+      <c r="DG1" s="186"/>
+      <c r="DH1" s="187"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10751,39 +10751,39 @@
       <c r="AQ2" s="88"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="89"/>
-      <c r="AT2" s="188" t="str">
+      <c r="AT2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="AU2" s="189"/>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="189"/>
-      <c r="AY2" s="189"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="189"/>
-      <c r="BC2" s="189"/>
-      <c r="BD2" s="189"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="189"/>
-      <c r="BG2" s="189"/>
-      <c r="BH2" s="189"/>
-      <c r="BI2" s="189"/>
-      <c r="BJ2" s="189"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="189"/>
-      <c r="BM2" s="189"/>
-      <c r="BN2" s="189"/>
-      <c r="BO2" s="189"/>
-      <c r="BP2" s="189"/>
-      <c r="BQ2" s="189"/>
-      <c r="BR2" s="189"/>
-      <c r="BS2" s="189"/>
-      <c r="BT2" s="189"/>
-      <c r="BU2" s="189"/>
-      <c r="BV2" s="189"/>
-      <c r="BW2" s="190"/>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="193"/>
+      <c r="AW2" s="193"/>
+      <c r="AX2" s="193"/>
+      <c r="AY2" s="193"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="193"/>
+      <c r="BB2" s="193"/>
+      <c r="BC2" s="193"/>
+      <c r="BD2" s="193"/>
+      <c r="BE2" s="193"/>
+      <c r="BF2" s="193"/>
+      <c r="BG2" s="193"/>
+      <c r="BH2" s="193"/>
+      <c r="BI2" s="193"/>
+      <c r="BJ2" s="193"/>
+      <c r="BK2" s="193"/>
+      <c r="BL2" s="193"/>
+      <c r="BM2" s="193"/>
+      <c r="BN2" s="193"/>
+      <c r="BO2" s="193"/>
+      <c r="BP2" s="193"/>
+      <c r="BQ2" s="193"/>
+      <c r="BR2" s="193"/>
+      <c r="BS2" s="193"/>
+      <c r="BT2" s="193"/>
+      <c r="BU2" s="193"/>
+      <c r="BV2" s="193"/>
+      <c r="BW2" s="194"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10792,17 +10792,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="187"/>
-      <c r="CE2" s="182"/>
-      <c r="CF2" s="182"/>
-      <c r="CG2" s="182"/>
-      <c r="CH2" s="182"/>
-      <c r="CI2" s="182"/>
-      <c r="CJ2" s="182"/>
-      <c r="CK2" s="182"/>
-      <c r="CL2" s="182"/>
-      <c r="CM2" s="182"/>
-      <c r="CN2" s="183"/>
+      <c r="CD2" s="191"/>
+      <c r="CE2" s="186"/>
+      <c r="CF2" s="186"/>
+      <c r="CG2" s="186"/>
+      <c r="CH2" s="186"/>
+      <c r="CI2" s="186"/>
+      <c r="CJ2" s="186"/>
+      <c r="CK2" s="186"/>
+      <c r="CL2" s="186"/>
+      <c r="CM2" s="186"/>
+      <c r="CN2" s="187"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -10811,20 +10811,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="173"/>
-      <c r="CV2" s="182"/>
-      <c r="CW2" s="182"/>
-      <c r="CX2" s="182"/>
-      <c r="CY2" s="182"/>
-      <c r="CZ2" s="182"/>
-      <c r="DA2" s="182"/>
-      <c r="DB2" s="182"/>
-      <c r="DC2" s="182"/>
-      <c r="DD2" s="182"/>
-      <c r="DE2" s="182"/>
-      <c r="DF2" s="182"/>
-      <c r="DG2" s="182"/>
-      <c r="DH2" s="183"/>
+      <c r="CU2" s="181"/>
+      <c r="CV2" s="186"/>
+      <c r="CW2" s="186"/>
+      <c r="CX2" s="186"/>
+      <c r="CY2" s="186"/>
+      <c r="CZ2" s="186"/>
+      <c r="DA2" s="186"/>
+      <c r="DB2" s="186"/>
+      <c r="DC2" s="186"/>
+      <c r="DD2" s="186"/>
+      <c r="DE2" s="186"/>
+      <c r="DF2" s="186"/>
+      <c r="DG2" s="186"/>
+      <c r="DH2" s="187"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -11030,37 +11030,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="163" t="s">
+      <c r="F6" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="163" t="s">
+      <c r="H6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="191" t="s">
+      <c r="I6" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="191" t="s">
+      <c r="J6" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="163" t="s">
+      <c r="L6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -11068,24 +11068,24 @@
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="191" t="s">
+      <c r="Q6" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="P7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="191"/>
+      <c r="Q7" s="195"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -11257,37 +11257,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="163" t="s">
+      <c r="D13" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="163" t="s">
+      <c r="H13" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="192" t="s">
+      <c r="I13" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="191" t="s">
+      <c r="J13" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="163" t="s">
+      <c r="K13" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="163" t="s">
+      <c r="L13" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="163" t="s">
+      <c r="M13" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11295,24 +11295,24 @@
       </c>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="192" t="s">
+      <c r="Q13" s="196" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="P14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="193"/>
+      <c r="Q14" s="197"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -11385,7 +11385,7 @@
       <c r="E16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="197" t="s">
+      <c r="F16" s="130" t="s">
         <v>299</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -11434,7 +11434,7 @@
       <c r="E17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="197" t="s">
+      <c r="F17" s="130" t="s">
         <v>300</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -11793,37 +11793,37 @@
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="163" t="s">
+      <c r="D26" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="163" t="s">
+      <c r="E26" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="163" t="s">
+      <c r="F26" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="163" t="s">
+      <c r="G26" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="163" t="s">
+      <c r="H26" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="191" t="s">
+      <c r="I26" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="191" t="s">
+      <c r="J26" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="163" t="s">
+      <c r="K26" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="163" t="s">
+      <c r="L26" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="163" t="s">
+      <c r="M26" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -11831,24 +11831,24 @@
       </c>
       <c r="O26" s="63"/>
       <c r="P26" s="63"/>
-      <c r="Q26" s="191" t="s">
+      <c r="Q26" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="P27" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="191"/>
+      <c r="Q27" s="195"/>
     </row>
     <row r="28" spans="1:17" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -12496,7 +12496,7 @@
       <c r="J41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="196" t="s">
+      <c r="K41" s="129" t="s">
         <v>329</v>
       </c>
       <c r="L41" s="7" t="s">
@@ -12545,7 +12545,7 @@
       <c r="J42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="129" t="s">
         <v>329</v>
       </c>
       <c r="L42" s="7" t="s">
@@ -12568,43 +12568,43 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="127" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="195"/>
-      <c r="C45" s="163" t="s">
+      <c r="B45" s="128"/>
+      <c r="C45" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="163" t="s">
+      <c r="D45" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="163" t="s">
+      <c r="E45" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="163" t="s">
+      <c r="F45" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="163" t="s">
+      <c r="G45" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="163" t="s">
+      <c r="H45" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="191" t="s">
+      <c r="I45" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="191" t="s">
+      <c r="J45" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="163" t="s">
+      <c r="K45" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="163" t="s">
+      <c r="L45" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="163" t="s">
+      <c r="M45" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -12612,23 +12612,23 @@
       </c>
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
-      <c r="Q45" s="191" t="s">
+      <c r="Q45" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="195"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="191"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="163"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
       <c r="N46" s="126" t="s">
         <v>60</v>
       </c>
@@ -12638,7 +12638,7 @@
       <c r="P46" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="Q46" s="191"/>
+      <c r="Q46" s="195"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
@@ -13189,18 +13189,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -13213,30 +13225,18 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13312,14 +13312,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="170">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -13328,16 +13328,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="173" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="183"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -13365,32 +13365,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="188" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="183"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -13399,13 +13399,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -25141,14 +25141,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="170">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -25157,16 +25157,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="173" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="183"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -25194,32 +25194,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="188" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="183"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -25228,13 +25228,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -30458,14 +30458,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="170">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -30474,16 +30474,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="173" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="183"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -30511,32 +30511,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="188" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照画面</v>
       </c>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="183"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -30545,13 +30545,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -41759,6 +41759,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -41916,22 +41931,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41947,21 +41964,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C8442-510A-46B8-882E-340A4C4FB558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43F209-C2E5-4901-906A-56E79B5446B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2483,13 +2483,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>LIKE 画面.品名</t>
-    <rPh sb="8" eb="10">
-      <t>ヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>環境変数.事業所コード</t>
     <rPh sb="5" eb="8">
       <t>ジギョウショ</t>
@@ -2867,6 +2860,13 @@
       <t>ゲツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LIKE 画面.品名 + '%'</t>
+    <rPh sb="8" eb="10">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -3731,6 +3731,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3758,103 +3843,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3873,10 +3861,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5932,1770 +5932,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137" t="s">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="137" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="136" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136" t="s">
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136" t="s">
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136" t="s">
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="167"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="144">
+      <c r="B5" s="159">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="140">
         <v>43734</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="143" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="152" t="s">
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152"/>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="143" t="s">
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="152"/>
-      <c r="AN6" s="143"/>
-      <c r="AO6" s="143"/>
-      <c r="AP6" s="143"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="143"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="152"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="152"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158"/>
+      <c r="AC7" s="158"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="158"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="147"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="147"/>
+      <c r="AS7" s="147"/>
+      <c r="AT7" s="147"/>
+      <c r="AU7" s="147"/>
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="147"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="152"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="152"/>
-      <c r="AM8" s="152"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="158"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="147"/>
+      <c r="AT8" s="147"/>
+      <c r="AU8" s="147"/>
+      <c r="AV8" s="147"/>
+      <c r="AW8" s="147"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="143"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="143"/>
-      <c r="AW9" s="143"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="158"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="158"/>
+      <c r="AJ9" s="158"/>
+      <c r="AK9" s="158"/>
+      <c r="AL9" s="158"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="147"/>
+      <c r="AP9" s="147"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="143"/>
-      <c r="AO10" s="143"/>
-      <c r="AP10" s="143"/>
-      <c r="AQ10" s="143"/>
-      <c r="AR10" s="143"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="143"/>
-      <c r="AU10" s="143"/>
-      <c r="AV10" s="143"/>
-      <c r="AW10" s="143"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
+      <c r="AU10" s="147"/>
+      <c r="AV10" s="147"/>
+      <c r="AW10" s="147"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="147"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="161"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="162"/>
-      <c r="AT12" s="163"/>
-      <c r="AU12" s="163"/>
-      <c r="AV12" s="163"/>
-      <c r="AW12" s="164"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="135"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="135"/>
+      <c r="AU12" s="135"/>
+      <c r="AV12" s="135"/>
+      <c r="AW12" s="136"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="163"/>
-      <c r="AP13" s="163"/>
-      <c r="AQ13" s="163"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="164"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="135"/>
+      <c r="AV13" s="135"/>
+      <c r="AW13" s="136"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="143"/>
-      <c r="AO14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="143"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="163"/>
-      <c r="AU14" s="163"/>
-      <c r="AV14" s="163"/>
-      <c r="AW14" s="164"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="158"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="158"/>
+      <c r="AD14" s="158"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="158"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="158"/>
+      <c r="AL14" s="158"/>
+      <c r="AM14" s="158"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="136"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="163"/>
-      <c r="AQ15" s="163"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="163"/>
-      <c r="AU15" s="163"/>
-      <c r="AV15" s="163"/>
-      <c r="AW15" s="164"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="135"/>
+      <c r="AV15" s="135"/>
+      <c r="AW15" s="136"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="163"/>
-      <c r="AP16" s="163"/>
-      <c r="AQ16" s="163"/>
-      <c r="AR16" s="164"/>
-      <c r="AS16" s="162"/>
-      <c r="AT16" s="163"/>
-      <c r="AU16" s="163"/>
-      <c r="AV16" s="163"/>
-      <c r="AW16" s="164"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="135"/>
+      <c r="AP16" s="135"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="135"/>
+      <c r="AU16" s="135"/>
+      <c r="AV16" s="135"/>
+      <c r="AW16" s="136"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="163"/>
-      <c r="AP17" s="163"/>
-      <c r="AQ17" s="163"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="162"/>
-      <c r="AT17" s="163"/>
-      <c r="AU17" s="163"/>
-      <c r="AV17" s="163"/>
-      <c r="AW17" s="164"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="135"/>
+      <c r="AV17" s="135"/>
+      <c r="AW17" s="136"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="160"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="160"/>
-      <c r="AL18" s="160"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="164"/>
-      <c r="AS18" s="162"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="164"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="150"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="135"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="135"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="135"/>
+      <c r="AU18" s="135"/>
+      <c r="AV18" s="135"/>
+      <c r="AW18" s="136"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="161"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="162"/>
-      <c r="AT19" s="163"/>
-      <c r="AU19" s="163"/>
-      <c r="AV19" s="163"/>
-      <c r="AW19" s="164"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="147"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="134"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="136"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="163"/>
-      <c r="AP20" s="163"/>
-      <c r="AQ20" s="163"/>
-      <c r="AR20" s="164"/>
-      <c r="AS20" s="162"/>
-      <c r="AT20" s="163"/>
-      <c r="AU20" s="163"/>
-      <c r="AV20" s="163"/>
-      <c r="AW20" s="164"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="135"/>
+      <c r="AP20" s="135"/>
+      <c r="AQ20" s="135"/>
+      <c r="AR20" s="136"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="135"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="135"/>
+      <c r="AW20" s="136"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="163"/>
-      <c r="AP21" s="163"/>
-      <c r="AQ21" s="163"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="163"/>
-      <c r="AU21" s="163"/>
-      <c r="AV21" s="163"/>
-      <c r="AW21" s="164"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="135"/>
+      <c r="AP21" s="135"/>
+      <c r="AQ21" s="135"/>
+      <c r="AR21" s="136"/>
+      <c r="AS21" s="134"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="136"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="160"/>
-      <c r="AL22" s="160"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="162"/>
-      <c r="AT22" s="163"/>
-      <c r="AU22" s="163"/>
-      <c r="AV22" s="163"/>
-      <c r="AW22" s="164"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="135"/>
+      <c r="AP22" s="135"/>
+      <c r="AQ22" s="135"/>
+      <c r="AR22" s="136"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="135"/>
+      <c r="AU22" s="135"/>
+      <c r="AV22" s="135"/>
+      <c r="AW22" s="136"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="161"/>
-      <c r="AN23" s="162"/>
-      <c r="AO23" s="163"/>
-      <c r="AP23" s="163"/>
-      <c r="AQ23" s="163"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="162"/>
-      <c r="AT23" s="163"/>
-      <c r="AU23" s="163"/>
-      <c r="AV23" s="163"/>
-      <c r="AW23" s="164"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="136"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="160"/>
-      <c r="AK24" s="160"/>
-      <c r="AL24" s="160"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="162"/>
-      <c r="AO24" s="163"/>
-      <c r="AP24" s="163"/>
-      <c r="AQ24" s="163"/>
-      <c r="AR24" s="164"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="163"/>
-      <c r="AU24" s="163"/>
-      <c r="AV24" s="163"/>
-      <c r="AW24" s="164"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="135"/>
+      <c r="AP24" s="135"/>
+      <c r="AQ24" s="135"/>
+      <c r="AR24" s="136"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="135"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="136"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="160"/>
-      <c r="AL25" s="160"/>
-      <c r="AM25" s="161"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="163"/>
-      <c r="AP25" s="163"/>
-      <c r="AQ25" s="163"/>
-      <c r="AR25" s="164"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="163"/>
-      <c r="AU25" s="163"/>
-      <c r="AV25" s="163"/>
-      <c r="AW25" s="164"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="135"/>
+      <c r="AP25" s="135"/>
+      <c r="AQ25" s="135"/>
+      <c r="AR25" s="136"/>
+      <c r="AS25" s="134"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="136"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="161"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="163"/>
-      <c r="AP26" s="163"/>
-      <c r="AQ26" s="163"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="163"/>
-      <c r="AU26" s="163"/>
-      <c r="AV26" s="163"/>
-      <c r="AW26" s="164"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="135"/>
+      <c r="AP26" s="135"/>
+      <c r="AQ26" s="135"/>
+      <c r="AR26" s="136"/>
+      <c r="AS26" s="134"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="136"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="160"/>
-      <c r="AL27" s="160"/>
-      <c r="AM27" s="161"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="163"/>
-      <c r="AP27" s="163"/>
-      <c r="AQ27" s="163"/>
-      <c r="AR27" s="164"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="163"/>
-      <c r="AU27" s="163"/>
-      <c r="AV27" s="163"/>
-      <c r="AW27" s="164"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="135"/>
+      <c r="AP27" s="135"/>
+      <c r="AQ27" s="135"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
+      <c r="AU27" s="135"/>
+      <c r="AV27" s="135"/>
+      <c r="AW27" s="136"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="163"/>
-      <c r="AP28" s="163"/>
-      <c r="AQ28" s="163"/>
-      <c r="AR28" s="164"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="163"/>
-      <c r="AU28" s="163"/>
-      <c r="AV28" s="163"/>
-      <c r="AW28" s="164"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="134"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="136"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="160"/>
-      <c r="AI29" s="160"/>
-      <c r="AJ29" s="160"/>
-      <c r="AK29" s="160"/>
-      <c r="AL29" s="160"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="163"/>
-      <c r="AP29" s="163"/>
-      <c r="AQ29" s="163"/>
-      <c r="AR29" s="164"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="163"/>
-      <c r="AU29" s="163"/>
-      <c r="AV29" s="163"/>
-      <c r="AW29" s="164"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="135"/>
+      <c r="AP29" s="135"/>
+      <c r="AQ29" s="135"/>
+      <c r="AR29" s="136"/>
+      <c r="AS29" s="134"/>
+      <c r="AT29" s="135"/>
+      <c r="AU29" s="135"/>
+      <c r="AV29" s="135"/>
+      <c r="AW29" s="136"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="160"/>
-      <c r="AJ30" s="160"/>
-      <c r="AK30" s="160"/>
-      <c r="AL30" s="160"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="164"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163"/>
-      <c r="AW30" s="164"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="135"/>
+      <c r="AP30" s="135"/>
+      <c r="AQ30" s="135"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="134"/>
+      <c r="AT30" s="135"/>
+      <c r="AU30" s="135"/>
+      <c r="AV30" s="135"/>
+      <c r="AW30" s="136"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="160"/>
-      <c r="AI31" s="160"/>
-      <c r="AJ31" s="160"/>
-      <c r="AK31" s="160"/>
-      <c r="AL31" s="160"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="163"/>
-      <c r="AP31" s="163"/>
-      <c r="AQ31" s="163"/>
-      <c r="AR31" s="164"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="163"/>
-      <c r="AU31" s="163"/>
-      <c r="AV31" s="163"/>
-      <c r="AW31" s="164"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="135"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="135"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="135"/>
+      <c r="AU31" s="135"/>
+      <c r="AV31" s="135"/>
+      <c r="AW31" s="136"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="163"/>
-      <c r="AP32" s="163"/>
-      <c r="AQ32" s="163"/>
-      <c r="AR32" s="164"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="163"/>
-      <c r="AU32" s="163"/>
-      <c r="AV32" s="163"/>
-      <c r="AW32" s="164"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="135"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="135"/>
+      <c r="AU32" s="135"/>
+      <c r="AV32" s="135"/>
+      <c r="AW32" s="136"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="160"/>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
-      <c r="AK33" s="160"/>
-      <c r="AL33" s="160"/>
-      <c r="AM33" s="161"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="164"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="163"/>
-      <c r="AU33" s="163"/>
-      <c r="AV33" s="163"/>
-      <c r="AW33" s="164"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="134"/>
+      <c r="AO33" s="135"/>
+      <c r="AP33" s="135"/>
+      <c r="AQ33" s="135"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="134"/>
+      <c r="AT33" s="135"/>
+      <c r="AU33" s="135"/>
+      <c r="AV33" s="135"/>
+      <c r="AW33" s="136"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="160"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="160"/>
-      <c r="Z34" s="160"/>
-      <c r="AA34" s="160"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="160"/>
-      <c r="AI34" s="160"/>
-      <c r="AJ34" s="160"/>
-      <c r="AK34" s="160"/>
-      <c r="AL34" s="160"/>
-      <c r="AM34" s="161"/>
-      <c r="AN34" s="162"/>
-      <c r="AO34" s="163"/>
-      <c r="AP34" s="163"/>
-      <c r="AQ34" s="163"/>
-      <c r="AR34" s="164"/>
-      <c r="AS34" s="162"/>
-      <c r="AT34" s="163"/>
-      <c r="AU34" s="163"/>
-      <c r="AV34" s="163"/>
-      <c r="AW34" s="164"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="149"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="135"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="135"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="134"/>
+      <c r="AT34" s="135"/>
+      <c r="AU34" s="135"/>
+      <c r="AV34" s="135"/>
+      <c r="AW34" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7712,239 +7945,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8104,11 +8104,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="180"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="176"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -8117,14 +8117,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="182"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="182"/>
-      <c r="BF2" s="182"/>
-      <c r="BG2" s="183"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="179"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -9708,10 +9708,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="184" t="s">
+      <c r="B45" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="185"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -9794,10 +9794,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="174">
+      <c r="B46" s="184">
         <v>1</v>
       </c>
-      <c r="C46" s="175"/>
+      <c r="C46" s="185"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -9829,16 +9829,16 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="176" t="s">
+      <c r="AE46" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF46" s="177"/>
-      <c r="AG46" s="176"/>
-      <c r="AH46" s="177"/>
+      <c r="AF46" s="181"/>
+      <c r="AG46" s="180"/>
+      <c r="AH46" s="181"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="176"/>
-      <c r="AL46" s="177"/>
+      <c r="AK46" s="180"/>
+      <c r="AL46" s="181"/>
       <c r="AM46" s="76" t="s">
         <v>226</v>
       </c>
@@ -9872,10 +9872,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="174">
+      <c r="B47" s="184">
         <v>2</v>
       </c>
-      <c r="C47" s="175"/>
+      <c r="C47" s="185"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -9907,16 +9907,16 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="176" t="s">
+      <c r="AE47" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF47" s="177"/>
-      <c r="AG47" s="176"/>
-      <c r="AH47" s="177"/>
+      <c r="AF47" s="181"/>
+      <c r="AG47" s="180"/>
+      <c r="AH47" s="181"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="176"/>
-      <c r="AL47" s="177"/>
+      <c r="AK47" s="180"/>
+      <c r="AL47" s="181"/>
       <c r="AM47" s="76" t="s">
         <v>229</v>
       </c>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="174">
+      <c r="B48" s="184">
         <v>3</v>
       </c>
-      <c r="C48" s="175"/>
+      <c r="C48" s="185"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -9985,16 +9985,16 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="176" t="s">
+      <c r="AE48" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF48" s="177"/>
-      <c r="AG48" s="176"/>
-      <c r="AH48" s="177"/>
+      <c r="AF48" s="181"/>
+      <c r="AG48" s="180"/>
+      <c r="AH48" s="181"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="176"/>
-      <c r="AL48" s="177"/>
+      <c r="AK48" s="180"/>
+      <c r="AL48" s="181"/>
       <c r="AM48" s="76" t="s">
         <v>225</v>
       </c>
@@ -10028,10 +10028,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="174">
+      <c r="B49" s="184">
         <v>4</v>
       </c>
-      <c r="C49" s="175"/>
+      <c r="C49" s="185"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -10063,16 +10063,16 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="176" t="s">
+      <c r="AE49" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF49" s="177"/>
-      <c r="AG49" s="176"/>
-      <c r="AH49" s="177"/>
+      <c r="AF49" s="181"/>
+      <c r="AG49" s="180"/>
+      <c r="AH49" s="181"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="176"/>
-      <c r="AL49" s="177"/>
+      <c r="AK49" s="180"/>
+      <c r="AL49" s="181"/>
       <c r="AM49" s="76" t="s">
         <v>227</v>
       </c>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="174">
+      <c r="B50" s="184">
         <v>5</v>
       </c>
-      <c r="C50" s="175"/>
+      <c r="C50" s="185"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -10141,16 +10141,16 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="176" t="s">
+      <c r="AE50" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF50" s="177"/>
-      <c r="AG50" s="176"/>
-      <c r="AH50" s="177"/>
+      <c r="AF50" s="181"/>
+      <c r="AG50" s="180"/>
+      <c r="AH50" s="181"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="176"/>
-      <c r="AL50" s="177"/>
+      <c r="AK50" s="180"/>
+      <c r="AL50" s="181"/>
       <c r="AM50" s="76" t="s">
         <v>228</v>
       </c>
@@ -10184,10 +10184,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="174">
+      <c r="B51" s="184">
         <v>6</v>
       </c>
-      <c r="C51" s="175"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="119" t="s">
         <v>198</v>
       </c>
@@ -10219,16 +10219,16 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="176" t="s">
+      <c r="AE51" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF51" s="177"/>
-      <c r="AG51" s="176"/>
-      <c r="AH51" s="177"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="180"/>
+      <c r="AH51" s="181"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="176"/>
-      <c r="AL51" s="177"/>
+      <c r="AK51" s="180"/>
+      <c r="AL51" s="181"/>
       <c r="AM51" s="76" t="s">
         <v>231</v>
       </c>
@@ -10262,10 +10262,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="174">
+      <c r="B52" s="184">
         <v>7</v>
       </c>
-      <c r="C52" s="175"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="119" t="s">
         <v>198</v>
       </c>
@@ -10297,16 +10297,16 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="176" t="s">
+      <c r="AE52" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF52" s="177"/>
-      <c r="AG52" s="176"/>
-      <c r="AH52" s="177"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="180"/>
+      <c r="AH52" s="181"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="176"/>
-      <c r="AL52" s="177"/>
+      <c r="AK52" s="180"/>
+      <c r="AL52" s="181"/>
       <c r="AM52" s="76" t="s">
         <v>231</v>
       </c>
@@ -10340,10 +10340,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="174">
+      <c r="B53" s="184">
         <v>8</v>
       </c>
-      <c r="C53" s="175"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="119" t="s">
         <v>198</v>
       </c>
@@ -10375,16 +10375,16 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="176" t="s">
+      <c r="AE53" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF53" s="177"/>
-      <c r="AG53" s="176"/>
-      <c r="AH53" s="177"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="180"/>
+      <c r="AH53" s="181"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="176"/>
-      <c r="AL53" s="177"/>
+      <c r="AK53" s="180"/>
+      <c r="AL53" s="181"/>
       <c r="AM53" s="76" t="s">
         <v>231</v>
       </c>
@@ -10418,10 +10418,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="174">
+      <c r="B54" s="184">
         <v>9</v>
       </c>
-      <c r="C54" s="175"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="119" t="s">
         <v>198</v>
       </c>
@@ -10453,16 +10453,16 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="176" t="s">
+      <c r="AE54" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="AF54" s="177"/>
-      <c r="AG54" s="176"/>
-      <c r="AH54" s="177"/>
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="180"/>
+      <c r="AH54" s="181"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="176"/>
-      <c r="AL54" s="177"/>
+      <c r="AK54" s="180"/>
+      <c r="AL54" s="181"/>
       <c r="AM54" s="76" t="s">
         <v>230</v>
       </c>
@@ -10496,13 +10496,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10519,22 +10528,13 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10680,7 +10680,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="181" t="str">
+      <c r="CU1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -10811,7 +10811,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="181"/>
+      <c r="CU2" s="177"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -11030,22 +11030,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="167" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="195" t="s">
@@ -11054,13 +11054,13 @@
       <c r="J6" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -11075,17 +11075,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
       <c r="I7" s="195"/>
       <c r="J7" s="195"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -11257,22 +11257,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="136" t="s">
+      <c r="F13" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="167" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="196" t="s">
@@ -11281,13 +11281,13 @@
       <c r="J13" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="136" t="s">
+      <c r="K13" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="136" t="s">
+      <c r="L13" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="136" t="s">
+      <c r="M13" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11302,17 +11302,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="197"/>
       <c r="J14" s="195"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -11468,7 +11468,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -11631,7 +11631,7 @@
         <v>134</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -11759,7 +11759,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -11787,28 +11787,28 @@
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="136" t="s">
+      <c r="F26" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="136" t="s">
+      <c r="G26" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="136" t="s">
+      <c r="H26" s="167" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="195" t="s">
@@ -11817,13 +11817,13 @@
       <c r="J26" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="136" t="s">
+      <c r="L26" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="136" t="s">
+      <c r="M26" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -11838,17 +11838,17 @@
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
       <c r="I27" s="195"/>
       <c r="J27" s="195"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -12466,7 +12466,7 @@
         <v>281</v>
       </c>
       <c r="Q40" s="125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12569,27 +12569,27 @@
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="127" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="128"/>
-      <c r="C45" s="136" t="s">
+      <c r="C45" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="136" t="s">
+      <c r="D45" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="136" t="s">
+      <c r="E45" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="136" t="s">
+      <c r="F45" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="136" t="s">
+      <c r="G45" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="167" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="195" t="s">
@@ -12598,13 +12598,13 @@
       <c r="J45" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="136" t="s">
+      <c r="K45" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="136" t="s">
+      <c r="L45" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="136" t="s">
+      <c r="M45" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -12618,17 +12618,17 @@
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="128"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="195"/>
       <c r="J46" s="195"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
+      <c r="K46" s="167"/>
+      <c r="L46" s="167"/>
+      <c r="M46" s="167"/>
       <c r="N46" s="126" t="s">
         <v>60</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>137</v>
@@ -12696,7 +12696,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>139</v>
@@ -12745,7 +12745,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>95</v>
@@ -12769,13 +12769,13 @@
         <v>35</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>35</v>
@@ -12794,7 +12794,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>144</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>35</v>
@@ -12843,7 +12843,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>145</v>
@@ -12873,7 +12873,7 @@
         <v>35</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>35</v>
@@ -12892,7 +12892,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>146</v>
@@ -12922,7 +12922,7 @@
         <v>35</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>35</v>
@@ -12941,7 +12941,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>147</v>
@@ -12971,7 +12971,7 @@
         <v>35</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>35</v>
@@ -12990,7 +12990,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>148</v>
@@ -13020,7 +13020,7 @@
         <v>35</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>35</v>
@@ -13039,7 +13039,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>149</v>
@@ -13069,7 +13069,7 @@
         <v>35</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>35</v>
@@ -13088,7 +13088,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>150</v>
@@ -13127,7 +13127,7 @@
         <v>35</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13137,7 +13137,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>151</v>
@@ -13176,43 +13176,31 @@
         <v>35</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C58" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -13225,18 +13213,30 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13312,7 +13312,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -13328,7 +13328,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -13399,7 +13399,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -14098,7 +14098,7 @@
       <c r="G22" s="66"/>
       <c r="L22" s="66"/>
       <c r="N22" s="114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O22" s="114"/>
       <c r="P22" s="114"/>
@@ -14336,7 +14336,7 @@
         <v>115</v>
       </c>
       <c r="Z28" s="114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA28" s="114"/>
       <c r="AB28" s="114"/>
@@ -14761,7 +14761,7 @@
       <c r="G43" s="66"/>
       <c r="L43" s="117"/>
       <c r="N43" s="114" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O43" s="114"/>
       <c r="P43" s="114"/>
@@ -14921,7 +14921,7 @@
       <c r="G47" s="66"/>
       <c r="L47" s="117"/>
       <c r="N47" s="114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O47" s="114"/>
       <c r="P47" s="114"/>
@@ -14962,7 +14962,7 @@
       <c r="L48" s="117"/>
       <c r="M48" s="124"/>
       <c r="N48" s="114" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O48" s="114"/>
       <c r="P48" s="114"/>
@@ -15003,7 +15003,7 @@
       <c r="L49" s="117"/>
       <c r="M49" s="124"/>
       <c r="N49" s="114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O49" s="114"/>
       <c r="P49" s="114"/>
@@ -15044,7 +15044,7 @@
       <c r="L50" s="117"/>
       <c r="M50" s="124"/>
       <c r="N50" s="114" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O50" s="114"/>
       <c r="P50" s="114"/>
@@ -15085,7 +15085,7 @@
       <c r="L51" s="117"/>
       <c r="M51" s="124"/>
       <c r="N51" s="114" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O51" s="114"/>
       <c r="P51" s="114"/>
@@ -15167,7 +15167,7 @@
       <c r="L53" s="117"/>
       <c r="M53" s="124"/>
       <c r="N53" s="114" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O53" s="114"/>
       <c r="P53" s="114"/>
@@ -15208,7 +15208,7 @@
       <c r="L54" s="117"/>
       <c r="M54" s="124"/>
       <c r="N54" s="114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O54" s="114"/>
       <c r="P54" s="114"/>
@@ -15844,7 +15844,7 @@
       <c r="G69" s="66"/>
       <c r="L69" s="117"/>
       <c r="N69" s="114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O69" s="114"/>
       <c r="P69" s="114"/>
@@ -15900,7 +15900,7 @@
         <v>115</v>
       </c>
       <c r="Z70" s="114" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA70" s="114"/>
       <c r="AB70" s="114"/>
@@ -15944,7 +15944,7 @@
         <v>115</v>
       </c>
       <c r="Z71" s="114" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA71" s="114"/>
       <c r="AB71" s="114"/>
@@ -15988,7 +15988,7 @@
         <v>115</v>
       </c>
       <c r="Z72" s="114" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA72" s="114"/>
       <c r="AB72" s="114"/>
@@ -16032,7 +16032,7 @@
         <v>115</v>
       </c>
       <c r="Z73" s="114" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA73" s="114"/>
       <c r="AB73" s="114"/>
@@ -16076,7 +16076,7 @@
         <v>115</v>
       </c>
       <c r="Z74" s="114" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA74" s="114"/>
       <c r="AB74" s="114"/>
@@ -16969,7 +16969,7 @@
         <v>115</v>
       </c>
       <c r="Z95" s="114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA95" s="114"/>
       <c r="AB95" s="114"/>
@@ -17277,7 +17277,7 @@
       <c r="G103" s="66"/>
       <c r="L103" s="117"/>
       <c r="N103" s="114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O103" s="114"/>
       <c r="P103" s="114"/>
@@ -17292,7 +17292,7 @@
         <v>355</v>
       </c>
       <c r="Y103" s="114" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="AA103" s="114"/>
       <c r="AB103" s="114"/>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="L119" s="66"/>
       <c r="M119" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AV119" s="67"/>
     </row>
@@ -17864,7 +17864,7 @@
       <c r="G120" s="66"/>
       <c r="L120" s="66"/>
       <c r="M120" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV120" s="67"/>
     </row>
@@ -25141,7 +25141,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -25157,7 +25157,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -25228,7 +25228,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -30458,7 +30458,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -30474,7 +30474,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -30545,7 +30545,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -41759,21 +41759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -41931,24 +41916,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41964,4 +41947,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>